--- a/tests.xlsx
+++ b/tests.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aditya_Intern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aditya_Intern\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="tests" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="ht paths" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="99">
   <si>
     <t>Battery Front</t>
   </si>
@@ -256,6 +257,72 @@
   </si>
   <si>
     <t>228.15 K</t>
+  </si>
+  <si>
+    <t>Battery Front Top</t>
+  </si>
+  <si>
+    <t>Battery Front Bottom</t>
+  </si>
+  <si>
+    <t>Battery Middle Top</t>
+  </si>
+  <si>
+    <t>Battery Middle Bottom</t>
+  </si>
+  <si>
+    <t>Battery Rear Top</t>
+  </si>
+  <si>
+    <t>Battery Rear Bottom</t>
+  </si>
+  <si>
+    <t>Bulkhead 1</t>
+  </si>
+  <si>
+    <t>Bulkhead 2</t>
+  </si>
+  <si>
+    <t>Bulkhead 3</t>
+  </si>
+  <si>
+    <t>Bulkhead 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC </t>
+  </si>
+  <si>
+    <t>Top Shell Int</t>
+  </si>
+  <si>
+    <t>Top Shell Ext</t>
+  </si>
+  <si>
+    <t>Bottom Shell Int</t>
+  </si>
+  <si>
+    <t>Bottom Shell Ext</t>
+  </si>
+  <si>
+    <t>Internal Air</t>
+  </si>
+  <si>
+    <t>cond -ve</t>
+  </si>
+  <si>
+    <t>rad -ve</t>
+  </si>
+  <si>
+    <t>cond +ve</t>
+  </si>
+  <si>
+    <t>rad +ve</t>
+  </si>
+  <si>
+    <t>conv -ve</t>
+  </si>
+  <si>
+    <t>conv +ve</t>
   </si>
 </sst>
 </file>
@@ -402,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -415,49 +482,19 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,8 +516,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
@@ -790,12 +877,12 @@
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1"/>
@@ -814,28 +901,28 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="16" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
@@ -851,7 +938,7 @@
       <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
@@ -864,42 +951,42 @@
       <c r="N5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="10"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="22">
         <v>0.05</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22">
         <v>0.75</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="11">
+      <c r="I6" s="22"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="22">
         <v>0.05</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11">
+      <c r="L6" s="22"/>
+      <c r="M6" s="22">
         <v>0.75</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="E7" s="3" t="s">
         <v>0</v>
       </c>
@@ -917,7 +1004,7 @@
         <f>H7-273.15</f>
         <v>84.37</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="3">
         <v>581.79999999999995</v>
       </c>
@@ -932,13 +1019,13 @@
         <f>M7-273.15</f>
         <v>274.27999999999997</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
@@ -956,7 +1043,7 @@
         <f t="shared" ref="I8:I15" si="1">H8-273.15</f>
         <v>59.54000000000002</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="3">
         <v>555.4</v>
       </c>
@@ -971,13 +1058,13 @@
         <f t="shared" ref="N8:N15" si="3">M8-273.15</f>
         <v>253.71000000000004</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
@@ -995,7 +1082,7 @@
         <f t="shared" si="1"/>
         <v>58.100000000000023</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="3">
         <v>551.5</v>
       </c>
@@ -1010,13 +1097,13 @@
         <f t="shared" si="3"/>
         <v>251.76</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,7 +1121,7 @@
         <f t="shared" si="1"/>
         <v>114.84000000000003</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="3">
         <v>607.27</v>
       </c>
@@ -1049,13 +1136,13 @@
         <f t="shared" si="3"/>
         <v>301.55000000000007</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1073,7 +1160,7 @@
         <f t="shared" si="1"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="3">
         <v>490.39</v>
       </c>
@@ -1088,8 +1175,8 @@
         <f t="shared" si="3"/>
         <v>219.11</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
@@ -1109,7 +1196,7 @@
         <f t="shared" si="1"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J12" s="18"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="3">
         <v>341.44</v>
       </c>
@@ -1124,8 +1211,8 @@
         <f t="shared" si="3"/>
         <v>68.660000000000025</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
@@ -1145,7 +1232,7 @@
         <f t="shared" si="1"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="3">
         <v>490.39</v>
       </c>
@@ -1160,44 +1247,44 @@
         <f t="shared" si="3"/>
         <v>219.11</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="11">
         <v>302.23</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>29.080000000000041</v>
       </c>
       <c r="H14" s="3">
         <v>303.49</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="12">
         <f t="shared" si="1"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="3">
         <v>341.44</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="12">
         <f t="shared" si="2"/>
         <v>68.29000000000002</v>
       </c>
       <c r="M14" s="3">
         <v>341.81</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="12">
         <f t="shared" si="3"/>
         <v>68.660000000000025</v>
       </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="s">
@@ -1217,7 +1304,7 @@
         <f t="shared" si="1"/>
         <v>63.53000000000003</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="26"/>
       <c r="K15" s="3">
         <v>538.29999999999995</v>
       </c>
@@ -1232,16 +1319,16 @@
         <f t="shared" si="3"/>
         <v>246.76</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="1"/>
@@ -1260,28 +1347,28 @@
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +1384,7 @@
       <c r="I21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="18"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1310,42 +1397,42 @@
       <c r="N21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="10"/>
+      <c r="P21" s="28"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="22">
         <v>1E-3</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22">
         <v>400</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="11">
+      <c r="I22" s="22"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="22">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11">
+      <c r="L22" s="22"/>
+      <c r="M22" s="22">
         <v>400</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="30"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1450,7 @@
         <f>H23-273.15</f>
         <v>81.600000000000023</v>
       </c>
-      <c r="J23" s="18"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="3">
         <v>1769.3</v>
       </c>
@@ -1378,13 +1465,13 @@
         <f>M23-273.15</f>
         <v>165.8</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="E24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1402,7 +1489,7 @@
         <f t="shared" ref="I24:I31" si="5">H24-273.15</f>
         <v>57.200000000000045</v>
       </c>
-      <c r="J24" s="18"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="3">
         <v>1768.5</v>
       </c>
@@ -1417,13 +1504,13 @@
         <f t="shared" ref="N24:N31" si="7">M24-273.15</f>
         <v>139.56</v>
       </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1441,7 +1528,7 @@
         <f t="shared" si="5"/>
         <v>55.680000000000007</v>
       </c>
-      <c r="J25" s="18"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="3">
         <v>1768.49</v>
       </c>
@@ -1456,13 +1543,13 @@
         <f t="shared" si="7"/>
         <v>135.60000000000002</v>
       </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="13"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1567,7 @@
         <f t="shared" si="5"/>
         <v>111.89000000000004</v>
       </c>
-      <c r="J26" s="18"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="3">
         <v>1775.99</v>
       </c>
@@ -1495,13 +1582,13 @@
         <f t="shared" si="7"/>
         <v>194.07000000000005</v>
       </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +1606,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J27" s="18"/>
+      <c r="J27" s="26"/>
       <c r="K27" s="3">
         <v>1767.67</v>
       </c>
@@ -1534,8 +1621,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="13"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
@@ -1555,7 +1642,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J28" s="18"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="3">
         <v>339.87</v>
       </c>
@@ -1570,8 +1657,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O28" s="12"/>
-      <c r="P28" s="13"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="s">
@@ -1591,7 +1678,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="3">
         <v>1767.67</v>
       </c>
@@ -1606,8 +1693,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="13"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="s">
@@ -1627,7 +1714,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J30" s="18"/>
+      <c r="J30" s="26"/>
       <c r="K30" s="3">
         <v>339.87</v>
       </c>
@@ -1642,8 +1729,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O30" s="12"/>
-      <c r="P30" s="13"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="s">
@@ -1663,7 +1750,7 @@
         <f t="shared" si="5"/>
         <v>56.94</v>
       </c>
-      <c r="J31" s="18"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="3">
         <v>1768.44</v>
       </c>
@@ -1678,16 +1765,16 @@
         <f t="shared" si="7"/>
         <v>121.38</v>
       </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="13"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="30"/>
     </row>
     <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="1"/>
@@ -1706,28 +1793,28 @@
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="16" t="s">
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
       <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
@@ -1743,7 +1830,7 @@
       <c r="I37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="18"/>
+      <c r="J37" s="26"/>
       <c r="K37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1756,42 +1843,42 @@
       <c r="N37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="O37" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P37" s="10"/>
+      <c r="P37" s="28"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="E38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="22">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11">
+      <c r="G38" s="22"/>
+      <c r="H38" s="22">
         <v>0.05</v>
       </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="11">
+      <c r="I38" s="22"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="22">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11">
+      <c r="L38" s="22"/>
+      <c r="M38" s="22">
         <v>0.05</v>
       </c>
-      <c r="N38" s="11"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="13"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="30"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
       <c r="E39" s="3" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1896,7 @@
         <f>H39-273.15</f>
         <v>87.62</v>
       </c>
-      <c r="J39" s="18"/>
+      <c r="J39" s="26"/>
       <c r="K39" s="3">
         <v>547.42999999999995</v>
       </c>
@@ -1824,13 +1911,13 @@
         <f>M39-273.15</f>
         <v>14114.06</v>
       </c>
-      <c r="O39" s="12"/>
-      <c r="P39" s="13"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="30"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="E40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1848,7 +1935,7 @@
         <f t="shared" ref="I40:I47" si="9">H40-273.15</f>
         <v>62.270000000000039</v>
       </c>
-      <c r="J40" s="18"/>
+      <c r="J40" s="26"/>
       <c r="K40" s="3">
         <v>526.86</v>
       </c>
@@ -1863,13 +1950,13 @@
         <f t="shared" ref="N40:N47" si="11">M40-273.15</f>
         <v>14114.06</v>
       </c>
-      <c r="O40" s="12"/>
-      <c r="P40" s="13"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="30"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
       <c r="E41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1887,7 +1974,7 @@
         <f t="shared" si="9"/>
         <v>60.900000000000034</v>
       </c>
-      <c r="J41" s="18"/>
+      <c r="J41" s="26"/>
       <c r="K41" s="3">
         <v>524.91</v>
       </c>
@@ -1902,13 +1989,13 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O41" s="12"/>
-      <c r="P41" s="13"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="30"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +2013,7 @@
         <f t="shared" si="9"/>
         <v>118.28000000000003</v>
       </c>
-      <c r="J42" s="18"/>
+      <c r="J42" s="26"/>
       <c r="K42" s="3">
         <v>574.70000000000005</v>
       </c>
@@ -1941,13 +2028,13 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O42" s="12"/>
-      <c r="P42" s="13"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="30"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1965,7 +2052,7 @@
         <f t="shared" si="9"/>
         <v>67.730000000000018</v>
       </c>
-      <c r="J43" s="18"/>
+      <c r="J43" s="26"/>
       <c r="K43" s="3">
         <v>492.26</v>
       </c>
@@ -1980,8 +2067,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O43" s="12"/>
-      <c r="P43" s="13"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="30"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E44" s="3" t="s">
@@ -2001,7 +2088,7 @@
         <f t="shared" si="9"/>
         <v>20.580000000000041</v>
       </c>
-      <c r="J44" s="18"/>
+      <c r="J44" s="26"/>
       <c r="K44" s="3">
         <v>341.81</v>
       </c>
@@ -2016,8 +2103,8 @@
         <f t="shared" si="11"/>
         <v>66.13</v>
       </c>
-      <c r="O44" s="12"/>
-      <c r="P44" s="13"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="30"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E45" s="3" t="s">
@@ -2037,7 +2124,7 @@
         <f t="shared" si="9"/>
         <v>67.730000000000018</v>
       </c>
-      <c r="J45" s="18"/>
+      <c r="J45" s="26"/>
       <c r="K45" s="3">
         <v>492.26</v>
       </c>
@@ -2052,8 +2139,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O45" s="12"/>
-      <c r="P45" s="13"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="30"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E46" s="3" t="s">
@@ -2073,7 +2160,7 @@
         <f t="shared" si="9"/>
         <v>20.580000000000041</v>
       </c>
-      <c r="J46" s="18"/>
+      <c r="J46" s="26"/>
       <c r="K46" s="3">
         <v>341.81</v>
       </c>
@@ -2088,8 +2175,8 @@
         <f t="shared" si="11"/>
         <v>66.13</v>
       </c>
-      <c r="O46" s="12"/>
-      <c r="P46" s="13"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="30"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E47" s="3" t="s">
@@ -2109,7 +2196,7 @@
         <f t="shared" si="9"/>
         <v>70.87</v>
       </c>
-      <c r="J47" s="18"/>
+      <c r="J47" s="26"/>
       <c r="K47" s="3">
         <v>519.91</v>
       </c>
@@ -2124,8 +2211,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O47" s="12"/>
-      <c r="P47" s="13"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="30"/>
     </row>
     <row r="50" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E50" s="6" t="s">
@@ -2133,12 +2220,12 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F52" s="1"/>
@@ -2157,28 +2244,28 @@
       <c r="E53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="16" t="s">
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
       <c r="E54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2194,7 +2281,7 @@
       <c r="I54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="18"/>
+      <c r="J54" s="26"/>
       <c r="K54" s="5" t="s">
         <v>10</v>
       </c>
@@ -2207,42 +2294,42 @@
       <c r="N54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O54" s="9" t="s">
+      <c r="O54" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P54" s="10"/>
+      <c r="P54" s="28"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
       <c r="E55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11" t="s">
+      <c r="G55" s="22"/>
+      <c r="H55" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I55" s="11"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="11" t="s">
+      <c r="I55" s="22"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11" t="s">
+      <c r="L55" s="22"/>
+      <c r="M55" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="11"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="13"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="30"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2347,7 @@
         <f>H56-273.15</f>
         <v>80.110000000000014</v>
       </c>
-      <c r="J56" s="18"/>
+      <c r="J56" s="26"/>
       <c r="K56" s="3">
         <v>438.71</v>
       </c>
@@ -2275,13 +2362,13 @@
         <f>M56-273.15</f>
         <v>150.03000000000003</v>
       </c>
-      <c r="O56" s="12"/>
-      <c r="P56" s="13"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="30"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
       <c r="E57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2299,7 +2386,7 @@
         <f t="shared" ref="I57:I64" si="13">H57-273.15</f>
         <v>55.580000000000041</v>
       </c>
-      <c r="J57" s="18"/>
+      <c r="J57" s="26"/>
       <c r="K57" s="3">
         <v>412.5</v>
       </c>
@@ -2314,13 +2401,13 @@
         <f t="shared" ref="N57:N64" si="15">M57-273.15</f>
         <v>123.33000000000004</v>
       </c>
-      <c r="O57" s="12"/>
-      <c r="P57" s="13"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="30"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
       <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2338,7 +2425,7 @@
         <f t="shared" si="13"/>
         <v>54.04000000000002</v>
       </c>
-      <c r="J58" s="18"/>
+      <c r="J58" s="26"/>
       <c r="K58" s="3">
         <v>408.56</v>
       </c>
@@ -2353,13 +2440,13 @@
         <f t="shared" si="15"/>
         <v>119.03000000000003</v>
       </c>
-      <c r="O58" s="12"/>
-      <c r="P58" s="13"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="30"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2377,7 +2464,7 @@
         <f t="shared" si="13"/>
         <v>110.30000000000001</v>
       </c>
-      <c r="J59" s="18"/>
+      <c r="J59" s="26"/>
       <c r="K59" s="3">
         <v>467</v>
       </c>
@@ -2392,13 +2479,13 @@
         <f t="shared" si="15"/>
         <v>178.41000000000003</v>
       </c>
-      <c r="O59" s="12"/>
-      <c r="P59" s="13"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="30"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
       <c r="E60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2416,7 +2503,7 @@
         <f t="shared" si="13"/>
         <v>27.830000000000041</v>
       </c>
-      <c r="J60" s="18"/>
+      <c r="J60" s="26"/>
       <c r="K60" s="3">
         <v>342.15</v>
       </c>
@@ -2431,8 +2518,8 @@
         <f t="shared" si="15"/>
         <v>45.57000000000005</v>
       </c>
-      <c r="O60" s="12"/>
-      <c r="P60" s="13"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="30"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E61" s="3" t="s">
@@ -2452,7 +2539,7 @@
         <f t="shared" si="13"/>
         <v>27.810000000000002</v>
       </c>
-      <c r="J61" s="18"/>
+      <c r="J61" s="26"/>
       <c r="K61" s="3">
         <v>342.11</v>
       </c>
@@ -2467,8 +2554,8 @@
         <f t="shared" si="15"/>
         <v>45.520000000000039</v>
       </c>
-      <c r="O61" s="12"/>
-      <c r="P61" s="13"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="30"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E62" s="3" t="s">
@@ -2488,7 +2575,7 @@
         <f t="shared" si="13"/>
         <v>27.830000000000041</v>
       </c>
-      <c r="J62" s="18"/>
+      <c r="J62" s="26"/>
       <c r="K62" s="3">
         <v>342.15</v>
       </c>
@@ -2503,8 +2590,8 @@
         <f t="shared" si="15"/>
         <v>45.57000000000005</v>
       </c>
-      <c r="O62" s="12"/>
-      <c r="P62" s="13"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="30"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E63" s="3" t="s">
@@ -2524,7 +2611,7 @@
         <f t="shared" si="13"/>
         <v>27.810000000000002</v>
       </c>
-      <c r="J63" s="18"/>
+      <c r="J63" s="26"/>
       <c r="K63" s="3">
         <v>342.11</v>
       </c>
@@ -2539,8 +2626,8 @@
         <f t="shared" si="15"/>
         <v>45.520000000000039</v>
       </c>
-      <c r="O63" s="12"/>
-      <c r="P63" s="13"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="30"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E64" s="3" t="s">
@@ -2560,7 +2647,7 @@
         <f t="shared" si="13"/>
         <v>52.990000000000009</v>
       </c>
-      <c r="J64" s="18"/>
+      <c r="J64" s="26"/>
       <c r="K64" s="3">
         <v>394.41</v>
       </c>
@@ -2575,8 +2662,8 @@
         <f t="shared" si="15"/>
         <v>102.79000000000002</v>
       </c>
-      <c r="O64" s="12"/>
-      <c r="P64" s="13"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="30"/>
     </row>
     <row r="67" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E67" s="6" t="s">
@@ -2584,12 +2671,12 @@
       </c>
     </row>
     <row r="68" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F69" s="1"/>
@@ -2608,28 +2695,28 @@
       <c r="E70" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="16" t="s">
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
       <c r="E71" s="4" t="s">
         <v>9</v>
       </c>
@@ -2645,7 +2732,7 @@
       <c r="I71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J71" s="18"/>
+      <c r="J71" s="26"/>
       <c r="K71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2658,42 +2745,42 @@
       <c r="N71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O71" s="9" t="s">
+      <c r="O71" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P71" s="10"/>
+      <c r="P71" s="28"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
       <c r="E72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11" t="s">
+      <c r="G72" s="22"/>
+      <c r="H72" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I72" s="11"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="11" t="s">
+      <c r="I72" s="22"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11" t="s">
+      <c r="L72" s="22"/>
+      <c r="M72" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="N72" s="11"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="13"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="30"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
       <c r="E73" s="3" t="s">
         <v>0</v>
       </c>
@@ -2711,7 +2798,7 @@
         <f>H73-273.15</f>
         <v>57.110000000000014</v>
       </c>
-      <c r="J73" s="18"/>
+      <c r="J73" s="26"/>
       <c r="K73" s="3">
         <v>385.35</v>
       </c>
@@ -2726,13 +2813,13 @@
         <f>M73-273.15</f>
         <v>87.06</v>
       </c>
-      <c r="O73" s="12"/>
-      <c r="P73" s="13"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="30"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
       <c r="E74" s="3" t="s">
         <v>1</v>
       </c>
@@ -2750,7 +2837,7 @@
         <f t="shared" ref="I74:I81" si="17">H74-273.15</f>
         <v>35.32000000000005</v>
       </c>
-      <c r="J74" s="18"/>
+      <c r="J74" s="26"/>
       <c r="K74" s="3">
         <v>357.98</v>
       </c>
@@ -2765,13 +2852,13 @@
         <f t="shared" ref="N74:N81" si="19">M74-273.15</f>
         <v>59.660000000000025</v>
       </c>
-      <c r="O74" s="12"/>
-      <c r="P74" s="13"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="30"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
       <c r="E75" s="3" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2876,7 @@
         <f t="shared" si="17"/>
         <v>32.700000000000045</v>
       </c>
-      <c r="J75" s="18"/>
+      <c r="J75" s="26"/>
       <c r="K75" s="3">
         <v>352.79</v>
       </c>
@@ -2804,13 +2891,13 @@
         <f t="shared" si="19"/>
         <v>53.890000000000043</v>
       </c>
-      <c r="O75" s="12"/>
-      <c r="P75" s="13"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="30"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
       <c r="E76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2828,7 +2915,7 @@
         <f t="shared" si="17"/>
         <v>86.62</v>
       </c>
-      <c r="J76" s="18"/>
+      <c r="J76" s="26"/>
       <c r="K76" s="3">
         <v>413.9</v>
       </c>
@@ -2843,13 +2930,13 @@
         <f t="shared" si="19"/>
         <v>115.70000000000005</v>
       </c>
-      <c r="O76" s="12"/>
-      <c r="P76" s="13"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="30"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
       <c r="E77" s="3" t="s">
         <v>4</v>
       </c>
@@ -2867,7 +2954,7 @@
         <f t="shared" si="17"/>
         <v>-51.529999999999973</v>
       </c>
-      <c r="J77" s="18"/>
+      <c r="J77" s="26"/>
       <c r="K77" s="3">
         <v>260.79000000000002</v>
       </c>
@@ -2882,8 +2969,8 @@
         <f t="shared" si="19"/>
         <v>-50.169999999999987</v>
       </c>
-      <c r="O77" s="12"/>
-      <c r="P77" s="13"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="30"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E78" s="3" t="s">
@@ -2903,7 +2990,7 @@
         <f t="shared" si="17"/>
         <v>-51.559999999999974</v>
       </c>
-      <c r="J78" s="18"/>
+      <c r="J78" s="26"/>
       <c r="K78" s="3">
         <v>260.75</v>
       </c>
@@ -2918,8 +3005,8 @@
         <f t="shared" si="19"/>
         <v>-50.21999999999997</v>
       </c>
-      <c r="O78" s="12"/>
-      <c r="P78" s="13"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="30"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E79" s="3" t="s">
@@ -2939,7 +3026,7 @@
         <f t="shared" si="17"/>
         <v>-51.529999999999973</v>
       </c>
-      <c r="J79" s="18"/>
+      <c r="J79" s="26"/>
       <c r="K79" s="3">
         <v>260.79000000000002</v>
       </c>
@@ -2954,8 +3041,8 @@
         <f t="shared" si="19"/>
         <v>-50.169999999999987</v>
       </c>
-      <c r="O79" s="12"/>
-      <c r="P79" s="13"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="30"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
@@ -2975,7 +3062,7 @@
         <f t="shared" si="17"/>
         <v>-51.559999999999974</v>
       </c>
-      <c r="J80" s="18"/>
+      <c r="J80" s="26"/>
       <c r="K80" s="3">
         <v>260.75</v>
       </c>
@@ -2990,8 +3077,8 @@
         <f t="shared" si="19"/>
         <v>-50.21999999999997</v>
       </c>
-      <c r="O80" s="12"/>
-      <c r="P80" s="13"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="30"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E81" s="3" t="s">
@@ -3011,7 +3098,7 @@
         <f t="shared" si="17"/>
         <v>11.400000000000034</v>
       </c>
-      <c r="J81" s="18"/>
+      <c r="J81" s="26"/>
       <c r="K81" s="3">
         <v>330.96</v>
       </c>
@@ -3026,8 +3113,8 @@
         <f t="shared" si="19"/>
         <v>28.390000000000043</v>
       </c>
-      <c r="O81" s="12"/>
-      <c r="P81" s="13"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="30"/>
     </row>
     <row r="84" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E84" s="6" t="s">
@@ -3035,12 +3122,12 @@
       </c>
     </row>
     <row r="85" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F86" s="1"/>
@@ -3056,7 +3143,7 @@
       <c r="P86" s="1"/>
     </row>
     <row r="87" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F87" s="1"/>
@@ -3075,28 +3162,28 @@
       <c r="E88" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="F88" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="16" t="s">
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
       <c r="E89" s="4" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3199,7 @@
       <c r="I89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J89" s="18"/>
+      <c r="J89" s="26"/>
       <c r="K89" s="5" t="s">
         <v>10</v>
       </c>
@@ -3125,42 +3212,42 @@
       <c r="N89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O89" s="9" t="s">
+      <c r="O89" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P89" s="10"/>
+      <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
       <c r="E90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11" t="s">
+      <c r="G90" s="22"/>
+      <c r="H90" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I90" s="11"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="11" t="s">
+      <c r="I90" s="22"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11" t="s">
+      <c r="L90" s="22"/>
+      <c r="M90" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="N90" s="11"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="13"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="30"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
       <c r="E91" s="3" t="s">
         <v>0</v>
       </c>
@@ -3178,7 +3265,7 @@
         <f>H91-273.15</f>
         <v>54.03000000000003</v>
       </c>
-      <c r="J91" s="18"/>
+      <c r="J91" s="26"/>
       <c r="K91" s="3">
         <v>376.58</v>
       </c>
@@ -3193,13 +3280,13 @@
         <f>M91-273.15</f>
         <v>77.82000000000005</v>
       </c>
-      <c r="O91" s="12"/>
-      <c r="P91" s="13"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="30"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
       <c r="E92" s="3" t="s">
         <v>1</v>
       </c>
@@ -3217,7 +3304,7 @@
         <f t="shared" ref="I92:I99" si="21">H92-273.15</f>
         <v>32.81</v>
       </c>
-      <c r="J92" s="18"/>
+      <c r="J92" s="26"/>
       <c r="K92" s="3">
         <v>349.55</v>
       </c>
@@ -3232,13 +3319,13 @@
         <f t="shared" ref="N92:N99" si="23">M92-273.15</f>
         <v>50.760000000000048</v>
       </c>
-      <c r="O92" s="12"/>
-      <c r="P92" s="13"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="30"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
       <c r="E93" s="3" t="s">
         <v>2</v>
       </c>
@@ -3256,7 +3343,7 @@
         <f t="shared" si="21"/>
         <v>29.939999999999998</v>
       </c>
-      <c r="J93" s="18"/>
+      <c r="J93" s="26"/>
       <c r="K93" s="3">
         <v>344.04</v>
       </c>
@@ -3271,13 +3358,13 @@
         <f t="shared" si="23"/>
         <v>44.710000000000036</v>
       </c>
-      <c r="O93" s="12"/>
-      <c r="P93" s="13"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="30"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,7 +3382,7 @@
         <f t="shared" si="21"/>
         <v>83.410000000000025</v>
       </c>
-      <c r="J94" s="18"/>
+      <c r="J94" s="26"/>
       <c r="K94" s="3">
         <v>405.12</v>
       </c>
@@ -3310,13 +3397,13 @@
         <f t="shared" si="23"/>
         <v>106.46000000000004</v>
       </c>
-      <c r="O94" s="12"/>
-      <c r="P94" s="13"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="30"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
       <c r="E95" s="3" t="s">
         <v>4</v>
       </c>
@@ -3334,7 +3421,7 @@
         <f t="shared" si="21"/>
         <v>-48.879999999999967</v>
       </c>
-      <c r="J95" s="18"/>
+      <c r="J95" s="26"/>
       <c r="K95" s="3">
         <v>260.83</v>
       </c>
@@ -3349,8 +3436,8 @@
         <f t="shared" si="23"/>
         <v>-47.149999999999977</v>
       </c>
-      <c r="O95" s="12"/>
-      <c r="P95" s="13"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="30"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E96" s="3" t="s">
@@ -3370,7 +3457,7 @@
         <f t="shared" si="21"/>
         <v>-48.909999999999968</v>
       </c>
-      <c r="J96" s="18"/>
+      <c r="J96" s="26"/>
       <c r="K96" s="3">
         <v>260.77999999999997</v>
       </c>
@@ -3385,8 +3472,8 @@
         <f t="shared" si="23"/>
         <v>-47.199999999999989</v>
       </c>
-      <c r="O96" s="12"/>
-      <c r="P96" s="13"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="30"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E97" s="3" t="s">
@@ -3406,7 +3493,7 @@
         <f t="shared" si="21"/>
         <v>-48.879999999999967</v>
       </c>
-      <c r="J97" s="18"/>
+      <c r="J97" s="26"/>
       <c r="K97" s="3">
         <v>260.83</v>
       </c>
@@ -3421,8 +3508,8 @@
         <f t="shared" si="23"/>
         <v>-47.149999999999977</v>
       </c>
-      <c r="O97" s="12"/>
-      <c r="P97" s="13"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="30"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E98" s="3" t="s">
@@ -3442,7 +3529,7 @@
         <f t="shared" si="21"/>
         <v>-48.909999999999968</v>
       </c>
-      <c r="J98" s="18"/>
+      <c r="J98" s="26"/>
       <c r="K98" s="3">
         <v>260.77999999999997</v>
       </c>
@@ -3457,8 +3544,8 @@
         <f t="shared" si="23"/>
         <v>-47.199999999999989</v>
       </c>
-      <c r="O98" s="12"/>
-      <c r="P98" s="13"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="30"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E99" s="3" t="s">
@@ -3478,7 +3565,7 @@
         <f t="shared" si="21"/>
         <v>4.5100000000000477</v>
       </c>
-      <c r="J99" s="18"/>
+      <c r="J99" s="26"/>
       <c r="K99" s="3">
         <v>318.83999999999997</v>
       </c>
@@ -3493,8 +3580,8 @@
         <f t="shared" si="23"/>
         <v>16.490000000000009</v>
       </c>
-      <c r="O99" s="12"/>
-      <c r="P99" s="13"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="30"/>
     </row>
     <row r="102" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E102" s="6" t="s">
@@ -3502,7 +3589,7 @@
       </c>
     </row>
     <row r="103" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E103" s="15" t="s">
+      <c r="E103" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3510,26 +3597,26 @@
       <c r="E104" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F104" s="16" t="s">
+      <c r="F104" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="31"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="31"/>
+      <c r="M104" s="31"/>
+      <c r="N104" s="31"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
       <c r="E105" s="4" t="s">
         <v>9</v>
       </c>
@@ -3545,7 +3632,7 @@
       <c r="I105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J105" s="18"/>
+      <c r="J105" s="26"/>
       <c r="K105" s="5" t="s">
         <v>10</v>
       </c>
@@ -3558,42 +3645,42 @@
       <c r="N105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O105" s="9" t="s">
+      <c r="O105" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P105" s="10"/>
+      <c r="P105" s="28"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
       <c r="E106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F106" s="11" t="s">
+      <c r="F106" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11" t="s">
+      <c r="G106" s="22"/>
+      <c r="H106" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I106" s="11"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="11" t="s">
+      <c r="I106" s="22"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="11"/>
-      <c r="M106" s="11" t="s">
+      <c r="L106" s="22"/>
+      <c r="M106" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N106" s="11"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="13"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="30"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
       <c r="E107" s="3" t="s">
         <v>0</v>
       </c>
@@ -3611,7 +3698,7 @@
         <f>H107-273.15</f>
         <v>297.07000000000005</v>
       </c>
-      <c r="J107" s="18"/>
+      <c r="J107" s="26"/>
       <c r="K107" s="3">
         <v>571.03</v>
       </c>
@@ -3626,13 +3713,13 @@
         <f>M107-273.15</f>
         <v>160.83000000000004</v>
       </c>
-      <c r="O107" s="12"/>
-      <c r="P107" s="13"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="30"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
       <c r="E108" s="3" t="s">
         <v>1</v>
       </c>
@@ -3650,7 +3737,7 @@
         <f t="shared" ref="I108:I115" si="25">H108-273.15</f>
         <v>262.36</v>
       </c>
-      <c r="J108" s="18"/>
+      <c r="J108" s="26"/>
       <c r="K108" s="3">
         <v>536.29999999999995</v>
       </c>
@@ -3665,13 +3752,13 @@
         <f t="shared" ref="N108:N115" si="27">M108-273.15</f>
         <v>135.17000000000002</v>
       </c>
-      <c r="O108" s="12"/>
-      <c r="P108" s="13"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="30"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
       <c r="E109" s="3" t="s">
         <v>2</v>
       </c>
@@ -3689,7 +3776,7 @@
         <f t="shared" si="25"/>
         <v>250.84000000000003</v>
       </c>
-      <c r="J109" s="18"/>
+      <c r="J109" s="26"/>
       <c r="K109" s="3">
         <v>524.73</v>
       </c>
@@ -3704,13 +3791,13 @@
         <f t="shared" si="27"/>
         <v>131.47000000000003</v>
       </c>
-      <c r="O109" s="12"/>
-      <c r="P109" s="13"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="30"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
       <c r="E110" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,7 +3815,7 @@
         <f t="shared" si="25"/>
         <v>325.94000000000005</v>
       </c>
-      <c r="J110" s="18"/>
+      <c r="J110" s="26"/>
       <c r="K110" s="3">
         <v>599.89</v>
       </c>
@@ -3743,13 +3830,13 @@
         <f t="shared" si="27"/>
         <v>185.82000000000005</v>
       </c>
-      <c r="O110" s="12"/>
-      <c r="P110" s="13"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="30"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
       <c r="E111" s="3" t="s">
         <v>4</v>
       </c>
@@ -3767,7 +3854,7 @@
         <f t="shared" si="25"/>
         <v>69.460000000000036</v>
       </c>
-      <c r="J111" s="18"/>
+      <c r="J111" s="26"/>
       <c r="K111" s="3">
         <v>342.61</v>
       </c>
@@ -3782,8 +3869,8 @@
         <f t="shared" si="27"/>
         <v>68.950000000000045</v>
       </c>
-      <c r="O111" s="12"/>
-      <c r="P111" s="13"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="30"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E112" s="3" t="s">
@@ -3803,7 +3890,7 @@
         <f t="shared" si="25"/>
         <v>69.410000000000025</v>
       </c>
-      <c r="J112" s="18"/>
+      <c r="J112" s="26"/>
       <c r="K112" s="3">
         <v>342.56</v>
       </c>
@@ -3818,8 +3905,8 @@
         <f t="shared" si="27"/>
         <v>68.900000000000034</v>
       </c>
-      <c r="O112" s="12"/>
-      <c r="P112" s="13"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="30"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E113" s="3" t="s">
@@ -3839,7 +3926,7 @@
         <f t="shared" si="25"/>
         <v>69.460000000000036</v>
       </c>
-      <c r="J113" s="18"/>
+      <c r="J113" s="26"/>
       <c r="K113" s="3">
         <v>342.61</v>
       </c>
@@ -3854,8 +3941,8 @@
         <f t="shared" si="27"/>
         <v>68.950000000000045</v>
       </c>
-      <c r="O113" s="12"/>
-      <c r="P113" s="13"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="30"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E114" s="3" t="s">
@@ -3875,7 +3962,7 @@
         <f t="shared" si="25"/>
         <v>69.410000000000025</v>
       </c>
-      <c r="J114" s="18"/>
+      <c r="J114" s="26"/>
       <c r="K114" s="3">
         <v>342.56</v>
       </c>
@@ -3890,8 +3977,8 @@
         <f t="shared" si="27"/>
         <v>68.900000000000034</v>
       </c>
-      <c r="O114" s="12"/>
-      <c r="P114" s="13"/>
+      <c r="O114" s="29"/>
+      <c r="P114" s="30"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E115" s="3" t="s">
@@ -3911,7 +3998,7 @@
         <f t="shared" si="25"/>
         <v>199.20000000000005</v>
       </c>
-      <c r="J115" s="18"/>
+      <c r="J115" s="26"/>
       <c r="K115" s="3">
         <v>472.84</v>
       </c>
@@ -3926,8 +4013,8 @@
         <f t="shared" si="27"/>
         <v>118.41000000000003</v>
       </c>
-      <c r="O115" s="12"/>
-      <c r="P115" s="13"/>
+      <c r="O115" s="29"/>
+      <c r="P115" s="30"/>
     </row>
     <row r="119" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E119" s="7" t="s">
@@ -3935,17 +4022,17 @@
       </c>
     </row>
     <row r="120" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E120" s="15" t="s">
+      <c r="E120" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E121" s="15" t="s">
+      <c r="E121" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E122" s="14" t="s">
+      <c r="E122" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="1"/>
@@ -3964,28 +4051,28 @@
       <c r="E123" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F123" s="16" t="s">
+      <c r="F123" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="21" t="s">
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L123" s="21"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="21"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13"/>
+      <c r="N123" s="13"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
       <c r="E124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4001,7 +4088,7 @@
       <c r="I124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J124" s="18"/>
+      <c r="J124" s="26"/>
       <c r="K124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4014,421 +4101,421 @@
       <c r="N124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O124" s="9" t="s">
+      <c r="O124" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P124" s="10"/>
+      <c r="P124" s="28"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
       <c r="E125" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F125" s="11">
+      <c r="F125" s="22">
         <v>0.05</v>
       </c>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11">
+      <c r="G125" s="22"/>
+      <c r="H125" s="22">
         <v>0.75</v>
       </c>
-      <c r="I125" s="11"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="11">
+      <c r="I125" s="22"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="22">
         <v>0.05</v>
       </c>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11">
+      <c r="L125" s="22"/>
+      <c r="M125" s="22">
         <v>0.75</v>
       </c>
-      <c r="N125" s="11"/>
-      <c r="O125" s="12" t="s">
+      <c r="N125" s="22"/>
+      <c r="O125" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="P125" s="13"/>
+      <c r="P125" s="30"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
       <c r="E126" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F126" s="25">
+      <c r="F126" s="15">
         <v>359.25</v>
       </c>
-      <c r="G126" s="26">
+      <c r="G126" s="16">
         <f>F126-273.15</f>
         <v>86.100000000000023</v>
       </c>
-      <c r="H126" s="25">
+      <c r="H126" s="15">
         <v>357.52</v>
       </c>
-      <c r="I126" s="26">
+      <c r="I126" s="16">
         <f>H126-273.15</f>
         <v>84.37</v>
       </c>
-      <c r="J126" s="18"/>
-      <c r="K126" s="25">
+      <c r="J126" s="26"/>
+      <c r="K126" s="15">
         <v>357.13</v>
       </c>
-      <c r="L126" s="26">
+      <c r="L126" s="16">
         <f>K126-273.15</f>
         <v>83.980000000000018</v>
       </c>
-      <c r="M126" s="25">
+      <c r="M126" s="15">
         <v>355.61</v>
       </c>
-      <c r="N126" s="26">
+      <c r="N126" s="16">
         <f>M126-273.15</f>
         <v>82.460000000000036</v>
       </c>
-      <c r="O126" s="12"/>
-      <c r="P126" s="13"/>
+      <c r="O126" s="29"/>
+      <c r="P126" s="30"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
       <c r="E127" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F127" s="25">
+      <c r="F127" s="15">
         <v>332.96</v>
       </c>
-      <c r="G127" s="26">
+      <c r="G127" s="16">
         <f t="shared" ref="G127:G135" si="28">F127-273.15</f>
         <v>59.81</v>
       </c>
-      <c r="H127" s="25">
+      <c r="H127" s="15">
         <v>332.69</v>
       </c>
-      <c r="I127" s="26">
+      <c r="I127" s="16">
         <f t="shared" ref="I127:I135" si="29">H127-273.15</f>
         <v>59.54000000000002</v>
       </c>
-      <c r="J127" s="18"/>
-      <c r="K127" s="25">
+      <c r="J127" s="26"/>
+      <c r="K127" s="15">
         <v>332.57</v>
       </c>
-      <c r="L127" s="26">
+      <c r="L127" s="16">
         <f t="shared" ref="L127:L135" si="30">K127-273.15</f>
         <v>59.420000000000016</v>
       </c>
-      <c r="M127" s="25">
+      <c r="M127" s="15">
         <v>332.1</v>
       </c>
-      <c r="N127" s="26">
+      <c r="N127" s="16">
         <f t="shared" ref="N127:N135" si="31">M127-273.15</f>
         <v>58.950000000000045</v>
       </c>
-      <c r="O127" s="12"/>
-      <c r="P127" s="13"/>
+      <c r="O127" s="29"/>
+      <c r="P127" s="30"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
       <c r="E128" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F128" s="25">
+      <c r="F128" s="15">
         <v>331.36</v>
       </c>
-      <c r="G128" s="26">
+      <c r="G128" s="16">
         <f t="shared" si="28"/>
         <v>58.210000000000036</v>
       </c>
-      <c r="H128" s="25">
+      <c r="H128" s="15">
         <v>331.25</v>
       </c>
-      <c r="I128" s="26">
+      <c r="I128" s="16">
         <f t="shared" si="29"/>
         <v>58.100000000000023</v>
       </c>
-      <c r="J128" s="18"/>
-      <c r="K128" s="25">
+      <c r="J128" s="26"/>
+      <c r="K128" s="15">
         <v>331.06</v>
       </c>
-      <c r="L128" s="26">
+      <c r="L128" s="16">
         <f t="shared" si="30"/>
         <v>57.910000000000025</v>
       </c>
-      <c r="M128" s="25">
+      <c r="M128" s="15">
         <v>330.74</v>
       </c>
-      <c r="N128" s="26">
+      <c r="N128" s="16">
         <f t="shared" si="31"/>
         <v>57.590000000000032</v>
       </c>
-      <c r="O128" s="12"/>
-      <c r="P128" s="13"/>
+      <c r="O128" s="29"/>
+      <c r="P128" s="30"/>
     </row>
     <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
       <c r="E129" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F129" s="25">
-        <v>0</v>
-      </c>
-      <c r="G129" s="26">
-        <v>0</v>
-      </c>
-      <c r="H129" s="25">
-        <v>0</v>
-      </c>
-      <c r="I129" s="26">
-        <v>0</v>
-      </c>
-      <c r="J129" s="18"/>
-      <c r="K129" s="25">
+      <c r="F129" s="15">
+        <v>0</v>
+      </c>
+      <c r="G129" s="16">
+        <v>0</v>
+      </c>
+      <c r="H129" s="15">
+        <v>0</v>
+      </c>
+      <c r="I129" s="16">
+        <v>0</v>
+      </c>
+      <c r="J129" s="26"/>
+      <c r="K129" s="15">
         <v>384.69</v>
       </c>
-      <c r="L129" s="26">
+      <c r="L129" s="16">
         <f t="shared" si="30"/>
         <v>111.54000000000002</v>
       </c>
-      <c r="M129" s="25">
+      <c r="M129" s="15">
         <v>383.07</v>
       </c>
-      <c r="N129" s="26">
+      <c r="N129" s="16">
         <f t="shared" si="31"/>
         <v>109.92000000000002</v>
       </c>
-      <c r="O129" s="12"/>
-      <c r="P129" s="13"/>
+      <c r="O129" s="29"/>
+      <c r="P129" s="30"/>
     </row>
     <row r="130" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
       <c r="E130" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F130" s="25">
+      <c r="F130" s="15">
         <v>389.59</v>
       </c>
-      <c r="G130" s="26">
+      <c r="G130" s="16">
         <f t="shared" si="28"/>
         <v>116.44</v>
       </c>
-      <c r="H130" s="25">
+      <c r="H130" s="15">
         <v>387.99</v>
       </c>
-      <c r="I130" s="26">
+      <c r="I130" s="16">
         <f t="shared" si="29"/>
         <v>114.84000000000003</v>
       </c>
-      <c r="J130" s="18"/>
-      <c r="K130" s="25">
+      <c r="J130" s="26"/>
+      <c r="K130" s="15">
         <v>387.73</v>
       </c>
-      <c r="L130" s="26">
+      <c r="L130" s="16">
         <f t="shared" si="30"/>
         <v>114.58000000000004</v>
       </c>
-      <c r="M130" s="29">
+      <c r="M130" s="19">
         <v>386.12</v>
       </c>
-      <c r="N130" s="26">
+      <c r="N130" s="16">
         <f t="shared" si="31"/>
         <v>112.97000000000003</v>
       </c>
-      <c r="O130" s="12"/>
-      <c r="P130" s="13"/>
+      <c r="O130" s="29"/>
+      <c r="P130" s="30"/>
     </row>
     <row r="131" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
       <c r="E131" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F131" s="25">
+      <c r="F131" s="15">
         <v>319.61</v>
       </c>
-      <c r="G131" s="26">
+      <c r="G131" s="16">
         <f t="shared" si="28"/>
         <v>46.460000000000036</v>
       </c>
-      <c r="H131" s="25">
+      <c r="H131" s="15">
         <v>324.08</v>
       </c>
-      <c r="I131" s="26">
+      <c r="I131" s="16">
         <f t="shared" si="29"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J131" s="18"/>
-      <c r="K131" s="25">
+      <c r="J131" s="26"/>
+      <c r="K131" s="15">
         <v>316.86</v>
       </c>
-      <c r="L131" s="26">
+      <c r="L131" s="16">
         <f t="shared" si="30"/>
         <v>43.710000000000036</v>
       </c>
-      <c r="M131" s="25">
+      <c r="M131" s="15">
         <v>321.19</v>
       </c>
-      <c r="N131" s="26">
+      <c r="N131" s="16">
         <f t="shared" si="31"/>
         <v>48.04000000000002</v>
       </c>
-      <c r="O131" s="12"/>
-      <c r="P131" s="13"/>
+      <c r="O131" s="29"/>
+      <c r="P131" s="30"/>
     </row>
     <row r="132" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E132" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F132" s="25">
+      <c r="F132" s="15">
         <v>302.23</v>
       </c>
-      <c r="G132" s="26">
+      <c r="G132" s="16">
         <f t="shared" si="28"/>
         <v>29.080000000000041</v>
       </c>
-      <c r="H132" s="25">
+      <c r="H132" s="15">
         <v>303.49</v>
       </c>
-      <c r="I132" s="26">
+      <c r="I132" s="16">
         <f t="shared" si="29"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J132" s="18"/>
-      <c r="K132" s="25">
+      <c r="J132" s="26"/>
+      <c r="K132" s="15">
         <v>301.44</v>
       </c>
-      <c r="L132" s="26">
+      <c r="L132" s="16">
         <f t="shared" si="30"/>
         <v>28.29000000000002</v>
       </c>
-      <c r="M132" s="25">
+      <c r="M132" s="15">
         <v>302.68</v>
       </c>
-      <c r="N132" s="26">
+      <c r="N132" s="16">
         <f t="shared" si="31"/>
         <v>29.53000000000003</v>
       </c>
-      <c r="O132" s="12"/>
-      <c r="P132" s="13"/>
+      <c r="O132" s="29"/>
+      <c r="P132" s="30"/>
     </row>
     <row r="133" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E133" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F133" s="25">
+      <c r="F133" s="15">
         <v>319.61</v>
       </c>
-      <c r="G133" s="26">
+      <c r="G133" s="16">
         <f t="shared" si="28"/>
         <v>46.460000000000036</v>
       </c>
-      <c r="H133" s="25">
+      <c r="H133" s="15">
         <v>324.08</v>
       </c>
-      <c r="I133" s="26">
+      <c r="I133" s="16">
         <f t="shared" si="29"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J133" s="18"/>
-      <c r="K133" s="25">
+      <c r="J133" s="26"/>
+      <c r="K133" s="15">
         <v>316.86</v>
       </c>
-      <c r="L133" s="26">
+      <c r="L133" s="16">
         <f t="shared" si="30"/>
         <v>43.710000000000036</v>
       </c>
-      <c r="M133" s="25">
+      <c r="M133" s="15">
         <v>321.19</v>
       </c>
-      <c r="N133" s="26">
+      <c r="N133" s="16">
         <f t="shared" si="31"/>
         <v>48.04000000000002</v>
       </c>
-      <c r="O133" s="12"/>
-      <c r="P133" s="13"/>
+      <c r="O133" s="29"/>
+      <c r="P133" s="30"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E134" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F134" s="27">
+      <c r="F134" s="17">
         <v>302.23</v>
       </c>
-      <c r="G134" s="28">
+      <c r="G134" s="18">
         <f t="shared" si="28"/>
         <v>29.080000000000041</v>
       </c>
-      <c r="H134" s="25">
+      <c r="H134" s="15">
         <v>303.49</v>
       </c>
-      <c r="I134" s="28">
+      <c r="I134" s="18">
         <f t="shared" si="29"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J134" s="18"/>
-      <c r="K134" s="25">
+      <c r="J134" s="26"/>
+      <c r="K134" s="15">
         <v>301.44</v>
       </c>
-      <c r="L134" s="26">
+      <c r="L134" s="16">
         <f t="shared" si="30"/>
         <v>28.29000000000002</v>
       </c>
-      <c r="M134" s="25">
+      <c r="M134" s="15">
         <v>302.68</v>
       </c>
-      <c r="N134" s="26">
+      <c r="N134" s="16">
         <f t="shared" si="31"/>
         <v>29.53000000000003</v>
       </c>
-      <c r="O134" s="12"/>
-      <c r="P134" s="13"/>
+      <c r="O134" s="29"/>
+      <c r="P134" s="30"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E135" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F135" s="25">
+      <c r="F135" s="15">
         <v>335.72</v>
       </c>
-      <c r="G135" s="26">
+      <c r="G135" s="16">
         <f t="shared" si="28"/>
         <v>62.57000000000005</v>
       </c>
-      <c r="H135" s="25">
+      <c r="H135" s="15">
         <v>336.68</v>
       </c>
-      <c r="I135" s="26">
+      <c r="I135" s="16">
         <f t="shared" si="29"/>
         <v>63.53000000000003</v>
       </c>
-      <c r="J135" s="18"/>
-      <c r="K135" s="25">
+      <c r="J135" s="26"/>
+      <c r="K135" s="15">
         <v>334.73</v>
       </c>
-      <c r="L135" s="26">
+      <c r="L135" s="16">
         <f t="shared" si="30"/>
         <v>61.580000000000041</v>
       </c>
-      <c r="M135" s="25">
+      <c r="M135" s="15">
         <v>335.62</v>
       </c>
-      <c r="N135" s="26">
+      <c r="N135" s="16">
         <f t="shared" si="31"/>
         <v>62.470000000000027</v>
       </c>
-      <c r="O135" s="12"/>
-      <c r="P135" s="13"/>
+      <c r="O135" s="29"/>
+      <c r="P135" s="30"/>
     </row>
     <row r="138" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E138" s="7"/>
     </row>
     <row r="139" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E139" s="15" t="s">
+      <c r="E139" s="9" t="s">
         <v>66</v>
       </c>
       <c r="F139" s="24" t="s">
@@ -4445,7 +4532,7 @@
       <c r="N139" s="24"/>
     </row>
     <row r="140" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E140" s="15" t="s">
+      <c r="E140" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F140" s="24"/>
@@ -4458,7 +4545,7 @@
       <c r="N140" s="24"/>
     </row>
     <row r="141" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E141" s="14" t="s">
+      <c r="E141" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F141" s="24"/>
@@ -4474,11 +4561,11 @@
       <c r="P141" s="1"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
       <c r="E142" s="4" t="s">
         <v>9</v>
       </c>
@@ -4494,7 +4581,7 @@
       <c r="I142" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J142" s="18"/>
+      <c r="J142" s="26"/>
       <c r="K142" s="5" t="s">
         <v>10</v>
       </c>
@@ -4507,60 +4594,60 @@
       <c r="N142" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O142" s="9" t="s">
+      <c r="O142" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P142" s="10"/>
+      <c r="P142" s="28"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
       <c r="E143" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F143" s="11" t="s">
+      <c r="F143" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11" t="s">
+      <c r="G143" s="22"/>
+      <c r="H143" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I143" s="11"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="11" t="s">
+      <c r="I143" s="22"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11" t="s">
+      <c r="L143" s="22"/>
+      <c r="M143" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="N143" s="11"/>
-      <c r="O143" s="12"/>
-      <c r="P143" s="13"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="29"/>
+      <c r="P143" s="30"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25"/>
       <c r="E144" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F144" s="25">
+      <c r="F144" s="15">
         <v>357.53</v>
       </c>
-      <c r="G144" s="26">
+      <c r="G144" s="16">
         <f>F144-273.15</f>
         <v>84.38</v>
       </c>
-      <c r="H144" s="25">
+      <c r="H144" s="15">
         <v>359.45</v>
       </c>
-      <c r="I144" s="26">
+      <c r="I144" s="16">
         <f>H144-273.15</f>
         <v>86.300000000000011</v>
       </c>
-      <c r="J144" s="18"/>
+      <c r="J144" s="26"/>
       <c r="K144" s="3">
         <v>378.01</v>
       </c>
@@ -4575,31 +4662,31 @@
         <f>M144-273.15</f>
         <v>117.72000000000003</v>
       </c>
-      <c r="O144" s="12"/>
-      <c r="P144" s="13"/>
+      <c r="O144" s="29"/>
+      <c r="P144" s="30"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
       <c r="E145" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F145" s="25">
+      <c r="F145" s="15">
         <v>332.3</v>
       </c>
-      <c r="G145" s="26">
+      <c r="G145" s="16">
         <f t="shared" ref="G145:G153" si="32">F145-273.15</f>
         <v>59.150000000000034</v>
       </c>
-      <c r="H145" s="25">
+      <c r="H145" s="15">
         <v>333.9</v>
       </c>
-      <c r="I145" s="26">
-        <f t="shared" ref="I145:I153" si="33">H145-273.15</f>
+      <c r="I145" s="16">
+        <f t="shared" ref="I145:I146" si="33">H145-273.15</f>
         <v>60.75</v>
       </c>
-      <c r="J145" s="18"/>
+      <c r="J145" s="26"/>
       <c r="K145" s="3">
         <v>357.15</v>
       </c>
@@ -4614,31 +4701,31 @@
         <f t="shared" ref="N145:N153" si="35">M145-273.15</f>
         <v>96.970000000000027</v>
       </c>
-      <c r="O145" s="12"/>
-      <c r="P145" s="13"/>
+      <c r="O145" s="29"/>
+      <c r="P145" s="30"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
       <c r="E146" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F146" s="25">
+      <c r="F146" s="15">
         <v>330.79</v>
       </c>
-      <c r="G146" s="26">
+      <c r="G146" s="16">
         <f t="shared" si="32"/>
         <v>57.640000000000043</v>
       </c>
-      <c r="H146" s="25">
+      <c r="H146" s="15">
         <v>332.43</v>
       </c>
-      <c r="I146" s="26">
+      <c r="I146" s="16">
         <f t="shared" si="33"/>
         <v>59.28000000000003</v>
       </c>
-      <c r="J146" s="18"/>
+      <c r="J146" s="26"/>
       <c r="K146" s="3">
         <v>354.26</v>
       </c>
@@ -4653,29 +4740,29 @@
         <f t="shared" si="35"/>
         <v>94.170000000000016</v>
       </c>
-      <c r="O146" s="12"/>
-      <c r="P146" s="13"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="30"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
       <c r="E147" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F147" s="25" t="s">
+      <c r="F147" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G147" s="26" t="s">
+      <c r="G147" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H147" s="25" t="s">
+      <c r="H147" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I147" s="26" t="s">
+      <c r="I147" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J147" s="18"/>
+      <c r="J147" s="26"/>
       <c r="K147" s="3">
         <v>422.08</v>
       </c>
@@ -4690,31 +4777,31 @@
         <f t="shared" si="35"/>
         <v>159.18</v>
       </c>
-      <c r="O147" s="12"/>
-      <c r="P147" s="13"/>
+      <c r="O147" s="29"/>
+      <c r="P147" s="30"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
       <c r="E148" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F148" s="25">
+      <c r="F148" s="15">
         <v>388.21</v>
       </c>
-      <c r="G148" s="26">
+      <c r="G148" s="16">
         <f t="shared" si="32"/>
         <v>115.06</v>
       </c>
-      <c r="H148" s="25">
+      <c r="H148" s="15">
         <v>390.22</v>
       </c>
-      <c r="I148" s="26">
+      <c r="I148" s="16">
         <f t="shared" ref="I148:I153" si="36">H148-273.15</f>
         <v>117.07000000000005</v>
       </c>
-      <c r="J148" s="18"/>
+      <c r="J148" s="26"/>
       <c r="K148" s="3">
         <v>595.69000000000005</v>
       </c>
@@ -4729,31 +4816,31 @@
         <f t="shared" si="35"/>
         <v>329.33000000000004</v>
       </c>
-      <c r="O148" s="12"/>
-      <c r="P148" s="13"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="30"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
       <c r="E149" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F149" s="25">
+      <c r="F149" s="15">
         <v>319.58</v>
       </c>
-      <c r="G149" s="26">
+      <c r="G149" s="16">
         <f t="shared" si="32"/>
         <v>46.430000000000007</v>
       </c>
-      <c r="H149" s="25">
+      <c r="H149" s="15">
         <v>327.33</v>
       </c>
-      <c r="I149" s="26">
+      <c r="I149" s="16">
         <f t="shared" si="36"/>
         <v>54.180000000000007</v>
       </c>
-      <c r="J149" s="18"/>
+      <c r="J149" s="26"/>
       <c r="K149" s="3">
         <v>334.52</v>
       </c>
@@ -4768,28 +4855,28 @@
         <f t="shared" si="35"/>
         <v>76.230000000000018</v>
       </c>
-      <c r="O149" s="12"/>
-      <c r="P149" s="13"/>
+      <c r="O149" s="29"/>
+      <c r="P149" s="30"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E150" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F150" s="25">
+      <c r="F150" s="15">
         <v>304.24</v>
       </c>
-      <c r="G150" s="26">
+      <c r="G150" s="16">
         <f t="shared" si="32"/>
         <v>31.090000000000032</v>
       </c>
-      <c r="H150" s="25">
+      <c r="H150" s="15">
         <v>316.73</v>
       </c>
-      <c r="I150" s="26">
+      <c r="I150" s="16">
         <f t="shared" si="36"/>
         <v>43.580000000000041</v>
       </c>
-      <c r="J150" s="18"/>
+      <c r="J150" s="26"/>
       <c r="K150" s="3">
         <v>309.76</v>
       </c>
@@ -4804,28 +4891,28 @@
         <f t="shared" si="35"/>
         <v>51.830000000000041</v>
       </c>
-      <c r="O150" s="12"/>
-      <c r="P150" s="13"/>
+      <c r="O150" s="29"/>
+      <c r="P150" s="30"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E151" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F151" s="25">
+      <c r="F151" s="15">
         <v>319.58</v>
       </c>
-      <c r="G151" s="26">
+      <c r="G151" s="16">
         <f t="shared" si="32"/>
         <v>46.430000000000007</v>
       </c>
-      <c r="H151" s="25">
+      <c r="H151" s="15">
         <v>327.33</v>
       </c>
-      <c r="I151" s="26">
+      <c r="I151" s="16">
         <f t="shared" si="36"/>
         <v>54.180000000000007</v>
       </c>
-      <c r="J151" s="18"/>
+      <c r="J151" s="26"/>
       <c r="K151" s="3">
         <v>334.52</v>
       </c>
@@ -4840,28 +4927,28 @@
         <f t="shared" si="35"/>
         <v>76.230000000000018</v>
       </c>
-      <c r="O151" s="12"/>
-      <c r="P151" s="13"/>
+      <c r="O151" s="29"/>
+      <c r="P151" s="30"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E152" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F152" s="27">
+      <c r="F152" s="17">
         <v>304.24</v>
       </c>
-      <c r="G152" s="26">
+      <c r="G152" s="16">
         <f t="shared" si="32"/>
         <v>31.090000000000032</v>
       </c>
-      <c r="H152" s="25">
+      <c r="H152" s="15">
         <v>316.73</v>
       </c>
-      <c r="I152" s="28">
+      <c r="I152" s="18">
         <f t="shared" si="36"/>
         <v>43.580000000000041</v>
       </c>
-      <c r="J152" s="18"/>
+      <c r="J152" s="26"/>
       <c r="K152" s="3">
         <v>309.76</v>
       </c>
@@ -4876,28 +4963,28 @@
         <f t="shared" si="35"/>
         <v>51.830000000000041</v>
       </c>
-      <c r="O152" s="12"/>
-      <c r="P152" s="13"/>
+      <c r="O152" s="29"/>
+      <c r="P152" s="30"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E153" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F153" s="25">
+      <c r="F153" s="15">
         <v>335.01</v>
       </c>
-      <c r="G153" s="26">
+      <c r="G153" s="16">
         <f t="shared" si="32"/>
         <v>61.860000000000014</v>
       </c>
-      <c r="H153" s="25">
+      <c r="H153" s="15">
         <v>338.76</v>
       </c>
-      <c r="I153" s="26">
+      <c r="I153" s="16">
         <f t="shared" si="36"/>
         <v>65.610000000000014</v>
       </c>
-      <c r="J153" s="18"/>
+      <c r="J153" s="26"/>
       <c r="K153" s="3">
         <v>359.71</v>
       </c>
@@ -4912,11 +4999,11 @@
         <f t="shared" si="35"/>
         <v>100.08000000000004</v>
       </c>
-      <c r="O153" s="12"/>
-      <c r="P153" s="13"/>
+      <c r="O153" s="29"/>
+      <c r="P153" s="30"/>
     </row>
     <row r="156" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E156" s="15" t="s">
+      <c r="E156" s="9" t="s">
         <v>66</v>
       </c>
       <c r="F156" s="24" t="s">
@@ -4933,7 +5020,7 @@
       <c r="N156" s="24"/>
     </row>
     <row r="157" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E157" s="15" t="s">
+      <c r="E157" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F157" s="24"/>
@@ -4946,7 +5033,7 @@
       <c r="N157" s="24"/>
     </row>
     <row r="158" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E158" s="14" t="s">
+      <c r="E158" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F158" s="24"/>
@@ -4962,335 +5049,335 @@
       <c r="P158" s="1"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25"/>
       <c r="E159" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F159" s="32" t="s">
+      <c r="F159" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G159" s="32"/>
-      <c r="H159" s="32" t="s">
+      <c r="G159" s="23"/>
+      <c r="H159" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I159" s="32"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="32" t="s">
+      <c r="I159" s="23"/>
+      <c r="J159" s="26"/>
+      <c r="K159" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L159" s="32"/>
-      <c r="M159" s="32" t="s">
+      <c r="L159" s="23"/>
+      <c r="M159" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N159" s="32"/>
-      <c r="O159" s="9" t="s">
+      <c r="N159" s="23"/>
+      <c r="O159" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P159" s="10"/>
+      <c r="P159" s="28"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25"/>
       <c r="E160" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F160" s="11" t="s">
+      <c r="F160" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
-      <c r="I160" s="11"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="11" t="s">
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22"/>
+      <c r="J160" s="26"/>
+      <c r="K160" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L160" s="11"/>
-      <c r="M160" s="11"/>
-      <c r="N160" s="11"/>
-      <c r="O160" s="12"/>
-      <c r="P160" s="13"/>
+      <c r="L160" s="22"/>
+      <c r="M160" s="22"/>
+      <c r="N160" s="22"/>
+      <c r="O160" s="29"/>
+      <c r="P160" s="30"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25"/>
       <c r="E161" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F161" s="30">
+      <c r="F161" s="20">
         <v>342.04</v>
       </c>
-      <c r="G161" s="30"/>
-      <c r="H161" s="31">
+      <c r="G161" s="20"/>
+      <c r="H161" s="21">
         <f>F161-273.15</f>
         <v>68.890000000000043</v>
       </c>
-      <c r="I161" s="31"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="30">
+      <c r="I161" s="21"/>
+      <c r="J161" s="26"/>
+      <c r="K161" s="20">
         <v>322.26</v>
       </c>
-      <c r="L161" s="30"/>
-      <c r="M161" s="31">
+      <c r="L161" s="20"/>
+      <c r="M161" s="21">
         <f>K161-273.15</f>
         <v>49.110000000000014</v>
       </c>
-      <c r="N161" s="31"/>
-      <c r="O161" s="12"/>
-      <c r="P161" s="13"/>
+      <c r="N161" s="21"/>
+      <c r="O161" s="29"/>
+      <c r="P161" s="30"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25"/>
       <c r="E162" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F162" s="30">
+      <c r="F162" s="20">
         <v>319.17</v>
       </c>
-      <c r="G162" s="30"/>
-      <c r="H162" s="31">
+      <c r="G162" s="20"/>
+      <c r="H162" s="21">
         <f>F162-273.15</f>
         <v>46.020000000000039</v>
       </c>
-      <c r="I162" s="31"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="30">
+      <c r="I162" s="21"/>
+      <c r="J162" s="26"/>
+      <c r="K162" s="20">
         <v>301.64999999999998</v>
       </c>
-      <c r="L162" s="30"/>
-      <c r="M162" s="31">
+      <c r="L162" s="20"/>
+      <c r="M162" s="21">
         <f>K162-273.15</f>
         <v>28.5</v>
       </c>
-      <c r="N162" s="31"/>
-      <c r="O162" s="12"/>
-      <c r="P162" s="13"/>
+      <c r="N162" s="21"/>
+      <c r="O162" s="29"/>
+      <c r="P162" s="30"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
       <c r="E163" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F163" s="30">
+      <c r="F163" s="20">
         <v>317.06</v>
       </c>
-      <c r="G163" s="30"/>
-      <c r="H163" s="31">
+      <c r="G163" s="20"/>
+      <c r="H163" s="21">
         <f t="shared" ref="H163:H170" si="37">F163-273.15</f>
         <v>43.910000000000025</v>
       </c>
-      <c r="I163" s="31"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="30">
+      <c r="I163" s="21"/>
+      <c r="J163" s="26"/>
+      <c r="K163" s="20">
         <v>298.48</v>
       </c>
-      <c r="L163" s="30"/>
-      <c r="M163" s="31">
-        <f t="shared" ref="M163:M170" si="38">K163-273.15</f>
+      <c r="L163" s="20"/>
+      <c r="M163" s="21">
+        <f t="shared" ref="M163" si="38">K163-273.15</f>
         <v>25.330000000000041</v>
       </c>
-      <c r="N163" s="31"/>
-      <c r="O163" s="12"/>
-      <c r="P163" s="13"/>
+      <c r="N163" s="21"/>
+      <c r="O163" s="29"/>
+      <c r="P163" s="30"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
       <c r="E164" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F164" s="30" t="s">
+      <c r="F164" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G164" s="30"/>
-      <c r="H164" s="31" t="s">
+      <c r="G164" s="20"/>
+      <c r="H164" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I164" s="31"/>
-      <c r="J164" s="18"/>
-      <c r="K164" s="30">
+      <c r="I164" s="21"/>
+      <c r="J164" s="26"/>
+      <c r="K164" s="20">
         <v>378.41</v>
       </c>
-      <c r="L164" s="30"/>
-      <c r="M164" s="31">
+      <c r="L164" s="20"/>
+      <c r="M164" s="21">
         <f>K164-273.15</f>
         <v>105.26000000000005</v>
       </c>
-      <c r="N164" s="31"/>
-      <c r="O164" s="12"/>
-      <c r="P164" s="13"/>
+      <c r="N164" s="21"/>
+      <c r="O164" s="29"/>
+      <c r="P164" s="30"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="25"/>
       <c r="E165" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F165" s="30">
+      <c r="F165" s="20">
         <v>372.15</v>
       </c>
-      <c r="G165" s="30"/>
-      <c r="H165" s="31">
+      <c r="G165" s="20"/>
+      <c r="H165" s="21">
         <f t="shared" si="37"/>
         <v>99</v>
       </c>
-      <c r="I165" s="31"/>
-      <c r="J165" s="18"/>
-      <c r="K165" s="30">
+      <c r="I165" s="21"/>
+      <c r="J165" s="26"/>
+      <c r="K165" s="20">
         <v>566.69000000000005</v>
       </c>
-      <c r="L165" s="30"/>
-      <c r="M165" s="31">
+      <c r="L165" s="20"/>
+      <c r="M165" s="21">
         <f>K165-273.15</f>
         <v>293.54000000000008</v>
       </c>
-      <c r="N165" s="31"/>
-      <c r="O165" s="12"/>
-      <c r="P165" s="13"/>
+      <c r="N165" s="21"/>
+      <c r="O165" s="29"/>
+      <c r="P165" s="30"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="25"/>
       <c r="E166" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="30">
+      <c r="F166" s="20">
         <v>261.92</v>
       </c>
-      <c r="G166" s="30"/>
-      <c r="H166" s="31">
+      <c r="G166" s="20"/>
+      <c r="H166" s="21">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I166" s="31"/>
-      <c r="J166" s="18"/>
-      <c r="K166" s="30">
+      <c r="I166" s="21"/>
+      <c r="J166" s="26"/>
+      <c r="K166" s="20">
         <v>270.13</v>
       </c>
-      <c r="L166" s="30"/>
-      <c r="M166" s="31">
+      <c r="L166" s="20"/>
+      <c r="M166" s="21">
         <f t="shared" ref="M166:M170" si="39">K166-273.15</f>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N166" s="31"/>
-      <c r="O166" s="12"/>
-      <c r="P166" s="13"/>
+      <c r="N166" s="21"/>
+      <c r="O166" s="29"/>
+      <c r="P166" s="30"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F167" s="30">
+      <c r="F167" s="20">
         <v>214.52</v>
       </c>
-      <c r="G167" s="30"/>
-      <c r="H167" s="31">
+      <c r="G167" s="20"/>
+      <c r="H167" s="21">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I167" s="31"/>
-      <c r="J167" s="18"/>
-      <c r="K167" s="30">
+      <c r="I167" s="21"/>
+      <c r="J167" s="26"/>
+      <c r="K167" s="20">
         <v>243.61</v>
       </c>
-      <c r="L167" s="30"/>
-      <c r="M167" s="31">
+      <c r="L167" s="20"/>
+      <c r="M167" s="21">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N167" s="31"/>
-      <c r="O167" s="12"/>
-      <c r="P167" s="13"/>
+      <c r="N167" s="21"/>
+      <c r="O167" s="29"/>
+      <c r="P167" s="30"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E168" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F168" s="30">
+      <c r="F168" s="20">
         <v>261.92</v>
       </c>
-      <c r="G168" s="30"/>
-      <c r="H168" s="31">
+      <c r="G168" s="20"/>
+      <c r="H168" s="21">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I168" s="31"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="30">
+      <c r="I168" s="21"/>
+      <c r="J168" s="26"/>
+      <c r="K168" s="20">
         <v>270.13</v>
       </c>
-      <c r="L168" s="30"/>
-      <c r="M168" s="31">
+      <c r="L168" s="20"/>
+      <c r="M168" s="21">
         <f t="shared" si="39"/>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N168" s="31"/>
-      <c r="O168" s="12"/>
-      <c r="P168" s="13"/>
+      <c r="N168" s="21"/>
+      <c r="O168" s="29"/>
+      <c r="P168" s="30"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E169" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F169" s="30">
+      <c r="F169" s="20">
         <v>214.52</v>
       </c>
-      <c r="G169" s="30"/>
-      <c r="H169" s="31">
+      <c r="G169" s="20"/>
+      <c r="H169" s="21">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I169" s="31"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="30">
+      <c r="I169" s="21"/>
+      <c r="J169" s="26"/>
+      <c r="K169" s="20">
         <v>243.61</v>
       </c>
-      <c r="L169" s="30"/>
-      <c r="M169" s="31">
+      <c r="L169" s="20"/>
+      <c r="M169" s="21">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N169" s="31"/>
-      <c r="O169" s="12"/>
-      <c r="P169" s="13"/>
+      <c r="N169" s="21"/>
+      <c r="O169" s="29"/>
+      <c r="P169" s="30"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E170" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F170" s="30">
+      <c r="F170" s="20">
         <v>305.83999999999997</v>
       </c>
-      <c r="G170" s="30"/>
-      <c r="H170" s="31">
+      <c r="G170" s="20"/>
+      <c r="H170" s="21">
         <f t="shared" si="37"/>
         <v>32.69</v>
       </c>
-      <c r="I170" s="31"/>
-      <c r="J170" s="18"/>
-      <c r="K170" s="30">
+      <c r="I170" s="21"/>
+      <c r="J170" s="26"/>
+      <c r="K170" s="20">
         <v>301.44</v>
       </c>
-      <c r="L170" s="30"/>
-      <c r="M170" s="31">
+      <c r="L170" s="20"/>
+      <c r="M170" s="21">
         <f t="shared" si="39"/>
         <v>28.29000000000002</v>
       </c>
-      <c r="N170" s="31"/>
-      <c r="O170" s="12"/>
-      <c r="P170" s="13"/>
+      <c r="N170" s="21"/>
+      <c r="O170" s="29"/>
+      <c r="P170" s="30"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F172" s="5" t="s">
@@ -5301,103 +5388,212 @@
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F173" s="11" t="s">
+      <c r="F173" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G173" s="11"/>
+      <c r="G173" s="22"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F174" s="25">
+      <c r="F174" s="15">
         <v>320.70999999999998</v>
       </c>
-      <c r="G174" s="26">
+      <c r="G174" s="16">
         <f>F174-273.15</f>
         <v>47.56</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F175" s="25">
+      <c r="F175" s="15">
         <v>289.10000000000002</v>
       </c>
-      <c r="G175" s="26">
+      <c r="G175" s="16">
         <f t="shared" ref="G175:G176" si="40">F175-273.15</f>
         <v>15.950000000000045</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F176" s="25">
+      <c r="F176" s="15">
         <v>285.43</v>
       </c>
-      <c r="G176" s="26">
+      <c r="G176" s="16">
         <f t="shared" si="40"/>
         <v>12.28000000000003</v>
       </c>
     </row>
     <row r="177" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F177" s="25">
+      <c r="F177" s="15">
         <v>350.92</v>
       </c>
-      <c r="G177" s="26">
+      <c r="G177" s="16">
         <f t="shared" ref="G177:G182" si="41">F177-273.15</f>
         <v>77.770000000000039</v>
       </c>
     </row>
     <row r="178" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F178" s="25">
+      <c r="F178" s="15">
         <v>246.53</v>
       </c>
-      <c r="G178" s="26">
+      <c r="G178" s="16">
         <f t="shared" si="41"/>
         <v>-26.619999999999976</v>
       </c>
     </row>
     <row r="179" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F179" s="25">
+      <c r="F179" s="15">
         <v>210.43</v>
       </c>
-      <c r="G179" s="26">
+      <c r="G179" s="16">
         <f t="shared" si="41"/>
         <v>-62.71999999999997</v>
       </c>
     </row>
     <row r="180" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F180" s="25">
+      <c r="F180" s="15">
         <v>246.53</v>
       </c>
-      <c r="G180" s="26">
+      <c r="G180" s="16">
         <f t="shared" si="41"/>
         <v>-26.619999999999976</v>
       </c>
     </row>
     <row r="181" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F181" s="27">
+      <c r="F181" s="17">
         <v>210.43</v>
       </c>
-      <c r="G181" s="26">
+      <c r="G181" s="16">
         <f t="shared" si="41"/>
         <v>-62.71999999999997</v>
       </c>
     </row>
     <row r="182" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F182" s="25">
+      <c r="F182" s="15">
         <v>283.31</v>
       </c>
-      <c r="G182" s="26">
+      <c r="G182" s="16">
         <f t="shared" si="41"/>
         <v>10.160000000000025</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="O6:P15"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A5:C11"/>
+    <mergeCell ref="A21:C27"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="O22:P31"/>
+    <mergeCell ref="J21:J31"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J5:J15"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A37:C43"/>
+    <mergeCell ref="J37:J47"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P47"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="A54:C60"/>
+    <mergeCell ref="J54:J64"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P64"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="A71:C77"/>
+    <mergeCell ref="J71:J81"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P81"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:C95"/>
+    <mergeCell ref="J89:J99"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="O90:P99"/>
+    <mergeCell ref="A105:C111"/>
+    <mergeCell ref="J105:J115"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="O106:P115"/>
+    <mergeCell ref="F104:N104"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="A124:C131"/>
+    <mergeCell ref="J124:J135"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="O125:P135"/>
+    <mergeCell ref="A142:C149"/>
+    <mergeCell ref="J142:J153"/>
+    <mergeCell ref="O142:P142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="O143:P153"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="K139:N141"/>
+    <mergeCell ref="F156:I158"/>
+    <mergeCell ref="K156:N158"/>
+    <mergeCell ref="A159:C166"/>
+    <mergeCell ref="J159:J170"/>
+    <mergeCell ref="O159:P159"/>
+    <mergeCell ref="O160:P170"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F160:I160"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="K160:N160"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
     <mergeCell ref="K164:L164"/>
     <mergeCell ref="M164:N164"/>
     <mergeCell ref="K165:L165"/>
@@ -5410,126 +5606,17 @@
     <mergeCell ref="M162:N162"/>
     <mergeCell ref="K163:L163"/>
     <mergeCell ref="M163:N163"/>
-    <mergeCell ref="F160:I160"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="K160:N160"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M169:N169"/>
     <mergeCell ref="F170:G170"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
     <mergeCell ref="H170:I170"/>
-    <mergeCell ref="F156:I158"/>
-    <mergeCell ref="K156:N158"/>
-    <mergeCell ref="A159:C166"/>
-    <mergeCell ref="J159:J170"/>
-    <mergeCell ref="O159:P159"/>
-    <mergeCell ref="O160:P170"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="A142:C149"/>
-    <mergeCell ref="J142:J153"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="O143:P153"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="K139:N141"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="A124:C131"/>
-    <mergeCell ref="J124:J135"/>
-    <mergeCell ref="O124:P124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="O125:P135"/>
-    <mergeCell ref="A105:C111"/>
-    <mergeCell ref="J105:J115"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="O106:P115"/>
-    <mergeCell ref="F104:N104"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="A89:C95"/>
-    <mergeCell ref="J89:J99"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="O90:P99"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="A71:C77"/>
-    <mergeCell ref="J71:J81"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P81"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="A54:C60"/>
-    <mergeCell ref="J54:J64"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P64"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A37:C43"/>
-    <mergeCell ref="J37:J47"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P47"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="J5:J15"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="O6:P15"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A5:C11"/>
-    <mergeCell ref="A21:C27"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="O22:P31"/>
-    <mergeCell ref="J21:J31"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5555,119 +5642,119 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
       <c r="H12" t="s">
         <v>50</v>
       </c>
@@ -5691,39 +5778,39 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5737,4 +5824,1043 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="38">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="38">
+        <v>0</v>
+      </c>
+      <c r="K3" s="38">
+        <v>0</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="38">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="38">
+        <v>0</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>0</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="36">
+        <v>0</v>
+      </c>
+      <c r="K4" s="36">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="36">
+        <v>0</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="36">
+        <v>0</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>0</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="36">
+        <v>0</v>
+      </c>
+      <c r="L5" s="36">
+        <v>0</v>
+      </c>
+      <c r="M5" s="36">
+        <v>0</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="36">
+        <v>0</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>0</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="36">
+        <v>0</v>
+      </c>
+      <c r="L6" s="36">
+        <v>0</v>
+      </c>
+      <c r="M6" s="36">
+        <v>0</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="36">
+        <v>0</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>0</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="36">
+        <v>0</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="36">
+        <v>0</v>
+      </c>
+      <c r="M7" s="36">
+        <v>0</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="36">
+        <v>0</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>0</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="36">
+        <v>0</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="36">
+        <v>0</v>
+      </c>
+      <c r="M8" s="36">
+        <v>0</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="36">
+        <v>0</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="36">
+        <v>0</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="36">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="36">
+        <v>0</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>0</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0</v>
+      </c>
+      <c r="L10" s="36">
+        <v>0</v>
+      </c>
+      <c r="M10" s="36">
+        <v>0</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="36">
+        <v>0</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>0</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="36">
+        <v>0</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="36">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="36">
+        <v>0</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="36">
+        <v>0</v>
+      </c>
+      <c r="M11" s="36">
+        <v>0</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="36">
+        <v>0</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="36">
+        <v>0</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="36">
+        <v>0</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0</v>
+      </c>
+      <c r="L12" s="36">
+        <v>0</v>
+      </c>
+      <c r="M12" s="36">
+        <v>0</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" s="36">
+        <v>0</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="36">
+        <v>0</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="38">
+        <v>0</v>
+      </c>
+      <c r="J13" s="38">
+        <v>0</v>
+      </c>
+      <c r="K13" s="38">
+        <v>0</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="38">
+        <v>0</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>0</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+      <c r="C14" s="38">
+        <v>0</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0</v>
+      </c>
+      <c r="G14" s="38">
+        <v>0</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0</v>
+      </c>
+      <c r="K14" s="38">
+        <v>0</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="38">
+        <v>0</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" s="38">
+        <v>0</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>0</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="36">
+        <v>0</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="36">
+        <v>0</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="36">
+        <v>0</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36">
+        <v>0</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0</v>
+      </c>
+      <c r="H16" s="36">
+        <v>0</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="36">
+        <v>0</v>
+      </c>
+      <c r="K16" s="36">
+        <v>0</v>
+      </c>
+      <c r="L16" s="36">
+        <v>0</v>
+      </c>
+      <c r="M16" s="36">
+        <v>0</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" s="36">
+        <v>0</v>
+      </c>
+      <c r="P16" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="36">
+        <v>0</v>
+      </c>
+      <c r="R16" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="36">
+        <v>0</v>
+      </c>
+      <c r="P17" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="36">
+        <v>0</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0</v>
+      </c>
+      <c r="H18" s="36">
+        <v>0</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="36">
+        <v>0</v>
+      </c>
+      <c r="K18" s="36">
+        <v>0</v>
+      </c>
+      <c r="L18" s="36">
+        <v>0</v>
+      </c>
+      <c r="M18" s="36">
+        <v>0</v>
+      </c>
+      <c r="N18" s="36">
+        <v>0</v>
+      </c>
+      <c r="O18" s="36">
+        <v>0</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="36">
+        <v>0</v>
+      </c>
+      <c r="R18" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19" s="36">
+        <v>0</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="36">
+        <v>0</v>
+      </c>
+      <c r="R19" s="36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests.xlsx
+++ b/tests.xlsx
@@ -368,7 +368,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,31 +516,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -543,32 +526,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,28 +898,28 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
@@ -938,7 +935,7 @@
       <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="26"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
@@ -951,42 +948,42 @@
       <c r="N5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="28"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="27">
         <v>0.05</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27">
         <v>0.75</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="22">
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="27">
         <v>0.05</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22">
+      <c r="L6" s="27"/>
+      <c r="M6" s="27">
         <v>0.75</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="E7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1001,7 @@
         <f>H7-273.15</f>
         <v>84.37</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="3">
         <v>581.79999999999995</v>
       </c>
@@ -1019,13 +1016,13 @@
         <f>M7-273.15</f>
         <v>274.27999999999997</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1040,7 @@
         <f t="shared" ref="I8:I15" si="1">H8-273.15</f>
         <v>59.54000000000002</v>
       </c>
-      <c r="J8" s="26"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="3">
         <v>555.4</v>
       </c>
@@ -1058,13 +1055,13 @@
         <f t="shared" ref="N8:N15" si="3">M8-273.15</f>
         <v>253.71000000000004</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1082,7 +1079,7 @@
         <f t="shared" si="1"/>
         <v>58.100000000000023</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="3">
         <v>551.5</v>
       </c>
@@ -1097,13 +1094,13 @@
         <f t="shared" si="3"/>
         <v>251.76</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1118,7 @@
         <f t="shared" si="1"/>
         <v>114.84000000000003</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="3">
         <v>607.27</v>
       </c>
@@ -1136,13 +1133,13 @@
         <f t="shared" si="3"/>
         <v>301.55000000000007</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1157,7 @@
         <f t="shared" si="1"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="3">
         <v>490.39</v>
       </c>
@@ -1175,8 +1172,8 @@
         <f t="shared" si="3"/>
         <v>219.11</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
@@ -1196,7 +1193,7 @@
         <f t="shared" si="1"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="3">
         <v>341.44</v>
       </c>
@@ -1211,8 +1208,8 @@
         <f t="shared" si="3"/>
         <v>68.660000000000025</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
@@ -1232,7 +1229,7 @@
         <f t="shared" si="1"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J13" s="26"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="3">
         <v>490.39</v>
       </c>
@@ -1247,8 +1244,8 @@
         <f t="shared" si="3"/>
         <v>219.11</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
@@ -1268,7 +1265,7 @@
         <f t="shared" si="1"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J14" s="26"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="3">
         <v>341.44</v>
       </c>
@@ -1283,8 +1280,8 @@
         <f t="shared" si="3"/>
         <v>68.660000000000025</v>
       </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="s">
@@ -1304,7 +1301,7 @@
         <f t="shared" si="1"/>
         <v>63.53000000000003</v>
       </c>
-      <c r="J15" s="26"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="3">
         <v>538.29999999999995</v>
       </c>
@@ -1319,8 +1316,8 @@
         <f t="shared" si="3"/>
         <v>246.76</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E18" s="9" t="s">
@@ -1347,28 +1344,28 @@
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1384,7 +1381,7 @@
       <c r="I21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="26"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1397,42 +1394,42 @@
       <c r="N21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="28"/>
+      <c r="P21" s="25"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="27">
         <v>1E-3</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22">
+      <c r="G22" s="27"/>
+      <c r="H22" s="27">
         <v>400</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="22">
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="27">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22">
+      <c r="L22" s="27"/>
+      <c r="M22" s="27">
         <v>400</v>
       </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="30"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1447,7 @@
         <f>H23-273.15</f>
         <v>81.600000000000023</v>
       </c>
-      <c r="J23" s="26"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="3">
         <v>1769.3</v>
       </c>
@@ -1465,13 +1462,13 @@
         <f>M23-273.15</f>
         <v>165.8</v>
       </c>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="E24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1486,7 @@
         <f t="shared" ref="I24:I31" si="5">H24-273.15</f>
         <v>57.200000000000045</v>
       </c>
-      <c r="J24" s="26"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="3">
         <v>1768.5</v>
       </c>
@@ -1504,13 +1501,13 @@
         <f t="shared" ref="N24:N31" si="7">M24-273.15</f>
         <v>139.56</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1528,7 +1525,7 @@
         <f t="shared" si="5"/>
         <v>55.680000000000007</v>
       </c>
-      <c r="J25" s="26"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="3">
         <v>1768.49</v>
       </c>
@@ -1543,13 +1540,13 @@
         <f t="shared" si="7"/>
         <v>135.60000000000002</v>
       </c>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1567,7 +1564,7 @@
         <f t="shared" si="5"/>
         <v>111.89000000000004</v>
       </c>
-      <c r="J26" s="26"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="3">
         <v>1775.99</v>
       </c>
@@ -1582,13 +1579,13 @@
         <f t="shared" si="7"/>
         <v>194.07000000000005</v>
       </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1603,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J27" s="26"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="3">
         <v>1767.67</v>
       </c>
@@ -1621,8 +1618,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
@@ -1642,7 +1639,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J28" s="26"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="3">
         <v>339.87</v>
       </c>
@@ -1657,8 +1654,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="s">
@@ -1678,7 +1675,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J29" s="26"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="3">
         <v>1767.67</v>
       </c>
@@ -1693,8 +1690,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="23"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="s">
@@ -1714,7 +1711,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J30" s="26"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="3">
         <v>339.87</v>
       </c>
@@ -1729,8 +1726,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O30" s="29"/>
-      <c r="P30" s="30"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="23"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="s">
@@ -1750,7 +1747,7 @@
         <f t="shared" si="5"/>
         <v>56.94</v>
       </c>
-      <c r="J31" s="26"/>
+      <c r="J31" s="28"/>
       <c r="K31" s="3">
         <v>1768.44</v>
       </c>
@@ -1765,8 +1762,8 @@
         <f t="shared" si="7"/>
         <v>121.38</v>
       </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="30"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="23"/>
     </row>
     <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E34" s="9" t="s">
@@ -1793,28 +1790,28 @@
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
       <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
@@ -1830,7 +1827,7 @@
       <c r="I37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="26"/>
+      <c r="J37" s="28"/>
       <c r="K37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1843,42 +1840,42 @@
       <c r="N37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="27" t="s">
+      <c r="O37" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P37" s="28"/>
+      <c r="P37" s="25"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="E38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22">
+      <c r="G38" s="27"/>
+      <c r="H38" s="27">
         <v>0.05</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="22">
+      <c r="I38" s="27"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22">
+      <c r="L38" s="27"/>
+      <c r="M38" s="27">
         <v>0.05</v>
       </c>
-      <c r="N38" s="22"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="30"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="23"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
       <c r="E39" s="3" t="s">
         <v>0</v>
       </c>
@@ -1896,7 +1893,7 @@
         <f>H39-273.15</f>
         <v>87.62</v>
       </c>
-      <c r="J39" s="26"/>
+      <c r="J39" s="28"/>
       <c r="K39" s="3">
         <v>547.42999999999995</v>
       </c>
@@ -1911,13 +1908,13 @@
         <f>M39-273.15</f>
         <v>14114.06</v>
       </c>
-      <c r="O39" s="29"/>
-      <c r="P39" s="30"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="23"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
       <c r="E40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1935,7 +1932,7 @@
         <f t="shared" ref="I40:I47" si="9">H40-273.15</f>
         <v>62.270000000000039</v>
       </c>
-      <c r="J40" s="26"/>
+      <c r="J40" s="28"/>
       <c r="K40" s="3">
         <v>526.86</v>
       </c>
@@ -1950,13 +1947,13 @@
         <f t="shared" ref="N40:N47" si="11">M40-273.15</f>
         <v>14114.06</v>
       </c>
-      <c r="O40" s="29"/>
-      <c r="P40" s="30"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="23"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
       <c r="E41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1974,7 +1971,7 @@
         <f t="shared" si="9"/>
         <v>60.900000000000034</v>
       </c>
-      <c r="J41" s="26"/>
+      <c r="J41" s="28"/>
       <c r="K41" s="3">
         <v>524.91</v>
       </c>
@@ -1989,13 +1986,13 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O41" s="29"/>
-      <c r="P41" s="30"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="23"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,7 +2010,7 @@
         <f t="shared" si="9"/>
         <v>118.28000000000003</v>
       </c>
-      <c r="J42" s="26"/>
+      <c r="J42" s="28"/>
       <c r="K42" s="3">
         <v>574.70000000000005</v>
       </c>
@@ -2028,13 +2025,13 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O42" s="29"/>
-      <c r="P42" s="30"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="23"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2052,7 +2049,7 @@
         <f t="shared" si="9"/>
         <v>67.730000000000018</v>
       </c>
-      <c r="J43" s="26"/>
+      <c r="J43" s="28"/>
       <c r="K43" s="3">
         <v>492.26</v>
       </c>
@@ -2067,8 +2064,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O43" s="29"/>
-      <c r="P43" s="30"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="23"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E44" s="3" t="s">
@@ -2088,7 +2085,7 @@
         <f t="shared" si="9"/>
         <v>20.580000000000041</v>
       </c>
-      <c r="J44" s="26"/>
+      <c r="J44" s="28"/>
       <c r="K44" s="3">
         <v>341.81</v>
       </c>
@@ -2103,8 +2100,8 @@
         <f t="shared" si="11"/>
         <v>66.13</v>
       </c>
-      <c r="O44" s="29"/>
-      <c r="P44" s="30"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="23"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E45" s="3" t="s">
@@ -2124,7 +2121,7 @@
         <f t="shared" si="9"/>
         <v>67.730000000000018</v>
       </c>
-      <c r="J45" s="26"/>
+      <c r="J45" s="28"/>
       <c r="K45" s="3">
         <v>492.26</v>
       </c>
@@ -2139,8 +2136,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O45" s="29"/>
-      <c r="P45" s="30"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="23"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E46" s="3" t="s">
@@ -2160,7 +2157,7 @@
         <f t="shared" si="9"/>
         <v>20.580000000000041</v>
       </c>
-      <c r="J46" s="26"/>
+      <c r="J46" s="28"/>
       <c r="K46" s="3">
         <v>341.81</v>
       </c>
@@ -2175,8 +2172,8 @@
         <f t="shared" si="11"/>
         <v>66.13</v>
       </c>
-      <c r="O46" s="29"/>
-      <c r="P46" s="30"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="23"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E47" s="3" t="s">
@@ -2196,7 +2193,7 @@
         <f t="shared" si="9"/>
         <v>70.87</v>
       </c>
-      <c r="J47" s="26"/>
+      <c r="J47" s="28"/>
       <c r="K47" s="3">
         <v>519.91</v>
       </c>
@@ -2211,8 +2208,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O47" s="29"/>
-      <c r="P47" s="30"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="23"/>
     </row>
     <row r="50" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E50" s="6" t="s">
@@ -2244,28 +2241,28 @@
       <c r="E53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="31" t="s">
+      <c r="K53" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
       <c r="E54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2281,7 +2278,7 @@
       <c r="I54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="26"/>
+      <c r="J54" s="28"/>
       <c r="K54" s="5" t="s">
         <v>10</v>
       </c>
@@ -2294,42 +2291,42 @@
       <c r="N54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O54" s="27" t="s">
+      <c r="O54" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P54" s="28"/>
+      <c r="P54" s="25"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
       <c r="E55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22" t="s">
+      <c r="G55" s="27"/>
+      <c r="H55" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="22" t="s">
+      <c r="I55" s="27"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22" t="s">
+      <c r="L55" s="27"/>
+      <c r="M55" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="22"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="30"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="23"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
@@ -2347,7 +2344,7 @@
         <f>H56-273.15</f>
         <v>80.110000000000014</v>
       </c>
-      <c r="J56" s="26"/>
+      <c r="J56" s="28"/>
       <c r="K56" s="3">
         <v>438.71</v>
       </c>
@@ -2362,13 +2359,13 @@
         <f>M56-273.15</f>
         <v>150.03000000000003</v>
       </c>
-      <c r="O56" s="29"/>
-      <c r="P56" s="30"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="23"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
       <c r="E57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2386,7 +2383,7 @@
         <f t="shared" ref="I57:I64" si="13">H57-273.15</f>
         <v>55.580000000000041</v>
       </c>
-      <c r="J57" s="26"/>
+      <c r="J57" s="28"/>
       <c r="K57" s="3">
         <v>412.5</v>
       </c>
@@ -2401,13 +2398,13 @@
         <f t="shared" ref="N57:N64" si="15">M57-273.15</f>
         <v>123.33000000000004</v>
       </c>
-      <c r="O57" s="29"/>
-      <c r="P57" s="30"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="23"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
       <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2425,7 +2422,7 @@
         <f t="shared" si="13"/>
         <v>54.04000000000002</v>
       </c>
-      <c r="J58" s="26"/>
+      <c r="J58" s="28"/>
       <c r="K58" s="3">
         <v>408.56</v>
       </c>
@@ -2440,13 +2437,13 @@
         <f t="shared" si="15"/>
         <v>119.03000000000003</v>
       </c>
-      <c r="O58" s="29"/>
-      <c r="P58" s="30"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="23"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2464,7 +2461,7 @@
         <f t="shared" si="13"/>
         <v>110.30000000000001</v>
       </c>
-      <c r="J59" s="26"/>
+      <c r="J59" s="28"/>
       <c r="K59" s="3">
         <v>467</v>
       </c>
@@ -2479,13 +2476,13 @@
         <f t="shared" si="15"/>
         <v>178.41000000000003</v>
       </c>
-      <c r="O59" s="29"/>
-      <c r="P59" s="30"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="23"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
       <c r="E60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2503,7 +2500,7 @@
         <f t="shared" si="13"/>
         <v>27.830000000000041</v>
       </c>
-      <c r="J60" s="26"/>
+      <c r="J60" s="28"/>
       <c r="K60" s="3">
         <v>342.15</v>
       </c>
@@ -2518,8 +2515,8 @@
         <f t="shared" si="15"/>
         <v>45.57000000000005</v>
       </c>
-      <c r="O60" s="29"/>
-      <c r="P60" s="30"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="23"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E61" s="3" t="s">
@@ -2539,7 +2536,7 @@
         <f t="shared" si="13"/>
         <v>27.810000000000002</v>
       </c>
-      <c r="J61" s="26"/>
+      <c r="J61" s="28"/>
       <c r="K61" s="3">
         <v>342.11</v>
       </c>
@@ -2554,8 +2551,8 @@
         <f t="shared" si="15"/>
         <v>45.520000000000039</v>
       </c>
-      <c r="O61" s="29"/>
-      <c r="P61" s="30"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="23"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E62" s="3" t="s">
@@ -2575,7 +2572,7 @@
         <f t="shared" si="13"/>
         <v>27.830000000000041</v>
       </c>
-      <c r="J62" s="26"/>
+      <c r="J62" s="28"/>
       <c r="K62" s="3">
         <v>342.15</v>
       </c>
@@ -2590,8 +2587,8 @@
         <f t="shared" si="15"/>
         <v>45.57000000000005</v>
       </c>
-      <c r="O62" s="29"/>
-      <c r="P62" s="30"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="23"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E63" s="3" t="s">
@@ -2611,7 +2608,7 @@
         <f t="shared" si="13"/>
         <v>27.810000000000002</v>
       </c>
-      <c r="J63" s="26"/>
+      <c r="J63" s="28"/>
       <c r="K63" s="3">
         <v>342.11</v>
       </c>
@@ -2626,8 +2623,8 @@
         <f t="shared" si="15"/>
         <v>45.520000000000039</v>
       </c>
-      <c r="O63" s="29"/>
-      <c r="P63" s="30"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="23"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E64" s="3" t="s">
@@ -2647,7 +2644,7 @@
         <f t="shared" si="13"/>
         <v>52.990000000000009</v>
       </c>
-      <c r="J64" s="26"/>
+      <c r="J64" s="28"/>
       <c r="K64" s="3">
         <v>394.41</v>
       </c>
@@ -2662,8 +2659,8 @@
         <f t="shared" si="15"/>
         <v>102.79000000000002</v>
       </c>
-      <c r="O64" s="29"/>
-      <c r="P64" s="30"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="23"/>
     </row>
     <row r="67" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E67" s="6" t="s">
@@ -2695,28 +2692,28 @@
       <c r="E70" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="31" t="s">
+      <c r="F70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
       <c r="J70" s="10"/>
-      <c r="K70" s="31" t="s">
+      <c r="K70" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
       <c r="E71" s="4" t="s">
         <v>9</v>
       </c>
@@ -2732,7 +2729,7 @@
       <c r="I71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J71" s="26"/>
+      <c r="J71" s="28"/>
       <c r="K71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2745,42 +2742,42 @@
       <c r="N71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O71" s="27" t="s">
+      <c r="O71" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P71" s="28"/>
+      <c r="P71" s="25"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
       <c r="E72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22" t="s">
+      <c r="G72" s="27"/>
+      <c r="H72" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="22" t="s">
+      <c r="I72" s="27"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22" t="s">
+      <c r="L72" s="27"/>
+      <c r="M72" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="N72" s="22"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="30"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="23"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
       <c r="E73" s="3" t="s">
         <v>0</v>
       </c>
@@ -2798,7 +2795,7 @@
         <f>H73-273.15</f>
         <v>57.110000000000014</v>
       </c>
-      <c r="J73" s="26"/>
+      <c r="J73" s="28"/>
       <c r="K73" s="3">
         <v>385.35</v>
       </c>
@@ -2813,13 +2810,13 @@
         <f>M73-273.15</f>
         <v>87.06</v>
       </c>
-      <c r="O73" s="29"/>
-      <c r="P73" s="30"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="23"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
       <c r="E74" s="3" t="s">
         <v>1</v>
       </c>
@@ -2837,7 +2834,7 @@
         <f t="shared" ref="I74:I81" si="17">H74-273.15</f>
         <v>35.32000000000005</v>
       </c>
-      <c r="J74" s="26"/>
+      <c r="J74" s="28"/>
       <c r="K74" s="3">
         <v>357.98</v>
       </c>
@@ -2852,13 +2849,13 @@
         <f t="shared" ref="N74:N81" si="19">M74-273.15</f>
         <v>59.660000000000025</v>
       </c>
-      <c r="O74" s="29"/>
-      <c r="P74" s="30"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="23"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
       <c r="E75" s="3" t="s">
         <v>2</v>
       </c>
@@ -2876,7 +2873,7 @@
         <f t="shared" si="17"/>
         <v>32.700000000000045</v>
       </c>
-      <c r="J75" s="26"/>
+      <c r="J75" s="28"/>
       <c r="K75" s="3">
         <v>352.79</v>
       </c>
@@ -2891,13 +2888,13 @@
         <f t="shared" si="19"/>
         <v>53.890000000000043</v>
       </c>
-      <c r="O75" s="29"/>
-      <c r="P75" s="30"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="23"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
       <c r="E76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2915,7 +2912,7 @@
         <f t="shared" si="17"/>
         <v>86.62</v>
       </c>
-      <c r="J76" s="26"/>
+      <c r="J76" s="28"/>
       <c r="K76" s="3">
         <v>413.9</v>
       </c>
@@ -2930,13 +2927,13 @@
         <f t="shared" si="19"/>
         <v>115.70000000000005</v>
       </c>
-      <c r="O76" s="29"/>
-      <c r="P76" s="30"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="23"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
       <c r="E77" s="3" t="s">
         <v>4</v>
       </c>
@@ -2954,7 +2951,7 @@
         <f t="shared" si="17"/>
         <v>-51.529999999999973</v>
       </c>
-      <c r="J77" s="26"/>
+      <c r="J77" s="28"/>
       <c r="K77" s="3">
         <v>260.79000000000002</v>
       </c>
@@ -2969,8 +2966,8 @@
         <f t="shared" si="19"/>
         <v>-50.169999999999987</v>
       </c>
-      <c r="O77" s="29"/>
-      <c r="P77" s="30"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="23"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E78" s="3" t="s">
@@ -2990,7 +2987,7 @@
         <f t="shared" si="17"/>
         <v>-51.559999999999974</v>
       </c>
-      <c r="J78" s="26"/>
+      <c r="J78" s="28"/>
       <c r="K78" s="3">
         <v>260.75</v>
       </c>
@@ -3005,8 +3002,8 @@
         <f t="shared" si="19"/>
         <v>-50.21999999999997</v>
       </c>
-      <c r="O78" s="29"/>
-      <c r="P78" s="30"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="23"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E79" s="3" t="s">
@@ -3026,7 +3023,7 @@
         <f t="shared" si="17"/>
         <v>-51.529999999999973</v>
       </c>
-      <c r="J79" s="26"/>
+      <c r="J79" s="28"/>
       <c r="K79" s="3">
         <v>260.79000000000002</v>
       </c>
@@ -3041,8 +3038,8 @@
         <f t="shared" si="19"/>
         <v>-50.169999999999987</v>
       </c>
-      <c r="O79" s="29"/>
-      <c r="P79" s="30"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="23"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
@@ -3062,7 +3059,7 @@
         <f t="shared" si="17"/>
         <v>-51.559999999999974</v>
       </c>
-      <c r="J80" s="26"/>
+      <c r="J80" s="28"/>
       <c r="K80" s="3">
         <v>260.75</v>
       </c>
@@ -3077,8 +3074,8 @@
         <f t="shared" si="19"/>
         <v>-50.21999999999997</v>
       </c>
-      <c r="O80" s="29"/>
-      <c r="P80" s="30"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="23"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E81" s="3" t="s">
@@ -3098,7 +3095,7 @@
         <f t="shared" si="17"/>
         <v>11.400000000000034</v>
       </c>
-      <c r="J81" s="26"/>
+      <c r="J81" s="28"/>
       <c r="K81" s="3">
         <v>330.96</v>
       </c>
@@ -3113,8 +3110,8 @@
         <f t="shared" si="19"/>
         <v>28.390000000000043</v>
       </c>
-      <c r="O81" s="29"/>
-      <c r="P81" s="30"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="23"/>
     </row>
     <row r="84" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E84" s="6" t="s">
@@ -3162,28 +3159,28 @@
       <c r="E88" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F88" s="31" t="s">
+      <c r="F88" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
       <c r="J88" s="10"/>
-      <c r="K88" s="31" t="s">
+      <c r="K88" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
       <c r="E89" s="4" t="s">
         <v>9</v>
       </c>
@@ -3199,7 +3196,7 @@
       <c r="I89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J89" s="26"/>
+      <c r="J89" s="28"/>
       <c r="K89" s="5" t="s">
         <v>10</v>
       </c>
@@ -3212,42 +3209,42 @@
       <c r="N89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O89" s="27" t="s">
+      <c r="O89" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P89" s="28"/>
+      <c r="P89" s="25"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
       <c r="E90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="22" t="s">
+      <c r="F90" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22" t="s">
+      <c r="G90" s="27"/>
+      <c r="H90" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I90" s="22"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="22" t="s">
+      <c r="I90" s="27"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22" t="s">
+      <c r="L90" s="27"/>
+      <c r="M90" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="N90" s="22"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="30"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="23"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
       <c r="E91" s="3" t="s">
         <v>0</v>
       </c>
@@ -3265,7 +3262,7 @@
         <f>H91-273.15</f>
         <v>54.03000000000003</v>
       </c>
-      <c r="J91" s="26"/>
+      <c r="J91" s="28"/>
       <c r="K91" s="3">
         <v>376.58</v>
       </c>
@@ -3280,13 +3277,13 @@
         <f>M91-273.15</f>
         <v>77.82000000000005</v>
       </c>
-      <c r="O91" s="29"/>
-      <c r="P91" s="30"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="23"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
       <c r="E92" s="3" t="s">
         <v>1</v>
       </c>
@@ -3304,7 +3301,7 @@
         <f t="shared" ref="I92:I99" si="21">H92-273.15</f>
         <v>32.81</v>
       </c>
-      <c r="J92" s="26"/>
+      <c r="J92" s="28"/>
       <c r="K92" s="3">
         <v>349.55</v>
       </c>
@@ -3319,13 +3316,13 @@
         <f t="shared" ref="N92:N99" si="23">M92-273.15</f>
         <v>50.760000000000048</v>
       </c>
-      <c r="O92" s="29"/>
-      <c r="P92" s="30"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="23"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
       <c r="E93" s="3" t="s">
         <v>2</v>
       </c>
@@ -3343,7 +3340,7 @@
         <f t="shared" si="21"/>
         <v>29.939999999999998</v>
       </c>
-      <c r="J93" s="26"/>
+      <c r="J93" s="28"/>
       <c r="K93" s="3">
         <v>344.04</v>
       </c>
@@ -3358,13 +3355,13 @@
         <f t="shared" si="23"/>
         <v>44.710000000000036</v>
       </c>
-      <c r="O93" s="29"/>
-      <c r="P93" s="30"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="23"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,7 +3379,7 @@
         <f t="shared" si="21"/>
         <v>83.410000000000025</v>
       </c>
-      <c r="J94" s="26"/>
+      <c r="J94" s="28"/>
       <c r="K94" s="3">
         <v>405.12</v>
       </c>
@@ -3397,13 +3394,13 @@
         <f t="shared" si="23"/>
         <v>106.46000000000004</v>
       </c>
-      <c r="O94" s="29"/>
-      <c r="P94" s="30"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="23"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
       <c r="E95" s="3" t="s">
         <v>4</v>
       </c>
@@ -3421,7 +3418,7 @@
         <f t="shared" si="21"/>
         <v>-48.879999999999967</v>
       </c>
-      <c r="J95" s="26"/>
+      <c r="J95" s="28"/>
       <c r="K95" s="3">
         <v>260.83</v>
       </c>
@@ -3436,8 +3433,8 @@
         <f t="shared" si="23"/>
         <v>-47.149999999999977</v>
       </c>
-      <c r="O95" s="29"/>
-      <c r="P95" s="30"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="23"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E96" s="3" t="s">
@@ -3457,7 +3454,7 @@
         <f t="shared" si="21"/>
         <v>-48.909999999999968</v>
       </c>
-      <c r="J96" s="26"/>
+      <c r="J96" s="28"/>
       <c r="K96" s="3">
         <v>260.77999999999997</v>
       </c>
@@ -3472,8 +3469,8 @@
         <f t="shared" si="23"/>
         <v>-47.199999999999989</v>
       </c>
-      <c r="O96" s="29"/>
-      <c r="P96" s="30"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="23"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E97" s="3" t="s">
@@ -3493,7 +3490,7 @@
         <f t="shared" si="21"/>
         <v>-48.879999999999967</v>
       </c>
-      <c r="J97" s="26"/>
+      <c r="J97" s="28"/>
       <c r="K97" s="3">
         <v>260.83</v>
       </c>
@@ -3508,8 +3505,8 @@
         <f t="shared" si="23"/>
         <v>-47.149999999999977</v>
       </c>
-      <c r="O97" s="29"/>
-      <c r="P97" s="30"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="23"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E98" s="3" t="s">
@@ -3529,7 +3526,7 @@
         <f t="shared" si="21"/>
         <v>-48.909999999999968</v>
       </c>
-      <c r="J98" s="26"/>
+      <c r="J98" s="28"/>
       <c r="K98" s="3">
         <v>260.77999999999997</v>
       </c>
@@ -3544,8 +3541,8 @@
         <f t="shared" si="23"/>
         <v>-47.199999999999989</v>
       </c>
-      <c r="O98" s="29"/>
-      <c r="P98" s="30"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="23"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E99" s="3" t="s">
@@ -3565,7 +3562,7 @@
         <f t="shared" si="21"/>
         <v>4.5100000000000477</v>
       </c>
-      <c r="J99" s="26"/>
+      <c r="J99" s="28"/>
       <c r="K99" s="3">
         <v>318.83999999999997</v>
       </c>
@@ -3580,8 +3577,8 @@
         <f t="shared" si="23"/>
         <v>16.490000000000009</v>
       </c>
-      <c r="O99" s="29"/>
-      <c r="P99" s="30"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="23"/>
     </row>
     <row r="102" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E102" s="6" t="s">
@@ -3597,26 +3594,26 @@
       <c r="E104" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F104" s="31" t="s">
+      <c r="F104" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="31"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
       <c r="E105" s="4" t="s">
         <v>9</v>
       </c>
@@ -3632,7 +3629,7 @@
       <c r="I105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J105" s="26"/>
+      <c r="J105" s="28"/>
       <c r="K105" s="5" t="s">
         <v>10</v>
       </c>
@@ -3645,42 +3642,42 @@
       <c r="N105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O105" s="27" t="s">
+      <c r="O105" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P105" s="28"/>
+      <c r="P105" s="25"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
       <c r="E106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="F106" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22" t="s">
+      <c r="G106" s="27"/>
+      <c r="H106" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I106" s="22"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="22" t="s">
+      <c r="I106" s="27"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="22"/>
-      <c r="M106" s="22" t="s">
+      <c r="L106" s="27"/>
+      <c r="M106" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N106" s="22"/>
-      <c r="O106" s="29"/>
-      <c r="P106" s="30"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="23"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
       <c r="E107" s="3" t="s">
         <v>0</v>
       </c>
@@ -3698,7 +3695,7 @@
         <f>H107-273.15</f>
         <v>297.07000000000005</v>
       </c>
-      <c r="J107" s="26"/>
+      <c r="J107" s="28"/>
       <c r="K107" s="3">
         <v>571.03</v>
       </c>
@@ -3713,13 +3710,13 @@
         <f>M107-273.15</f>
         <v>160.83000000000004</v>
       </c>
-      <c r="O107" s="29"/>
-      <c r="P107" s="30"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="23"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
       <c r="E108" s="3" t="s">
         <v>1</v>
       </c>
@@ -3737,7 +3734,7 @@
         <f t="shared" ref="I108:I115" si="25">H108-273.15</f>
         <v>262.36</v>
       </c>
-      <c r="J108" s="26"/>
+      <c r="J108" s="28"/>
       <c r="K108" s="3">
         <v>536.29999999999995</v>
       </c>
@@ -3752,13 +3749,13 @@
         <f t="shared" ref="N108:N115" si="27">M108-273.15</f>
         <v>135.17000000000002</v>
       </c>
-      <c r="O108" s="29"/>
-      <c r="P108" s="30"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="23"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
       <c r="E109" s="3" t="s">
         <v>2</v>
       </c>
@@ -3776,7 +3773,7 @@
         <f t="shared" si="25"/>
         <v>250.84000000000003</v>
       </c>
-      <c r="J109" s="26"/>
+      <c r="J109" s="28"/>
       <c r="K109" s="3">
         <v>524.73</v>
       </c>
@@ -3791,13 +3788,13 @@
         <f t="shared" si="27"/>
         <v>131.47000000000003</v>
       </c>
-      <c r="O109" s="29"/>
-      <c r="P109" s="30"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="23"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
       <c r="E110" s="3" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +3812,7 @@
         <f t="shared" si="25"/>
         <v>325.94000000000005</v>
       </c>
-      <c r="J110" s="26"/>
+      <c r="J110" s="28"/>
       <c r="K110" s="3">
         <v>599.89</v>
       </c>
@@ -3830,13 +3827,13 @@
         <f t="shared" si="27"/>
         <v>185.82000000000005</v>
       </c>
-      <c r="O110" s="29"/>
-      <c r="P110" s="30"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="23"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
       <c r="E111" s="3" t="s">
         <v>4</v>
       </c>
@@ -3854,7 +3851,7 @@
         <f t="shared" si="25"/>
         <v>69.460000000000036</v>
       </c>
-      <c r="J111" s="26"/>
+      <c r="J111" s="28"/>
       <c r="K111" s="3">
         <v>342.61</v>
       </c>
@@ -3869,8 +3866,8 @@
         <f t="shared" si="27"/>
         <v>68.950000000000045</v>
       </c>
-      <c r="O111" s="29"/>
-      <c r="P111" s="30"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="23"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E112" s="3" t="s">
@@ -3890,7 +3887,7 @@
         <f t="shared" si="25"/>
         <v>69.410000000000025</v>
       </c>
-      <c r="J112" s="26"/>
+      <c r="J112" s="28"/>
       <c r="K112" s="3">
         <v>342.56</v>
       </c>
@@ -3905,8 +3902,8 @@
         <f t="shared" si="27"/>
         <v>68.900000000000034</v>
       </c>
-      <c r="O112" s="29"/>
-      <c r="P112" s="30"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="23"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E113" s="3" t="s">
@@ -3926,7 +3923,7 @@
         <f t="shared" si="25"/>
         <v>69.460000000000036</v>
       </c>
-      <c r="J113" s="26"/>
+      <c r="J113" s="28"/>
       <c r="K113" s="3">
         <v>342.61</v>
       </c>
@@ -3941,8 +3938,8 @@
         <f t="shared" si="27"/>
         <v>68.950000000000045</v>
       </c>
-      <c r="O113" s="29"/>
-      <c r="P113" s="30"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="23"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E114" s="3" t="s">
@@ -3962,7 +3959,7 @@
         <f t="shared" si="25"/>
         <v>69.410000000000025</v>
       </c>
-      <c r="J114" s="26"/>
+      <c r="J114" s="28"/>
       <c r="K114" s="3">
         <v>342.56</v>
       </c>
@@ -3977,8 +3974,8 @@
         <f t="shared" si="27"/>
         <v>68.900000000000034</v>
       </c>
-      <c r="O114" s="29"/>
-      <c r="P114" s="30"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="23"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E115" s="3" t="s">
@@ -3998,7 +3995,7 @@
         <f t="shared" si="25"/>
         <v>199.20000000000005</v>
       </c>
-      <c r="J115" s="26"/>
+      <c r="J115" s="28"/>
       <c r="K115" s="3">
         <v>472.84</v>
       </c>
@@ -4013,8 +4010,8 @@
         <f t="shared" si="27"/>
         <v>118.41000000000003</v>
       </c>
-      <c r="O115" s="29"/>
-      <c r="P115" s="30"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="23"/>
     </row>
     <row r="119" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E119" s="7" t="s">
@@ -4051,12 +4048,12 @@
       <c r="E123" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F123" s="31" t="s">
+      <c r="F123" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="31"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
       <c r="J123" s="10"/>
       <c r="K123" s="13" t="s">
         <v>61</v>
@@ -4068,11 +4065,11 @@
       <c r="P123" s="1"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
       <c r="E124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4088,7 +4085,7 @@
       <c r="I124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J124" s="26"/>
+      <c r="J124" s="28"/>
       <c r="K124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4101,44 +4098,44 @@
       <c r="N124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O124" s="27" t="s">
+      <c r="O124" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P124" s="28"/>
+      <c r="P124" s="25"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
       <c r="E125" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F125" s="22">
+      <c r="F125" s="27">
         <v>0.05</v>
       </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22">
+      <c r="G125" s="27"/>
+      <c r="H125" s="27">
         <v>0.75</v>
       </c>
-      <c r="I125" s="22"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="22">
+      <c r="I125" s="27"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="27">
         <v>0.05</v>
       </c>
-      <c r="L125" s="22"/>
-      <c r="M125" s="22">
+      <c r="L125" s="27"/>
+      <c r="M125" s="27">
         <v>0.75</v>
       </c>
-      <c r="N125" s="22"/>
-      <c r="O125" s="29" t="s">
+      <c r="N125" s="27"/>
+      <c r="O125" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="P125" s="30"/>
+      <c r="P125" s="23"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
       <c r="E126" s="3" t="s">
         <v>0</v>
       </c>
@@ -4156,7 +4153,7 @@
         <f>H126-273.15</f>
         <v>84.37</v>
       </c>
-      <c r="J126" s="26"/>
+      <c r="J126" s="28"/>
       <c r="K126" s="15">
         <v>357.13</v>
       </c>
@@ -4171,13 +4168,13 @@
         <f>M126-273.15</f>
         <v>82.460000000000036</v>
       </c>
-      <c r="O126" s="29"/>
-      <c r="P126" s="30"/>
+      <c r="O126" s="22"/>
+      <c r="P126" s="23"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="25"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
       <c r="E127" s="3" t="s">
         <v>1</v>
       </c>
@@ -4195,7 +4192,7 @@
         <f t="shared" ref="I127:I135" si="29">H127-273.15</f>
         <v>59.54000000000002</v>
       </c>
-      <c r="J127" s="26"/>
+      <c r="J127" s="28"/>
       <c r="K127" s="15">
         <v>332.57</v>
       </c>
@@ -4210,13 +4207,13 @@
         <f t="shared" ref="N127:N135" si="31">M127-273.15</f>
         <v>58.950000000000045</v>
       </c>
-      <c r="O127" s="29"/>
-      <c r="P127" s="30"/>
+      <c r="O127" s="22"/>
+      <c r="P127" s="23"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
       <c r="E128" s="3" t="s">
         <v>2</v>
       </c>
@@ -4234,7 +4231,7 @@
         <f t="shared" si="29"/>
         <v>58.100000000000023</v>
       </c>
-      <c r="J128" s="26"/>
+      <c r="J128" s="28"/>
       <c r="K128" s="15">
         <v>331.06</v>
       </c>
@@ -4249,13 +4246,13 @@
         <f t="shared" si="31"/>
         <v>57.590000000000032</v>
       </c>
-      <c r="O128" s="29"/>
-      <c r="P128" s="30"/>
+      <c r="O128" s="22"/>
+      <c r="P128" s="23"/>
     </row>
     <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
       <c r="E129" s="3" t="s">
         <v>64</v>
       </c>
@@ -4271,7 +4268,7 @@
       <c r="I129" s="16">
         <v>0</v>
       </c>
-      <c r="J129" s="26"/>
+      <c r="J129" s="28"/>
       <c r="K129" s="15">
         <v>384.69</v>
       </c>
@@ -4286,13 +4283,13 @@
         <f t="shared" si="31"/>
         <v>109.92000000000002</v>
       </c>
-      <c r="O129" s="29"/>
-      <c r="P129" s="30"/>
+      <c r="O129" s="22"/>
+      <c r="P129" s="23"/>
     </row>
     <row r="130" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
+      <c r="A130" s="26"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="26"/>
       <c r="E130" s="3" t="s">
         <v>3</v>
       </c>
@@ -4310,7 +4307,7 @@
         <f t="shared" si="29"/>
         <v>114.84000000000003</v>
       </c>
-      <c r="J130" s="26"/>
+      <c r="J130" s="28"/>
       <c r="K130" s="15">
         <v>387.73</v>
       </c>
@@ -4325,13 +4322,13 @@
         <f t="shared" si="31"/>
         <v>112.97000000000003</v>
       </c>
-      <c r="O130" s="29"/>
-      <c r="P130" s="30"/>
+      <c r="O130" s="22"/>
+      <c r="P130" s="23"/>
     </row>
     <row r="131" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="26"/>
       <c r="E131" s="3" t="s">
         <v>4</v>
       </c>
@@ -4349,7 +4346,7 @@
         <f t="shared" si="29"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J131" s="26"/>
+      <c r="J131" s="28"/>
       <c r="K131" s="15">
         <v>316.86</v>
       </c>
@@ -4364,8 +4361,8 @@
         <f t="shared" si="31"/>
         <v>48.04000000000002</v>
       </c>
-      <c r="O131" s="29"/>
-      <c r="P131" s="30"/>
+      <c r="O131" s="22"/>
+      <c r="P131" s="23"/>
     </row>
     <row r="132" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E132" s="3" t="s">
@@ -4385,7 +4382,7 @@
         <f t="shared" si="29"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J132" s="26"/>
+      <c r="J132" s="28"/>
       <c r="K132" s="15">
         <v>301.44</v>
       </c>
@@ -4400,8 +4397,8 @@
         <f t="shared" si="31"/>
         <v>29.53000000000003</v>
       </c>
-      <c r="O132" s="29"/>
-      <c r="P132" s="30"/>
+      <c r="O132" s="22"/>
+      <c r="P132" s="23"/>
     </row>
     <row r="133" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E133" s="3" t="s">
@@ -4421,7 +4418,7 @@
         <f t="shared" si="29"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J133" s="26"/>
+      <c r="J133" s="28"/>
       <c r="K133" s="15">
         <v>316.86</v>
       </c>
@@ -4436,8 +4433,8 @@
         <f t="shared" si="31"/>
         <v>48.04000000000002</v>
       </c>
-      <c r="O133" s="29"/>
-      <c r="P133" s="30"/>
+      <c r="O133" s="22"/>
+      <c r="P133" s="23"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E134" s="3" t="s">
@@ -4457,7 +4454,7 @@
         <f t="shared" si="29"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J134" s="26"/>
+      <c r="J134" s="28"/>
       <c r="K134" s="15">
         <v>301.44</v>
       </c>
@@ -4472,8 +4469,8 @@
         <f t="shared" si="31"/>
         <v>29.53000000000003</v>
       </c>
-      <c r="O134" s="29"/>
-      <c r="P134" s="30"/>
+      <c r="O134" s="22"/>
+      <c r="P134" s="23"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E135" s="3" t="s">
@@ -4493,7 +4490,7 @@
         <f t="shared" si="29"/>
         <v>63.53000000000003</v>
       </c>
-      <c r="J135" s="26"/>
+      <c r="J135" s="28"/>
       <c r="K135" s="15">
         <v>334.73</v>
       </c>
@@ -4508,8 +4505,8 @@
         <f t="shared" si="31"/>
         <v>62.470000000000027</v>
       </c>
-      <c r="O135" s="29"/>
-      <c r="P135" s="30"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="23"/>
     </row>
     <row r="138" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E138" s="7"/>
@@ -4518,54 +4515,54 @@
       <c r="E139" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F139" s="24" t="s">
+      <c r="F139" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G139" s="24"/>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-      <c r="K139" s="24" t="s">
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
+      <c r="K139" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L139" s="24"/>
-      <c r="M139" s="24"/>
-      <c r="N139" s="24"/>
+      <c r="L139" s="30"/>
+      <c r="M139" s="30"/>
+      <c r="N139" s="30"/>
     </row>
     <row r="140" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E140" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="24"/>
-      <c r="K140" s="24"/>
-      <c r="L140" s="24"/>
-      <c r="M140" s="24"/>
-      <c r="N140" s="24"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="30"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="30"/>
+      <c r="M140" s="30"/>
+      <c r="N140" s="30"/>
     </row>
     <row r="141" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E141" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="30"/>
       <c r="J141" s="1"/>
-      <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
-      <c r="M141" s="24"/>
-      <c r="N141" s="24"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="30"/>
+      <c r="M141" s="30"/>
+      <c r="N141" s="30"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="26"/>
       <c r="E142" s="4" t="s">
         <v>9</v>
       </c>
@@ -4581,7 +4578,7 @@
       <c r="I142" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J142" s="26"/>
+      <c r="J142" s="28"/>
       <c r="K142" s="5" t="s">
         <v>10</v>
       </c>
@@ -4594,42 +4591,42 @@
       <c r="N142" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O142" s="27" t="s">
+      <c r="O142" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P142" s="28"/>
+      <c r="P142" s="25"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="25"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="25"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
       <c r="E143" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F143" s="22" t="s">
+      <c r="F143" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G143" s="22"/>
-      <c r="H143" s="22" t="s">
+      <c r="G143" s="27"/>
+      <c r="H143" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I143" s="22"/>
-      <c r="J143" s="26"/>
-      <c r="K143" s="22" t="s">
+      <c r="I143" s="27"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="L143" s="22"/>
-      <c r="M143" s="22" t="s">
+      <c r="L143" s="27"/>
+      <c r="M143" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="N143" s="22"/>
-      <c r="O143" s="29"/>
-      <c r="P143" s="30"/>
+      <c r="N143" s="27"/>
+      <c r="O143" s="22"/>
+      <c r="P143" s="23"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="25"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="25"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
       <c r="E144" s="3" t="s">
         <v>0</v>
       </c>
@@ -4647,7 +4644,7 @@
         <f>H144-273.15</f>
         <v>86.300000000000011</v>
       </c>
-      <c r="J144" s="26"/>
+      <c r="J144" s="28"/>
       <c r="K144" s="3">
         <v>378.01</v>
       </c>
@@ -4662,13 +4659,13 @@
         <f>M144-273.15</f>
         <v>117.72000000000003</v>
       </c>
-      <c r="O144" s="29"/>
-      <c r="P144" s="30"/>
+      <c r="O144" s="22"/>
+      <c r="P144" s="23"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="25"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="25"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="26"/>
       <c r="E145" s="3" t="s">
         <v>1</v>
       </c>
@@ -4686,7 +4683,7 @@
         <f t="shared" ref="I145:I146" si="33">H145-273.15</f>
         <v>60.75</v>
       </c>
-      <c r="J145" s="26"/>
+      <c r="J145" s="28"/>
       <c r="K145" s="3">
         <v>357.15</v>
       </c>
@@ -4701,13 +4698,13 @@
         <f t="shared" ref="N145:N153" si="35">M145-273.15</f>
         <v>96.970000000000027</v>
       </c>
-      <c r="O145" s="29"/>
-      <c r="P145" s="30"/>
+      <c r="O145" s="22"/>
+      <c r="P145" s="23"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="25"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="25"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="26"/>
       <c r="E146" s="3" t="s">
         <v>2</v>
       </c>
@@ -4725,7 +4722,7 @@
         <f t="shared" si="33"/>
         <v>59.28000000000003</v>
       </c>
-      <c r="J146" s="26"/>
+      <c r="J146" s="28"/>
       <c r="K146" s="3">
         <v>354.26</v>
       </c>
@@ -4740,13 +4737,13 @@
         <f t="shared" si="35"/>
         <v>94.170000000000016</v>
       </c>
-      <c r="O146" s="29"/>
-      <c r="P146" s="30"/>
+      <c r="O146" s="22"/>
+      <c r="P146" s="23"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="25"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="26"/>
       <c r="E147" s="3" t="s">
         <v>64</v>
       </c>
@@ -4762,7 +4759,7 @@
       <c r="I147" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J147" s="26"/>
+      <c r="J147" s="28"/>
       <c r="K147" s="3">
         <v>422.08</v>
       </c>
@@ -4777,13 +4774,13 @@
         <f t="shared" si="35"/>
         <v>159.18</v>
       </c>
-      <c r="O147" s="29"/>
-      <c r="P147" s="30"/>
+      <c r="O147" s="22"/>
+      <c r="P147" s="23"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="25"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="26"/>
       <c r="E148" s="3" t="s">
         <v>3</v>
       </c>
@@ -4801,7 +4798,7 @@
         <f t="shared" ref="I148:I153" si="36">H148-273.15</f>
         <v>117.07000000000005</v>
       </c>
-      <c r="J148" s="26"/>
+      <c r="J148" s="28"/>
       <c r="K148" s="3">
         <v>595.69000000000005</v>
       </c>
@@ -4816,13 +4813,13 @@
         <f t="shared" si="35"/>
         <v>329.33000000000004</v>
       </c>
-      <c r="O148" s="29"/>
-      <c r="P148" s="30"/>
+      <c r="O148" s="22"/>
+      <c r="P148" s="23"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="25"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="26"/>
       <c r="E149" s="3" t="s">
         <v>4</v>
       </c>
@@ -4840,7 +4837,7 @@
         <f t="shared" si="36"/>
         <v>54.180000000000007</v>
       </c>
-      <c r="J149" s="26"/>
+      <c r="J149" s="28"/>
       <c r="K149" s="3">
         <v>334.52</v>
       </c>
@@ -4855,8 +4852,8 @@
         <f t="shared" si="35"/>
         <v>76.230000000000018</v>
       </c>
-      <c r="O149" s="29"/>
-      <c r="P149" s="30"/>
+      <c r="O149" s="22"/>
+      <c r="P149" s="23"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E150" s="3" t="s">
@@ -4876,7 +4873,7 @@
         <f t="shared" si="36"/>
         <v>43.580000000000041</v>
       </c>
-      <c r="J150" s="26"/>
+      <c r="J150" s="28"/>
       <c r="K150" s="3">
         <v>309.76</v>
       </c>
@@ -4891,8 +4888,8 @@
         <f t="shared" si="35"/>
         <v>51.830000000000041</v>
       </c>
-      <c r="O150" s="29"/>
-      <c r="P150" s="30"/>
+      <c r="O150" s="22"/>
+      <c r="P150" s="23"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E151" s="3" t="s">
@@ -4912,7 +4909,7 @@
         <f t="shared" si="36"/>
         <v>54.180000000000007</v>
       </c>
-      <c r="J151" s="26"/>
+      <c r="J151" s="28"/>
       <c r="K151" s="3">
         <v>334.52</v>
       </c>
@@ -4927,8 +4924,8 @@
         <f t="shared" si="35"/>
         <v>76.230000000000018</v>
       </c>
-      <c r="O151" s="29"/>
-      <c r="P151" s="30"/>
+      <c r="O151" s="22"/>
+      <c r="P151" s="23"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E152" s="3" t="s">
@@ -4948,7 +4945,7 @@
         <f t="shared" si="36"/>
         <v>43.580000000000041</v>
       </c>
-      <c r="J152" s="26"/>
+      <c r="J152" s="28"/>
       <c r="K152" s="3">
         <v>309.76</v>
       </c>
@@ -4963,8 +4960,8 @@
         <f t="shared" si="35"/>
         <v>51.830000000000041</v>
       </c>
-      <c r="O152" s="29"/>
-      <c r="P152" s="30"/>
+      <c r="O152" s="22"/>
+      <c r="P152" s="23"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E153" s="3" t="s">
@@ -4984,7 +4981,7 @@
         <f t="shared" si="36"/>
         <v>65.610000000000014</v>
       </c>
-      <c r="J153" s="26"/>
+      <c r="J153" s="28"/>
       <c r="K153" s="3">
         <v>359.71</v>
       </c>
@@ -4999,385 +4996,385 @@
         <f t="shared" si="35"/>
         <v>100.08000000000004</v>
       </c>
-      <c r="O153" s="29"/>
-      <c r="P153" s="30"/>
+      <c r="O153" s="22"/>
+      <c r="P153" s="23"/>
     </row>
     <row r="156" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E156" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F156" s="24" t="s">
+      <c r="F156" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G156" s="24"/>
-      <c r="H156" s="24"/>
-      <c r="I156" s="24"/>
-      <c r="K156" s="24" t="s">
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="30"/>
+      <c r="K156" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L156" s="24"/>
-      <c r="M156" s="24"/>
-      <c r="N156" s="24"/>
+      <c r="L156" s="30"/>
+      <c r="M156" s="30"/>
+      <c r="N156" s="30"/>
     </row>
     <row r="157" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E157" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F157" s="24"/>
-      <c r="G157" s="24"/>
-      <c r="H157" s="24"/>
-      <c r="I157" s="24"/>
-      <c r="K157" s="24"/>
-      <c r="L157" s="24"/>
-      <c r="M157" s="24"/>
-      <c r="N157" s="24"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
+      <c r="I157" s="30"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="30"/>
+      <c r="M157" s="30"/>
+      <c r="N157" s="30"/>
     </row>
     <row r="158" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E158" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
-      <c r="H158" s="24"/>
-      <c r="I158" s="24"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
       <c r="J158" s="1"/>
-      <c r="K158" s="24"/>
-      <c r="L158" s="24"/>
-      <c r="M158" s="24"/>
-      <c r="N158" s="24"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="30"/>
+      <c r="M158" s="30"/>
+      <c r="N158" s="30"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B159" s="25"/>
-      <c r="C159" s="25"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="26"/>
       <c r="E159" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F159" s="23" t="s">
+      <c r="F159" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G159" s="23"/>
-      <c r="H159" s="23" t="s">
+      <c r="G159" s="32"/>
+      <c r="H159" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I159" s="23"/>
-      <c r="J159" s="26"/>
-      <c r="K159" s="23" t="s">
+      <c r="I159" s="32"/>
+      <c r="J159" s="28"/>
+      <c r="K159" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L159" s="23"/>
-      <c r="M159" s="23" t="s">
+      <c r="L159" s="32"/>
+      <c r="M159" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N159" s="23"/>
-      <c r="O159" s="27" t="s">
+      <c r="N159" s="32"/>
+      <c r="O159" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P159" s="28"/>
+      <c r="P159" s="25"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="25"/>
-      <c r="B160" s="25"/>
-      <c r="C160" s="25"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="26"/>
       <c r="E160" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F160" s="22" t="s">
+      <c r="F160" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G160" s="22"/>
-      <c r="H160" s="22"/>
-      <c r="I160" s="22"/>
-      <c r="J160" s="26"/>
-      <c r="K160" s="22" t="s">
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L160" s="22"/>
-      <c r="M160" s="22"/>
-      <c r="N160" s="22"/>
-      <c r="O160" s="29"/>
-      <c r="P160" s="30"/>
+      <c r="L160" s="27"/>
+      <c r="M160" s="27"/>
+      <c r="N160" s="27"/>
+      <c r="O160" s="22"/>
+      <c r="P160" s="23"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="25"/>
-      <c r="B161" s="25"/>
-      <c r="C161" s="25"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
       <c r="E161" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F161" s="20">
+      <c r="F161" s="31">
         <v>342.04</v>
       </c>
-      <c r="G161" s="20"/>
-      <c r="H161" s="21">
+      <c r="G161" s="31"/>
+      <c r="H161" s="33">
         <f>F161-273.15</f>
         <v>68.890000000000043</v>
       </c>
-      <c r="I161" s="21"/>
-      <c r="J161" s="26"/>
-      <c r="K161" s="20">
+      <c r="I161" s="33"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="31">
         <v>322.26</v>
       </c>
-      <c r="L161" s="20"/>
-      <c r="M161" s="21">
+      <c r="L161" s="31"/>
+      <c r="M161" s="33">
         <f>K161-273.15</f>
         <v>49.110000000000014</v>
       </c>
-      <c r="N161" s="21"/>
-      <c r="O161" s="29"/>
-      <c r="P161" s="30"/>
+      <c r="N161" s="33"/>
+      <c r="O161" s="22"/>
+      <c r="P161" s="23"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="25"/>
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
       <c r="E162" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F162" s="20">
+      <c r="F162" s="31">
         <v>319.17</v>
       </c>
-      <c r="G162" s="20"/>
-      <c r="H162" s="21">
+      <c r="G162" s="31"/>
+      <c r="H162" s="33">
         <f>F162-273.15</f>
         <v>46.020000000000039</v>
       </c>
-      <c r="I162" s="21"/>
-      <c r="J162" s="26"/>
-      <c r="K162" s="20">
+      <c r="I162" s="33"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="31">
         <v>301.64999999999998</v>
       </c>
-      <c r="L162" s="20"/>
-      <c r="M162" s="21">
+      <c r="L162" s="31"/>
+      <c r="M162" s="33">
         <f>K162-273.15</f>
         <v>28.5</v>
       </c>
-      <c r="N162" s="21"/>
-      <c r="O162" s="29"/>
-      <c r="P162" s="30"/>
+      <c r="N162" s="33"/>
+      <c r="O162" s="22"/>
+      <c r="P162" s="23"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="25"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="25"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
       <c r="E163" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F163" s="20">
+      <c r="F163" s="31">
         <v>317.06</v>
       </c>
-      <c r="G163" s="20"/>
-      <c r="H163" s="21">
+      <c r="G163" s="31"/>
+      <c r="H163" s="33">
         <f t="shared" ref="H163:H170" si="37">F163-273.15</f>
         <v>43.910000000000025</v>
       </c>
-      <c r="I163" s="21"/>
-      <c r="J163" s="26"/>
-      <c r="K163" s="20">
+      <c r="I163" s="33"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="31">
         <v>298.48</v>
       </c>
-      <c r="L163" s="20"/>
-      <c r="M163" s="21">
+      <c r="L163" s="31"/>
+      <c r="M163" s="33">
         <f t="shared" ref="M163" si="38">K163-273.15</f>
         <v>25.330000000000041</v>
       </c>
-      <c r="N163" s="21"/>
-      <c r="O163" s="29"/>
-      <c r="P163" s="30"/>
+      <c r="N163" s="33"/>
+      <c r="O163" s="22"/>
+      <c r="P163" s="23"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="25"/>
-      <c r="B164" s="25"/>
-      <c r="C164" s="25"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
       <c r="E164" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F164" s="20" t="s">
+      <c r="F164" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G164" s="20"/>
-      <c r="H164" s="21" t="s">
+      <c r="G164" s="31"/>
+      <c r="H164" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I164" s="21"/>
-      <c r="J164" s="26"/>
-      <c r="K164" s="20">
+      <c r="I164" s="33"/>
+      <c r="J164" s="28"/>
+      <c r="K164" s="31">
         <v>378.41</v>
       </c>
-      <c r="L164" s="20"/>
-      <c r="M164" s="21">
+      <c r="L164" s="31"/>
+      <c r="M164" s="33">
         <f>K164-273.15</f>
         <v>105.26000000000005</v>
       </c>
-      <c r="N164" s="21"/>
-      <c r="O164" s="29"/>
-      <c r="P164" s="30"/>
+      <c r="N164" s="33"/>
+      <c r="O164" s="22"/>
+      <c r="P164" s="23"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="25"/>
-      <c r="B165" s="25"/>
-      <c r="C165" s="25"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
       <c r="E165" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F165" s="20">
+      <c r="F165" s="31">
         <v>372.15</v>
       </c>
-      <c r="G165" s="20"/>
-      <c r="H165" s="21">
+      <c r="G165" s="31"/>
+      <c r="H165" s="33">
         <f t="shared" si="37"/>
         <v>99</v>
       </c>
-      <c r="I165" s="21"/>
-      <c r="J165" s="26"/>
-      <c r="K165" s="20">
+      <c r="I165" s="33"/>
+      <c r="J165" s="28"/>
+      <c r="K165" s="31">
         <v>566.69000000000005</v>
       </c>
-      <c r="L165" s="20"/>
-      <c r="M165" s="21">
+      <c r="L165" s="31"/>
+      <c r="M165" s="33">
         <f>K165-273.15</f>
         <v>293.54000000000008</v>
       </c>
-      <c r="N165" s="21"/>
-      <c r="O165" s="29"/>
-      <c r="P165" s="30"/>
+      <c r="N165" s="33"/>
+      <c r="O165" s="22"/>
+      <c r="P165" s="23"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="25"/>
-      <c r="B166" s="25"/>
-      <c r="C166" s="25"/>
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="26"/>
       <c r="E166" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="20">
+      <c r="F166" s="31">
         <v>261.92</v>
       </c>
-      <c r="G166" s="20"/>
-      <c r="H166" s="21">
+      <c r="G166" s="31"/>
+      <c r="H166" s="33">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I166" s="21"/>
-      <c r="J166" s="26"/>
-      <c r="K166" s="20">
+      <c r="I166" s="33"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="31">
         <v>270.13</v>
       </c>
-      <c r="L166" s="20"/>
-      <c r="M166" s="21">
+      <c r="L166" s="31"/>
+      <c r="M166" s="33">
         <f t="shared" ref="M166:M170" si="39">K166-273.15</f>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N166" s="21"/>
-      <c r="O166" s="29"/>
-      <c r="P166" s="30"/>
+      <c r="N166" s="33"/>
+      <c r="O166" s="22"/>
+      <c r="P166" s="23"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F167" s="20">
+      <c r="F167" s="31">
         <v>214.52</v>
       </c>
-      <c r="G167" s="20"/>
-      <c r="H167" s="21">
+      <c r="G167" s="31"/>
+      <c r="H167" s="33">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I167" s="21"/>
-      <c r="J167" s="26"/>
-      <c r="K167" s="20">
+      <c r="I167" s="33"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="31">
         <v>243.61</v>
       </c>
-      <c r="L167" s="20"/>
-      <c r="M167" s="21">
+      <c r="L167" s="31"/>
+      <c r="M167" s="33">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N167" s="21"/>
-      <c r="O167" s="29"/>
-      <c r="P167" s="30"/>
+      <c r="N167" s="33"/>
+      <c r="O167" s="22"/>
+      <c r="P167" s="23"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E168" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F168" s="20">
+      <c r="F168" s="31">
         <v>261.92</v>
       </c>
-      <c r="G168" s="20"/>
-      <c r="H168" s="21">
+      <c r="G168" s="31"/>
+      <c r="H168" s="33">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I168" s="21"/>
-      <c r="J168" s="26"/>
-      <c r="K168" s="20">
+      <c r="I168" s="33"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="31">
         <v>270.13</v>
       </c>
-      <c r="L168" s="20"/>
-      <c r="M168" s="21">
+      <c r="L168" s="31"/>
+      <c r="M168" s="33">
         <f t="shared" si="39"/>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N168" s="21"/>
-      <c r="O168" s="29"/>
-      <c r="P168" s="30"/>
+      <c r="N168" s="33"/>
+      <c r="O168" s="22"/>
+      <c r="P168" s="23"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E169" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F169" s="20">
+      <c r="F169" s="31">
         <v>214.52</v>
       </c>
-      <c r="G169" s="20"/>
-      <c r="H169" s="21">
+      <c r="G169" s="31"/>
+      <c r="H169" s="33">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I169" s="21"/>
-      <c r="J169" s="26"/>
-      <c r="K169" s="20">
+      <c r="I169" s="33"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="31">
         <v>243.61</v>
       </c>
-      <c r="L169" s="20"/>
-      <c r="M169" s="21">
+      <c r="L169" s="31"/>
+      <c r="M169" s="33">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N169" s="21"/>
-      <c r="O169" s="29"/>
-      <c r="P169" s="30"/>
+      <c r="N169" s="33"/>
+      <c r="O169" s="22"/>
+      <c r="P169" s="23"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E170" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F170" s="20">
+      <c r="F170" s="31">
         <v>305.83999999999997</v>
       </c>
-      <c r="G170" s="20"/>
-      <c r="H170" s="21">
+      <c r="G170" s="31"/>
+      <c r="H170" s="33">
         <f t="shared" si="37"/>
         <v>32.69</v>
       </c>
-      <c r="I170" s="21"/>
-      <c r="J170" s="26"/>
-      <c r="K170" s="20">
+      <c r="I170" s="33"/>
+      <c r="J170" s="28"/>
+      <c r="K170" s="31">
         <v>301.44</v>
       </c>
-      <c r="L170" s="20"/>
-      <c r="M170" s="21">
+      <c r="L170" s="31"/>
+      <c r="M170" s="33">
         <f t="shared" si="39"/>
         <v>28.29000000000002</v>
       </c>
-      <c r="N170" s="21"/>
-      <c r="O170" s="29"/>
-      <c r="P170" s="30"/>
+      <c r="N170" s="33"/>
+      <c r="O170" s="22"/>
+      <c r="P170" s="23"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F172" s="5" t="s">
@@ -5388,10 +5385,10 @@
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F173" s="22" t="s">
+      <c r="F173" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G173" s="22"/>
+      <c r="G173" s="27"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F174" s="15">
@@ -5476,94 +5473,35 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="O6:P15"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A5:C11"/>
-    <mergeCell ref="A21:C27"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="O22:P31"/>
-    <mergeCell ref="J21:J31"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="J5:J15"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A37:C43"/>
-    <mergeCell ref="J37:J47"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P47"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="A54:C60"/>
-    <mergeCell ref="J54:J64"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P64"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="A71:C77"/>
-    <mergeCell ref="J71:J81"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P81"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="A89:C95"/>
-    <mergeCell ref="J89:J99"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="O90:P99"/>
-    <mergeCell ref="A105:C111"/>
-    <mergeCell ref="J105:J115"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="O106:P115"/>
-    <mergeCell ref="F104:N104"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="A124:C131"/>
-    <mergeCell ref="J124:J135"/>
-    <mergeCell ref="O124:P124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="O125:P135"/>
-    <mergeCell ref="A142:C149"/>
-    <mergeCell ref="J142:J153"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="O143:P153"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="K139:N141"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="M166:N166"/>
     <mergeCell ref="F156:I158"/>
     <mergeCell ref="K156:N158"/>
     <mergeCell ref="A159:C166"/>
@@ -5588,35 +5526,94 @@
     <mergeCell ref="H161:I161"/>
     <mergeCell ref="H162:I162"/>
     <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="A142:C149"/>
+    <mergeCell ref="J142:J153"/>
+    <mergeCell ref="O142:P142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="O143:P153"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="K139:N141"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="A124:C131"/>
+    <mergeCell ref="J124:J135"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="O125:P135"/>
+    <mergeCell ref="A105:C111"/>
+    <mergeCell ref="J105:J115"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="O106:P115"/>
+    <mergeCell ref="F104:N104"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:C95"/>
+    <mergeCell ref="J89:J99"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="O90:P99"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="A71:C77"/>
+    <mergeCell ref="J71:J81"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P81"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="A54:C60"/>
+    <mergeCell ref="J54:J64"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P64"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A37:C43"/>
+    <mergeCell ref="J37:J47"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P47"/>
+    <mergeCell ref="O6:P15"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A5:C11"/>
+    <mergeCell ref="A21:C27"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="O22:P31"/>
+    <mergeCell ref="J21:J31"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J5:J15"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="K20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5642,10 +5639,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -5750,11 +5747,11 @@
       <c r="N9" s="14"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
       <c r="H12" t="s">
         <v>50</v>
       </c>
@@ -5778,39 +5775,39 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5831,7 +5828,7 @@
   <dimension ref="A2:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5854,1008 +5851,1008 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="38">
-        <v>0</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="38">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38">
-        <v>0</v>
-      </c>
-      <c r="H3" s="40" t="s">
+      <c r="F3" s="35">
+        <v>0</v>
+      </c>
+      <c r="G3" s="35">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="38">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38">
-        <v>0</v>
-      </c>
-      <c r="L3" s="38" t="s">
+      <c r="J3" s="35">
+        <v>0</v>
+      </c>
+      <c r="K3" s="35">
+        <v>0</v>
+      </c>
+      <c r="L3" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="38">
-        <v>0</v>
-      </c>
-      <c r="N3" s="38" t="s">
+      <c r="M3" s="35">
+        <v>0</v>
+      </c>
+      <c r="N3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="38">
-        <v>0</v>
-      </c>
-      <c r="P3" s="38" t="s">
+      <c r="O3" s="35">
+        <v>0</v>
+      </c>
+      <c r="P3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="38">
-        <v>0</v>
-      </c>
-      <c r="R3" s="38" t="s">
+      <c r="Q3" s="35">
+        <v>0</v>
+      </c>
+      <c r="R3" s="35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="36">
-        <v>0</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="35">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="36">
-        <v>0</v>
-      </c>
-      <c r="G4" s="36">
-        <v>0</v>
-      </c>
-      <c r="H4" s="36" t="s">
+      <c r="F4" s="35">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="36">
-        <v>0</v>
-      </c>
-      <c r="K4" s="36">
-        <v>0</v>
-      </c>
-      <c r="L4" s="36" t="s">
+      <c r="J4" s="35">
+        <v>0</v>
+      </c>
+      <c r="K4" s="35">
+        <v>0</v>
+      </c>
+      <c r="L4" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="M4" s="36">
-        <v>0</v>
-      </c>
-      <c r="N4" s="36" t="s">
+      <c r="M4" s="35">
+        <v>0</v>
+      </c>
+      <c r="N4" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="O4" s="36">
-        <v>0</v>
-      </c>
-      <c r="P4" s="36" t="s">
+      <c r="O4" s="35">
+        <v>0</v>
+      </c>
+      <c r="P4" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" s="36">
-        <v>0</v>
-      </c>
-      <c r="R4" s="36" t="s">
+      <c r="Q4" s="35">
+        <v>0</v>
+      </c>
+      <c r="R4" s="35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="36">
-        <v>0</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="35">
+        <v>0</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="36">
-        <v>0</v>
-      </c>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="35">
+        <v>0</v>
+      </c>
+      <c r="L5" s="35">
+        <v>0</v>
+      </c>
+      <c r="M5" s="35">
+        <v>0</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="35">
+        <v>0</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>0</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="36">
-        <v>0</v>
-      </c>
-      <c r="L5" s="36">
-        <v>0</v>
-      </c>
-      <c r="M5" s="36">
-        <v>0</v>
-      </c>
-      <c r="N5" s="36" t="s">
+      <c r="J6" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="35">
+        <v>0</v>
+      </c>
+      <c r="L6" s="35">
+        <v>0</v>
+      </c>
+      <c r="M6" s="35">
+        <v>0</v>
+      </c>
+      <c r="N6" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="36">
-        <v>0</v>
-      </c>
-      <c r="P5" s="36" t="s">
+      <c r="O6" s="35">
+        <v>0</v>
+      </c>
+      <c r="P6" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="Q5" s="36">
-        <v>0</v>
-      </c>
-      <c r="R5" s="36" t="s">
+      <c r="Q6" s="35">
+        <v>0</v>
+      </c>
+      <c r="R6" s="35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="36" t="s">
+    <row r="7" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="35">
+        <v>0</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="F7" s="35">
+        <v>0</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="35">
+        <v>0</v>
+      </c>
+      <c r="M7" s="35">
+        <v>0</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="35">
+        <v>0</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>0</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="35">
+        <v>0</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="36">
-        <v>0</v>
-      </c>
-      <c r="F6" s="36" t="s">
+      <c r="G8" s="35">
+        <v>0</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="35">
+        <v>0</v>
+      </c>
+      <c r="M8" s="35">
+        <v>0</v>
+      </c>
+      <c r="N8" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="O8" s="35">
+        <v>0</v>
+      </c>
+      <c r="P8" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="36">
-        <v>0</v>
-      </c>
-      <c r="I6" s="36" t="s">
+      <c r="Q8" s="35">
+        <v>0</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0</v>
+      </c>
+      <c r="G9" s="35">
+        <v>0</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="35">
+        <v>0</v>
+      </c>
+      <c r="K9" s="35">
+        <v>0</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="N9" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="36">
-        <v>0</v>
-      </c>
-      <c r="L6" s="36">
-        <v>0</v>
-      </c>
-      <c r="M6" s="36">
-        <v>0</v>
-      </c>
-      <c r="N6" s="36" t="s">
+      <c r="O9" s="35">
+        <v>0</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>0</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="35">
+        <v>0</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="35">
+        <v>0</v>
+      </c>
+      <c r="J10" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="O6" s="36">
-        <v>0</v>
-      </c>
-      <c r="P6" s="36" t="s">
+      <c r="K10" s="35">
+        <v>0</v>
+      </c>
+      <c r="L10" s="35">
+        <v>0</v>
+      </c>
+      <c r="M10" s="35">
+        <v>0</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="35">
+        <v>0</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>0</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="35">
+        <v>0</v>
+      </c>
+      <c r="C11" s="35">
+        <v>0</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="35">
+        <v>0</v>
+      </c>
+      <c r="K11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" s="36">
-        <v>0</v>
-      </c>
-      <c r="R6" s="36" t="s">
+      <c r="L11" s="35">
+        <v>0</v>
+      </c>
+      <c r="M11" s="35">
+        <v>0</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="35">
+        <v>0</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>0</v>
+      </c>
+      <c r="R11" s="35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="36">
-        <v>0</v>
-      </c>
-      <c r="C7" s="36">
-        <v>0</v>
-      </c>
-      <c r="D7" s="36" t="s">
+    <row r="12" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="35">
+        <v>0</v>
+      </c>
+      <c r="C12" s="35">
+        <v>0</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0</v>
+      </c>
+      <c r="J12" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="K12" s="35">
+        <v>0</v>
+      </c>
+      <c r="L12" s="35">
+        <v>0</v>
+      </c>
+      <c r="M12" s="35">
+        <v>0</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" s="35">
+        <v>0</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="35">
+        <v>0</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="35">
+        <v>0</v>
+      </c>
+      <c r="J13" s="35">
+        <v>0</v>
+      </c>
+      <c r="K13" s="35">
+        <v>0</v>
+      </c>
+      <c r="L13" s="35">
+        <v>0</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="35">
+        <v>0</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>0</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="35">
+        <v>0</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="35">
+        <v>0</v>
+      </c>
+      <c r="J14" s="35">
+        <v>0</v>
+      </c>
+      <c r="K14" s="35">
+        <v>0</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="35">
+        <v>0</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" s="35">
+        <v>0</v>
+      </c>
+      <c r="P14" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="35">
+        <v>0</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="36">
-        <v>0</v>
-      </c>
-      <c r="G7" s="36" t="s">
+      <c r="C15" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="35">
+        <v>0</v>
+      </c>
+      <c r="O15" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="36">
-        <v>0</v>
-      </c>
-      <c r="I7" s="36">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36" t="s">
+      <c r="P15" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="35">
+        <v>0</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="35">
+        <v>0</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
+        <v>0</v>
+      </c>
+      <c r="J16" s="35">
+        <v>0</v>
+      </c>
+      <c r="K16" s="35">
+        <v>0</v>
+      </c>
+      <c r="L16" s="35">
+        <v>0</v>
+      </c>
+      <c r="M16" s="35">
+        <v>0</v>
+      </c>
+      <c r="N16" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="O16" s="35">
+        <v>0</v>
+      </c>
+      <c r="P16" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="35">
+        <v>0</v>
+      </c>
+      <c r="R16" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="35">
+        <v>0</v>
+      </c>
+      <c r="P17" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="36">
-        <v>0</v>
-      </c>
-      <c r="M7" s="36">
-        <v>0</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" s="36">
-        <v>0</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="36">
-        <v>0</v>
-      </c>
-      <c r="R7" s="36" t="s">
+      <c r="R17" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="35">
+        <v>0</v>
+      </c>
+      <c r="C18" s="35">
+        <v>0</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <v>0</v>
+      </c>
+      <c r="K18" s="35">
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <v>0</v>
+      </c>
+      <c r="M18" s="35">
+        <v>0</v>
+      </c>
+      <c r="N18" s="35">
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
+        <v>0</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="35">
+        <v>0</v>
+      </c>
+      <c r="R18" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="35" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="36">
-        <v>0</v>
-      </c>
-      <c r="C8" s="36">
-        <v>0</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="36">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36">
-        <v>0</v>
-      </c>
-      <c r="I8" s="36">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="36">
-        <v>0</v>
-      </c>
-      <c r="M8" s="36">
-        <v>0</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" s="36">
-        <v>0</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="36">
-        <v>0</v>
-      </c>
-      <c r="R8" s="36" t="s">
+      <c r="O19" s="35">
+        <v>0</v>
+      </c>
+      <c r="P19" s="35" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="36">
-        <v>0</v>
-      </c>
-      <c r="E9" s="36">
-        <v>0</v>
-      </c>
-      <c r="F9" s="36">
-        <v>0</v>
-      </c>
-      <c r="G9" s="36">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="36">
-        <v>0</v>
-      </c>
-      <c r="K9" s="36">
-        <v>0</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" s="36">
-        <v>0</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9" s="36">
-        <v>0</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="36">
-        <v>0</v>
-      </c>
-      <c r="G10" s="36">
-        <v>0</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="36">
-        <v>0</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="36">
-        <v>0</v>
-      </c>
-      <c r="L10" s="36">
-        <v>0</v>
-      </c>
-      <c r="M10" s="36">
-        <v>0</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="36">
-        <v>0</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q10" s="36">
-        <v>0</v>
-      </c>
-      <c r="R10" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="36">
-        <v>0</v>
-      </c>
-      <c r="C11" s="36">
-        <v>0</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="36">
-        <v>0</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="36">
-        <v>0</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="36">
-        <v>0</v>
-      </c>
-      <c r="M11" s="36">
-        <v>0</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="36">
-        <v>0</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q11" s="36">
-        <v>0</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="36">
-        <v>0</v>
-      </c>
-      <c r="C12" s="36">
-        <v>0</v>
-      </c>
-      <c r="D12" s="36">
-        <v>0</v>
-      </c>
-      <c r="E12" s="36">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
-        <v>0</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="36">
-        <v>0</v>
-      </c>
-      <c r="L12" s="36">
-        <v>0</v>
-      </c>
-      <c r="M12" s="36">
-        <v>0</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="O12" s="36">
-        <v>0</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q12" s="36">
-        <v>0</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="38">
-        <v>0</v>
-      </c>
-      <c r="E13" s="38">
-        <v>0</v>
-      </c>
-      <c r="F13" s="38">
-        <v>0</v>
-      </c>
-      <c r="G13" s="38">
-        <v>0</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="38">
-        <v>0</v>
-      </c>
-      <c r="J13" s="38">
-        <v>0</v>
-      </c>
-      <c r="K13" s="38">
-        <v>0</v>
-      </c>
-      <c r="L13" s="38">
-        <v>0</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="O13" s="38">
-        <v>0</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="38">
-        <v>0</v>
-      </c>
-      <c r="R13" s="38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="38">
-        <v>0</v>
-      </c>
-      <c r="C14" s="38">
-        <v>0</v>
-      </c>
-      <c r="D14" s="38">
-        <v>0</v>
-      </c>
-      <c r="E14" s="38">
-        <v>0</v>
-      </c>
-      <c r="F14" s="38">
-        <v>0</v>
-      </c>
-      <c r="G14" s="38">
-        <v>0</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="38">
-        <v>0</v>
-      </c>
-      <c r="J14" s="38">
-        <v>0</v>
-      </c>
-      <c r="K14" s="38">
-        <v>0</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="38">
-        <v>0</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" s="38">
-        <v>0</v>
-      </c>
-      <c r="P14" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="38">
-        <v>0</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15" s="36">
-        <v>0</v>
-      </c>
-      <c r="O15" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q15" s="36">
-        <v>0</v>
-      </c>
-      <c r="R15" s="36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="36">
-        <v>0</v>
-      </c>
-      <c r="C16" s="36">
-        <v>0</v>
-      </c>
-      <c r="D16" s="36">
-        <v>0</v>
-      </c>
-      <c r="E16" s="36">
-        <v>0</v>
-      </c>
-      <c r="F16" s="36">
-        <v>0</v>
-      </c>
-      <c r="G16" s="36">
-        <v>0</v>
-      </c>
-      <c r="H16" s="36">
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
-        <v>0</v>
-      </c>
-      <c r="J16" s="36">
-        <v>0</v>
-      </c>
-      <c r="K16" s="36">
-        <v>0</v>
-      </c>
-      <c r="L16" s="36">
-        <v>0</v>
-      </c>
-      <c r="M16" s="36">
-        <v>0</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="O16" s="36">
-        <v>0</v>
-      </c>
-      <c r="P16" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="36">
-        <v>0</v>
-      </c>
-      <c r="R16" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="36">
-        <v>0</v>
-      </c>
-      <c r="P17" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="R17" s="36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="36">
-        <v>0</v>
-      </c>
-      <c r="C18" s="36">
-        <v>0</v>
-      </c>
-      <c r="D18" s="36">
-        <v>0</v>
-      </c>
-      <c r="E18" s="36">
-        <v>0</v>
-      </c>
-      <c r="F18" s="36">
-        <v>0</v>
-      </c>
-      <c r="G18" s="36">
-        <v>0</v>
-      </c>
-      <c r="H18" s="36">
-        <v>0</v>
-      </c>
-      <c r="I18" s="36">
-        <v>0</v>
-      </c>
-      <c r="J18" s="36">
-        <v>0</v>
-      </c>
-      <c r="K18" s="36">
-        <v>0</v>
-      </c>
-      <c r="L18" s="36">
-        <v>0</v>
-      </c>
-      <c r="M18" s="36">
-        <v>0</v>
-      </c>
-      <c r="N18" s="36">
-        <v>0</v>
-      </c>
-      <c r="O18" s="36">
-        <v>0</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q18" s="36">
-        <v>0</v>
-      </c>
-      <c r="R18" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="N19" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19" s="36">
-        <v>0</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" s="36">
-        <v>0</v>
-      </c>
-      <c r="R19" s="36">
+      <c r="Q19" s="35">
+        <v>0</v>
+      </c>
+      <c r="R19" s="35">
         <v>0</v>
       </c>
     </row>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="103">
   <si>
     <t>Battery Front</t>
   </si>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>conv +ve</t>
+  </si>
+  <si>
+    <t>Platet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platem </t>
+  </si>
+  <si>
+    <t>Plateb</t>
+  </si>
+  <si>
+    <t>Platem</t>
   </si>
 </sst>
 </file>
@@ -475,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -520,11 +532,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -532,40 +563,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,28 +919,28 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
@@ -935,7 +956,7 @@
       <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="28"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
@@ -948,15 +969,15 @@
       <c r="N5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="25"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
@@ -968,7 +989,7 @@
         <v>0.75</v>
       </c>
       <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="27">
         <v>0.05</v>
       </c>
@@ -977,13 +998,13 @@
         <v>0.75</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="E7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1022,7 @@
         <f>H7-273.15</f>
         <v>84.37</v>
       </c>
-      <c r="J7" s="28"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="3">
         <v>581.79999999999995</v>
       </c>
@@ -1016,13 +1037,13 @@
         <f>M7-273.15</f>
         <v>274.27999999999997</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="23"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1061,7 @@
         <f t="shared" ref="I8:I15" si="1">H8-273.15</f>
         <v>59.54000000000002</v>
       </c>
-      <c r="J8" s="28"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="3">
         <v>555.4</v>
       </c>
@@ -1055,13 +1076,13 @@
         <f t="shared" ref="N8:N15" si="3">M8-273.15</f>
         <v>253.71000000000004</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1100,7 @@
         <f t="shared" si="1"/>
         <v>58.100000000000023</v>
       </c>
-      <c r="J9" s="28"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="3">
         <v>551.5</v>
       </c>
@@ -1094,13 +1115,13 @@
         <f t="shared" si="3"/>
         <v>251.76</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="23"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1139,7 @@
         <f t="shared" si="1"/>
         <v>114.84000000000003</v>
       </c>
-      <c r="J10" s="28"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="3">
         <v>607.27</v>
       </c>
@@ -1133,13 +1154,13 @@
         <f t="shared" si="3"/>
         <v>301.55000000000007</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1157,7 +1178,7 @@
         <f t="shared" si="1"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J11" s="28"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="3">
         <v>490.39</v>
       </c>
@@ -1172,8 +1193,8 @@
         <f t="shared" si="3"/>
         <v>219.11</v>
       </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
@@ -1193,7 +1214,7 @@
         <f t="shared" si="1"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="3">
         <v>341.44</v>
       </c>
@@ -1208,8 +1229,8 @@
         <f t="shared" si="3"/>
         <v>68.660000000000025</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
@@ -1229,7 +1250,7 @@
         <f t="shared" si="1"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J13" s="28"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="3">
         <v>490.39</v>
       </c>
@@ -1244,8 +1265,8 @@
         <f t="shared" si="3"/>
         <v>219.11</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
@@ -1265,7 +1286,7 @@
         <f t="shared" si="1"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J14" s="28"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="3">
         <v>341.44</v>
       </c>
@@ -1280,8 +1301,8 @@
         <f t="shared" si="3"/>
         <v>68.660000000000025</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="s">
@@ -1301,7 +1322,7 @@
         <f t="shared" si="1"/>
         <v>63.53000000000003</v>
       </c>
-      <c r="J15" s="28"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="3">
         <v>538.29999999999995</v>
       </c>
@@ -1316,8 +1337,8 @@
         <f t="shared" si="3"/>
         <v>246.76</v>
       </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="34"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E18" s="9" t="s">
@@ -1344,28 +1365,28 @@
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1402,7 @@
       <c r="I21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1394,15 +1415,15 @@
       <c r="N21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="24" t="s">
+      <c r="O21" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="25"/>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1414,7 +1435,7 @@
         <v>400</v>
       </c>
       <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="27">
         <v>1E-3</v>
       </c>
@@ -1423,13 +1444,13 @@
         <v>400</v>
       </c>
       <c r="N22" s="27"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1468,7 @@
         <f>H23-273.15</f>
         <v>81.600000000000023</v>
       </c>
-      <c r="J23" s="28"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="3">
         <v>1769.3</v>
       </c>
@@ -1462,13 +1483,13 @@
         <f>M23-273.15</f>
         <v>165.8</v>
       </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="23"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
       <c r="E24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1486,7 +1507,7 @@
         <f t="shared" ref="I24:I31" si="5">H24-273.15</f>
         <v>57.200000000000045</v>
       </c>
-      <c r="J24" s="28"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="3">
         <v>1768.5</v>
       </c>
@@ -1501,13 +1522,13 @@
         <f t="shared" ref="N24:N31" si="7">M24-273.15</f>
         <v>139.56</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1546,7 @@
         <f t="shared" si="5"/>
         <v>55.680000000000007</v>
       </c>
-      <c r="J25" s="28"/>
+      <c r="J25" s="30"/>
       <c r="K25" s="3">
         <v>1768.49</v>
       </c>
@@ -1540,13 +1561,13 @@
         <f t="shared" si="7"/>
         <v>135.60000000000002</v>
       </c>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
       <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,7 +1585,7 @@
         <f t="shared" si="5"/>
         <v>111.89000000000004</v>
       </c>
-      <c r="J26" s="28"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="3">
         <v>1775.99</v>
       </c>
@@ -1579,13 +1600,13 @@
         <f t="shared" si="7"/>
         <v>194.07000000000005</v>
       </c>
-      <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
       <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1624,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J27" s="28"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="3">
         <v>1767.67</v>
       </c>
@@ -1618,8 +1639,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
@@ -1639,7 +1660,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J28" s="28"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="3">
         <v>339.87</v>
       </c>
@@ -1654,8 +1675,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="s">
@@ -1675,7 +1696,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J29" s="28"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="3">
         <v>1767.67</v>
       </c>
@@ -1690,8 +1711,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="s">
@@ -1711,7 +1732,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J30" s="28"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="3">
         <v>339.87</v>
       </c>
@@ -1726,8 +1747,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O30" s="22"/>
-      <c r="P30" s="23"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="s">
@@ -1747,7 +1768,7 @@
         <f t="shared" si="5"/>
         <v>56.94</v>
       </c>
-      <c r="J31" s="28"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="3">
         <v>1768.44</v>
       </c>
@@ -1762,8 +1783,8 @@
         <f t="shared" si="7"/>
         <v>121.38</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E34" s="9" t="s">
@@ -1790,28 +1811,28 @@
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="29" t="s">
+      <c r="K36" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
       <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
@@ -1827,7 +1848,7 @@
       <c r="I37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="28"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1840,15 +1861,15 @@
       <c r="N37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="24" t="s">
+      <c r="O37" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P37" s="25"/>
+      <c r="P37" s="32"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
       <c r="E38" s="2" t="s">
         <v>18</v>
       </c>
@@ -1860,7 +1881,7 @@
         <v>0.05</v>
       </c>
       <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1869,13 +1890,13 @@
         <v>0.05</v>
       </c>
       <c r="N38" s="27"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="23"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="34"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
       <c r="E39" s="3" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1914,7 @@
         <f>H39-273.15</f>
         <v>87.62</v>
       </c>
-      <c r="J39" s="28"/>
+      <c r="J39" s="30"/>
       <c r="K39" s="3">
         <v>547.42999999999995</v>
       </c>
@@ -1908,13 +1929,13 @@
         <f>M39-273.15</f>
         <v>14114.06</v>
       </c>
-      <c r="O39" s="22"/>
-      <c r="P39" s="23"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="34"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
       <c r="E40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1932,7 +1953,7 @@
         <f t="shared" ref="I40:I47" si="9">H40-273.15</f>
         <v>62.270000000000039</v>
       </c>
-      <c r="J40" s="28"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="3">
         <v>526.86</v>
       </c>
@@ -1947,13 +1968,13 @@
         <f t="shared" ref="N40:N47" si="11">M40-273.15</f>
         <v>14114.06</v>
       </c>
-      <c r="O40" s="22"/>
-      <c r="P40" s="23"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="34"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
       <c r="E41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1971,7 +1992,7 @@
         <f t="shared" si="9"/>
         <v>60.900000000000034</v>
       </c>
-      <c r="J41" s="28"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="3">
         <v>524.91</v>
       </c>
@@ -1986,13 +2007,13 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O41" s="22"/>
-      <c r="P41" s="23"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="34"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,7 +2031,7 @@
         <f t="shared" si="9"/>
         <v>118.28000000000003</v>
       </c>
-      <c r="J42" s="28"/>
+      <c r="J42" s="30"/>
       <c r="K42" s="3">
         <v>574.70000000000005</v>
       </c>
@@ -2025,13 +2046,13 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O42" s="22"/>
-      <c r="P42" s="23"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="34"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2049,7 +2070,7 @@
         <f t="shared" si="9"/>
         <v>67.730000000000018</v>
       </c>
-      <c r="J43" s="28"/>
+      <c r="J43" s="30"/>
       <c r="K43" s="3">
         <v>492.26</v>
       </c>
@@ -2064,8 +2085,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O43" s="22"/>
-      <c r="P43" s="23"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="34"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E44" s="3" t="s">
@@ -2085,7 +2106,7 @@
         <f t="shared" si="9"/>
         <v>20.580000000000041</v>
       </c>
-      <c r="J44" s="28"/>
+      <c r="J44" s="30"/>
       <c r="K44" s="3">
         <v>341.81</v>
       </c>
@@ -2100,8 +2121,8 @@
         <f t="shared" si="11"/>
         <v>66.13</v>
       </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="23"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="34"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E45" s="3" t="s">
@@ -2121,7 +2142,7 @@
         <f t="shared" si="9"/>
         <v>67.730000000000018</v>
       </c>
-      <c r="J45" s="28"/>
+      <c r="J45" s="30"/>
       <c r="K45" s="3">
         <v>492.26</v>
       </c>
@@ -2136,8 +2157,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O45" s="22"/>
-      <c r="P45" s="23"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="34"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E46" s="3" t="s">
@@ -2157,7 +2178,7 @@
         <f t="shared" si="9"/>
         <v>20.580000000000041</v>
       </c>
-      <c r="J46" s="28"/>
+      <c r="J46" s="30"/>
       <c r="K46" s="3">
         <v>341.81</v>
       </c>
@@ -2172,8 +2193,8 @@
         <f t="shared" si="11"/>
         <v>66.13</v>
       </c>
-      <c r="O46" s="22"/>
-      <c r="P46" s="23"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="34"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E47" s="3" t="s">
@@ -2193,7 +2214,7 @@
         <f t="shared" si="9"/>
         <v>70.87</v>
       </c>
-      <c r="J47" s="28"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="3">
         <v>519.91</v>
       </c>
@@ -2208,8 +2229,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="23"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="34"/>
     </row>
     <row r="50" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E50" s="6" t="s">
@@ -2241,28 +2262,28 @@
       <c r="E53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="29" t="s">
+      <c r="K53" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
       <c r="E54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2278,7 +2299,7 @@
       <c r="I54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="28"/>
+      <c r="J54" s="30"/>
       <c r="K54" s="5" t="s">
         <v>10</v>
       </c>
@@ -2291,15 +2312,15 @@
       <c r="N54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O54" s="24" t="s">
+      <c r="O54" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P54" s="25"/>
+      <c r="P54" s="32"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
       <c r="E55" s="2" t="s">
         <v>18</v>
       </c>
@@ -2311,7 +2332,7 @@
         <v>30</v>
       </c>
       <c r="I55" s="27"/>
-      <c r="J55" s="28"/>
+      <c r="J55" s="30"/>
       <c r="K55" s="27" t="s">
         <v>31</v>
       </c>
@@ -2320,13 +2341,13 @@
         <v>30</v>
       </c>
       <c r="N55" s="27"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="23"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="34"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2365,7 @@
         <f>H56-273.15</f>
         <v>80.110000000000014</v>
       </c>
-      <c r="J56" s="28"/>
+      <c r="J56" s="30"/>
       <c r="K56" s="3">
         <v>438.71</v>
       </c>
@@ -2359,13 +2380,13 @@
         <f>M56-273.15</f>
         <v>150.03000000000003</v>
       </c>
-      <c r="O56" s="22"/>
-      <c r="P56" s="23"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="34"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
       <c r="E57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2383,7 +2404,7 @@
         <f t="shared" ref="I57:I64" si="13">H57-273.15</f>
         <v>55.580000000000041</v>
       </c>
-      <c r="J57" s="28"/>
+      <c r="J57" s="30"/>
       <c r="K57" s="3">
         <v>412.5</v>
       </c>
@@ -2398,13 +2419,13 @@
         <f t="shared" ref="N57:N64" si="15">M57-273.15</f>
         <v>123.33000000000004</v>
       </c>
-      <c r="O57" s="22"/>
-      <c r="P57" s="23"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="34"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
       <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2422,7 +2443,7 @@
         <f t="shared" si="13"/>
         <v>54.04000000000002</v>
       </c>
-      <c r="J58" s="28"/>
+      <c r="J58" s="30"/>
       <c r="K58" s="3">
         <v>408.56</v>
       </c>
@@ -2437,13 +2458,13 @@
         <f t="shared" si="15"/>
         <v>119.03000000000003</v>
       </c>
-      <c r="O58" s="22"/>
-      <c r="P58" s="23"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="34"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2461,7 +2482,7 @@
         <f t="shared" si="13"/>
         <v>110.30000000000001</v>
       </c>
-      <c r="J59" s="28"/>
+      <c r="J59" s="30"/>
       <c r="K59" s="3">
         <v>467</v>
       </c>
@@ -2476,13 +2497,13 @@
         <f t="shared" si="15"/>
         <v>178.41000000000003</v>
       </c>
-      <c r="O59" s="22"/>
-      <c r="P59" s="23"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="34"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
       <c r="E60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2521,7 @@
         <f t="shared" si="13"/>
         <v>27.830000000000041</v>
       </c>
-      <c r="J60" s="28"/>
+      <c r="J60" s="30"/>
       <c r="K60" s="3">
         <v>342.15</v>
       </c>
@@ -2515,8 +2536,8 @@
         <f t="shared" si="15"/>
         <v>45.57000000000005</v>
       </c>
-      <c r="O60" s="22"/>
-      <c r="P60" s="23"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="34"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E61" s="3" t="s">
@@ -2536,7 +2557,7 @@
         <f t="shared" si="13"/>
         <v>27.810000000000002</v>
       </c>
-      <c r="J61" s="28"/>
+      <c r="J61" s="30"/>
       <c r="K61" s="3">
         <v>342.11</v>
       </c>
@@ -2551,8 +2572,8 @@
         <f t="shared" si="15"/>
         <v>45.520000000000039</v>
       </c>
-      <c r="O61" s="22"/>
-      <c r="P61" s="23"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="34"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E62" s="3" t="s">
@@ -2572,7 +2593,7 @@
         <f t="shared" si="13"/>
         <v>27.830000000000041</v>
       </c>
-      <c r="J62" s="28"/>
+      <c r="J62" s="30"/>
       <c r="K62" s="3">
         <v>342.15</v>
       </c>
@@ -2587,8 +2608,8 @@
         <f t="shared" si="15"/>
         <v>45.57000000000005</v>
       </c>
-      <c r="O62" s="22"/>
-      <c r="P62" s="23"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="34"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E63" s="3" t="s">
@@ -2608,7 +2629,7 @@
         <f t="shared" si="13"/>
         <v>27.810000000000002</v>
       </c>
-      <c r="J63" s="28"/>
+      <c r="J63" s="30"/>
       <c r="K63" s="3">
         <v>342.11</v>
       </c>
@@ -2623,8 +2644,8 @@
         <f t="shared" si="15"/>
         <v>45.520000000000039</v>
       </c>
-      <c r="O63" s="22"/>
-      <c r="P63" s="23"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="34"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E64" s="3" t="s">
@@ -2644,7 +2665,7 @@
         <f t="shared" si="13"/>
         <v>52.990000000000009</v>
       </c>
-      <c r="J64" s="28"/>
+      <c r="J64" s="30"/>
       <c r="K64" s="3">
         <v>394.41</v>
       </c>
@@ -2659,8 +2680,8 @@
         <f t="shared" si="15"/>
         <v>102.79000000000002</v>
       </c>
-      <c r="O64" s="22"/>
-      <c r="P64" s="23"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="67" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E67" s="6" t="s">
@@ -2692,28 +2713,28 @@
       <c r="E70" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="29" t="s">
+      <c r="F70" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
       <c r="J70" s="10"/>
-      <c r="K70" s="29" t="s">
+      <c r="K70" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
       <c r="E71" s="4" t="s">
         <v>9</v>
       </c>
@@ -2729,7 +2750,7 @@
       <c r="I71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J71" s="28"/>
+      <c r="J71" s="30"/>
       <c r="K71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2742,15 +2763,15 @@
       <c r="N71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O71" s="24" t="s">
+      <c r="O71" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P71" s="25"/>
+      <c r="P71" s="32"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
       <c r="E72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2762,7 +2783,7 @@
         <v>32</v>
       </c>
       <c r="I72" s="27"/>
-      <c r="J72" s="28"/>
+      <c r="J72" s="30"/>
       <c r="K72" s="27" t="s">
         <v>31</v>
       </c>
@@ -2771,13 +2792,13 @@
         <v>32</v>
       </c>
       <c r="N72" s="27"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="23"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
       <c r="E73" s="3" t="s">
         <v>0</v>
       </c>
@@ -2795,7 +2816,7 @@
         <f>H73-273.15</f>
         <v>57.110000000000014</v>
       </c>
-      <c r="J73" s="28"/>
+      <c r="J73" s="30"/>
       <c r="K73" s="3">
         <v>385.35</v>
       </c>
@@ -2810,13 +2831,13 @@
         <f>M73-273.15</f>
         <v>87.06</v>
       </c>
-      <c r="O73" s="22"/>
-      <c r="P73" s="23"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
       <c r="E74" s="3" t="s">
         <v>1</v>
       </c>
@@ -2834,7 +2855,7 @@
         <f t="shared" ref="I74:I81" si="17">H74-273.15</f>
         <v>35.32000000000005</v>
       </c>
-      <c r="J74" s="28"/>
+      <c r="J74" s="30"/>
       <c r="K74" s="3">
         <v>357.98</v>
       </c>
@@ -2849,13 +2870,13 @@
         <f t="shared" ref="N74:N81" si="19">M74-273.15</f>
         <v>59.660000000000025</v>
       </c>
-      <c r="O74" s="22"/>
-      <c r="P74" s="23"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
       <c r="E75" s="3" t="s">
         <v>2</v>
       </c>
@@ -2873,7 +2894,7 @@
         <f t="shared" si="17"/>
         <v>32.700000000000045</v>
       </c>
-      <c r="J75" s="28"/>
+      <c r="J75" s="30"/>
       <c r="K75" s="3">
         <v>352.79</v>
       </c>
@@ -2888,13 +2909,13 @@
         <f t="shared" si="19"/>
         <v>53.890000000000043</v>
       </c>
-      <c r="O75" s="22"/>
-      <c r="P75" s="23"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
       <c r="E76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2912,7 +2933,7 @@
         <f t="shared" si="17"/>
         <v>86.62</v>
       </c>
-      <c r="J76" s="28"/>
+      <c r="J76" s="30"/>
       <c r="K76" s="3">
         <v>413.9</v>
       </c>
@@ -2927,13 +2948,13 @@
         <f t="shared" si="19"/>
         <v>115.70000000000005</v>
       </c>
-      <c r="O76" s="22"/>
-      <c r="P76" s="23"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
       <c r="E77" s="3" t="s">
         <v>4</v>
       </c>
@@ -2951,7 +2972,7 @@
         <f t="shared" si="17"/>
         <v>-51.529999999999973</v>
       </c>
-      <c r="J77" s="28"/>
+      <c r="J77" s="30"/>
       <c r="K77" s="3">
         <v>260.79000000000002</v>
       </c>
@@ -2966,8 +2987,8 @@
         <f t="shared" si="19"/>
         <v>-50.169999999999987</v>
       </c>
-      <c r="O77" s="22"/>
-      <c r="P77" s="23"/>
+      <c r="O77" s="33"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E78" s="3" t="s">
@@ -2987,7 +3008,7 @@
         <f t="shared" si="17"/>
         <v>-51.559999999999974</v>
       </c>
-      <c r="J78" s="28"/>
+      <c r="J78" s="30"/>
       <c r="K78" s="3">
         <v>260.75</v>
       </c>
@@ -3002,8 +3023,8 @@
         <f t="shared" si="19"/>
         <v>-50.21999999999997</v>
       </c>
-      <c r="O78" s="22"/>
-      <c r="P78" s="23"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E79" s="3" t="s">
@@ -3023,7 +3044,7 @@
         <f t="shared" si="17"/>
         <v>-51.529999999999973</v>
       </c>
-      <c r="J79" s="28"/>
+      <c r="J79" s="30"/>
       <c r="K79" s="3">
         <v>260.79000000000002</v>
       </c>
@@ -3038,8 +3059,8 @@
         <f t="shared" si="19"/>
         <v>-50.169999999999987</v>
       </c>
-      <c r="O79" s="22"/>
-      <c r="P79" s="23"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
@@ -3059,7 +3080,7 @@
         <f t="shared" si="17"/>
         <v>-51.559999999999974</v>
       </c>
-      <c r="J80" s="28"/>
+      <c r="J80" s="30"/>
       <c r="K80" s="3">
         <v>260.75</v>
       </c>
@@ -3074,8 +3095,8 @@
         <f t="shared" si="19"/>
         <v>-50.21999999999997</v>
       </c>
-      <c r="O80" s="22"/>
-      <c r="P80" s="23"/>
+      <c r="O80" s="33"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E81" s="3" t="s">
@@ -3095,7 +3116,7 @@
         <f t="shared" si="17"/>
         <v>11.400000000000034</v>
       </c>
-      <c r="J81" s="28"/>
+      <c r="J81" s="30"/>
       <c r="K81" s="3">
         <v>330.96</v>
       </c>
@@ -3110,8 +3131,8 @@
         <f t="shared" si="19"/>
         <v>28.390000000000043</v>
       </c>
-      <c r="O81" s="22"/>
-      <c r="P81" s="23"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="84" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E84" s="6" t="s">
@@ -3159,28 +3180,28 @@
       <c r="E88" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="F88" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
       <c r="J88" s="10"/>
-      <c r="K88" s="29" t="s">
+      <c r="K88" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
       <c r="E89" s="4" t="s">
         <v>9</v>
       </c>
@@ -3196,7 +3217,7 @@
       <c r="I89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J89" s="28"/>
+      <c r="J89" s="30"/>
       <c r="K89" s="5" t="s">
         <v>10</v>
       </c>
@@ -3209,15 +3230,15 @@
       <c r="N89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O89" s="24" t="s">
+      <c r="O89" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P89" s="25"/>
+      <c r="P89" s="32"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
       <c r="E90" s="2" t="s">
         <v>18</v>
       </c>
@@ -3229,7 +3250,7 @@
         <v>32</v>
       </c>
       <c r="I90" s="27"/>
-      <c r="J90" s="28"/>
+      <c r="J90" s="30"/>
       <c r="K90" s="27" t="s">
         <v>31</v>
       </c>
@@ -3238,13 +3259,13 @@
         <v>32</v>
       </c>
       <c r="N90" s="27"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="23"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
       <c r="E91" s="3" t="s">
         <v>0</v>
       </c>
@@ -3262,7 +3283,7 @@
         <f>H91-273.15</f>
         <v>54.03000000000003</v>
       </c>
-      <c r="J91" s="28"/>
+      <c r="J91" s="30"/>
       <c r="K91" s="3">
         <v>376.58</v>
       </c>
@@ -3277,13 +3298,13 @@
         <f>M91-273.15</f>
         <v>77.82000000000005</v>
       </c>
-      <c r="O91" s="22"/>
-      <c r="P91" s="23"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
       <c r="E92" s="3" t="s">
         <v>1</v>
       </c>
@@ -3301,7 +3322,7 @@
         <f t="shared" ref="I92:I99" si="21">H92-273.15</f>
         <v>32.81</v>
       </c>
-      <c r="J92" s="28"/>
+      <c r="J92" s="30"/>
       <c r="K92" s="3">
         <v>349.55</v>
       </c>
@@ -3316,13 +3337,13 @@
         <f t="shared" ref="N92:N99" si="23">M92-273.15</f>
         <v>50.760000000000048</v>
       </c>
-      <c r="O92" s="22"/>
-      <c r="P92" s="23"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
       <c r="E93" s="3" t="s">
         <v>2</v>
       </c>
@@ -3340,7 +3361,7 @@
         <f t="shared" si="21"/>
         <v>29.939999999999998</v>
       </c>
-      <c r="J93" s="28"/>
+      <c r="J93" s="30"/>
       <c r="K93" s="3">
         <v>344.04</v>
       </c>
@@ -3355,13 +3376,13 @@
         <f t="shared" si="23"/>
         <v>44.710000000000036</v>
       </c>
-      <c r="O93" s="22"/>
-      <c r="P93" s="23"/>
+      <c r="O93" s="33"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,7 +3400,7 @@
         <f t="shared" si="21"/>
         <v>83.410000000000025</v>
       </c>
-      <c r="J94" s="28"/>
+      <c r="J94" s="30"/>
       <c r="K94" s="3">
         <v>405.12</v>
       </c>
@@ -3394,13 +3415,13 @@
         <f t="shared" si="23"/>
         <v>106.46000000000004</v>
       </c>
-      <c r="O94" s="22"/>
-      <c r="P94" s="23"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
       <c r="E95" s="3" t="s">
         <v>4</v>
       </c>
@@ -3418,7 +3439,7 @@
         <f t="shared" si="21"/>
         <v>-48.879999999999967</v>
       </c>
-      <c r="J95" s="28"/>
+      <c r="J95" s="30"/>
       <c r="K95" s="3">
         <v>260.83</v>
       </c>
@@ -3433,8 +3454,8 @@
         <f t="shared" si="23"/>
         <v>-47.149999999999977</v>
       </c>
-      <c r="O95" s="22"/>
-      <c r="P95" s="23"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E96" s="3" t="s">
@@ -3454,7 +3475,7 @@
         <f t="shared" si="21"/>
         <v>-48.909999999999968</v>
       </c>
-      <c r="J96" s="28"/>
+      <c r="J96" s="30"/>
       <c r="K96" s="3">
         <v>260.77999999999997</v>
       </c>
@@ -3469,8 +3490,8 @@
         <f t="shared" si="23"/>
         <v>-47.199999999999989</v>
       </c>
-      <c r="O96" s="22"/>
-      <c r="P96" s="23"/>
+      <c r="O96" s="33"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E97" s="3" t="s">
@@ -3490,7 +3511,7 @@
         <f t="shared" si="21"/>
         <v>-48.879999999999967</v>
       </c>
-      <c r="J97" s="28"/>
+      <c r="J97" s="30"/>
       <c r="K97" s="3">
         <v>260.83</v>
       </c>
@@ -3505,8 +3526,8 @@
         <f t="shared" si="23"/>
         <v>-47.149999999999977</v>
       </c>
-      <c r="O97" s="22"/>
-      <c r="P97" s="23"/>
+      <c r="O97" s="33"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E98" s="3" t="s">
@@ -3526,7 +3547,7 @@
         <f t="shared" si="21"/>
         <v>-48.909999999999968</v>
       </c>
-      <c r="J98" s="28"/>
+      <c r="J98" s="30"/>
       <c r="K98" s="3">
         <v>260.77999999999997</v>
       </c>
@@ -3541,8 +3562,8 @@
         <f t="shared" si="23"/>
         <v>-47.199999999999989</v>
       </c>
-      <c r="O98" s="22"/>
-      <c r="P98" s="23"/>
+      <c r="O98" s="33"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E99" s="3" t="s">
@@ -3562,7 +3583,7 @@
         <f t="shared" si="21"/>
         <v>4.5100000000000477</v>
       </c>
-      <c r="J99" s="28"/>
+      <c r="J99" s="30"/>
       <c r="K99" s="3">
         <v>318.83999999999997</v>
       </c>
@@ -3577,8 +3598,8 @@
         <f t="shared" si="23"/>
         <v>16.490000000000009</v>
       </c>
-      <c r="O99" s="22"/>
-      <c r="P99" s="23"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="102" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E102" s="6" t="s">
@@ -3594,26 +3615,26 @@
       <c r="E104" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F104" s="29" t="s">
+      <c r="F104" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="29"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
       <c r="E105" s="4" t="s">
         <v>9</v>
       </c>
@@ -3629,7 +3650,7 @@
       <c r="I105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J105" s="28"/>
+      <c r="J105" s="30"/>
       <c r="K105" s="5" t="s">
         <v>10</v>
       </c>
@@ -3642,15 +3663,15 @@
       <c r="N105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O105" s="24" t="s">
+      <c r="O105" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P105" s="25"/>
+      <c r="P105" s="32"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
       <c r="E106" s="2" t="s">
         <v>18</v>
       </c>
@@ -3662,7 +3683,7 @@
         <v>40</v>
       </c>
       <c r="I106" s="27"/>
-      <c r="J106" s="28"/>
+      <c r="J106" s="30"/>
       <c r="K106" s="27" t="s">
         <v>38</v>
       </c>
@@ -3671,13 +3692,13 @@
         <v>37</v>
       </c>
       <c r="N106" s="27"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="23"/>
+      <c r="O106" s="33"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
       <c r="E107" s="3" t="s">
         <v>0</v>
       </c>
@@ -3695,7 +3716,7 @@
         <f>H107-273.15</f>
         <v>297.07000000000005</v>
       </c>
-      <c r="J107" s="28"/>
+      <c r="J107" s="30"/>
       <c r="K107" s="3">
         <v>571.03</v>
       </c>
@@ -3710,13 +3731,13 @@
         <f>M107-273.15</f>
         <v>160.83000000000004</v>
       </c>
-      <c r="O107" s="22"/>
-      <c r="P107" s="23"/>
+      <c r="O107" s="33"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
       <c r="E108" s="3" t="s">
         <v>1</v>
       </c>
@@ -3734,7 +3755,7 @@
         <f t="shared" ref="I108:I115" si="25">H108-273.15</f>
         <v>262.36</v>
       </c>
-      <c r="J108" s="28"/>
+      <c r="J108" s="30"/>
       <c r="K108" s="3">
         <v>536.29999999999995</v>
       </c>
@@ -3749,13 +3770,13 @@
         <f t="shared" ref="N108:N115" si="27">M108-273.15</f>
         <v>135.17000000000002</v>
       </c>
-      <c r="O108" s="22"/>
-      <c r="P108" s="23"/>
+      <c r="O108" s="33"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
       <c r="E109" s="3" t="s">
         <v>2</v>
       </c>
@@ -3773,7 +3794,7 @@
         <f t="shared" si="25"/>
         <v>250.84000000000003</v>
       </c>
-      <c r="J109" s="28"/>
+      <c r="J109" s="30"/>
       <c r="K109" s="3">
         <v>524.73</v>
       </c>
@@ -3788,13 +3809,13 @@
         <f t="shared" si="27"/>
         <v>131.47000000000003</v>
       </c>
-      <c r="O109" s="22"/>
-      <c r="P109" s="23"/>
+      <c r="O109" s="33"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
       <c r="E110" s="3" t="s">
         <v>3</v>
       </c>
@@ -3812,7 +3833,7 @@
         <f t="shared" si="25"/>
         <v>325.94000000000005</v>
       </c>
-      <c r="J110" s="28"/>
+      <c r="J110" s="30"/>
       <c r="K110" s="3">
         <v>599.89</v>
       </c>
@@ -3827,13 +3848,13 @@
         <f t="shared" si="27"/>
         <v>185.82000000000005</v>
       </c>
-      <c r="O110" s="22"/>
-      <c r="P110" s="23"/>
+      <c r="O110" s="33"/>
+      <c r="P110" s="34"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
       <c r="E111" s="3" t="s">
         <v>4</v>
       </c>
@@ -3851,7 +3872,7 @@
         <f t="shared" si="25"/>
         <v>69.460000000000036</v>
       </c>
-      <c r="J111" s="28"/>
+      <c r="J111" s="30"/>
       <c r="K111" s="3">
         <v>342.61</v>
       </c>
@@ -3866,8 +3887,8 @@
         <f t="shared" si="27"/>
         <v>68.950000000000045</v>
       </c>
-      <c r="O111" s="22"/>
-      <c r="P111" s="23"/>
+      <c r="O111" s="33"/>
+      <c r="P111" s="34"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E112" s="3" t="s">
@@ -3887,7 +3908,7 @@
         <f t="shared" si="25"/>
         <v>69.410000000000025</v>
       </c>
-      <c r="J112" s="28"/>
+      <c r="J112" s="30"/>
       <c r="K112" s="3">
         <v>342.56</v>
       </c>
@@ -3902,8 +3923,8 @@
         <f t="shared" si="27"/>
         <v>68.900000000000034</v>
       </c>
-      <c r="O112" s="22"/>
-      <c r="P112" s="23"/>
+      <c r="O112" s="33"/>
+      <c r="P112" s="34"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E113" s="3" t="s">
@@ -3923,7 +3944,7 @@
         <f t="shared" si="25"/>
         <v>69.460000000000036</v>
       </c>
-      <c r="J113" s="28"/>
+      <c r="J113" s="30"/>
       <c r="K113" s="3">
         <v>342.61</v>
       </c>
@@ -3938,8 +3959,8 @@
         <f t="shared" si="27"/>
         <v>68.950000000000045</v>
       </c>
-      <c r="O113" s="22"/>
-      <c r="P113" s="23"/>
+      <c r="O113" s="33"/>
+      <c r="P113" s="34"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E114" s="3" t="s">
@@ -3959,7 +3980,7 @@
         <f t="shared" si="25"/>
         <v>69.410000000000025</v>
       </c>
-      <c r="J114" s="28"/>
+      <c r="J114" s="30"/>
       <c r="K114" s="3">
         <v>342.56</v>
       </c>
@@ -3974,8 +3995,8 @@
         <f t="shared" si="27"/>
         <v>68.900000000000034</v>
       </c>
-      <c r="O114" s="22"/>
-      <c r="P114" s="23"/>
+      <c r="O114" s="33"/>
+      <c r="P114" s="34"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E115" s="3" t="s">
@@ -3995,7 +4016,7 @@
         <f t="shared" si="25"/>
         <v>199.20000000000005</v>
       </c>
-      <c r="J115" s="28"/>
+      <c r="J115" s="30"/>
       <c r="K115" s="3">
         <v>472.84</v>
       </c>
@@ -4010,8 +4031,8 @@
         <f t="shared" si="27"/>
         <v>118.41000000000003</v>
       </c>
-      <c r="O115" s="22"/>
-      <c r="P115" s="23"/>
+      <c r="O115" s="33"/>
+      <c r="P115" s="34"/>
     </row>
     <row r="119" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E119" s="7" t="s">
@@ -4048,12 +4069,12 @@
       <c r="E123" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F123" s="29" t="s">
+      <c r="F123" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G123" s="29"/>
-      <c r="H123" s="29"/>
-      <c r="I123" s="29"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
       <c r="J123" s="10"/>
       <c r="K123" s="13" t="s">
         <v>61</v>
@@ -4065,11 +4086,11 @@
       <c r="P123" s="1"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
       <c r="E124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4085,7 +4106,7 @@
       <c r="I124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J124" s="28"/>
+      <c r="J124" s="30"/>
       <c r="K124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4098,15 +4119,15 @@
       <c r="N124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O124" s="24" t="s">
+      <c r="O124" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P124" s="25"/>
+      <c r="P124" s="32"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
       <c r="E125" s="2" t="s">
         <v>18</v>
       </c>
@@ -4118,7 +4139,7 @@
         <v>0.75</v>
       </c>
       <c r="I125" s="27"/>
-      <c r="J125" s="28"/>
+      <c r="J125" s="30"/>
       <c r="K125" s="27">
         <v>0.05</v>
       </c>
@@ -4127,15 +4148,15 @@
         <v>0.75</v>
       </c>
       <c r="N125" s="27"/>
-      <c r="O125" s="22" t="s">
+      <c r="O125" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="P125" s="23"/>
+      <c r="P125" s="34"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
       <c r="E126" s="3" t="s">
         <v>0</v>
       </c>
@@ -4153,7 +4174,7 @@
         <f>H126-273.15</f>
         <v>84.37</v>
       </c>
-      <c r="J126" s="28"/>
+      <c r="J126" s="30"/>
       <c r="K126" s="15">
         <v>357.13</v>
       </c>
@@ -4168,13 +4189,13 @@
         <f>M126-273.15</f>
         <v>82.460000000000036</v>
       </c>
-      <c r="O126" s="22"/>
-      <c r="P126" s="23"/>
+      <c r="O126" s="33"/>
+      <c r="P126" s="34"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
       <c r="E127" s="3" t="s">
         <v>1</v>
       </c>
@@ -4192,7 +4213,7 @@
         <f t="shared" ref="I127:I135" si="29">H127-273.15</f>
         <v>59.54000000000002</v>
       </c>
-      <c r="J127" s="28"/>
+      <c r="J127" s="30"/>
       <c r="K127" s="15">
         <v>332.57</v>
       </c>
@@ -4207,13 +4228,13 @@
         <f t="shared" ref="N127:N135" si="31">M127-273.15</f>
         <v>58.950000000000045</v>
       </c>
-      <c r="O127" s="22"/>
-      <c r="P127" s="23"/>
+      <c r="O127" s="33"/>
+      <c r="P127" s="34"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
       <c r="E128" s="3" t="s">
         <v>2</v>
       </c>
@@ -4231,7 +4252,7 @@
         <f t="shared" si="29"/>
         <v>58.100000000000023</v>
       </c>
-      <c r="J128" s="28"/>
+      <c r="J128" s="30"/>
       <c r="K128" s="15">
         <v>331.06</v>
       </c>
@@ -4246,13 +4267,13 @@
         <f t="shared" si="31"/>
         <v>57.590000000000032</v>
       </c>
-      <c r="O128" s="22"/>
-      <c r="P128" s="23"/>
+      <c r="O128" s="33"/>
+      <c r="P128" s="34"/>
     </row>
     <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
+      <c r="A129" s="29"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
       <c r="E129" s="3" t="s">
         <v>64</v>
       </c>
@@ -4268,7 +4289,7 @@
       <c r="I129" s="16">
         <v>0</v>
       </c>
-      <c r="J129" s="28"/>
+      <c r="J129" s="30"/>
       <c r="K129" s="15">
         <v>384.69</v>
       </c>
@@ -4283,13 +4304,13 @@
         <f t="shared" si="31"/>
         <v>109.92000000000002</v>
       </c>
-      <c r="O129" s="22"/>
-      <c r="P129" s="23"/>
+      <c r="O129" s="33"/>
+      <c r="P129" s="34"/>
     </row>
     <row r="130" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
+      <c r="A130" s="29"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
       <c r="E130" s="3" t="s">
         <v>3</v>
       </c>
@@ -4307,7 +4328,7 @@
         <f t="shared" si="29"/>
         <v>114.84000000000003</v>
       </c>
-      <c r="J130" s="28"/>
+      <c r="J130" s="30"/>
       <c r="K130" s="15">
         <v>387.73</v>
       </c>
@@ -4322,13 +4343,13 @@
         <f t="shared" si="31"/>
         <v>112.97000000000003</v>
       </c>
-      <c r="O130" s="22"/>
-      <c r="P130" s="23"/>
+      <c r="O130" s="33"/>
+      <c r="P130" s="34"/>
     </row>
     <row r="131" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
       <c r="E131" s="3" t="s">
         <v>4</v>
       </c>
@@ -4346,7 +4367,7 @@
         <f t="shared" si="29"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J131" s="28"/>
+      <c r="J131" s="30"/>
       <c r="K131" s="15">
         <v>316.86</v>
       </c>
@@ -4361,8 +4382,8 @@
         <f t="shared" si="31"/>
         <v>48.04000000000002</v>
       </c>
-      <c r="O131" s="22"/>
-      <c r="P131" s="23"/>
+      <c r="O131" s="33"/>
+      <c r="P131" s="34"/>
     </row>
     <row r="132" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E132" s="3" t="s">
@@ -4382,7 +4403,7 @@
         <f t="shared" si="29"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J132" s="28"/>
+      <c r="J132" s="30"/>
       <c r="K132" s="15">
         <v>301.44</v>
       </c>
@@ -4397,8 +4418,8 @@
         <f t="shared" si="31"/>
         <v>29.53000000000003</v>
       </c>
-      <c r="O132" s="22"/>
-      <c r="P132" s="23"/>
+      <c r="O132" s="33"/>
+      <c r="P132" s="34"/>
     </row>
     <row r="133" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E133" s="3" t="s">
@@ -4418,7 +4439,7 @@
         <f t="shared" si="29"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J133" s="28"/>
+      <c r="J133" s="30"/>
       <c r="K133" s="15">
         <v>316.86</v>
       </c>
@@ -4433,8 +4454,8 @@
         <f t="shared" si="31"/>
         <v>48.04000000000002</v>
       </c>
-      <c r="O133" s="22"/>
-      <c r="P133" s="23"/>
+      <c r="O133" s="33"/>
+      <c r="P133" s="34"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E134" s="3" t="s">
@@ -4454,7 +4475,7 @@
         <f t="shared" si="29"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J134" s="28"/>
+      <c r="J134" s="30"/>
       <c r="K134" s="15">
         <v>301.44</v>
       </c>
@@ -4469,8 +4490,8 @@
         <f t="shared" si="31"/>
         <v>29.53000000000003</v>
       </c>
-      <c r="O134" s="22"/>
-      <c r="P134" s="23"/>
+      <c r="O134" s="33"/>
+      <c r="P134" s="34"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E135" s="3" t="s">
@@ -4490,7 +4511,7 @@
         <f t="shared" si="29"/>
         <v>63.53000000000003</v>
       </c>
-      <c r="J135" s="28"/>
+      <c r="J135" s="30"/>
       <c r="K135" s="15">
         <v>334.73</v>
       </c>
@@ -4505,8 +4526,8 @@
         <f t="shared" si="31"/>
         <v>62.470000000000027</v>
       </c>
-      <c r="O135" s="22"/>
-      <c r="P135" s="23"/>
+      <c r="O135" s="33"/>
+      <c r="P135" s="34"/>
     </row>
     <row r="138" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E138" s="7"/>
@@ -4515,54 +4536,54 @@
       <c r="E139" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F139" s="30" t="s">
+      <c r="F139" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="30"/>
-      <c r="K139" s="30" t="s">
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
+      <c r="K139" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L139" s="30"/>
-      <c r="M139" s="30"/>
-      <c r="N139" s="30"/>
+      <c r="L139" s="28"/>
+      <c r="M139" s="28"/>
+      <c r="N139" s="28"/>
     </row>
     <row r="140" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E140" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="30"/>
-      <c r="I140" s="30"/>
-      <c r="K140" s="30"/>
-      <c r="L140" s="30"/>
-      <c r="M140" s="30"/>
-      <c r="N140" s="30"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="28"/>
+      <c r="K140" s="28"/>
+      <c r="L140" s="28"/>
+      <c r="M140" s="28"/>
+      <c r="N140" s="28"/>
     </row>
     <row r="141" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E141" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F141" s="30"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="30"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="28"/>
       <c r="J141" s="1"/>
-      <c r="K141" s="30"/>
-      <c r="L141" s="30"/>
-      <c r="M141" s="30"/>
-      <c r="N141" s="30"/>
+      <c r="K141" s="28"/>
+      <c r="L141" s="28"/>
+      <c r="M141" s="28"/>
+      <c r="N141" s="28"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="26" t="s">
+      <c r="A142" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
       <c r="E142" s="4" t="s">
         <v>9</v>
       </c>
@@ -4578,7 +4599,7 @@
       <c r="I142" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J142" s="28"/>
+      <c r="J142" s="30"/>
       <c r="K142" s="5" t="s">
         <v>10</v>
       </c>
@@ -4591,15 +4612,15 @@
       <c r="N142" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O142" s="24" t="s">
+      <c r="O142" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P142" s="25"/>
+      <c r="P142" s="32"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="26"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
       <c r="E143" s="2" t="s">
         <v>18</v>
       </c>
@@ -4611,7 +4632,7 @@
         <v>71</v>
       </c>
       <c r="I143" s="27"/>
-      <c r="J143" s="28"/>
+      <c r="J143" s="30"/>
       <c r="K143" s="27" t="s">
         <v>70</v>
       </c>
@@ -4620,13 +4641,13 @@
         <v>71</v>
       </c>
       <c r="N143" s="27"/>
-      <c r="O143" s="22"/>
-      <c r="P143" s="23"/>
+      <c r="O143" s="33"/>
+      <c r="P143" s="34"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="26"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
+      <c r="A144" s="29"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
       <c r="E144" s="3" t="s">
         <v>0</v>
       </c>
@@ -4644,7 +4665,7 @@
         <f>H144-273.15</f>
         <v>86.300000000000011</v>
       </c>
-      <c r="J144" s="28"/>
+      <c r="J144" s="30"/>
       <c r="K144" s="3">
         <v>378.01</v>
       </c>
@@ -4659,13 +4680,13 @@
         <f>M144-273.15</f>
         <v>117.72000000000003</v>
       </c>
-      <c r="O144" s="22"/>
-      <c r="P144" s="23"/>
+      <c r="O144" s="33"/>
+      <c r="P144" s="34"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
       <c r="E145" s="3" t="s">
         <v>1</v>
       </c>
@@ -4683,7 +4704,7 @@
         <f t="shared" ref="I145:I146" si="33">H145-273.15</f>
         <v>60.75</v>
       </c>
-      <c r="J145" s="28"/>
+      <c r="J145" s="30"/>
       <c r="K145" s="3">
         <v>357.15</v>
       </c>
@@ -4698,13 +4719,13 @@
         <f t="shared" ref="N145:N153" si="35">M145-273.15</f>
         <v>96.970000000000027</v>
       </c>
-      <c r="O145" s="22"/>
-      <c r="P145" s="23"/>
+      <c r="O145" s="33"/>
+      <c r="P145" s="34"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="26"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
+      <c r="A146" s="29"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
       <c r="E146" s="3" t="s">
         <v>2</v>
       </c>
@@ -4722,7 +4743,7 @@
         <f t="shared" si="33"/>
         <v>59.28000000000003</v>
       </c>
-      <c r="J146" s="28"/>
+      <c r="J146" s="30"/>
       <c r="K146" s="3">
         <v>354.26</v>
       </c>
@@ -4737,13 +4758,13 @@
         <f t="shared" si="35"/>
         <v>94.170000000000016</v>
       </c>
-      <c r="O146" s="22"/>
-      <c r="P146" s="23"/>
+      <c r="O146" s="33"/>
+      <c r="P146" s="34"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="26"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="26"/>
+      <c r="A147" s="29"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
       <c r="E147" s="3" t="s">
         <v>64</v>
       </c>
@@ -4759,7 +4780,7 @@
       <c r="I147" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J147" s="28"/>
+      <c r="J147" s="30"/>
       <c r="K147" s="3">
         <v>422.08</v>
       </c>
@@ -4774,13 +4795,13 @@
         <f t="shared" si="35"/>
         <v>159.18</v>
       </c>
-      <c r="O147" s="22"/>
-      <c r="P147" s="23"/>
+      <c r="O147" s="33"/>
+      <c r="P147" s="34"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="26"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="26"/>
+      <c r="A148" s="29"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
       <c r="E148" s="3" t="s">
         <v>3</v>
       </c>
@@ -4798,7 +4819,7 @@
         <f t="shared" ref="I148:I153" si="36">H148-273.15</f>
         <v>117.07000000000005</v>
       </c>
-      <c r="J148" s="28"/>
+      <c r="J148" s="30"/>
       <c r="K148" s="3">
         <v>595.69000000000005</v>
       </c>
@@ -4813,13 +4834,13 @@
         <f t="shared" si="35"/>
         <v>329.33000000000004</v>
       </c>
-      <c r="O148" s="22"/>
-      <c r="P148" s="23"/>
+      <c r="O148" s="33"/>
+      <c r="P148" s="34"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
+      <c r="A149" s="29"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
       <c r="E149" s="3" t="s">
         <v>4</v>
       </c>
@@ -4837,7 +4858,7 @@
         <f t="shared" si="36"/>
         <v>54.180000000000007</v>
       </c>
-      <c r="J149" s="28"/>
+      <c r="J149" s="30"/>
       <c r="K149" s="3">
         <v>334.52</v>
       </c>
@@ -4852,8 +4873,8 @@
         <f t="shared" si="35"/>
         <v>76.230000000000018</v>
       </c>
-      <c r="O149" s="22"/>
-      <c r="P149" s="23"/>
+      <c r="O149" s="33"/>
+      <c r="P149" s="34"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E150" s="3" t="s">
@@ -4873,7 +4894,7 @@
         <f t="shared" si="36"/>
         <v>43.580000000000041</v>
       </c>
-      <c r="J150" s="28"/>
+      <c r="J150" s="30"/>
       <c r="K150" s="3">
         <v>309.76</v>
       </c>
@@ -4888,8 +4909,8 @@
         <f t="shared" si="35"/>
         <v>51.830000000000041</v>
       </c>
-      <c r="O150" s="22"/>
-      <c r="P150" s="23"/>
+      <c r="O150" s="33"/>
+      <c r="P150" s="34"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E151" s="3" t="s">
@@ -4909,7 +4930,7 @@
         <f t="shared" si="36"/>
         <v>54.180000000000007</v>
       </c>
-      <c r="J151" s="28"/>
+      <c r="J151" s="30"/>
       <c r="K151" s="3">
         <v>334.52</v>
       </c>
@@ -4924,8 +4945,8 @@
         <f t="shared" si="35"/>
         <v>76.230000000000018</v>
       </c>
-      <c r="O151" s="22"/>
-      <c r="P151" s="23"/>
+      <c r="O151" s="33"/>
+      <c r="P151" s="34"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E152" s="3" t="s">
@@ -4945,7 +4966,7 @@
         <f t="shared" si="36"/>
         <v>43.580000000000041</v>
       </c>
-      <c r="J152" s="28"/>
+      <c r="J152" s="30"/>
       <c r="K152" s="3">
         <v>309.76</v>
       </c>
@@ -4960,8 +4981,8 @@
         <f t="shared" si="35"/>
         <v>51.830000000000041</v>
       </c>
-      <c r="O152" s="22"/>
-      <c r="P152" s="23"/>
+      <c r="O152" s="33"/>
+      <c r="P152" s="34"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E153" s="3" t="s">
@@ -4981,7 +5002,7 @@
         <f t="shared" si="36"/>
         <v>65.610000000000014</v>
       </c>
-      <c r="J153" s="28"/>
+      <c r="J153" s="30"/>
       <c r="K153" s="3">
         <v>359.71</v>
       </c>
@@ -4996,90 +5017,90 @@
         <f t="shared" si="35"/>
         <v>100.08000000000004</v>
       </c>
-      <c r="O153" s="22"/>
-      <c r="P153" s="23"/>
+      <c r="O153" s="33"/>
+      <c r="P153" s="34"/>
     </row>
     <row r="156" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E156" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F156" s="30" t="s">
+      <c r="F156" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="30"/>
-      <c r="K156" s="30" t="s">
+      <c r="G156" s="28"/>
+      <c r="H156" s="28"/>
+      <c r="I156" s="28"/>
+      <c r="K156" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L156" s="30"/>
-      <c r="M156" s="30"/>
-      <c r="N156" s="30"/>
+      <c r="L156" s="28"/>
+      <c r="M156" s="28"/>
+      <c r="N156" s="28"/>
     </row>
     <row r="157" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E157" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="30"/>
-      <c r="K157" s="30"/>
-      <c r="L157" s="30"/>
-      <c r="M157" s="30"/>
-      <c r="N157" s="30"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="28"/>
+      <c r="I157" s="28"/>
+      <c r="K157" s="28"/>
+      <c r="L157" s="28"/>
+      <c r="M157" s="28"/>
+      <c r="N157" s="28"/>
     </row>
     <row r="158" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E158" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="30"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="28"/>
+      <c r="H158" s="28"/>
+      <c r="I158" s="28"/>
       <c r="J158" s="1"/>
-      <c r="K158" s="30"/>
-      <c r="L158" s="30"/>
-      <c r="M158" s="30"/>
-      <c r="N158" s="30"/>
+      <c r="K158" s="28"/>
+      <c r="L158" s="28"/>
+      <c r="M158" s="28"/>
+      <c r="N158" s="28"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="26" t="s">
+      <c r="A159" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="29"/>
       <c r="E159" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F159" s="32" t="s">
+      <c r="F159" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G159" s="32"/>
-      <c r="H159" s="32" t="s">
+      <c r="G159" s="35"/>
+      <c r="H159" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I159" s="32"/>
-      <c r="J159" s="28"/>
-      <c r="K159" s="32" t="s">
+      <c r="I159" s="35"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L159" s="32"/>
-      <c r="M159" s="32" t="s">
+      <c r="L159" s="35"/>
+      <c r="M159" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="N159" s="32"/>
-      <c r="O159" s="24" t="s">
+      <c r="N159" s="35"/>
+      <c r="O159" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P159" s="25"/>
+      <c r="P159" s="32"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="26"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
+      <c r="A160" s="29"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
       <c r="E160" s="2" t="s">
         <v>18</v>
       </c>
@@ -5089,292 +5110,292 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="28"/>
+      <c r="J160" s="30"/>
       <c r="K160" s="27" t="s">
         <v>76</v>
       </c>
       <c r="L160" s="27"/>
       <c r="M160" s="27"/>
       <c r="N160" s="27"/>
-      <c r="O160" s="22"/>
-      <c r="P160" s="23"/>
+      <c r="O160" s="33"/>
+      <c r="P160" s="34"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
+      <c r="A161" s="29"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="29"/>
       <c r="E161" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F161" s="31">
+      <c r="F161" s="25">
         <v>342.04</v>
       </c>
-      <c r="G161" s="31"/>
-      <c r="H161" s="33">
+      <c r="G161" s="25"/>
+      <c r="H161" s="26">
         <f>F161-273.15</f>
         <v>68.890000000000043</v>
       </c>
-      <c r="I161" s="33"/>
-      <c r="J161" s="28"/>
-      <c r="K161" s="31">
+      <c r="I161" s="26"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="25">
         <v>322.26</v>
       </c>
-      <c r="L161" s="31"/>
-      <c r="M161" s="33">
+      <c r="L161" s="25"/>
+      <c r="M161" s="26">
         <f>K161-273.15</f>
         <v>49.110000000000014</v>
       </c>
-      <c r="N161" s="33"/>
-      <c r="O161" s="22"/>
-      <c r="P161" s="23"/>
+      <c r="N161" s="26"/>
+      <c r="O161" s="33"/>
+      <c r="P161" s="34"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="26"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
+      <c r="A162" s="29"/>
+      <c r="B162" s="29"/>
+      <c r="C162" s="29"/>
       <c r="E162" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F162" s="31">
+      <c r="F162" s="25">
         <v>319.17</v>
       </c>
-      <c r="G162" s="31"/>
-      <c r="H162" s="33">
+      <c r="G162" s="25"/>
+      <c r="H162" s="26">
         <f>F162-273.15</f>
         <v>46.020000000000039</v>
       </c>
-      <c r="I162" s="33"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="31">
+      <c r="I162" s="26"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="25">
         <v>301.64999999999998</v>
       </c>
-      <c r="L162" s="31"/>
-      <c r="M162" s="33">
+      <c r="L162" s="25"/>
+      <c r="M162" s="26">
         <f>K162-273.15</f>
         <v>28.5</v>
       </c>
-      <c r="N162" s="33"/>
-      <c r="O162" s="22"/>
-      <c r="P162" s="23"/>
+      <c r="N162" s="26"/>
+      <c r="O162" s="33"/>
+      <c r="P162" s="34"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="26"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
       <c r="E163" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F163" s="31">
+      <c r="F163" s="25">
         <v>317.06</v>
       </c>
-      <c r="G163" s="31"/>
-      <c r="H163" s="33">
+      <c r="G163" s="25"/>
+      <c r="H163" s="26">
         <f t="shared" ref="H163:H170" si="37">F163-273.15</f>
         <v>43.910000000000025</v>
       </c>
-      <c r="I163" s="33"/>
-      <c r="J163" s="28"/>
-      <c r="K163" s="31">
+      <c r="I163" s="26"/>
+      <c r="J163" s="30"/>
+      <c r="K163" s="25">
         <v>298.48</v>
       </c>
-      <c r="L163" s="31"/>
-      <c r="M163" s="33">
+      <c r="L163" s="25"/>
+      <c r="M163" s="26">
         <f t="shared" ref="M163" si="38">K163-273.15</f>
         <v>25.330000000000041</v>
       </c>
-      <c r="N163" s="33"/>
-      <c r="O163" s="22"/>
-      <c r="P163" s="23"/>
+      <c r="N163" s="26"/>
+      <c r="O163" s="33"/>
+      <c r="P163" s="34"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="26"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="29"/>
       <c r="E164" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F164" s="31" t="s">
+      <c r="F164" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G164" s="31"/>
-      <c r="H164" s="33" t="s">
+      <c r="G164" s="25"/>
+      <c r="H164" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I164" s="33"/>
-      <c r="J164" s="28"/>
-      <c r="K164" s="31">
+      <c r="I164" s="26"/>
+      <c r="J164" s="30"/>
+      <c r="K164" s="25">
         <v>378.41</v>
       </c>
-      <c r="L164" s="31"/>
-      <c r="M164" s="33">
+      <c r="L164" s="25"/>
+      <c r="M164" s="26">
         <f>K164-273.15</f>
         <v>105.26000000000005</v>
       </c>
-      <c r="N164" s="33"/>
-      <c r="O164" s="22"/>
-      <c r="P164" s="23"/>
+      <c r="N164" s="26"/>
+      <c r="O164" s="33"/>
+      <c r="P164" s="34"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
+      <c r="A165" s="29"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="29"/>
       <c r="E165" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F165" s="31">
+      <c r="F165" s="25">
         <v>372.15</v>
       </c>
-      <c r="G165" s="31"/>
-      <c r="H165" s="33">
+      <c r="G165" s="25"/>
+      <c r="H165" s="26">
         <f t="shared" si="37"/>
         <v>99</v>
       </c>
-      <c r="I165" s="33"/>
-      <c r="J165" s="28"/>
-      <c r="K165" s="31">
+      <c r="I165" s="26"/>
+      <c r="J165" s="30"/>
+      <c r="K165" s="25">
         <v>566.69000000000005</v>
       </c>
-      <c r="L165" s="31"/>
-      <c r="M165" s="33">
+      <c r="L165" s="25"/>
+      <c r="M165" s="26">
         <f>K165-273.15</f>
         <v>293.54000000000008</v>
       </c>
-      <c r="N165" s="33"/>
-      <c r="O165" s="22"/>
-      <c r="P165" s="23"/>
+      <c r="N165" s="26"/>
+      <c r="O165" s="33"/>
+      <c r="P165" s="34"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
       <c r="E166" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="31">
+      <c r="F166" s="25">
         <v>261.92</v>
       </c>
-      <c r="G166" s="31"/>
-      <c r="H166" s="33">
+      <c r="G166" s="25"/>
+      <c r="H166" s="26">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I166" s="33"/>
-      <c r="J166" s="28"/>
-      <c r="K166" s="31">
+      <c r="I166" s="26"/>
+      <c r="J166" s="30"/>
+      <c r="K166" s="25">
         <v>270.13</v>
       </c>
-      <c r="L166" s="31"/>
-      <c r="M166" s="33">
+      <c r="L166" s="25"/>
+      <c r="M166" s="26">
         <f t="shared" ref="M166:M170" si="39">K166-273.15</f>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N166" s="33"/>
-      <c r="O166" s="22"/>
-      <c r="P166" s="23"/>
+      <c r="N166" s="26"/>
+      <c r="O166" s="33"/>
+      <c r="P166" s="34"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F167" s="31">
+      <c r="F167" s="25">
         <v>214.52</v>
       </c>
-      <c r="G167" s="31"/>
-      <c r="H167" s="33">
+      <c r="G167" s="25"/>
+      <c r="H167" s="26">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I167" s="33"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="31">
+      <c r="I167" s="26"/>
+      <c r="J167" s="30"/>
+      <c r="K167" s="25">
         <v>243.61</v>
       </c>
-      <c r="L167" s="31"/>
-      <c r="M167" s="33">
+      <c r="L167" s="25"/>
+      <c r="M167" s="26">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N167" s="33"/>
-      <c r="O167" s="22"/>
-      <c r="P167" s="23"/>
+      <c r="N167" s="26"/>
+      <c r="O167" s="33"/>
+      <c r="P167" s="34"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E168" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F168" s="31">
+      <c r="F168" s="25">
         <v>261.92</v>
       </c>
-      <c r="G168" s="31"/>
-      <c r="H168" s="33">
+      <c r="G168" s="25"/>
+      <c r="H168" s="26">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I168" s="33"/>
-      <c r="J168" s="28"/>
-      <c r="K168" s="31">
+      <c r="I168" s="26"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="25">
         <v>270.13</v>
       </c>
-      <c r="L168" s="31"/>
-      <c r="M168" s="33">
+      <c r="L168" s="25"/>
+      <c r="M168" s="26">
         <f t="shared" si="39"/>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N168" s="33"/>
-      <c r="O168" s="22"/>
-      <c r="P168" s="23"/>
+      <c r="N168" s="26"/>
+      <c r="O168" s="33"/>
+      <c r="P168" s="34"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E169" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F169" s="31">
+      <c r="F169" s="25">
         <v>214.52</v>
       </c>
-      <c r="G169" s="31"/>
-      <c r="H169" s="33">
+      <c r="G169" s="25"/>
+      <c r="H169" s="26">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I169" s="33"/>
-      <c r="J169" s="28"/>
-      <c r="K169" s="31">
+      <c r="I169" s="26"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="25">
         <v>243.61</v>
       </c>
-      <c r="L169" s="31"/>
-      <c r="M169" s="33">
+      <c r="L169" s="25"/>
+      <c r="M169" s="26">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N169" s="33"/>
-      <c r="O169" s="22"/>
-      <c r="P169" s="23"/>
+      <c r="N169" s="26"/>
+      <c r="O169" s="33"/>
+      <c r="P169" s="34"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E170" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F170" s="31">
+      <c r="F170" s="25">
         <v>305.83999999999997</v>
       </c>
-      <c r="G170" s="31"/>
-      <c r="H170" s="33">
+      <c r="G170" s="25"/>
+      <c r="H170" s="26">
         <f t="shared" si="37"/>
         <v>32.69</v>
       </c>
-      <c r="I170" s="33"/>
-      <c r="J170" s="28"/>
-      <c r="K170" s="31">
+      <c r="I170" s="26"/>
+      <c r="J170" s="30"/>
+      <c r="K170" s="25">
         <v>301.44</v>
       </c>
-      <c r="L170" s="31"/>
-      <c r="M170" s="33">
+      <c r="L170" s="25"/>
+      <c r="M170" s="26">
         <f t="shared" si="39"/>
         <v>28.29000000000002</v>
       </c>
-      <c r="N170" s="33"/>
-      <c r="O170" s="22"/>
-      <c r="P170" s="23"/>
+      <c r="N170" s="26"/>
+      <c r="O170" s="33"/>
+      <c r="P170" s="34"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F172" s="5" t="s">
@@ -5473,6 +5494,123 @@
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J5:J15"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A37:C43"/>
+    <mergeCell ref="J37:J47"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P47"/>
+    <mergeCell ref="O6:P15"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A5:C11"/>
+    <mergeCell ref="A21:C27"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="O22:P31"/>
+    <mergeCell ref="J21:J31"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="A54:C60"/>
+    <mergeCell ref="J54:J64"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P64"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="A71:C77"/>
+    <mergeCell ref="J71:J81"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P81"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:C95"/>
+    <mergeCell ref="J89:J99"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="O90:P99"/>
+    <mergeCell ref="A105:C111"/>
+    <mergeCell ref="J105:J115"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="O106:P115"/>
+    <mergeCell ref="F104:N104"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="A124:C131"/>
+    <mergeCell ref="J124:J135"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="O125:P135"/>
+    <mergeCell ref="A142:C149"/>
+    <mergeCell ref="J142:J153"/>
+    <mergeCell ref="O142:P142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="O143:P153"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="K139:N141"/>
+    <mergeCell ref="O159:P159"/>
+    <mergeCell ref="O160:P170"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F160:I160"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="K160:N160"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="F156:I158"/>
+    <mergeCell ref="K156:N158"/>
+    <mergeCell ref="A159:C166"/>
+    <mergeCell ref="J159:J170"/>
     <mergeCell ref="K161:L161"/>
     <mergeCell ref="M161:N161"/>
     <mergeCell ref="K162:L162"/>
@@ -5497,123 +5635,6 @@
     <mergeCell ref="H168:I168"/>
     <mergeCell ref="H169:I169"/>
     <mergeCell ref="K164:L164"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="F156:I158"/>
-    <mergeCell ref="K156:N158"/>
-    <mergeCell ref="A159:C166"/>
-    <mergeCell ref="J159:J170"/>
-    <mergeCell ref="O159:P159"/>
-    <mergeCell ref="O160:P170"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F160:I160"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="K160:N160"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="A142:C149"/>
-    <mergeCell ref="J142:J153"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="O143:P153"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="K139:N141"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="A124:C131"/>
-    <mergeCell ref="J124:J135"/>
-    <mergeCell ref="O124:P124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="O125:P135"/>
-    <mergeCell ref="A105:C111"/>
-    <mergeCell ref="J105:J115"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="O106:P115"/>
-    <mergeCell ref="F104:N104"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="A89:C95"/>
-    <mergeCell ref="J89:J99"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="O90:P99"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="A71:C77"/>
-    <mergeCell ref="J71:J81"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P81"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="A54:C60"/>
-    <mergeCell ref="J54:J64"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P64"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A37:C43"/>
-    <mergeCell ref="J37:J47"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P47"/>
-    <mergeCell ref="O6:P15"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A5:C11"/>
-    <mergeCell ref="A21:C27"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="O22:P31"/>
-    <mergeCell ref="J21:J31"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="J5:J15"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="K20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5639,10 +5660,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -5747,11 +5768,11 @@
       <c r="N9" s="14"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
       <c r="H12" t="s">
         <v>50</v>
       </c>
@@ -5775,39 +5796,39 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5825,10 +5846,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R19"/>
+  <dimension ref="A2:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5904,956 +5925,2295 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="35">
-        <v>0</v>
-      </c>
-      <c r="G3" s="35">
-        <v>0</v>
-      </c>
-      <c r="H3" s="35" t="s">
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="35">
-        <v>0</v>
-      </c>
-      <c r="K3" s="35">
-        <v>0</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="35">
-        <v>0</v>
-      </c>
-      <c r="N3" s="35" t="s">
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="35">
-        <v>0</v>
-      </c>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="35">
-        <v>0</v>
-      </c>
-      <c r="R3" s="35" t="s">
+      <c r="Q3" s="22">
+        <v>0</v>
+      </c>
+      <c r="R3" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="35">
-        <v>0</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="35">
-        <v>0</v>
-      </c>
-      <c r="G4" s="35">
-        <v>0</v>
-      </c>
-      <c r="H4" s="35" t="s">
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="35">
-        <v>0</v>
-      </c>
-      <c r="K4" s="35">
-        <v>0</v>
-      </c>
-      <c r="L4" s="35" t="s">
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M4" s="35">
-        <v>0</v>
-      </c>
-      <c r="N4" s="35" t="s">
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="O4" s="35">
-        <v>0</v>
-      </c>
-      <c r="P4" s="35" t="s">
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" s="35">
-        <v>0</v>
-      </c>
-      <c r="R4" s="35" t="s">
+      <c r="Q4" s="22">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="35">
-        <v>0</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="35">
-        <v>0</v>
-      </c>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="35">
-        <v>0</v>
-      </c>
-      <c r="L5" s="35">
-        <v>0</v>
-      </c>
-      <c r="M5" s="35">
-        <v>0</v>
-      </c>
-      <c r="N5" s="35" t="s">
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="35">
-        <v>0</v>
-      </c>
-      <c r="P5" s="35" t="s">
+      <c r="O5" s="22">
+        <v>0</v>
+      </c>
+      <c r="P5" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="Q5" s="35">
-        <v>0</v>
-      </c>
-      <c r="R5" s="35" t="s">
+      <c r="Q5" s="22">
+        <v>0</v>
+      </c>
+      <c r="R5" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="35">
-        <v>0</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="35">
-        <v>0</v>
-      </c>
-      <c r="I6" s="35" t="s">
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="35">
-        <v>0</v>
-      </c>
-      <c r="L6" s="35">
-        <v>0</v>
-      </c>
-      <c r="M6" s="35">
-        <v>0</v>
-      </c>
-      <c r="N6" s="35" t="s">
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="O6" s="35">
-        <v>0</v>
-      </c>
-      <c r="P6" s="35" t="s">
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" s="35">
-        <v>0</v>
-      </c>
-      <c r="R6" s="35" t="s">
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="35">
-        <v>0</v>
-      </c>
-      <c r="C7" s="35">
-        <v>0</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="B7" s="22">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="35">
-        <v>0</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="35">
-        <v>0</v>
-      </c>
-      <c r="I7" s="35">
-        <v>0</v>
-      </c>
-      <c r="J7" s="35" t="s">
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="35">
-        <v>0</v>
-      </c>
-      <c r="M7" s="35">
-        <v>0</v>
-      </c>
-      <c r="N7" s="35" t="s">
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="O7" s="35">
-        <v>0</v>
-      </c>
-      <c r="P7" s="35" t="s">
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="Q7" s="35">
-        <v>0</v>
-      </c>
-      <c r="R7" s="35" t="s">
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="35">
-        <v>0</v>
-      </c>
-      <c r="C8" s="35">
-        <v>0</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="35">
-        <v>0</v>
-      </c>
-      <c r="H8" s="35">
-        <v>0</v>
-      </c>
-      <c r="I8" s="35">
-        <v>0</v>
-      </c>
-      <c r="J8" s="35" t="s">
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="35">
-        <v>0</v>
-      </c>
-      <c r="M8" s="35">
-        <v>0</v>
-      </c>
-      <c r="N8" s="35" t="s">
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="O8" s="35">
-        <v>0</v>
-      </c>
-      <c r="P8" s="35" t="s">
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="35">
-        <v>0</v>
-      </c>
-      <c r="R8" s="35" t="s">
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="35">
-        <v>0</v>
-      </c>
-      <c r="E9" s="35">
-        <v>0</v>
-      </c>
-      <c r="F9" s="35">
-        <v>0</v>
-      </c>
-      <c r="G9" s="35">
-        <v>0</v>
-      </c>
-      <c r="H9" s="35">
-        <v>0</v>
-      </c>
-      <c r="I9" s="35" t="s">
+      <c r="D9" s="22">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="35">
-        <v>0</v>
-      </c>
-      <c r="K9" s="35">
-        <v>0</v>
-      </c>
-      <c r="L9" s="35" t="s">
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="35">
-        <v>0</v>
-      </c>
-      <c r="P9" s="35" t="s">
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" s="35">
-        <v>0</v>
-      </c>
-      <c r="R9" s="35" t="s">
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="35">
-        <v>0</v>
-      </c>
-      <c r="G10" s="35">
-        <v>0</v>
-      </c>
-      <c r="H10" s="35" t="s">
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="35">
-        <v>0</v>
-      </c>
-      <c r="J10" s="35" t="s">
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="35">
-        <v>0</v>
-      </c>
-      <c r="L10" s="35">
-        <v>0</v>
-      </c>
-      <c r="M10" s="35">
-        <v>0</v>
-      </c>
-      <c r="N10" s="35" t="s">
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="35">
-        <v>0</v>
-      </c>
-      <c r="P10" s="35" t="s">
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="Q10" s="35">
-        <v>0</v>
-      </c>
-      <c r="R10" s="35" t="s">
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="35">
-        <v>0</v>
-      </c>
-      <c r="C11" s="35">
-        <v>0</v>
-      </c>
-      <c r="D11" s="35" t="s">
+      <c r="B11" s="22">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="35">
-        <v>0</v>
-      </c>
-      <c r="I11" s="35" t="s">
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="35">
-        <v>0</v>
-      </c>
-      <c r="K11" s="35" t="s">
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="35">
-        <v>0</v>
-      </c>
-      <c r="M11" s="35">
-        <v>0</v>
-      </c>
-      <c r="N11" s="35" t="s">
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="35">
-        <v>0</v>
-      </c>
-      <c r="P11" s="35" t="s">
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" s="35">
-        <v>0</v>
-      </c>
-      <c r="R11" s="35" t="s">
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="35">
-        <v>0</v>
-      </c>
-      <c r="C12" s="35">
-        <v>0</v>
-      </c>
-      <c r="D12" s="35">
-        <v>0</v>
-      </c>
-      <c r="E12" s="35">
-        <v>0</v>
-      </c>
-      <c r="F12" s="35" t="s">
+      <c r="B12" s="22">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="35">
-        <v>0</v>
-      </c>
-      <c r="I12" s="35">
-        <v>0</v>
-      </c>
-      <c r="J12" s="35" t="s">
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="35">
-        <v>0</v>
-      </c>
-      <c r="L12" s="35">
-        <v>0</v>
-      </c>
-      <c r="M12" s="35">
-        <v>0</v>
-      </c>
-      <c r="N12" s="35" t="s">
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="35">
-        <v>0</v>
-      </c>
-      <c r="P12" s="35" t="s">
+      <c r="O12" s="22">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" s="35">
-        <v>0</v>
-      </c>
-      <c r="R12" s="35" t="s">
+      <c r="Q12" s="22">
+        <v>0</v>
+      </c>
+      <c r="R12" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="35">
-        <v>0</v>
-      </c>
-      <c r="E13" s="35">
-        <v>0</v>
-      </c>
-      <c r="F13" s="35">
-        <v>0</v>
-      </c>
-      <c r="G13" s="35">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35" t="s">
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="35">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35">
-        <v>0</v>
-      </c>
-      <c r="L13" s="35">
-        <v>0</v>
-      </c>
-      <c r="M13" s="35" t="s">
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="35" t="s">
+      <c r="N13" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="35">
-        <v>0</v>
-      </c>
-      <c r="P13" s="35" t="s">
+      <c r="O13" s="22">
+        <v>0</v>
+      </c>
+      <c r="P13" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" s="35">
-        <v>0</v>
-      </c>
-      <c r="R13" s="35" t="s">
+      <c r="Q13" s="22">
+        <v>0</v>
+      </c>
+      <c r="R13" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="35">
-        <v>0</v>
-      </c>
-      <c r="C14" s="35">
-        <v>0</v>
-      </c>
-      <c r="D14" s="35">
-        <v>0</v>
-      </c>
-      <c r="E14" s="35">
-        <v>0</v>
-      </c>
-      <c r="F14" s="35">
-        <v>0</v>
-      </c>
-      <c r="G14" s="35">
-        <v>0</v>
-      </c>
-      <c r="H14" s="35" t="s">
+      <c r="B14" s="22">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="35">
-        <v>0</v>
-      </c>
-      <c r="J14" s="35">
-        <v>0</v>
-      </c>
-      <c r="K14" s="35">
-        <v>0</v>
-      </c>
-      <c r="L14" s="35" t="s">
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M14" s="35">
-        <v>0</v>
-      </c>
-      <c r="N14" s="35" t="s">
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="O14" s="35">
-        <v>0</v>
-      </c>
-      <c r="P14" s="35" t="s">
+      <c r="O14" s="22">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" s="35">
-        <v>0</v>
-      </c>
-      <c r="R14" s="35" t="s">
+      <c r="Q14" s="22">
+        <v>0</v>
+      </c>
+      <c r="R14" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="M15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="N15" s="35">
-        <v>0</v>
-      </c>
-      <c r="O15" s="35" t="s">
+      <c r="N15" s="22">
+        <v>0</v>
+      </c>
+      <c r="O15" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="P15" s="35" t="s">
+      <c r="P15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="Q15" s="35">
-        <v>0</v>
-      </c>
-      <c r="R15" s="35" t="s">
+      <c r="Q15" s="22">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="35">
-        <v>0</v>
-      </c>
-      <c r="C16" s="35">
-        <v>0</v>
-      </c>
-      <c r="D16" s="35">
-        <v>0</v>
-      </c>
-      <c r="E16" s="35">
-        <v>0</v>
-      </c>
-      <c r="F16" s="35">
-        <v>0</v>
-      </c>
-      <c r="G16" s="35">
-        <v>0</v>
-      </c>
-      <c r="H16" s="35">
-        <v>0</v>
-      </c>
-      <c r="I16" s="35">
-        <v>0</v>
-      </c>
-      <c r="J16" s="35">
-        <v>0</v>
-      </c>
-      <c r="K16" s="35">
-        <v>0</v>
-      </c>
-      <c r="L16" s="35">
-        <v>0</v>
-      </c>
-      <c r="M16" s="35">
-        <v>0</v>
-      </c>
-      <c r="N16" s="35" t="s">
+      <c r="B16" s="22">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="22">
+        <v>0</v>
+      </c>
+      <c r="M16" s="22">
+        <v>0</v>
+      </c>
+      <c r="N16" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="O16" s="35">
-        <v>0</v>
-      </c>
-      <c r="P16" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="35">
-        <v>0</v>
-      </c>
-      <c r="R16" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="O16" s="22">
+        <v>0</v>
+      </c>
+      <c r="P16" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>0</v>
+      </c>
+      <c r="R16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="L17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="35" t="s">
+      <c r="M17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="N17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="35">
-        <v>0</v>
-      </c>
-      <c r="P17" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="35" t="s">
+      <c r="O17" s="22">
+        <v>0</v>
+      </c>
+      <c r="P17" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="R17" s="35" t="s">
+      <c r="R17" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="35">
-        <v>0</v>
-      </c>
-      <c r="C18" s="35">
-        <v>0</v>
-      </c>
-      <c r="D18" s="35">
-        <v>0</v>
-      </c>
-      <c r="E18" s="35">
-        <v>0</v>
-      </c>
-      <c r="F18" s="35">
-        <v>0</v>
-      </c>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-      <c r="I18" s="35">
-        <v>0</v>
-      </c>
-      <c r="J18" s="35">
-        <v>0</v>
-      </c>
-      <c r="K18" s="35">
-        <v>0</v>
-      </c>
-      <c r="L18" s="35">
-        <v>0</v>
-      </c>
-      <c r="M18" s="35">
-        <v>0</v>
-      </c>
-      <c r="N18" s="35">
-        <v>0</v>
-      </c>
-      <c r="O18" s="35">
-        <v>0</v>
-      </c>
-      <c r="P18" s="35" t="s">
+      <c r="B18" s="22">
+        <v>0</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0</v>
+      </c>
+      <c r="M18" s="22">
+        <v>0</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0</v>
+      </c>
+      <c r="O18" s="22">
+        <v>0</v>
+      </c>
+      <c r="P18" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="Q18" s="35">
-        <v>0</v>
-      </c>
-      <c r="R18" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="Q18" s="22">
+        <v>0</v>
+      </c>
+      <c r="R18" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="35" t="s">
+      <c r="M19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="35" t="s">
+      <c r="N19" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="35">
-        <v>0</v>
-      </c>
-      <c r="P19" s="35" t="s">
+      <c r="O19" s="22">
+        <v>0</v>
+      </c>
+      <c r="P19" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Q19" s="35">
-        <v>0</v>
-      </c>
-      <c r="R19" s="35">
-        <v>0</v>
+      <c r="Q19" s="22">
+        <v>0</v>
+      </c>
+      <c r="R19" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S24" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="T24" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="U24" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="39">
+        <v>0</v>
+      </c>
+      <c r="C25" s="39">
+        <v>0</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="39">
+        <v>0</v>
+      </c>
+      <c r="F25" s="39">
+        <v>0</v>
+      </c>
+      <c r="G25" s="39">
+        <v>0</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="39">
+        <v>0</v>
+      </c>
+      <c r="K25" s="39">
+        <v>0</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="39">
+        <v>0</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25" s="39">
+        <v>0</v>
+      </c>
+      <c r="P25" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="39">
+        <v>0</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="T25" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="U25" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="39">
+        <v>0</v>
+      </c>
+      <c r="C26" s="39">
+        <v>0</v>
+      </c>
+      <c r="D26" s="39">
+        <v>0</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0</v>
+      </c>
+      <c r="G26" s="39">
+        <v>0</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="39">
+        <v>0</v>
+      </c>
+      <c r="K26" s="39">
+        <v>0</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="39">
+        <v>0</v>
+      </c>
+      <c r="N26" s="39">
+        <v>0</v>
+      </c>
+      <c r="O26" s="39">
+        <v>0</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="39">
+        <v>0</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S26" s="20">
+        <v>0</v>
+      </c>
+      <c r="T26" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="U26" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="39">
+        <v>0</v>
+      </c>
+      <c r="D27" s="39">
+        <v>0</v>
+      </c>
+      <c r="E27" s="39">
+        <v>0</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="39">
+        <v>0</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" s="39">
+        <v>0</v>
+      </c>
+      <c r="L27" s="39">
+        <v>0</v>
+      </c>
+      <c r="M27" s="39">
+        <v>0</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O27" s="39">
+        <v>0</v>
+      </c>
+      <c r="P27" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="39">
+        <v>0</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S27" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="T27" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="U27" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="39">
+        <v>0</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="39">
+        <v>0</v>
+      </c>
+      <c r="E28" s="39">
+        <v>0</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="39">
+        <v>0</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="39">
+        <v>0</v>
+      </c>
+      <c r="L28" s="39">
+        <v>0</v>
+      </c>
+      <c r="M28" s="39">
+        <v>0</v>
+      </c>
+      <c r="N28" s="39">
+        <v>0</v>
+      </c>
+      <c r="O28" s="39">
+        <v>0</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q28" s="39">
+        <v>0</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S28" s="20">
+        <v>0</v>
+      </c>
+      <c r="T28" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="U28" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="39">
+        <v>0</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="39">
+        <v>0</v>
+      </c>
+      <c r="F29" s="39">
+        <v>0</v>
+      </c>
+      <c r="G29" s="39">
+        <v>0</v>
+      </c>
+      <c r="H29" s="39">
+        <v>0</v>
+      </c>
+      <c r="I29" s="39">
+        <v>0</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" s="39">
+        <v>0</v>
+      </c>
+      <c r="M29" s="39">
+        <v>0</v>
+      </c>
+      <c r="N29" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O29" s="39">
+        <v>0</v>
+      </c>
+      <c r="P29" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="39">
+        <v>0</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S29" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="T29" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="U29" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="39">
+        <v>0</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0</v>
+      </c>
+      <c r="D30" s="39">
+        <v>0</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="39">
+        <v>0</v>
+      </c>
+      <c r="G30" s="39">
+        <v>0</v>
+      </c>
+      <c r="H30" s="39">
+        <v>0</v>
+      </c>
+      <c r="I30" s="39">
+        <v>0</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="39">
+        <v>0</v>
+      </c>
+      <c r="M30" s="39">
+        <v>0</v>
+      </c>
+      <c r="N30" s="39">
+        <v>0</v>
+      </c>
+      <c r="O30" s="39">
+        <v>0</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q30" s="39">
+        <v>0</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S30" s="20">
+        <v>0</v>
+      </c>
+      <c r="T30" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="U30" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="39">
+        <v>0</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="39">
+        <v>0</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31" s="39">
+        <v>0</v>
+      </c>
+      <c r="P31" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="39">
+        <v>0</v>
+      </c>
+      <c r="R31" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S31" s="20">
+        <v>0</v>
+      </c>
+      <c r="T31" s="20">
+        <v>0</v>
+      </c>
+      <c r="U31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39">
+        <v>0</v>
+      </c>
+      <c r="O32" s="39">
+        <v>0</v>
+      </c>
+      <c r="P32" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>0</v>
+      </c>
+      <c r="R32" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S32" s="20">
+        <v>0</v>
+      </c>
+      <c r="T32" s="20">
+        <v>0</v>
+      </c>
+      <c r="U32" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="39">
+        <v>0</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="39">
+        <v>0</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="39">
+        <v>0</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39">
+        <v>0</v>
+      </c>
+      <c r="O33" s="39">
+        <v>0</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>0</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S33" s="20">
+        <v>0</v>
+      </c>
+      <c r="T33" s="20">
+        <v>0</v>
+      </c>
+      <c r="U33" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="39">
+        <v>0</v>
+      </c>
+      <c r="E34" s="39">
+        <v>0</v>
+      </c>
+      <c r="F34" s="39">
+        <v>0</v>
+      </c>
+      <c r="G34" s="39">
+        <v>0</v>
+      </c>
+      <c r="H34" s="39">
+        <v>0</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="39">
+        <v>0</v>
+      </c>
+      <c r="K34" s="39">
+        <v>0</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="O34" s="39">
+        <v>0</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q34" s="39">
+        <v>0</v>
+      </c>
+      <c r="R34" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S34" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="T34" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="U34" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="39">
+        <v>0</v>
+      </c>
+      <c r="G35" s="39">
+        <v>0</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="39">
+        <v>0</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" s="39">
+        <v>0</v>
+      </c>
+      <c r="L35" s="39">
+        <v>0</v>
+      </c>
+      <c r="M35" s="39">
+        <v>0</v>
+      </c>
+      <c r="N35" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="O35" s="39">
+        <v>0</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q35" s="39">
+        <v>0</v>
+      </c>
+      <c r="R35" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S35" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="T35" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="39">
+        <v>0</v>
+      </c>
+      <c r="C36" s="39">
+        <v>0</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="39">
+        <v>0</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J36" s="39">
+        <v>0</v>
+      </c>
+      <c r="K36" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36" s="39">
+        <v>0</v>
+      </c>
+      <c r="M36" s="39">
+        <v>0</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="O36" s="39">
+        <v>0</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q36" s="39">
+        <v>0</v>
+      </c>
+      <c r="R36" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S36" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="T36" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="U36" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="39">
+        <v>0</v>
+      </c>
+      <c r="C37" s="39">
+        <v>0</v>
+      </c>
+      <c r="D37" s="39">
+        <v>0</v>
+      </c>
+      <c r="E37" s="39">
+        <v>0</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="39">
+        <v>0</v>
+      </c>
+      <c r="I37" s="39">
+        <v>0</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="39">
+        <v>0</v>
+      </c>
+      <c r="L37" s="39">
+        <v>0</v>
+      </c>
+      <c r="M37" s="39">
+        <v>0</v>
+      </c>
+      <c r="N37" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="39">
+        <v>0</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q37" s="39">
+        <v>0</v>
+      </c>
+      <c r="R37" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S37" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="T37" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="U37" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="39">
+        <v>0</v>
+      </c>
+      <c r="E38" s="39">
+        <v>0</v>
+      </c>
+      <c r="F38" s="39">
+        <v>0</v>
+      </c>
+      <c r="G38" s="39">
+        <v>0</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="39">
+        <v>0</v>
+      </c>
+      <c r="J38" s="39">
+        <v>0</v>
+      </c>
+      <c r="K38" s="39">
+        <v>0</v>
+      </c>
+      <c r="L38" s="39">
+        <v>0</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="N38" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O38" s="40">
+        <v>0</v>
+      </c>
+      <c r="P38" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="39">
+        <v>0</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="M39" s="39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="39">
+        <v>0</v>
+      </c>
+      <c r="O39" s="39">
+        <v>0</v>
+      </c>
+      <c r="P39" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39" s="39">
+        <v>0</v>
+      </c>
+      <c r="R39" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="39">
+        <v>0</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="39">
+        <v>0</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="39">
+        <v>0</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" s="39">
+        <v>0</v>
+      </c>
+      <c r="N40" s="39">
+        <v>0</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q40" s="39">
+        <v>0</v>
+      </c>
+      <c r="R40" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="S40" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T40" s="20">
+        <v>0</v>
+      </c>
+      <c r="U40" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="39">
+        <v>0</v>
+      </c>
+      <c r="C41" s="39">
+        <v>0</v>
+      </c>
+      <c r="D41" s="39">
+        <v>0</v>
+      </c>
+      <c r="E41" s="39">
+        <v>0</v>
+      </c>
+      <c r="F41" s="39">
+        <v>0</v>
+      </c>
+      <c r="G41" s="39">
+        <v>0</v>
+      </c>
+      <c r="H41" s="39">
+        <v>0</v>
+      </c>
+      <c r="I41" s="39">
+        <v>0</v>
+      </c>
+      <c r="J41" s="39">
+        <v>0</v>
+      </c>
+      <c r="K41" s="39">
+        <v>0</v>
+      </c>
+      <c r="L41" s="39">
+        <v>0</v>
+      </c>
+      <c r="M41" s="39">
+        <v>0</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="O41" s="39">
+        <v>0</v>
+      </c>
+      <c r="P41" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="39">
+        <v>0</v>
+      </c>
+      <c r="R41" s="39">
+        <v>0</v>
+      </c>
+      <c r="S41" s="39">
+        <v>0</v>
+      </c>
+      <c r="T41" s="39">
+        <v>0</v>
+      </c>
+      <c r="U41" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="39">
+        <v>0</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="39">
+        <v>0</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="39">
+        <v>0</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="K42" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N42" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="O42" s="39">
+        <v>0</v>
+      </c>
+      <c r="P42" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="R42" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="S42" s="20">
+        <v>0</v>
+      </c>
+      <c r="T42" s="20">
+        <v>0</v>
+      </c>
+      <c r="U42" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="39">
+        <v>0</v>
+      </c>
+      <c r="C43" s="39">
+        <v>0</v>
+      </c>
+      <c r="D43" s="39">
+        <v>0</v>
+      </c>
+      <c r="E43" s="39">
+        <v>0</v>
+      </c>
+      <c r="F43" s="39">
+        <v>0</v>
+      </c>
+      <c r="G43" s="39">
+        <v>0</v>
+      </c>
+      <c r="H43" s="39">
+        <v>0</v>
+      </c>
+      <c r="I43" s="39">
+        <v>0</v>
+      </c>
+      <c r="J43" s="39">
+        <v>0</v>
+      </c>
+      <c r="K43" s="39">
+        <v>0</v>
+      </c>
+      <c r="L43" s="39">
+        <v>0</v>
+      </c>
+      <c r="M43" s="39">
+        <v>0</v>
+      </c>
+      <c r="N43" s="39">
+        <v>0</v>
+      </c>
+      <c r="O43" s="39">
+        <v>0</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q43" s="39">
+        <v>0</v>
+      </c>
+      <c r="R43" s="39">
+        <v>0</v>
+      </c>
+      <c r="S43" s="39">
+        <v>0</v>
+      </c>
+      <c r="T43" s="39">
+        <v>0</v>
+      </c>
+      <c r="U43" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="O44" s="39">
+        <v>0</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q44" s="39">
+        <v>0</v>
+      </c>
+      <c r="R44" s="39">
+        <v>0</v>
+      </c>
+      <c r="S44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="T44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="U44" s="39" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -380,7 +380,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +414,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,33 +535,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,22 +565,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,28 +921,28 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
@@ -956,7 +958,7 @@
       <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
@@ -969,42 +971,42 @@
       <c r="N5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="32"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="23">
         <v>0.05</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
         <v>0.75</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="27">
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23">
         <v>0.05</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27">
+      <c r="L6" s="23"/>
+      <c r="M6" s="23">
         <v>0.75</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="E7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1024,7 @@
         <f>H7-273.15</f>
         <v>84.37</v>
       </c>
-      <c r="J7" s="30"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="3">
         <v>581.79999999999995</v>
       </c>
@@ -1037,13 +1039,13 @@
         <f>M7-273.15</f>
         <v>274.27999999999997</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1061,7 +1063,7 @@
         <f t="shared" ref="I8:I15" si="1">H8-273.15</f>
         <v>59.54000000000002</v>
       </c>
-      <c r="J8" s="30"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="3">
         <v>555.4</v>
       </c>
@@ -1076,13 +1078,13 @@
         <f t="shared" ref="N8:N15" si="3">M8-273.15</f>
         <v>253.71000000000004</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="34"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1102,7 @@
         <f t="shared" si="1"/>
         <v>58.100000000000023</v>
       </c>
-      <c r="J9" s="30"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="3">
         <v>551.5</v>
       </c>
@@ -1115,13 +1117,13 @@
         <f t="shared" si="3"/>
         <v>251.76</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1141,7 @@
         <f t="shared" si="1"/>
         <v>114.84000000000003</v>
       </c>
-      <c r="J10" s="30"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="3">
         <v>607.27</v>
       </c>
@@ -1154,13 +1156,13 @@
         <f t="shared" si="3"/>
         <v>301.55000000000007</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1180,7 @@
         <f t="shared" si="1"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J11" s="30"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="3">
         <v>490.39</v>
       </c>
@@ -1193,8 +1195,8 @@
         <f t="shared" si="3"/>
         <v>219.11</v>
       </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
@@ -1214,7 +1216,7 @@
         <f t="shared" si="1"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="3">
         <v>341.44</v>
       </c>
@@ -1229,8 +1231,8 @@
         <f t="shared" si="3"/>
         <v>68.660000000000025</v>
       </c>
-      <c r="O12" s="33"/>
-      <c r="P12" s="34"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
@@ -1250,7 +1252,7 @@
         <f t="shared" si="1"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J13" s="30"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="3">
         <v>490.39</v>
       </c>
@@ -1265,8 +1267,8 @@
         <f t="shared" si="3"/>
         <v>219.11</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="34"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
@@ -1286,7 +1288,7 @@
         <f t="shared" si="1"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J14" s="30"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="3">
         <v>341.44</v>
       </c>
@@ -1301,8 +1303,8 @@
         <f t="shared" si="3"/>
         <v>68.660000000000025</v>
       </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="34"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="s">
@@ -1322,7 +1324,7 @@
         <f t="shared" si="1"/>
         <v>63.53000000000003</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="3">
         <v>538.29999999999995</v>
       </c>
@@ -1337,8 +1339,8 @@
         <f t="shared" si="3"/>
         <v>246.76</v>
       </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E18" s="9" t="s">
@@ -1365,28 +1367,28 @@
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1404,7 @@
       <c r="I21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="30"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1415,42 +1417,42 @@
       <c r="N21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="32"/>
+      <c r="P21" s="28"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="23">
         <v>1E-3</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23">
         <v>400</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="27">
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="23">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27">
+      <c r="L22" s="23"/>
+      <c r="M22" s="23">
         <v>400</v>
       </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="34"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="30"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1470,7 @@
         <f>H23-273.15</f>
         <v>81.600000000000023</v>
       </c>
-      <c r="J23" s="30"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="3">
         <v>1769.3</v>
       </c>
@@ -1483,13 +1485,13 @@
         <f>M23-273.15</f>
         <v>165.8</v>
       </c>
-      <c r="O23" s="33"/>
-      <c r="P23" s="34"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="E24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1507,7 +1509,7 @@
         <f t="shared" ref="I24:I31" si="5">H24-273.15</f>
         <v>57.200000000000045</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="3">
         <v>1768.5</v>
       </c>
@@ -1522,13 +1524,13 @@
         <f t="shared" ref="N24:N31" si="7">M24-273.15</f>
         <v>139.56</v>
       </c>
-      <c r="O24" s="33"/>
-      <c r="P24" s="34"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1548,7 @@
         <f t="shared" si="5"/>
         <v>55.680000000000007</v>
       </c>
-      <c r="J25" s="30"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="3">
         <v>1768.49</v>
       </c>
@@ -1561,13 +1563,13 @@
         <f t="shared" si="7"/>
         <v>135.60000000000002</v>
       </c>
-      <c r="O25" s="33"/>
-      <c r="P25" s="34"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,7 +1587,7 @@
         <f t="shared" si="5"/>
         <v>111.89000000000004</v>
       </c>
-      <c r="J26" s="30"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="3">
         <v>1775.99</v>
       </c>
@@ -1600,13 +1602,13 @@
         <f t="shared" si="7"/>
         <v>194.07000000000005</v>
       </c>
-      <c r="O26" s="33"/>
-      <c r="P26" s="34"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,7 +1626,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J27" s="30"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="3">
         <v>1767.67</v>
       </c>
@@ -1639,8 +1641,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O27" s="33"/>
-      <c r="P27" s="34"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
@@ -1660,7 +1662,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J28" s="30"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="3">
         <v>339.87</v>
       </c>
@@ -1675,8 +1677,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="34"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="s">
@@ -1696,7 +1698,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J29" s="30"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="3">
         <v>1767.67</v>
       </c>
@@ -1711,8 +1713,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O29" s="33"/>
-      <c r="P29" s="34"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="s">
@@ -1732,7 +1734,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J30" s="30"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="3">
         <v>339.87</v>
       </c>
@@ -1747,8 +1749,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O30" s="33"/>
-      <c r="P30" s="34"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="s">
@@ -1768,7 +1770,7 @@
         <f t="shared" si="5"/>
         <v>56.94</v>
       </c>
-      <c r="J31" s="30"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="3">
         <v>1768.44</v>
       </c>
@@ -1783,8 +1785,8 @@
         <f t="shared" si="7"/>
         <v>121.38</v>
       </c>
-      <c r="O31" s="33"/>
-      <c r="P31" s="34"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="30"/>
     </row>
     <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E34" s="9" t="s">
@@ -1811,28 +1813,28 @@
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
       <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
@@ -1848,7 +1850,7 @@
       <c r="I37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="30"/>
+      <c r="J37" s="24"/>
       <c r="K37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1861,42 +1863,42 @@
       <c r="N37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="31" t="s">
+      <c r="O37" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P37" s="32"/>
+      <c r="P37" s="28"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="E38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="23">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27">
+      <c r="G38" s="23"/>
+      <c r="H38" s="23">
         <v>0.05</v>
       </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="27">
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="23">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27">
+      <c r="L38" s="23"/>
+      <c r="M38" s="23">
         <v>0.05</v>
       </c>
-      <c r="N38" s="27"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="34"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="30"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
       <c r="E39" s="3" t="s">
         <v>0</v>
       </c>
@@ -1914,7 +1916,7 @@
         <f>H39-273.15</f>
         <v>87.62</v>
       </c>
-      <c r="J39" s="30"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="3">
         <v>547.42999999999995</v>
       </c>
@@ -1929,13 +1931,13 @@
         <f>M39-273.15</f>
         <v>14114.06</v>
       </c>
-      <c r="O39" s="33"/>
-      <c r="P39" s="34"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="30"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
       <c r="E40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +1955,7 @@
         <f t="shared" ref="I40:I47" si="9">H40-273.15</f>
         <v>62.270000000000039</v>
       </c>
-      <c r="J40" s="30"/>
+      <c r="J40" s="24"/>
       <c r="K40" s="3">
         <v>526.86</v>
       </c>
@@ -1968,13 +1970,13 @@
         <f t="shared" ref="N40:N47" si="11">M40-273.15</f>
         <v>14114.06</v>
       </c>
-      <c r="O40" s="33"/>
-      <c r="P40" s="34"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="30"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
       <c r="E41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1992,7 +1994,7 @@
         <f t="shared" si="9"/>
         <v>60.900000000000034</v>
       </c>
-      <c r="J41" s="30"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="3">
         <v>524.91</v>
       </c>
@@ -2007,13 +2009,13 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O41" s="33"/>
-      <c r="P41" s="34"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="30"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2031,7 +2033,7 @@
         <f t="shared" si="9"/>
         <v>118.28000000000003</v>
       </c>
-      <c r="J42" s="30"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="3">
         <v>574.70000000000005</v>
       </c>
@@ -2046,13 +2048,13 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O42" s="33"/>
-      <c r="P42" s="34"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="30"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2070,7 +2072,7 @@
         <f t="shared" si="9"/>
         <v>67.730000000000018</v>
       </c>
-      <c r="J43" s="30"/>
+      <c r="J43" s="24"/>
       <c r="K43" s="3">
         <v>492.26</v>
       </c>
@@ -2085,8 +2087,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O43" s="33"/>
-      <c r="P43" s="34"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="30"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E44" s="3" t="s">
@@ -2106,7 +2108,7 @@
         <f t="shared" si="9"/>
         <v>20.580000000000041</v>
       </c>
-      <c r="J44" s="30"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="3">
         <v>341.81</v>
       </c>
@@ -2121,8 +2123,8 @@
         <f t="shared" si="11"/>
         <v>66.13</v>
       </c>
-      <c r="O44" s="33"/>
-      <c r="P44" s="34"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="30"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E45" s="3" t="s">
@@ -2142,7 +2144,7 @@
         <f t="shared" si="9"/>
         <v>67.730000000000018</v>
       </c>
-      <c r="J45" s="30"/>
+      <c r="J45" s="24"/>
       <c r="K45" s="3">
         <v>492.26</v>
       </c>
@@ -2157,8 +2159,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O45" s="33"/>
-      <c r="P45" s="34"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="30"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E46" s="3" t="s">
@@ -2178,7 +2180,7 @@
         <f t="shared" si="9"/>
         <v>20.580000000000041</v>
       </c>
-      <c r="J46" s="30"/>
+      <c r="J46" s="24"/>
       <c r="K46" s="3">
         <v>341.81</v>
       </c>
@@ -2193,8 +2195,8 @@
         <f t="shared" si="11"/>
         <v>66.13</v>
       </c>
-      <c r="O46" s="33"/>
-      <c r="P46" s="34"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="30"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E47" s="3" t="s">
@@ -2214,7 +2216,7 @@
         <f t="shared" si="9"/>
         <v>70.87</v>
       </c>
-      <c r="J47" s="30"/>
+      <c r="J47" s="24"/>
       <c r="K47" s="3">
         <v>519.91</v>
       </c>
@@ -2229,8 +2231,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O47" s="33"/>
-      <c r="P47" s="34"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="30"/>
     </row>
     <row r="50" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E50" s="6" t="s">
@@ -2262,28 +2264,28 @@
       <c r="E53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="36" t="s">
+      <c r="K53" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
       <c r="E54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2301,7 @@
       <c r="I54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="30"/>
+      <c r="J54" s="24"/>
       <c r="K54" s="5" t="s">
         <v>10</v>
       </c>
@@ -2312,42 +2314,42 @@
       <c r="N54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O54" s="31" t="s">
+      <c r="O54" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P54" s="32"/>
+      <c r="P54" s="28"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
       <c r="E55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27" t="s">
+      <c r="G55" s="23"/>
+      <c r="H55" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I55" s="27"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="27" t="s">
+      <c r="I55" s="23"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27" t="s">
+      <c r="L55" s="23"/>
+      <c r="M55" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="27"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="34"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="30"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
@@ -2365,7 +2367,7 @@
         <f>H56-273.15</f>
         <v>80.110000000000014</v>
       </c>
-      <c r="J56" s="30"/>
+      <c r="J56" s="24"/>
       <c r="K56" s="3">
         <v>438.71</v>
       </c>
@@ -2380,13 +2382,13 @@
         <f>M56-273.15</f>
         <v>150.03000000000003</v>
       </c>
-      <c r="O56" s="33"/>
-      <c r="P56" s="34"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="30"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
       <c r="E57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2404,7 +2406,7 @@
         <f t="shared" ref="I57:I64" si="13">H57-273.15</f>
         <v>55.580000000000041</v>
       </c>
-      <c r="J57" s="30"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="3">
         <v>412.5</v>
       </c>
@@ -2419,13 +2421,13 @@
         <f t="shared" ref="N57:N64" si="15">M57-273.15</f>
         <v>123.33000000000004</v>
       </c>
-      <c r="O57" s="33"/>
-      <c r="P57" s="34"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="30"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
       <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2443,7 +2445,7 @@
         <f t="shared" si="13"/>
         <v>54.04000000000002</v>
       </c>
-      <c r="J58" s="30"/>
+      <c r="J58" s="24"/>
       <c r="K58" s="3">
         <v>408.56</v>
       </c>
@@ -2458,13 +2460,13 @@
         <f t="shared" si="15"/>
         <v>119.03000000000003</v>
       </c>
-      <c r="O58" s="33"/>
-      <c r="P58" s="34"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="30"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,7 +2484,7 @@
         <f t="shared" si="13"/>
         <v>110.30000000000001</v>
       </c>
-      <c r="J59" s="30"/>
+      <c r="J59" s="24"/>
       <c r="K59" s="3">
         <v>467</v>
       </c>
@@ -2497,13 +2499,13 @@
         <f t="shared" si="15"/>
         <v>178.41000000000003</v>
       </c>
-      <c r="O59" s="33"/>
-      <c r="P59" s="34"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="30"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
       <c r="E60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2521,7 +2523,7 @@
         <f t="shared" si="13"/>
         <v>27.830000000000041</v>
       </c>
-      <c r="J60" s="30"/>
+      <c r="J60" s="24"/>
       <c r="K60" s="3">
         <v>342.15</v>
       </c>
@@ -2536,8 +2538,8 @@
         <f t="shared" si="15"/>
         <v>45.57000000000005</v>
       </c>
-      <c r="O60" s="33"/>
-      <c r="P60" s="34"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="30"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E61" s="3" t="s">
@@ -2557,7 +2559,7 @@
         <f t="shared" si="13"/>
         <v>27.810000000000002</v>
       </c>
-      <c r="J61" s="30"/>
+      <c r="J61" s="24"/>
       <c r="K61" s="3">
         <v>342.11</v>
       </c>
@@ -2572,8 +2574,8 @@
         <f t="shared" si="15"/>
         <v>45.520000000000039</v>
       </c>
-      <c r="O61" s="33"/>
-      <c r="P61" s="34"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="30"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E62" s="3" t="s">
@@ -2593,7 +2595,7 @@
         <f t="shared" si="13"/>
         <v>27.830000000000041</v>
       </c>
-      <c r="J62" s="30"/>
+      <c r="J62" s="24"/>
       <c r="K62" s="3">
         <v>342.15</v>
       </c>
@@ -2608,8 +2610,8 @@
         <f t="shared" si="15"/>
         <v>45.57000000000005</v>
       </c>
-      <c r="O62" s="33"/>
-      <c r="P62" s="34"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="30"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E63" s="3" t="s">
@@ -2629,7 +2631,7 @@
         <f t="shared" si="13"/>
         <v>27.810000000000002</v>
       </c>
-      <c r="J63" s="30"/>
+      <c r="J63" s="24"/>
       <c r="K63" s="3">
         <v>342.11</v>
       </c>
@@ -2644,8 +2646,8 @@
         <f t="shared" si="15"/>
         <v>45.520000000000039</v>
       </c>
-      <c r="O63" s="33"/>
-      <c r="P63" s="34"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="30"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E64" s="3" t="s">
@@ -2665,7 +2667,7 @@
         <f t="shared" si="13"/>
         <v>52.990000000000009</v>
       </c>
-      <c r="J64" s="30"/>
+      <c r="J64" s="24"/>
       <c r="K64" s="3">
         <v>394.41</v>
       </c>
@@ -2680,8 +2682,8 @@
         <f t="shared" si="15"/>
         <v>102.79000000000002</v>
       </c>
-      <c r="O64" s="33"/>
-      <c r="P64" s="34"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="30"/>
     </row>
     <row r="67" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E67" s="6" t="s">
@@ -2713,28 +2715,28 @@
       <c r="E70" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="36" t="s">
+      <c r="F70" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
       <c r="J70" s="10"/>
-      <c r="K70" s="36" t="s">
+      <c r="K70" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
       <c r="E71" s="4" t="s">
         <v>9</v>
       </c>
@@ -2750,7 +2752,7 @@
       <c r="I71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J71" s="30"/>
+      <c r="J71" s="24"/>
       <c r="K71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2763,42 +2765,42 @@
       <c r="N71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O71" s="31" t="s">
+      <c r="O71" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P71" s="32"/>
+      <c r="P71" s="28"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
       <c r="E72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27" t="s">
+      <c r="G72" s="23"/>
+      <c r="H72" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I72" s="27"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="27" t="s">
+      <c r="I72" s="23"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27" t="s">
+      <c r="L72" s="23"/>
+      <c r="M72" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N72" s="27"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="34"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="30"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
       <c r="E73" s="3" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2818,7 @@
         <f>H73-273.15</f>
         <v>57.110000000000014</v>
       </c>
-      <c r="J73" s="30"/>
+      <c r="J73" s="24"/>
       <c r="K73" s="3">
         <v>385.35</v>
       </c>
@@ -2831,13 +2833,13 @@
         <f>M73-273.15</f>
         <v>87.06</v>
       </c>
-      <c r="O73" s="33"/>
-      <c r="P73" s="34"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="30"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
       <c r="E74" s="3" t="s">
         <v>1</v>
       </c>
@@ -2855,7 +2857,7 @@
         <f t="shared" ref="I74:I81" si="17">H74-273.15</f>
         <v>35.32000000000005</v>
       </c>
-      <c r="J74" s="30"/>
+      <c r="J74" s="24"/>
       <c r="K74" s="3">
         <v>357.98</v>
       </c>
@@ -2870,13 +2872,13 @@
         <f t="shared" ref="N74:N81" si="19">M74-273.15</f>
         <v>59.660000000000025</v>
       </c>
-      <c r="O74" s="33"/>
-      <c r="P74" s="34"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="30"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
       <c r="E75" s="3" t="s">
         <v>2</v>
       </c>
@@ -2894,7 +2896,7 @@
         <f t="shared" si="17"/>
         <v>32.700000000000045</v>
       </c>
-      <c r="J75" s="30"/>
+      <c r="J75" s="24"/>
       <c r="K75" s="3">
         <v>352.79</v>
       </c>
@@ -2909,13 +2911,13 @@
         <f t="shared" si="19"/>
         <v>53.890000000000043</v>
       </c>
-      <c r="O75" s="33"/>
-      <c r="P75" s="34"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="30"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
       <c r="E76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,7 +2935,7 @@
         <f t="shared" si="17"/>
         <v>86.62</v>
       </c>
-      <c r="J76" s="30"/>
+      <c r="J76" s="24"/>
       <c r="K76" s="3">
         <v>413.9</v>
       </c>
@@ -2948,13 +2950,13 @@
         <f t="shared" si="19"/>
         <v>115.70000000000005</v>
       </c>
-      <c r="O76" s="33"/>
-      <c r="P76" s="34"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="30"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
       <c r="E77" s="3" t="s">
         <v>4</v>
       </c>
@@ -2972,7 +2974,7 @@
         <f t="shared" si="17"/>
         <v>-51.529999999999973</v>
       </c>
-      <c r="J77" s="30"/>
+      <c r="J77" s="24"/>
       <c r="K77" s="3">
         <v>260.79000000000002</v>
       </c>
@@ -2987,8 +2989,8 @@
         <f t="shared" si="19"/>
         <v>-50.169999999999987</v>
       </c>
-      <c r="O77" s="33"/>
-      <c r="P77" s="34"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="30"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E78" s="3" t="s">
@@ -3008,7 +3010,7 @@
         <f t="shared" si="17"/>
         <v>-51.559999999999974</v>
       </c>
-      <c r="J78" s="30"/>
+      <c r="J78" s="24"/>
       <c r="K78" s="3">
         <v>260.75</v>
       </c>
@@ -3023,8 +3025,8 @@
         <f t="shared" si="19"/>
         <v>-50.21999999999997</v>
       </c>
-      <c r="O78" s="33"/>
-      <c r="P78" s="34"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="30"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E79" s="3" t="s">
@@ -3044,7 +3046,7 @@
         <f t="shared" si="17"/>
         <v>-51.529999999999973</v>
       </c>
-      <c r="J79" s="30"/>
+      <c r="J79" s="24"/>
       <c r="K79" s="3">
         <v>260.79000000000002</v>
       </c>
@@ -3059,8 +3061,8 @@
         <f t="shared" si="19"/>
         <v>-50.169999999999987</v>
       </c>
-      <c r="O79" s="33"/>
-      <c r="P79" s="34"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="30"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
@@ -3080,7 +3082,7 @@
         <f t="shared" si="17"/>
         <v>-51.559999999999974</v>
       </c>
-      <c r="J80" s="30"/>
+      <c r="J80" s="24"/>
       <c r="K80" s="3">
         <v>260.75</v>
       </c>
@@ -3095,8 +3097,8 @@
         <f t="shared" si="19"/>
         <v>-50.21999999999997</v>
       </c>
-      <c r="O80" s="33"/>
-      <c r="P80" s="34"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="30"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E81" s="3" t="s">
@@ -3116,7 +3118,7 @@
         <f t="shared" si="17"/>
         <v>11.400000000000034</v>
       </c>
-      <c r="J81" s="30"/>
+      <c r="J81" s="24"/>
       <c r="K81" s="3">
         <v>330.96</v>
       </c>
@@ -3131,8 +3133,8 @@
         <f t="shared" si="19"/>
         <v>28.390000000000043</v>
       </c>
-      <c r="O81" s="33"/>
-      <c r="P81" s="34"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="30"/>
     </row>
     <row r="84" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E84" s="6" t="s">
@@ -3180,28 +3182,28 @@
       <c r="E88" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F88" s="36" t="s">
+      <c r="F88" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
       <c r="J88" s="10"/>
-      <c r="K88" s="36" t="s">
+      <c r="K88" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
       <c r="E89" s="4" t="s">
         <v>9</v>
       </c>
@@ -3217,7 +3219,7 @@
       <c r="I89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J89" s="30"/>
+      <c r="J89" s="24"/>
       <c r="K89" s="5" t="s">
         <v>10</v>
       </c>
@@ -3230,42 +3232,42 @@
       <c r="N89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O89" s="31" t="s">
+      <c r="O89" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P89" s="32"/>
+      <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
       <c r="E90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="27" t="s">
+      <c r="F90" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27" t="s">
+      <c r="G90" s="23"/>
+      <c r="H90" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I90" s="27"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="27" t="s">
+      <c r="I90" s="23"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27" t="s">
+      <c r="L90" s="23"/>
+      <c r="M90" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N90" s="27"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="34"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="30"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
       <c r="E91" s="3" t="s">
         <v>0</v>
       </c>
@@ -3283,7 +3285,7 @@
         <f>H91-273.15</f>
         <v>54.03000000000003</v>
       </c>
-      <c r="J91" s="30"/>
+      <c r="J91" s="24"/>
       <c r="K91" s="3">
         <v>376.58</v>
       </c>
@@ -3298,13 +3300,13 @@
         <f>M91-273.15</f>
         <v>77.82000000000005</v>
       </c>
-      <c r="O91" s="33"/>
-      <c r="P91" s="34"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="30"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
       <c r="E92" s="3" t="s">
         <v>1</v>
       </c>
@@ -3322,7 +3324,7 @@
         <f t="shared" ref="I92:I99" si="21">H92-273.15</f>
         <v>32.81</v>
       </c>
-      <c r="J92" s="30"/>
+      <c r="J92" s="24"/>
       <c r="K92" s="3">
         <v>349.55</v>
       </c>
@@ -3337,13 +3339,13 @@
         <f t="shared" ref="N92:N99" si="23">M92-273.15</f>
         <v>50.760000000000048</v>
       </c>
-      <c r="O92" s="33"/>
-      <c r="P92" s="34"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="30"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
       <c r="E93" s="3" t="s">
         <v>2</v>
       </c>
@@ -3361,7 +3363,7 @@
         <f t="shared" si="21"/>
         <v>29.939999999999998</v>
       </c>
-      <c r="J93" s="30"/>
+      <c r="J93" s="24"/>
       <c r="K93" s="3">
         <v>344.04</v>
       </c>
@@ -3376,13 +3378,13 @@
         <f t="shared" si="23"/>
         <v>44.710000000000036</v>
       </c>
-      <c r="O93" s="33"/>
-      <c r="P93" s="34"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="30"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3400,7 +3402,7 @@
         <f t="shared" si="21"/>
         <v>83.410000000000025</v>
       </c>
-      <c r="J94" s="30"/>
+      <c r="J94" s="24"/>
       <c r="K94" s="3">
         <v>405.12</v>
       </c>
@@ -3415,13 +3417,13 @@
         <f t="shared" si="23"/>
         <v>106.46000000000004</v>
       </c>
-      <c r="O94" s="33"/>
-      <c r="P94" s="34"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="30"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
       <c r="E95" s="3" t="s">
         <v>4</v>
       </c>
@@ -3439,7 +3441,7 @@
         <f t="shared" si="21"/>
         <v>-48.879999999999967</v>
       </c>
-      <c r="J95" s="30"/>
+      <c r="J95" s="24"/>
       <c r="K95" s="3">
         <v>260.83</v>
       </c>
@@ -3454,8 +3456,8 @@
         <f t="shared" si="23"/>
         <v>-47.149999999999977</v>
       </c>
-      <c r="O95" s="33"/>
-      <c r="P95" s="34"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="30"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E96" s="3" t="s">
@@ -3475,7 +3477,7 @@
         <f t="shared" si="21"/>
         <v>-48.909999999999968</v>
       </c>
-      <c r="J96" s="30"/>
+      <c r="J96" s="24"/>
       <c r="K96" s="3">
         <v>260.77999999999997</v>
       </c>
@@ -3490,8 +3492,8 @@
         <f t="shared" si="23"/>
         <v>-47.199999999999989</v>
       </c>
-      <c r="O96" s="33"/>
-      <c r="P96" s="34"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="30"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E97" s="3" t="s">
@@ -3511,7 +3513,7 @@
         <f t="shared" si="21"/>
         <v>-48.879999999999967</v>
       </c>
-      <c r="J97" s="30"/>
+      <c r="J97" s="24"/>
       <c r="K97" s="3">
         <v>260.83</v>
       </c>
@@ -3526,8 +3528,8 @@
         <f t="shared" si="23"/>
         <v>-47.149999999999977</v>
       </c>
-      <c r="O97" s="33"/>
-      <c r="P97" s="34"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="30"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E98" s="3" t="s">
@@ -3547,7 +3549,7 @@
         <f t="shared" si="21"/>
         <v>-48.909999999999968</v>
       </c>
-      <c r="J98" s="30"/>
+      <c r="J98" s="24"/>
       <c r="K98" s="3">
         <v>260.77999999999997</v>
       </c>
@@ -3562,8 +3564,8 @@
         <f t="shared" si="23"/>
         <v>-47.199999999999989</v>
       </c>
-      <c r="O98" s="33"/>
-      <c r="P98" s="34"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="30"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E99" s="3" t="s">
@@ -3583,7 +3585,7 @@
         <f t="shared" si="21"/>
         <v>4.5100000000000477</v>
       </c>
-      <c r="J99" s="30"/>
+      <c r="J99" s="24"/>
       <c r="K99" s="3">
         <v>318.83999999999997</v>
       </c>
@@ -3598,8 +3600,8 @@
         <f t="shared" si="23"/>
         <v>16.490000000000009</v>
       </c>
-      <c r="O99" s="33"/>
-      <c r="P99" s="34"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="30"/>
     </row>
     <row r="102" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E102" s="6" t="s">
@@ -3615,26 +3617,26 @@
       <c r="E104" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F104" s="36" t="s">
+      <c r="F104" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="36"/>
-      <c r="N104" s="36"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
       <c r="E105" s="4" t="s">
         <v>9</v>
       </c>
@@ -3650,7 +3652,7 @@
       <c r="I105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J105" s="30"/>
+      <c r="J105" s="24"/>
       <c r="K105" s="5" t="s">
         <v>10</v>
       </c>
@@ -3663,42 +3665,42 @@
       <c r="N105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O105" s="31" t="s">
+      <c r="O105" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P105" s="32"/>
+      <c r="P105" s="28"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
       <c r="E106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F106" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27" t="s">
+      <c r="G106" s="23"/>
+      <c r="H106" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I106" s="27"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="27" t="s">
+      <c r="I106" s="23"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27" t="s">
+      <c r="L106" s="23"/>
+      <c r="M106" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N106" s="27"/>
-      <c r="O106" s="33"/>
-      <c r="P106" s="34"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="30"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
       <c r="E107" s="3" t="s">
         <v>0</v>
       </c>
@@ -3716,7 +3718,7 @@
         <f>H107-273.15</f>
         <v>297.07000000000005</v>
       </c>
-      <c r="J107" s="30"/>
+      <c r="J107" s="24"/>
       <c r="K107" s="3">
         <v>571.03</v>
       </c>
@@ -3731,13 +3733,13 @@
         <f>M107-273.15</f>
         <v>160.83000000000004</v>
       </c>
-      <c r="O107" s="33"/>
-      <c r="P107" s="34"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="30"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
       <c r="E108" s="3" t="s">
         <v>1</v>
       </c>
@@ -3755,7 +3757,7 @@
         <f t="shared" ref="I108:I115" si="25">H108-273.15</f>
         <v>262.36</v>
       </c>
-      <c r="J108" s="30"/>
+      <c r="J108" s="24"/>
       <c r="K108" s="3">
         <v>536.29999999999995</v>
       </c>
@@ -3770,13 +3772,13 @@
         <f t="shared" ref="N108:N115" si="27">M108-273.15</f>
         <v>135.17000000000002</v>
       </c>
-      <c r="O108" s="33"/>
-      <c r="P108" s="34"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="30"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
       <c r="E109" s="3" t="s">
         <v>2</v>
       </c>
@@ -3794,7 +3796,7 @@
         <f t="shared" si="25"/>
         <v>250.84000000000003</v>
       </c>
-      <c r="J109" s="30"/>
+      <c r="J109" s="24"/>
       <c r="K109" s="3">
         <v>524.73</v>
       </c>
@@ -3809,13 +3811,13 @@
         <f t="shared" si="27"/>
         <v>131.47000000000003</v>
       </c>
-      <c r="O109" s="33"/>
-      <c r="P109" s="34"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="30"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
       <c r="E110" s="3" t="s">
         <v>3</v>
       </c>
@@ -3833,7 +3835,7 @@
         <f t="shared" si="25"/>
         <v>325.94000000000005</v>
       </c>
-      <c r="J110" s="30"/>
+      <c r="J110" s="24"/>
       <c r="K110" s="3">
         <v>599.89</v>
       </c>
@@ -3848,13 +3850,13 @@
         <f t="shared" si="27"/>
         <v>185.82000000000005</v>
       </c>
-      <c r="O110" s="33"/>
-      <c r="P110" s="34"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="30"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="29"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
       <c r="E111" s="3" t="s">
         <v>4</v>
       </c>
@@ -3872,7 +3874,7 @@
         <f t="shared" si="25"/>
         <v>69.460000000000036</v>
       </c>
-      <c r="J111" s="30"/>
+      <c r="J111" s="24"/>
       <c r="K111" s="3">
         <v>342.61</v>
       </c>
@@ -3887,8 +3889,8 @@
         <f t="shared" si="27"/>
         <v>68.950000000000045</v>
       </c>
-      <c r="O111" s="33"/>
-      <c r="P111" s="34"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="30"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E112" s="3" t="s">
@@ -3908,7 +3910,7 @@
         <f t="shared" si="25"/>
         <v>69.410000000000025</v>
       </c>
-      <c r="J112" s="30"/>
+      <c r="J112" s="24"/>
       <c r="K112" s="3">
         <v>342.56</v>
       </c>
@@ -3923,8 +3925,8 @@
         <f t="shared" si="27"/>
         <v>68.900000000000034</v>
       </c>
-      <c r="O112" s="33"/>
-      <c r="P112" s="34"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="30"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E113" s="3" t="s">
@@ -3944,7 +3946,7 @@
         <f t="shared" si="25"/>
         <v>69.460000000000036</v>
       </c>
-      <c r="J113" s="30"/>
+      <c r="J113" s="24"/>
       <c r="K113" s="3">
         <v>342.61</v>
       </c>
@@ -3959,8 +3961,8 @@
         <f t="shared" si="27"/>
         <v>68.950000000000045</v>
       </c>
-      <c r="O113" s="33"/>
-      <c r="P113" s="34"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="30"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E114" s="3" t="s">
@@ -3980,7 +3982,7 @@
         <f t="shared" si="25"/>
         <v>69.410000000000025</v>
       </c>
-      <c r="J114" s="30"/>
+      <c r="J114" s="24"/>
       <c r="K114" s="3">
         <v>342.56</v>
       </c>
@@ -3995,8 +3997,8 @@
         <f t="shared" si="27"/>
         <v>68.900000000000034</v>
       </c>
-      <c r="O114" s="33"/>
-      <c r="P114" s="34"/>
+      <c r="O114" s="29"/>
+      <c r="P114" s="30"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E115" s="3" t="s">
@@ -4016,7 +4018,7 @@
         <f t="shared" si="25"/>
         <v>199.20000000000005</v>
       </c>
-      <c r="J115" s="30"/>
+      <c r="J115" s="24"/>
       <c r="K115" s="3">
         <v>472.84</v>
       </c>
@@ -4031,8 +4033,8 @@
         <f t="shared" si="27"/>
         <v>118.41000000000003</v>
       </c>
-      <c r="O115" s="33"/>
-      <c r="P115" s="34"/>
+      <c r="O115" s="29"/>
+      <c r="P115" s="30"/>
     </row>
     <row r="119" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E119" s="7" t="s">
@@ -4069,12 +4071,12 @@
       <c r="E123" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F123" s="36" t="s">
+      <c r="F123" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
       <c r="J123" s="10"/>
       <c r="K123" s="13" t="s">
         <v>61</v>
@@ -4086,11 +4088,11 @@
       <c r="P123" s="1"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
       <c r="E124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4106,7 +4108,7 @@
       <c r="I124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J124" s="30"/>
+      <c r="J124" s="24"/>
       <c r="K124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4119,44 +4121,44 @@
       <c r="N124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O124" s="31" t="s">
+      <c r="O124" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P124" s="32"/>
+      <c r="P124" s="28"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
       <c r="E125" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F125" s="27">
+      <c r="F125" s="23">
         <v>0.05</v>
       </c>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27">
+      <c r="G125" s="23"/>
+      <c r="H125" s="23">
         <v>0.75</v>
       </c>
-      <c r="I125" s="27"/>
-      <c r="J125" s="30"/>
-      <c r="K125" s="27">
+      <c r="I125" s="23"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="23">
         <v>0.05</v>
       </c>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27">
+      <c r="L125" s="23"/>
+      <c r="M125" s="23">
         <v>0.75</v>
       </c>
-      <c r="N125" s="27"/>
-      <c r="O125" s="33" t="s">
+      <c r="N125" s="23"/>
+      <c r="O125" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="P125" s="34"/>
+      <c r="P125" s="30"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
       <c r="E126" s="3" t="s">
         <v>0</v>
       </c>
@@ -4174,7 +4176,7 @@
         <f>H126-273.15</f>
         <v>84.37</v>
       </c>
-      <c r="J126" s="30"/>
+      <c r="J126" s="24"/>
       <c r="K126" s="15">
         <v>357.13</v>
       </c>
@@ -4189,13 +4191,13 @@
         <f>M126-273.15</f>
         <v>82.460000000000036</v>
       </c>
-      <c r="O126" s="33"/>
-      <c r="P126" s="34"/>
+      <c r="O126" s="29"/>
+      <c r="P126" s="30"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
       <c r="E127" s="3" t="s">
         <v>1</v>
       </c>
@@ -4213,7 +4215,7 @@
         <f t="shared" ref="I127:I135" si="29">H127-273.15</f>
         <v>59.54000000000002</v>
       </c>
-      <c r="J127" s="30"/>
+      <c r="J127" s="24"/>
       <c r="K127" s="15">
         <v>332.57</v>
       </c>
@@ -4228,13 +4230,13 @@
         <f t="shared" ref="N127:N135" si="31">M127-273.15</f>
         <v>58.950000000000045</v>
       </c>
-      <c r="O127" s="33"/>
-      <c r="P127" s="34"/>
+      <c r="O127" s="29"/>
+      <c r="P127" s="30"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
       <c r="E128" s="3" t="s">
         <v>2</v>
       </c>
@@ -4252,7 +4254,7 @@
         <f t="shared" si="29"/>
         <v>58.100000000000023</v>
       </c>
-      <c r="J128" s="30"/>
+      <c r="J128" s="24"/>
       <c r="K128" s="15">
         <v>331.06</v>
       </c>
@@ -4267,13 +4269,13 @@
         <f t="shared" si="31"/>
         <v>57.590000000000032</v>
       </c>
-      <c r="O128" s="33"/>
-      <c r="P128" s="34"/>
+      <c r="O128" s="29"/>
+      <c r="P128" s="30"/>
     </row>
     <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
       <c r="E129" s="3" t="s">
         <v>64</v>
       </c>
@@ -4289,7 +4291,7 @@
       <c r="I129" s="16">
         <v>0</v>
       </c>
-      <c r="J129" s="30"/>
+      <c r="J129" s="24"/>
       <c r="K129" s="15">
         <v>384.69</v>
       </c>
@@ -4304,13 +4306,13 @@
         <f t="shared" si="31"/>
         <v>109.92000000000002</v>
       </c>
-      <c r="O129" s="33"/>
-      <c r="P129" s="34"/>
+      <c r="O129" s="29"/>
+      <c r="P129" s="30"/>
     </row>
     <row r="130" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
+      <c r="A130" s="26"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="26"/>
       <c r="E130" s="3" t="s">
         <v>3</v>
       </c>
@@ -4328,7 +4330,7 @@
         <f t="shared" si="29"/>
         <v>114.84000000000003</v>
       </c>
-      <c r="J130" s="30"/>
+      <c r="J130" s="24"/>
       <c r="K130" s="15">
         <v>387.73</v>
       </c>
@@ -4343,13 +4345,13 @@
         <f t="shared" si="31"/>
         <v>112.97000000000003</v>
       </c>
-      <c r="O130" s="33"/>
-      <c r="P130" s="34"/>
+      <c r="O130" s="29"/>
+      <c r="P130" s="30"/>
     </row>
     <row r="131" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="29"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="26"/>
       <c r="E131" s="3" t="s">
         <v>4</v>
       </c>
@@ -4367,7 +4369,7 @@
         <f t="shared" si="29"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J131" s="30"/>
+      <c r="J131" s="24"/>
       <c r="K131" s="15">
         <v>316.86</v>
       </c>
@@ -4382,8 +4384,8 @@
         <f t="shared" si="31"/>
         <v>48.04000000000002</v>
       </c>
-      <c r="O131" s="33"/>
-      <c r="P131" s="34"/>
+      <c r="O131" s="29"/>
+      <c r="P131" s="30"/>
     </row>
     <row r="132" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E132" s="3" t="s">
@@ -4403,7 +4405,7 @@
         <f t="shared" si="29"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J132" s="30"/>
+      <c r="J132" s="24"/>
       <c r="K132" s="15">
         <v>301.44</v>
       </c>
@@ -4418,8 +4420,8 @@
         <f t="shared" si="31"/>
         <v>29.53000000000003</v>
       </c>
-      <c r="O132" s="33"/>
-      <c r="P132" s="34"/>
+      <c r="O132" s="29"/>
+      <c r="P132" s="30"/>
     </row>
     <row r="133" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E133" s="3" t="s">
@@ -4439,7 +4441,7 @@
         <f t="shared" si="29"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J133" s="30"/>
+      <c r="J133" s="24"/>
       <c r="K133" s="15">
         <v>316.86</v>
       </c>
@@ -4454,8 +4456,8 @@
         <f t="shared" si="31"/>
         <v>48.04000000000002</v>
       </c>
-      <c r="O133" s="33"/>
-      <c r="P133" s="34"/>
+      <c r="O133" s="29"/>
+      <c r="P133" s="30"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E134" s="3" t="s">
@@ -4475,7 +4477,7 @@
         <f t="shared" si="29"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J134" s="30"/>
+      <c r="J134" s="24"/>
       <c r="K134" s="15">
         <v>301.44</v>
       </c>
@@ -4490,8 +4492,8 @@
         <f t="shared" si="31"/>
         <v>29.53000000000003</v>
       </c>
-      <c r="O134" s="33"/>
-      <c r="P134" s="34"/>
+      <c r="O134" s="29"/>
+      <c r="P134" s="30"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E135" s="3" t="s">
@@ -4511,7 +4513,7 @@
         <f t="shared" si="29"/>
         <v>63.53000000000003</v>
       </c>
-      <c r="J135" s="30"/>
+      <c r="J135" s="24"/>
       <c r="K135" s="15">
         <v>334.73</v>
       </c>
@@ -4526,8 +4528,8 @@
         <f t="shared" si="31"/>
         <v>62.470000000000027</v>
       </c>
-      <c r="O135" s="33"/>
-      <c r="P135" s="34"/>
+      <c r="O135" s="29"/>
+      <c r="P135" s="30"/>
     </row>
     <row r="138" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E138" s="7"/>
@@ -4536,54 +4538,54 @@
       <c r="E139" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F139" s="28" t="s">
+      <c r="F139" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G139" s="28"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="28"/>
-      <c r="K139" s="28" t="s">
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="31"/>
+      <c r="K139" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L139" s="28"/>
-      <c r="M139" s="28"/>
-      <c r="N139" s="28"/>
+      <c r="L139" s="31"/>
+      <c r="M139" s="31"/>
+      <c r="N139" s="31"/>
     </row>
     <row r="140" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E140" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="K140" s="28"/>
-      <c r="L140" s="28"/>
-      <c r="M140" s="28"/>
-      <c r="N140" s="28"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="31"/>
+      <c r="K140" s="31"/>
+      <c r="L140" s="31"/>
+      <c r="M140" s="31"/>
+      <c r="N140" s="31"/>
     </row>
     <row r="141" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E141" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
       <c r="J141" s="1"/>
-      <c r="K141" s="28"/>
-      <c r="L141" s="28"/>
-      <c r="M141" s="28"/>
-      <c r="N141" s="28"/>
+      <c r="K141" s="31"/>
+      <c r="L141" s="31"/>
+      <c r="M141" s="31"/>
+      <c r="N141" s="31"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="29" t="s">
+      <c r="A142" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="26"/>
       <c r="E142" s="4" t="s">
         <v>9</v>
       </c>
@@ -4599,7 +4601,7 @@
       <c r="I142" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J142" s="30"/>
+      <c r="J142" s="24"/>
       <c r="K142" s="5" t="s">
         <v>10</v>
       </c>
@@ -4612,42 +4614,42 @@
       <c r="N142" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O142" s="31" t="s">
+      <c r="O142" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P142" s="32"/>
+      <c r="P142" s="28"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
       <c r="E143" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F143" s="27" t="s">
+      <c r="F143" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27" t="s">
+      <c r="G143" s="23"/>
+      <c r="H143" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I143" s="27"/>
-      <c r="J143" s="30"/>
-      <c r="K143" s="27" t="s">
+      <c r="I143" s="23"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="L143" s="27"/>
-      <c r="M143" s="27" t="s">
+      <c r="L143" s="23"/>
+      <c r="M143" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="N143" s="27"/>
-      <c r="O143" s="33"/>
-      <c r="P143" s="34"/>
+      <c r="N143" s="23"/>
+      <c r="O143" s="29"/>
+      <c r="P143" s="30"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="29"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
       <c r="E144" s="3" t="s">
         <v>0</v>
       </c>
@@ -4665,7 +4667,7 @@
         <f>H144-273.15</f>
         <v>86.300000000000011</v>
       </c>
-      <c r="J144" s="30"/>
+      <c r="J144" s="24"/>
       <c r="K144" s="3">
         <v>378.01</v>
       </c>
@@ -4680,13 +4682,13 @@
         <f>M144-273.15</f>
         <v>117.72000000000003</v>
       </c>
-      <c r="O144" s="33"/>
-      <c r="P144" s="34"/>
+      <c r="O144" s="29"/>
+      <c r="P144" s="30"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="26"/>
       <c r="E145" s="3" t="s">
         <v>1</v>
       </c>
@@ -4704,7 +4706,7 @@
         <f t="shared" ref="I145:I146" si="33">H145-273.15</f>
         <v>60.75</v>
       </c>
-      <c r="J145" s="30"/>
+      <c r="J145" s="24"/>
       <c r="K145" s="3">
         <v>357.15</v>
       </c>
@@ -4719,13 +4721,13 @@
         <f t="shared" ref="N145:N153" si="35">M145-273.15</f>
         <v>96.970000000000027</v>
       </c>
-      <c r="O145" s="33"/>
-      <c r="P145" s="34"/>
+      <c r="O145" s="29"/>
+      <c r="P145" s="30"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="29"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="26"/>
       <c r="E146" s="3" t="s">
         <v>2</v>
       </c>
@@ -4743,7 +4745,7 @@
         <f t="shared" si="33"/>
         <v>59.28000000000003</v>
       </c>
-      <c r="J146" s="30"/>
+      <c r="J146" s="24"/>
       <c r="K146" s="3">
         <v>354.26</v>
       </c>
@@ -4758,13 +4760,13 @@
         <f t="shared" si="35"/>
         <v>94.170000000000016</v>
       </c>
-      <c r="O146" s="33"/>
-      <c r="P146" s="34"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="30"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="29"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="26"/>
       <c r="E147" s="3" t="s">
         <v>64</v>
       </c>
@@ -4780,7 +4782,7 @@
       <c r="I147" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J147" s="30"/>
+      <c r="J147" s="24"/>
       <c r="K147" s="3">
         <v>422.08</v>
       </c>
@@ -4795,13 +4797,13 @@
         <f t="shared" si="35"/>
         <v>159.18</v>
       </c>
-      <c r="O147" s="33"/>
-      <c r="P147" s="34"/>
+      <c r="O147" s="29"/>
+      <c r="P147" s="30"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="29"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="26"/>
       <c r="E148" s="3" t="s">
         <v>3</v>
       </c>
@@ -4819,7 +4821,7 @@
         <f t="shared" ref="I148:I153" si="36">H148-273.15</f>
         <v>117.07000000000005</v>
       </c>
-      <c r="J148" s="30"/>
+      <c r="J148" s="24"/>
       <c r="K148" s="3">
         <v>595.69000000000005</v>
       </c>
@@ -4834,13 +4836,13 @@
         <f t="shared" si="35"/>
         <v>329.33000000000004</v>
       </c>
-      <c r="O148" s="33"/>
-      <c r="P148" s="34"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="30"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="29"/>
-      <c r="B149" s="29"/>
-      <c r="C149" s="29"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="26"/>
       <c r="E149" s="3" t="s">
         <v>4</v>
       </c>
@@ -4858,7 +4860,7 @@
         <f t="shared" si="36"/>
         <v>54.180000000000007</v>
       </c>
-      <c r="J149" s="30"/>
+      <c r="J149" s="24"/>
       <c r="K149" s="3">
         <v>334.52</v>
       </c>
@@ -4873,8 +4875,8 @@
         <f t="shared" si="35"/>
         <v>76.230000000000018</v>
       </c>
-      <c r="O149" s="33"/>
-      <c r="P149" s="34"/>
+      <c r="O149" s="29"/>
+      <c r="P149" s="30"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E150" s="3" t="s">
@@ -4894,7 +4896,7 @@
         <f t="shared" si="36"/>
         <v>43.580000000000041</v>
       </c>
-      <c r="J150" s="30"/>
+      <c r="J150" s="24"/>
       <c r="K150" s="3">
         <v>309.76</v>
       </c>
@@ -4909,8 +4911,8 @@
         <f t="shared" si="35"/>
         <v>51.830000000000041</v>
       </c>
-      <c r="O150" s="33"/>
-      <c r="P150" s="34"/>
+      <c r="O150" s="29"/>
+      <c r="P150" s="30"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E151" s="3" t="s">
@@ -4930,7 +4932,7 @@
         <f t="shared" si="36"/>
         <v>54.180000000000007</v>
       </c>
-      <c r="J151" s="30"/>
+      <c r="J151" s="24"/>
       <c r="K151" s="3">
         <v>334.52</v>
       </c>
@@ -4945,8 +4947,8 @@
         <f t="shared" si="35"/>
         <v>76.230000000000018</v>
       </c>
-      <c r="O151" s="33"/>
-      <c r="P151" s="34"/>
+      <c r="O151" s="29"/>
+      <c r="P151" s="30"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E152" s="3" t="s">
@@ -4966,7 +4968,7 @@
         <f t="shared" si="36"/>
         <v>43.580000000000041</v>
       </c>
-      <c r="J152" s="30"/>
+      <c r="J152" s="24"/>
       <c r="K152" s="3">
         <v>309.76</v>
       </c>
@@ -4981,8 +4983,8 @@
         <f t="shared" si="35"/>
         <v>51.830000000000041</v>
       </c>
-      <c r="O152" s="33"/>
-      <c r="P152" s="34"/>
+      <c r="O152" s="29"/>
+      <c r="P152" s="30"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E153" s="3" t="s">
@@ -5002,7 +5004,7 @@
         <f t="shared" si="36"/>
         <v>65.610000000000014</v>
       </c>
-      <c r="J153" s="30"/>
+      <c r="J153" s="24"/>
       <c r="K153" s="3">
         <v>359.71</v>
       </c>
@@ -5017,385 +5019,385 @@
         <f t="shared" si="35"/>
         <v>100.08000000000004</v>
       </c>
-      <c r="O153" s="33"/>
-      <c r="P153" s="34"/>
+      <c r="O153" s="29"/>
+      <c r="P153" s="30"/>
     </row>
     <row r="156" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E156" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F156" s="28" t="s">
+      <c r="F156" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G156" s="28"/>
-      <c r="H156" s="28"/>
-      <c r="I156" s="28"/>
-      <c r="K156" s="28" t="s">
+      <c r="G156" s="31"/>
+      <c r="H156" s="31"/>
+      <c r="I156" s="31"/>
+      <c r="K156" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L156" s="28"/>
-      <c r="M156" s="28"/>
-      <c r="N156" s="28"/>
+      <c r="L156" s="31"/>
+      <c r="M156" s="31"/>
+      <c r="N156" s="31"/>
     </row>
     <row r="157" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E157" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F157" s="28"/>
-      <c r="G157" s="28"/>
-      <c r="H157" s="28"/>
-      <c r="I157" s="28"/>
-      <c r="K157" s="28"/>
-      <c r="L157" s="28"/>
-      <c r="M157" s="28"/>
-      <c r="N157" s="28"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="31"/>
+      <c r="I157" s="31"/>
+      <c r="K157" s="31"/>
+      <c r="L157" s="31"/>
+      <c r="M157" s="31"/>
+      <c r="N157" s="31"/>
     </row>
     <row r="158" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E158" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F158" s="28"/>
-      <c r="G158" s="28"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="28"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="31"/>
+      <c r="I158" s="31"/>
       <c r="J158" s="1"/>
-      <c r="K158" s="28"/>
-      <c r="L158" s="28"/>
-      <c r="M158" s="28"/>
-      <c r="N158" s="28"/>
+      <c r="K158" s="31"/>
+      <c r="L158" s="31"/>
+      <c r="M158" s="31"/>
+      <c r="N158" s="31"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="29" t="s">
+      <c r="A159" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="26"/>
       <c r="E159" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F159" s="35" t="s">
+      <c r="F159" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G159" s="35"/>
-      <c r="H159" s="35" t="s">
+      <c r="G159" s="33"/>
+      <c r="H159" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I159" s="35"/>
-      <c r="J159" s="30"/>
-      <c r="K159" s="35" t="s">
+      <c r="I159" s="33"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L159" s="35"/>
-      <c r="M159" s="35" t="s">
+      <c r="L159" s="33"/>
+      <c r="M159" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N159" s="35"/>
-      <c r="O159" s="31" t="s">
+      <c r="N159" s="33"/>
+      <c r="O159" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P159" s="32"/>
+      <c r="P159" s="28"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="29"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="26"/>
       <c r="E160" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F160" s="27" t="s">
+      <c r="F160" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="30"/>
-      <c r="K160" s="27" t="s">
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="L160" s="27"/>
-      <c r="M160" s="27"/>
-      <c r="N160" s="27"/>
-      <c r="O160" s="33"/>
-      <c r="P160" s="34"/>
+      <c r="L160" s="23"/>
+      <c r="M160" s="23"/>
+      <c r="N160" s="23"/>
+      <c r="O160" s="29"/>
+      <c r="P160" s="30"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="29"/>
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
       <c r="E161" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F161" s="25">
+      <c r="F161" s="32">
         <v>342.04</v>
       </c>
-      <c r="G161" s="25"/>
-      <c r="H161" s="26">
+      <c r="G161" s="32"/>
+      <c r="H161" s="34">
         <f>F161-273.15</f>
         <v>68.890000000000043</v>
       </c>
-      <c r="I161" s="26"/>
-      <c r="J161" s="30"/>
-      <c r="K161" s="25">
+      <c r="I161" s="34"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="32">
         <v>322.26</v>
       </c>
-      <c r="L161" s="25"/>
-      <c r="M161" s="26">
+      <c r="L161" s="32"/>
+      <c r="M161" s="34">
         <f>K161-273.15</f>
         <v>49.110000000000014</v>
       </c>
-      <c r="N161" s="26"/>
-      <c r="O161" s="33"/>
-      <c r="P161" s="34"/>
+      <c r="N161" s="34"/>
+      <c r="O161" s="29"/>
+      <c r="P161" s="30"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="29"/>
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
       <c r="E162" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F162" s="25">
+      <c r="F162" s="32">
         <v>319.17</v>
       </c>
-      <c r="G162" s="25"/>
-      <c r="H162" s="26">
+      <c r="G162" s="32"/>
+      <c r="H162" s="34">
         <f>F162-273.15</f>
         <v>46.020000000000039</v>
       </c>
-      <c r="I162" s="26"/>
-      <c r="J162" s="30"/>
-      <c r="K162" s="25">
+      <c r="I162" s="34"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="32">
         <v>301.64999999999998</v>
       </c>
-      <c r="L162" s="25"/>
-      <c r="M162" s="26">
+      <c r="L162" s="32"/>
+      <c r="M162" s="34">
         <f>K162-273.15</f>
         <v>28.5</v>
       </c>
-      <c r="N162" s="26"/>
-      <c r="O162" s="33"/>
-      <c r="P162" s="34"/>
+      <c r="N162" s="34"/>
+      <c r="O162" s="29"/>
+      <c r="P162" s="30"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
       <c r="E163" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F163" s="25">
+      <c r="F163" s="32">
         <v>317.06</v>
       </c>
-      <c r="G163" s="25"/>
-      <c r="H163" s="26">
+      <c r="G163" s="32"/>
+      <c r="H163" s="34">
         <f t="shared" ref="H163:H170" si="37">F163-273.15</f>
         <v>43.910000000000025</v>
       </c>
-      <c r="I163" s="26"/>
-      <c r="J163" s="30"/>
-      <c r="K163" s="25">
+      <c r="I163" s="34"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="32">
         <v>298.48</v>
       </c>
-      <c r="L163" s="25"/>
-      <c r="M163" s="26">
+      <c r="L163" s="32"/>
+      <c r="M163" s="34">
         <f t="shared" ref="M163" si="38">K163-273.15</f>
         <v>25.330000000000041</v>
       </c>
-      <c r="N163" s="26"/>
-      <c r="O163" s="33"/>
-      <c r="P163" s="34"/>
+      <c r="N163" s="34"/>
+      <c r="O163" s="29"/>
+      <c r="P163" s="30"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
       <c r="E164" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F164" s="25" t="s">
+      <c r="F164" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G164" s="25"/>
-      <c r="H164" s="26" t="s">
+      <c r="G164" s="32"/>
+      <c r="H164" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I164" s="26"/>
-      <c r="J164" s="30"/>
-      <c r="K164" s="25">
+      <c r="I164" s="34"/>
+      <c r="J164" s="24"/>
+      <c r="K164" s="32">
         <v>378.41</v>
       </c>
-      <c r="L164" s="25"/>
-      <c r="M164" s="26">
+      <c r="L164" s="32"/>
+      <c r="M164" s="34">
         <f>K164-273.15</f>
         <v>105.26000000000005</v>
       </c>
-      <c r="N164" s="26"/>
-      <c r="O164" s="33"/>
-      <c r="P164" s="34"/>
+      <c r="N164" s="34"/>
+      <c r="O164" s="29"/>
+      <c r="P164" s="30"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
       <c r="E165" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F165" s="25">
+      <c r="F165" s="32">
         <v>372.15</v>
       </c>
-      <c r="G165" s="25"/>
-      <c r="H165" s="26">
+      <c r="G165" s="32"/>
+      <c r="H165" s="34">
         <f t="shared" si="37"/>
         <v>99</v>
       </c>
-      <c r="I165" s="26"/>
-      <c r="J165" s="30"/>
-      <c r="K165" s="25">
+      <c r="I165" s="34"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="32">
         <v>566.69000000000005</v>
       </c>
-      <c r="L165" s="25"/>
-      <c r="M165" s="26">
+      <c r="L165" s="32"/>
+      <c r="M165" s="34">
         <f>K165-273.15</f>
         <v>293.54000000000008</v>
       </c>
-      <c r="N165" s="26"/>
-      <c r="O165" s="33"/>
-      <c r="P165" s="34"/>
+      <c r="N165" s="34"/>
+      <c r="O165" s="29"/>
+      <c r="P165" s="30"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="26"/>
       <c r="E166" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="25">
+      <c r="F166" s="32">
         <v>261.92</v>
       </c>
-      <c r="G166" s="25"/>
-      <c r="H166" s="26">
+      <c r="G166" s="32"/>
+      <c r="H166" s="34">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I166" s="26"/>
-      <c r="J166" s="30"/>
-      <c r="K166" s="25">
+      <c r="I166" s="34"/>
+      <c r="J166" s="24"/>
+      <c r="K166" s="32">
         <v>270.13</v>
       </c>
-      <c r="L166" s="25"/>
-      <c r="M166" s="26">
+      <c r="L166" s="32"/>
+      <c r="M166" s="34">
         <f t="shared" ref="M166:M170" si="39">K166-273.15</f>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N166" s="26"/>
-      <c r="O166" s="33"/>
-      <c r="P166" s="34"/>
+      <c r="N166" s="34"/>
+      <c r="O166" s="29"/>
+      <c r="P166" s="30"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F167" s="25">
+      <c r="F167" s="32">
         <v>214.52</v>
       </c>
-      <c r="G167" s="25"/>
-      <c r="H167" s="26">
+      <c r="G167" s="32"/>
+      <c r="H167" s="34">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I167" s="26"/>
-      <c r="J167" s="30"/>
-      <c r="K167" s="25">
+      <c r="I167" s="34"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="32">
         <v>243.61</v>
       </c>
-      <c r="L167" s="25"/>
-      <c r="M167" s="26">
+      <c r="L167" s="32"/>
+      <c r="M167" s="34">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N167" s="26"/>
-      <c r="O167" s="33"/>
-      <c r="P167" s="34"/>
+      <c r="N167" s="34"/>
+      <c r="O167" s="29"/>
+      <c r="P167" s="30"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E168" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F168" s="25">
+      <c r="F168" s="32">
         <v>261.92</v>
       </c>
-      <c r="G168" s="25"/>
-      <c r="H168" s="26">
+      <c r="G168" s="32"/>
+      <c r="H168" s="34">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I168" s="26"/>
-      <c r="J168" s="30"/>
-      <c r="K168" s="25">
+      <c r="I168" s="34"/>
+      <c r="J168" s="24"/>
+      <c r="K168" s="32">
         <v>270.13</v>
       </c>
-      <c r="L168" s="25"/>
-      <c r="M168" s="26">
+      <c r="L168" s="32"/>
+      <c r="M168" s="34">
         <f t="shared" si="39"/>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N168" s="26"/>
-      <c r="O168" s="33"/>
-      <c r="P168" s="34"/>
+      <c r="N168" s="34"/>
+      <c r="O168" s="29"/>
+      <c r="P168" s="30"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E169" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F169" s="25">
+      <c r="F169" s="32">
         <v>214.52</v>
       </c>
-      <c r="G169" s="25"/>
-      <c r="H169" s="26">
+      <c r="G169" s="32"/>
+      <c r="H169" s="34">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I169" s="26"/>
-      <c r="J169" s="30"/>
-      <c r="K169" s="25">
+      <c r="I169" s="34"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="32">
         <v>243.61</v>
       </c>
-      <c r="L169" s="25"/>
-      <c r="M169" s="26">
+      <c r="L169" s="32"/>
+      <c r="M169" s="34">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N169" s="26"/>
-      <c r="O169" s="33"/>
-      <c r="P169" s="34"/>
+      <c r="N169" s="34"/>
+      <c r="O169" s="29"/>
+      <c r="P169" s="30"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E170" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F170" s="25">
+      <c r="F170" s="32">
         <v>305.83999999999997</v>
       </c>
-      <c r="G170" s="25"/>
-      <c r="H170" s="26">
+      <c r="G170" s="32"/>
+      <c r="H170" s="34">
         <f t="shared" si="37"/>
         <v>32.69</v>
       </c>
-      <c r="I170" s="26"/>
-      <c r="J170" s="30"/>
-      <c r="K170" s="25">
+      <c r="I170" s="34"/>
+      <c r="J170" s="24"/>
+      <c r="K170" s="32">
         <v>301.44</v>
       </c>
-      <c r="L170" s="25"/>
-      <c r="M170" s="26">
+      <c r="L170" s="32"/>
+      <c r="M170" s="34">
         <f t="shared" si="39"/>
         <v>28.29000000000002</v>
       </c>
-      <c r="N170" s="26"/>
-      <c r="O170" s="33"/>
-      <c r="P170" s="34"/>
+      <c r="N170" s="34"/>
+      <c r="O170" s="29"/>
+      <c r="P170" s="30"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F172" s="5" t="s">
@@ -5406,10 +5408,10 @@
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F173" s="27" t="s">
+      <c r="F173" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G173" s="27"/>
+      <c r="G173" s="23"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F174" s="15">
@@ -5494,94 +5496,35 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="J5:J15"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A37:C43"/>
-    <mergeCell ref="J37:J47"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P47"/>
-    <mergeCell ref="O6:P15"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A5:C11"/>
-    <mergeCell ref="A21:C27"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="O22:P31"/>
-    <mergeCell ref="J21:J31"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="A54:C60"/>
-    <mergeCell ref="J54:J64"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P64"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="A71:C77"/>
-    <mergeCell ref="J71:J81"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P81"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="A89:C95"/>
-    <mergeCell ref="J89:J99"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="O90:P99"/>
-    <mergeCell ref="A105:C111"/>
-    <mergeCell ref="J105:J115"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="O106:P115"/>
-    <mergeCell ref="F104:N104"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="A124:C131"/>
-    <mergeCell ref="J124:J135"/>
-    <mergeCell ref="O124:P124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="O125:P135"/>
-    <mergeCell ref="A142:C149"/>
-    <mergeCell ref="J142:J153"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="O143:P153"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="K139:N141"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="F156:I158"/>
+    <mergeCell ref="K156:N158"/>
+    <mergeCell ref="A159:C166"/>
+    <mergeCell ref="J159:J170"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="K164:L164"/>
     <mergeCell ref="O159:P159"/>
     <mergeCell ref="O160:P170"/>
     <mergeCell ref="F161:G161"/>
@@ -5606,35 +5549,94 @@
     <mergeCell ref="K165:L165"/>
     <mergeCell ref="M165:N165"/>
     <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="F156:I158"/>
-    <mergeCell ref="K156:N158"/>
-    <mergeCell ref="A159:C166"/>
-    <mergeCell ref="J159:J170"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="A142:C149"/>
+    <mergeCell ref="J142:J153"/>
+    <mergeCell ref="O142:P142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="O143:P153"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="K139:N141"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="A124:C131"/>
+    <mergeCell ref="J124:J135"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="O125:P135"/>
+    <mergeCell ref="A105:C111"/>
+    <mergeCell ref="J105:J115"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="O106:P115"/>
+    <mergeCell ref="F104:N104"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:C95"/>
+    <mergeCell ref="J89:J99"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="O90:P99"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="A71:C77"/>
+    <mergeCell ref="J71:J81"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P81"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="A54:C60"/>
+    <mergeCell ref="J54:J64"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P64"/>
+    <mergeCell ref="O6:P15"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A5:C11"/>
+    <mergeCell ref="A21:C27"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="O22:P31"/>
+    <mergeCell ref="J21:J31"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A37:C43"/>
+    <mergeCell ref="J37:J47"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P47"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J5:J15"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5660,10 +5662,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -5768,11 +5770,11 @@
       <c r="N9" s="14"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="H12" t="s">
         <v>50</v>
       </c>
@@ -5796,39 +5798,39 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5849,7 +5851,7 @@
   <dimension ref="A2:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+      <selection activeCell="M40" sqref="M40:U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5872,1062 +5874,1062 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="22">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22" t="s">
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="22">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="21">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="22">
-        <v>0</v>
-      </c>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="21">
+        <v>0</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="22">
-        <v>0</v>
-      </c>
-      <c r="R3" s="22" t="s">
+      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="22">
-        <v>0</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="22">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22" t="s">
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="22" t="s">
+      <c r="J4" s="21">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M4" s="22">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O4" s="22">
-        <v>0</v>
-      </c>
-      <c r="P4" s="22" t="s">
+      <c r="O4" s="21">
+        <v>0</v>
+      </c>
+      <c r="P4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" s="22">
-        <v>0</v>
-      </c>
-      <c r="R4" s="22" t="s">
+      <c r="Q4" s="21">
+        <v>0</v>
+      </c>
+      <c r="R4" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="21">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22" t="s">
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="22">
-        <v>0</v>
-      </c>
-      <c r="P5" s="22" t="s">
+      <c r="O5" s="21">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q5" s="22">
-        <v>0</v>
-      </c>
-      <c r="R5" s="22" t="s">
+      <c r="Q5" s="21">
+        <v>0</v>
+      </c>
+      <c r="R5" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="22">
-        <v>0</v>
-      </c>
-      <c r="I6" s="22" t="s">
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22" t="s">
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O6" s="22">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22" t="s">
+      <c r="O6" s="21">
+        <v>0</v>
+      </c>
+      <c r="P6" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" s="22">
-        <v>0</v>
-      </c>
-      <c r="R6" s="22" t="s">
+      <c r="Q6" s="21">
+        <v>0</v>
+      </c>
+      <c r="R6" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="22">
-        <v>0</v>
-      </c>
-      <c r="C7" s="22">
-        <v>0</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="B7" s="21">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22" t="s">
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <v>0</v>
+      </c>
+      <c r="N7" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O7" s="22">
-        <v>0</v>
-      </c>
-      <c r="P7" s="22" t="s">
+      <c r="O7" s="21">
+        <v>0</v>
+      </c>
+      <c r="P7" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q7" s="22">
-        <v>0</v>
-      </c>
-      <c r="R7" s="22" t="s">
+      <c r="Q7" s="21">
+        <v>0</v>
+      </c>
+      <c r="R7" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="22">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22">
-        <v>0</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="B8" s="21">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="22">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="22">
-        <v>0</v>
-      </c>
-      <c r="M8" s="22">
-        <v>0</v>
-      </c>
-      <c r="N8" s="22" t="s">
+      <c r="L8" s="21">
+        <v>0</v>
+      </c>
+      <c r="M8" s="21">
+        <v>0</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O8" s="22">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22" t="s">
+      <c r="O8" s="21">
+        <v>0</v>
+      </c>
+      <c r="P8" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="22">
-        <v>0</v>
-      </c>
-      <c r="R8" s="22" t="s">
+      <c r="Q8" s="21">
+        <v>0</v>
+      </c>
+      <c r="R8" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="22">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="s">
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="22">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22" t="s">
+      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="22">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22" t="s">
+      <c r="O9" s="21">
+        <v>0</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" s="22">
-        <v>0</v>
-      </c>
-      <c r="R9" s="22" t="s">
+      <c r="Q9" s="21">
+        <v>0</v>
+      </c>
+      <c r="R9" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="22">
-        <v>0</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="22">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
-      <c r="M10" s="22">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22" t="s">
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
+        <v>0</v>
+      </c>
+      <c r="N10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22" t="s">
+      <c r="O10" s="21">
+        <v>0</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="Q10" s="22">
-        <v>0</v>
-      </c>
-      <c r="R10" s="22" t="s">
+      <c r="Q10" s="21">
+        <v>0</v>
+      </c>
+      <c r="R10" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="22">
-        <v>0</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="22">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22" t="s">
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22" t="s">
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="22">
-        <v>0</v>
-      </c>
-      <c r="M11" s="22">
-        <v>0</v>
-      </c>
-      <c r="N11" s="22" t="s">
+      <c r="L11" s="21">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21">
+        <v>0</v>
+      </c>
+      <c r="N11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="22">
-        <v>0</v>
-      </c>
-      <c r="P11" s="22" t="s">
+      <c r="O11" s="21">
+        <v>0</v>
+      </c>
+      <c r="P11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" s="22">
-        <v>0</v>
-      </c>
-      <c r="R11" s="22" t="s">
+      <c r="Q11" s="21">
+        <v>0</v>
+      </c>
+      <c r="R11" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="22">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22">
-        <v>0</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="B12" s="21">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="22">
-        <v>0</v>
-      </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22">
-        <v>0</v>
-      </c>
-      <c r="M12" s="22">
-        <v>0</v>
-      </c>
-      <c r="N12" s="22" t="s">
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0</v>
+      </c>
+      <c r="M12" s="21">
+        <v>0</v>
+      </c>
+      <c r="N12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="22">
-        <v>0</v>
-      </c>
-      <c r="P12" s="22" t="s">
+      <c r="O12" s="21">
+        <v>0</v>
+      </c>
+      <c r="P12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" s="22">
-        <v>0</v>
-      </c>
-      <c r="R12" s="22" t="s">
+      <c r="Q12" s="21">
+        <v>0</v>
+      </c>
+      <c r="R12" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="22">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22" t="s">
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="22">
-        <v>0</v>
-      </c>
-      <c r="P13" s="22" t="s">
+      <c r="O13" s="21">
+        <v>0</v>
+      </c>
+      <c r="P13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" s="22">
-        <v>0</v>
-      </c>
-      <c r="R13" s="22" t="s">
+      <c r="Q13" s="21">
+        <v>0</v>
+      </c>
+      <c r="R13" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="22">
-        <v>0</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0</v>
-      </c>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="B14" s="21">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <v>0</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="22" t="s">
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="M14" s="22">
-        <v>0</v>
-      </c>
-      <c r="N14" s="22" t="s">
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O14" s="22">
-        <v>0</v>
-      </c>
-      <c r="P14" s="22" t="s">
+      <c r="O14" s="21">
+        <v>0</v>
+      </c>
+      <c r="P14" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" s="22">
-        <v>0</v>
-      </c>
-      <c r="R14" s="22" t="s">
+      <c r="Q14" s="21">
+        <v>0</v>
+      </c>
+      <c r="R14" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="N15" s="22">
-        <v>0</v>
-      </c>
-      <c r="O15" s="22" t="s">
+      <c r="N15" s="21">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q15" s="22">
-        <v>0</v>
-      </c>
-      <c r="R15" s="22" t="s">
+      <c r="Q15" s="21">
+        <v>0</v>
+      </c>
+      <c r="R15" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="22">
-        <v>0</v>
-      </c>
-      <c r="C16" s="22">
-        <v>0</v>
-      </c>
-      <c r="D16" s="22">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0</v>
-      </c>
-      <c r="I16" s="22">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
-        <v>0</v>
-      </c>
-      <c r="K16" s="22">
-        <v>0</v>
-      </c>
-      <c r="L16" s="22">
-        <v>0</v>
-      </c>
-      <c r="M16" s="22">
-        <v>0</v>
-      </c>
-      <c r="N16" s="22" t="s">
+      <c r="B16" s="21">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0</v>
+      </c>
+      <c r="N16" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="O16" s="22">
-        <v>0</v>
-      </c>
-      <c r="P16" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>0</v>
-      </c>
-      <c r="R16" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="O16" s="21">
+        <v>0</v>
+      </c>
+      <c r="P16" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>0</v>
+      </c>
+      <c r="R16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="22">
-        <v>0</v>
-      </c>
-      <c r="P17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="22" t="s">
+      <c r="O17" s="21">
+        <v>0</v>
+      </c>
+      <c r="P17" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="R17" s="22" t="s">
+      <c r="R17" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="22">
-        <v>0</v>
-      </c>
-      <c r="C18" s="22">
-        <v>0</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0</v>
-      </c>
-      <c r="F18" s="22">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22">
-        <v>0</v>
-      </c>
-      <c r="I18" s="22">
-        <v>0</v>
-      </c>
-      <c r="J18" s="22">
-        <v>0</v>
-      </c>
-      <c r="K18" s="22">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
-        <v>0</v>
-      </c>
-      <c r="M18" s="22">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0</v>
-      </c>
-      <c r="O18" s="22">
-        <v>0</v>
-      </c>
-      <c r="P18" s="22" t="s">
+      <c r="B18" s="21">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21">
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <v>0</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0</v>
+      </c>
+      <c r="O18" s="21">
+        <v>0</v>
+      </c>
+      <c r="P18" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="Q18" s="22">
-        <v>0</v>
-      </c>
-      <c r="R18" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="Q18" s="21">
+        <v>0</v>
+      </c>
+      <c r="R18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="22">
-        <v>0</v>
-      </c>
-      <c r="P19" s="22" t="s">
+      <c r="O19" s="21">
+        <v>0</v>
+      </c>
+      <c r="P19" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="Q19" s="22">
-        <v>0</v>
-      </c>
-      <c r="R19" s="22">
+      <c r="Q19" s="21">
+        <v>0</v>
+      </c>
+      <c r="R19" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="O24" s="21" t="s">
+      <c r="O24" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="21" t="s">
+      <c r="P24" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="Q24" s="21" t="s">
+      <c r="Q24" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="R24" s="21" t="s">
+      <c r="R24" s="38" t="s">
         <v>92</v>
       </c>
       <c r="S24" s="38" t="s">
@@ -6941,645 +6943,645 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="39">
-        <v>0</v>
-      </c>
-      <c r="C25" s="39">
-        <v>0</v>
-      </c>
-      <c r="D25" s="39" t="s">
+      <c r="B25" s="21">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="39">
-        <v>0</v>
-      </c>
-      <c r="F25" s="39">
-        <v>0</v>
-      </c>
-      <c r="G25" s="39">
-        <v>0</v>
-      </c>
-      <c r="H25" s="39" t="s">
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="39">
-        <v>0</v>
-      </c>
-      <c r="K25" s="39">
-        <v>0</v>
-      </c>
-      <c r="L25" s="39" t="s">
+      <c r="J25" s="21">
+        <v>0</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M25" s="39">
-        <v>0</v>
-      </c>
-      <c r="N25" s="39" t="s">
+      <c r="M25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O25" s="39">
-        <v>0</v>
-      </c>
-      <c r="P25" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="39">
-        <v>0</v>
-      </c>
-      <c r="R25" s="39" t="s">
+      <c r="O25" s="21">
+        <v>0</v>
+      </c>
+      <c r="P25" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>0</v>
+      </c>
+      <c r="R25" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S25" s="20" t="s">
+      <c r="S25" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="T25" s="20" t="s">
+      <c r="T25" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="U25" s="20">
+      <c r="U25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="39">
-        <v>0</v>
-      </c>
-      <c r="C26" s="39">
-        <v>0</v>
-      </c>
-      <c r="D26" s="39">
-        <v>0</v>
-      </c>
-      <c r="E26" s="39" t="s">
+      <c r="B26" s="21">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="39">
-        <v>0</v>
-      </c>
-      <c r="G26" s="39">
-        <v>0</v>
-      </c>
-      <c r="H26" s="39" t="s">
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="39">
-        <v>0</v>
-      </c>
-      <c r="K26" s="39">
-        <v>0</v>
-      </c>
-      <c r="L26" s="39" t="s">
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M26" s="39">
-        <v>0</v>
-      </c>
-      <c r="N26" s="39">
-        <v>0</v>
-      </c>
-      <c r="O26" s="39">
-        <v>0</v>
-      </c>
-      <c r="P26" s="39" t="s">
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21">
+        <v>0</v>
+      </c>
+      <c r="O26" s="21">
+        <v>0</v>
+      </c>
+      <c r="P26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q26" s="39">
-        <v>0</v>
-      </c>
-      <c r="R26" s="39" t="s">
+      <c r="Q26" s="21">
+        <v>0</v>
+      </c>
+      <c r="R26" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S26" s="20">
-        <v>0</v>
-      </c>
-      <c r="T26" s="20" t="s">
+      <c r="S26" s="36">
+        <v>0</v>
+      </c>
+      <c r="T26" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="U26" s="20" t="s">
+      <c r="U26" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="39">
-        <v>0</v>
-      </c>
-      <c r="D27" s="39">
-        <v>0</v>
-      </c>
-      <c r="E27" s="39">
-        <v>0</v>
-      </c>
-      <c r="F27" s="39" t="s">
+      <c r="C27" s="21">
+        <v>0</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="39">
-        <v>0</v>
-      </c>
-      <c r="H27" s="39">
-        <v>0</v>
-      </c>
-      <c r="I27" s="39" t="s">
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="K27" s="39">
-        <v>0</v>
-      </c>
-      <c r="L27" s="39">
-        <v>0</v>
-      </c>
-      <c r="M27" s="39">
-        <v>0</v>
-      </c>
-      <c r="N27" s="39" t="s">
+      <c r="K27" s="21">
+        <v>0</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O27" s="39">
-        <v>0</v>
-      </c>
-      <c r="P27" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="39">
-        <v>0</v>
-      </c>
-      <c r="R27" s="39" t="s">
+      <c r="O27" s="21">
+        <v>0</v>
+      </c>
+      <c r="P27" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>0</v>
+      </c>
+      <c r="R27" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S27" s="20" t="s">
+      <c r="S27" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="T27" s="20" t="s">
+      <c r="T27" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="U27" s="20">
+      <c r="U27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="39">
-        <v>0</v>
-      </c>
-      <c r="C28" s="39" t="s">
+      <c r="B28" s="21">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="39">
-        <v>0</v>
-      </c>
-      <c r="E28" s="39">
-        <v>0</v>
-      </c>
-      <c r="F28" s="39">
-        <v>0</v>
-      </c>
-      <c r="G28" s="39" t="s">
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="39">
-        <v>0</v>
-      </c>
-      <c r="I28" s="39" t="s">
+      <c r="H28" s="21">
+        <v>0</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="J28" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="K28" s="39">
-        <v>0</v>
-      </c>
-      <c r="L28" s="39">
-        <v>0</v>
-      </c>
-      <c r="M28" s="39">
-        <v>0</v>
-      </c>
-      <c r="N28" s="39">
-        <v>0</v>
-      </c>
-      <c r="O28" s="39">
-        <v>0</v>
-      </c>
-      <c r="P28" s="39" t="s">
+      <c r="K28" s="21">
+        <v>0</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21">
+        <v>0</v>
+      </c>
+      <c r="P28" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q28" s="39">
-        <v>0</v>
-      </c>
-      <c r="R28" s="39" t="s">
+      <c r="Q28" s="21">
+        <v>0</v>
+      </c>
+      <c r="R28" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S28" s="20">
-        <v>0</v>
-      </c>
-      <c r="T28" s="20" t="s">
+      <c r="S28" s="36">
+        <v>0</v>
+      </c>
+      <c r="T28" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="U28" s="20" t="s">
+      <c r="U28" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="39">
-        <v>0</v>
-      </c>
-      <c r="C29" s="39">
-        <v>0</v>
-      </c>
-      <c r="D29" s="39" t="s">
+      <c r="B29" s="21">
+        <v>0</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="39">
-        <v>0</v>
-      </c>
-      <c r="F29" s="39">
-        <v>0</v>
-      </c>
-      <c r="G29" s="39">
-        <v>0</v>
-      </c>
-      <c r="H29" s="39">
-        <v>0</v>
-      </c>
-      <c r="I29" s="39">
-        <v>0</v>
-      </c>
-      <c r="J29" s="39" t="s">
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0</v>
+      </c>
+      <c r="J29" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="L29" s="39">
-        <v>0</v>
-      </c>
-      <c r="M29" s="39">
-        <v>0</v>
-      </c>
-      <c r="N29" s="39" t="s">
+      <c r="L29" s="21">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <v>0</v>
+      </c>
+      <c r="N29" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O29" s="39">
-        <v>0</v>
-      </c>
-      <c r="P29" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="39">
-        <v>0</v>
-      </c>
-      <c r="R29" s="39" t="s">
+      <c r="O29" s="21">
+        <v>0</v>
+      </c>
+      <c r="P29" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>0</v>
+      </c>
+      <c r="R29" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S29" s="20" t="s">
+      <c r="S29" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="U29" s="20">
+      <c r="U29" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="39">
-        <v>0</v>
-      </c>
-      <c r="C30" s="39">
-        <v>0</v>
-      </c>
-      <c r="D30" s="39">
-        <v>0</v>
-      </c>
-      <c r="E30" s="39" t="s">
+      <c r="B30" s="21">
+        <v>0</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="39">
-        <v>0</v>
-      </c>
-      <c r="G30" s="39">
-        <v>0</v>
-      </c>
-      <c r="H30" s="39">
-        <v>0</v>
-      </c>
-      <c r="I30" s="39">
-        <v>0</v>
-      </c>
-      <c r="J30" s="39" t="s">
+      <c r="F30" s="21">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21">
+        <v>0</v>
+      </c>
+      <c r="I30" s="21">
+        <v>0</v>
+      </c>
+      <c r="J30" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="K30" s="39" t="s">
+      <c r="K30" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="L30" s="39">
-        <v>0</v>
-      </c>
-      <c r="M30" s="39">
-        <v>0</v>
-      </c>
-      <c r="N30" s="39">
-        <v>0</v>
-      </c>
-      <c r="O30" s="39">
-        <v>0</v>
-      </c>
-      <c r="P30" s="39" t="s">
+      <c r="L30" s="21">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <v>0</v>
+      </c>
+      <c r="N30" s="21">
+        <v>0</v>
+      </c>
+      <c r="O30" s="21">
+        <v>0</v>
+      </c>
+      <c r="P30" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q30" s="39">
-        <v>0</v>
-      </c>
-      <c r="R30" s="39" t="s">
+      <c r="Q30" s="21">
+        <v>0</v>
+      </c>
+      <c r="R30" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S30" s="20">
-        <v>0</v>
-      </c>
-      <c r="T30" s="20" t="s">
+      <c r="S30" s="36">
+        <v>0</v>
+      </c>
+      <c r="T30" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="U30" s="20" t="s">
+      <c r="U30" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="39">
-        <v>0</v>
-      </c>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="21">
+        <v>0</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="39">
-        <v>0</v>
-      </c>
-      <c r="F31" s="39" t="s">
+      <c r="E31" s="21">
+        <v>0</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="39">
-        <v>0</v>
-      </c>
-      <c r="H31" s="39" t="s">
+      <c r="G31" s="21">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39" t="s">
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O31" s="39">
-        <v>0</v>
-      </c>
-      <c r="P31" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="39">
-        <v>0</v>
-      </c>
-      <c r="R31" s="39" t="s">
+      <c r="O31" s="21">
+        <v>0</v>
+      </c>
+      <c r="P31" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>0</v>
+      </c>
+      <c r="R31" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S31" s="20">
-        <v>0</v>
-      </c>
-      <c r="T31" s="20">
-        <v>0</v>
-      </c>
-      <c r="U31" s="20">
+      <c r="S31" s="36">
+        <v>0</v>
+      </c>
+      <c r="T31" s="36">
+        <v>0</v>
+      </c>
+      <c r="U31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39">
-        <v>0</v>
-      </c>
-      <c r="O32" s="39">
-        <v>0</v>
-      </c>
-      <c r="P32" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="39">
-        <v>0</v>
-      </c>
-      <c r="R32" s="39" t="s">
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="21">
+        <v>0</v>
+      </c>
+      <c r="O32" s="21">
+        <v>0</v>
+      </c>
+      <c r="P32" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>0</v>
+      </c>
+      <c r="R32" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S32" s="20">
-        <v>0</v>
-      </c>
-      <c r="T32" s="20">
-        <v>0</v>
-      </c>
-      <c r="U32" s="20">
+      <c r="S32" s="36">
+        <v>0</v>
+      </c>
+      <c r="T32" s="36">
+        <v>0</v>
+      </c>
+      <c r="U32" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="39">
-        <v>0</v>
-      </c>
-      <c r="C33" s="39" t="s">
+      <c r="B33" s="21">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="39">
-        <v>0</v>
-      </c>
-      <c r="E33" s="39" t="s">
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="39">
-        <v>0</v>
-      </c>
-      <c r="G33" s="39" t="s">
+      <c r="F33" s="21">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39">
-        <v>0</v>
-      </c>
-      <c r="O33" s="39">
-        <v>0</v>
-      </c>
-      <c r="P33" s="39" t="s">
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="21">
+        <v>0</v>
+      </c>
+      <c r="O33" s="21">
+        <v>0</v>
+      </c>
+      <c r="P33" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q33" s="39">
-        <v>0</v>
-      </c>
-      <c r="R33" s="39" t="s">
+      <c r="Q33" s="21">
+        <v>0</v>
+      </c>
+      <c r="R33" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S33" s="20">
-        <v>0</v>
-      </c>
-      <c r="T33" s="20">
-        <v>0</v>
-      </c>
-      <c r="U33" s="20">
+      <c r="S33" s="36">
+        <v>0</v>
+      </c>
+      <c r="T33" s="36">
+        <v>0</v>
+      </c>
+      <c r="U33" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="39">
-        <v>0</v>
-      </c>
-      <c r="E34" s="39">
-        <v>0</v>
-      </c>
-      <c r="F34" s="39">
-        <v>0</v>
-      </c>
-      <c r="G34" s="39">
-        <v>0</v>
-      </c>
-      <c r="H34" s="39">
-        <v>0</v>
-      </c>
-      <c r="I34" s="39" t="s">
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <v>0</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21">
+        <v>0</v>
+      </c>
+      <c r="I34" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="39">
-        <v>0</v>
-      </c>
-      <c r="K34" s="39">
-        <v>0</v>
-      </c>
-      <c r="L34" s="39" t="s">
+      <c r="J34" s="21">
+        <v>0</v>
+      </c>
+      <c r="K34" s="21">
+        <v>0</v>
+      </c>
+      <c r="L34" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="N34" s="39" t="s">
+      <c r="N34" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O34" s="39">
-        <v>0</v>
-      </c>
-      <c r="P34" s="39" t="s">
+      <c r="O34" s="21">
+        <v>0</v>
+      </c>
+      <c r="P34" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="Q34" s="39">
-        <v>0</v>
-      </c>
-      <c r="R34" s="39" t="s">
+      <c r="Q34" s="21">
+        <v>0</v>
+      </c>
+      <c r="R34" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S34" s="20" t="s">
+      <c r="S34" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="T34" s="20" t="s">
+      <c r="T34" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="U34" s="20" t="s">
+      <c r="U34" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="38" t="s">
         <v>84</v>
       </c>
       <c r="B35" s="40" t="s">
@@ -7594,238 +7596,238 @@
       <c r="E35" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="39">
-        <v>0</v>
-      </c>
-      <c r="G35" s="39">
-        <v>0</v>
-      </c>
-      <c r="H35" s="39" t="s">
+      <c r="F35" s="21">
+        <v>0</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="39">
-        <v>0</v>
-      </c>
-      <c r="J35" s="39" t="s">
+      <c r="I35" s="21">
+        <v>0</v>
+      </c>
+      <c r="J35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="K35" s="39">
-        <v>0</v>
-      </c>
-      <c r="L35" s="39">
-        <v>0</v>
-      </c>
-      <c r="M35" s="39">
-        <v>0</v>
-      </c>
-      <c r="N35" s="39" t="s">
+      <c r="K35" s="21">
+        <v>0</v>
+      </c>
+      <c r="L35" s="21">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21">
+        <v>0</v>
+      </c>
+      <c r="N35" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O35" s="39">
-        <v>0</v>
-      </c>
-      <c r="P35" s="39" t="s">
+      <c r="O35" s="21">
+        <v>0</v>
+      </c>
+      <c r="P35" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="Q35" s="39">
-        <v>0</v>
-      </c>
-      <c r="R35" s="39" t="s">
+      <c r="Q35" s="21">
+        <v>0</v>
+      </c>
+      <c r="R35" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S35" s="20" t="s">
+      <c r="S35" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="T35" s="20" t="s">
+      <c r="T35" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="U35" s="20" t="s">
+      <c r="U35" s="36" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="39">
-        <v>0</v>
-      </c>
-      <c r="C36" s="39">
-        <v>0</v>
-      </c>
-      <c r="D36" s="39" t="s">
+      <c r="B36" s="21">
+        <v>0</v>
+      </c>
+      <c r="C36" s="21">
+        <v>0</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="H36" s="39">
-        <v>0</v>
-      </c>
-      <c r="I36" s="39" t="s">
+      <c r="H36" s="21">
+        <v>0</v>
+      </c>
+      <c r="I36" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J36" s="39">
-        <v>0</v>
-      </c>
-      <c r="K36" s="39" t="s">
+      <c r="J36" s="21">
+        <v>0</v>
+      </c>
+      <c r="K36" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="L36" s="39">
-        <v>0</v>
-      </c>
-      <c r="M36" s="39">
-        <v>0</v>
-      </c>
-      <c r="N36" s="39" t="s">
+      <c r="L36" s="21">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21">
+        <v>0</v>
+      </c>
+      <c r="N36" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O36" s="39">
-        <v>0</v>
-      </c>
-      <c r="P36" s="39" t="s">
+      <c r="O36" s="21">
+        <v>0</v>
+      </c>
+      <c r="P36" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="Q36" s="39">
-        <v>0</v>
-      </c>
-      <c r="R36" s="39" t="s">
+      <c r="Q36" s="21">
+        <v>0</v>
+      </c>
+      <c r="R36" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S36" s="20" t="s">
+      <c r="S36" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="T36" s="20" t="s">
+      <c r="T36" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="U36" s="20" t="s">
+      <c r="U36" s="36" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="39">
-        <v>0</v>
-      </c>
-      <c r="C37" s="39">
-        <v>0</v>
-      </c>
-      <c r="D37" s="39">
-        <v>0</v>
-      </c>
-      <c r="E37" s="39">
-        <v>0</v>
-      </c>
-      <c r="F37" s="39" t="s">
+      <c r="B37" s="21">
+        <v>0</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="21">
+        <v>0</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="H37" s="39">
-        <v>0</v>
-      </c>
-      <c r="I37" s="39">
-        <v>0</v>
-      </c>
-      <c r="J37" s="39" t="s">
+      <c r="H37" s="21">
+        <v>0</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0</v>
+      </c>
+      <c r="J37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="39">
-        <v>0</v>
-      </c>
-      <c r="L37" s="39">
-        <v>0</v>
-      </c>
-      <c r="M37" s="39">
-        <v>0</v>
-      </c>
-      <c r="N37" s="39" t="s">
+      <c r="K37" s="21">
+        <v>0</v>
+      </c>
+      <c r="L37" s="21">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21">
+        <v>0</v>
+      </c>
+      <c r="N37" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="39">
-        <v>0</v>
-      </c>
-      <c r="P37" s="39" t="s">
+      <c r="O37" s="21">
+        <v>0</v>
+      </c>
+      <c r="P37" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="Q37" s="39">
-        <v>0</v>
-      </c>
-      <c r="R37" s="39" t="s">
+      <c r="Q37" s="21">
+        <v>0</v>
+      </c>
+      <c r="R37" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S37" s="20" t="s">
+      <c r="S37" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="T37" s="20" t="s">
+      <c r="T37" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="U37" s="20" t="s">
+      <c r="U37" s="36" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="39">
-        <v>0</v>
-      </c>
-      <c r="E38" s="39">
-        <v>0</v>
-      </c>
-      <c r="F38" s="39">
-        <v>0</v>
-      </c>
-      <c r="G38" s="39">
-        <v>0</v>
-      </c>
-      <c r="H38" s="39" t="s">
+      <c r="D38" s="21">
+        <v>0</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I38" s="39">
-        <v>0</v>
-      </c>
-      <c r="J38" s="39">
-        <v>0</v>
-      </c>
-      <c r="K38" s="39">
-        <v>0</v>
-      </c>
-      <c r="L38" s="39">
-        <v>0</v>
-      </c>
-      <c r="M38" s="39" t="s">
+      <c r="I38" s="21">
+        <v>0</v>
+      </c>
+      <c r="J38" s="21">
+        <v>0</v>
+      </c>
+      <c r="K38" s="21">
+        <v>0</v>
+      </c>
+      <c r="L38" s="21">
+        <v>0</v>
+      </c>
+      <c r="M38" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N38" s="39" t="s">
+      <c r="N38" s="21" t="s">
         <v>94</v>
       </c>
       <c r="O38" s="40">
         <v>0</v>
       </c>
-      <c r="P38" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="39">
-        <v>0</v>
-      </c>
-      <c r="R38" s="39" t="s">
+      <c r="P38" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="21">
+        <v>0</v>
+      </c>
+      <c r="R38" s="21" t="s">
         <v>98</v>
       </c>
       <c r="S38" s="20"/>
@@ -7833,247 +7835,247 @@
       <c r="U38" s="20"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="39">
-        <v>0</v>
-      </c>
-      <c r="C39" s="39">
-        <v>0</v>
-      </c>
-      <c r="D39" s="39">
-        <v>0</v>
-      </c>
-      <c r="E39" s="39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="39">
-        <v>0</v>
-      </c>
-      <c r="H39" s="39" t="s">
+      <c r="B39" s="21">
+        <v>0</v>
+      </c>
+      <c r="C39" s="21">
+        <v>0</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="39">
-        <v>0</v>
-      </c>
-      <c r="J39" s="39">
-        <v>0</v>
-      </c>
-      <c r="K39" s="39">
-        <v>0</v>
-      </c>
-      <c r="L39" s="39" t="s">
+      <c r="I39" s="21">
+        <v>0</v>
+      </c>
+      <c r="J39" s="21">
+        <v>0</v>
+      </c>
+      <c r="K39" s="21">
+        <v>0</v>
+      </c>
+      <c r="L39" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="M39" s="39">
-        <v>0</v>
-      </c>
-      <c r="N39" s="39">
-        <v>0</v>
-      </c>
-      <c r="O39" s="39">
-        <v>0</v>
-      </c>
-      <c r="P39" s="39" t="s">
+      <c r="M39" s="21">
+        <v>0</v>
+      </c>
+      <c r="N39" s="21">
+        <v>0</v>
+      </c>
+      <c r="O39" s="21">
+        <v>0</v>
+      </c>
+      <c r="P39" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q39" s="39">
-        <v>0</v>
-      </c>
-      <c r="R39" s="39" t="s">
+      <c r="Q39" s="21">
+        <v>0</v>
+      </c>
+      <c r="R39" s="21" t="s">
         <v>98</v>
       </c>
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="39">
-        <v>0</v>
-      </c>
-      <c r="D40" s="39" t="s">
+      <c r="C40" s="21">
+        <v>0</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="39">
-        <v>0</v>
-      </c>
-      <c r="F40" s="39" t="s">
+      <c r="E40" s="21">
+        <v>0</v>
+      </c>
+      <c r="F40" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="39">
-        <v>0</v>
-      </c>
-      <c r="H40" s="39" t="s">
+      <c r="G40" s="21">
+        <v>0</v>
+      </c>
+      <c r="H40" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K40" s="39" t="s">
+      <c r="K40" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="L40" s="39" t="s">
+      <c r="L40" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M40" s="39">
-        <v>0</v>
-      </c>
-      <c r="N40" s="39">
-        <v>0</v>
-      </c>
-      <c r="O40" s="39" t="s">
+      <c r="M40" s="21">
+        <v>0</v>
+      </c>
+      <c r="N40" s="21">
+        <v>0</v>
+      </c>
+      <c r="O40" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="P40" s="39" t="s">
+      <c r="P40" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q40" s="39">
-        <v>0</v>
-      </c>
-      <c r="R40" s="39" t="s">
+      <c r="Q40" s="21">
+        <v>0</v>
+      </c>
+      <c r="R40" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="S40" s="20" t="s">
+      <c r="S40" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="T40" s="20">
-        <v>0</v>
-      </c>
-      <c r="U40" s="20">
+      <c r="T40" s="36">
+        <v>0</v>
+      </c>
+      <c r="U40" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="39">
-        <v>0</v>
-      </c>
-      <c r="C41" s="39">
-        <v>0</v>
-      </c>
-      <c r="D41" s="39">
-        <v>0</v>
-      </c>
-      <c r="E41" s="39">
-        <v>0</v>
-      </c>
-      <c r="F41" s="39">
-        <v>0</v>
-      </c>
-      <c r="G41" s="39">
-        <v>0</v>
-      </c>
-      <c r="H41" s="39">
-        <v>0</v>
-      </c>
-      <c r="I41" s="39">
-        <v>0</v>
-      </c>
-      <c r="J41" s="39">
-        <v>0</v>
-      </c>
-      <c r="K41" s="39">
-        <v>0</v>
-      </c>
-      <c r="L41" s="39">
-        <v>0</v>
-      </c>
-      <c r="M41" s="39">
-        <v>0</v>
-      </c>
-      <c r="N41" s="39" t="s">
+      <c r="B41" s="22">
+        <v>0</v>
+      </c>
+      <c r="C41" s="22">
+        <v>0</v>
+      </c>
+      <c r="D41" s="22">
+        <v>0</v>
+      </c>
+      <c r="E41" s="22">
+        <v>0</v>
+      </c>
+      <c r="F41" s="22">
+        <v>0</v>
+      </c>
+      <c r="G41" s="22">
+        <v>0</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0</v>
+      </c>
+      <c r="I41" s="22">
+        <v>0</v>
+      </c>
+      <c r="J41" s="22">
+        <v>0</v>
+      </c>
+      <c r="K41" s="22">
+        <v>0</v>
+      </c>
+      <c r="L41" s="22">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <v>0</v>
+      </c>
+      <c r="N41" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="O41" s="39">
-        <v>0</v>
-      </c>
-      <c r="P41" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="39">
-        <v>0</v>
-      </c>
-      <c r="R41" s="39">
-        <v>0</v>
-      </c>
-      <c r="S41" s="39">
-        <v>0</v>
-      </c>
-      <c r="T41" s="39">
-        <v>0</v>
-      </c>
-      <c r="U41" s="39">
+      <c r="O41" s="22">
+        <v>0</v>
+      </c>
+      <c r="P41" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>0</v>
+      </c>
+      <c r="R41" s="22">
+        <v>0</v>
+      </c>
+      <c r="S41" s="22">
+        <v>0</v>
+      </c>
+      <c r="T41" s="22">
+        <v>0</v>
+      </c>
+      <c r="U41" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="39">
-        <v>0</v>
-      </c>
-      <c r="C42" s="39" t="s">
+      <c r="B42" s="22">
+        <v>0</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="39">
-        <v>0</v>
-      </c>
-      <c r="E42" s="39" t="s">
+      <c r="D42" s="22">
+        <v>0</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="39">
-        <v>0</v>
-      </c>
-      <c r="G42" s="39" t="s">
+      <c r="F42" s="22">
+        <v>0</v>
+      </c>
+      <c r="G42" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="39" t="s">
+      <c r="J42" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="K42" s="39" t="s">
+      <c r="K42" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="39" t="s">
+      <c r="L42" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M42" s="39" t="s">
+      <c r="M42" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="N42" s="39" t="s">
+      <c r="N42" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="O42" s="39">
-        <v>0</v>
-      </c>
-      <c r="P42" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="39" t="s">
+      <c r="O42" s="22">
+        <v>0</v>
+      </c>
+      <c r="P42" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="R42" s="39" t="s">
+      <c r="R42" s="22" t="s">
         <v>97</v>
       </c>
       <c r="S42" s="20">
@@ -8087,132 +8089,132 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="39">
-        <v>0</v>
-      </c>
-      <c r="C43" s="39">
-        <v>0</v>
-      </c>
-      <c r="D43" s="39">
-        <v>0</v>
-      </c>
-      <c r="E43" s="39">
-        <v>0</v>
-      </c>
-      <c r="F43" s="39">
-        <v>0</v>
-      </c>
-      <c r="G43" s="39">
-        <v>0</v>
-      </c>
-      <c r="H43" s="39">
-        <v>0</v>
-      </c>
-      <c r="I43" s="39">
-        <v>0</v>
-      </c>
-      <c r="J43" s="39">
-        <v>0</v>
-      </c>
-      <c r="K43" s="39">
-        <v>0</v>
-      </c>
-      <c r="L43" s="39">
-        <v>0</v>
-      </c>
-      <c r="M43" s="39">
-        <v>0</v>
-      </c>
-      <c r="N43" s="39">
-        <v>0</v>
-      </c>
-      <c r="O43" s="39">
-        <v>0</v>
-      </c>
-      <c r="P43" s="39" t="s">
+      <c r="B43" s="22">
+        <v>0</v>
+      </c>
+      <c r="C43" s="22">
+        <v>0</v>
+      </c>
+      <c r="D43" s="22">
+        <v>0</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0</v>
+      </c>
+      <c r="F43" s="22">
+        <v>0</v>
+      </c>
+      <c r="G43" s="22">
+        <v>0</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0</v>
+      </c>
+      <c r="I43" s="22">
+        <v>0</v>
+      </c>
+      <c r="J43" s="22">
+        <v>0</v>
+      </c>
+      <c r="K43" s="22">
+        <v>0</v>
+      </c>
+      <c r="L43" s="22">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>0</v>
+      </c>
+      <c r="N43" s="22">
+        <v>0</v>
+      </c>
+      <c r="O43" s="22">
+        <v>0</v>
+      </c>
+      <c r="P43" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="Q43" s="39">
-        <v>0</v>
-      </c>
-      <c r="R43" s="39">
-        <v>0</v>
-      </c>
-      <c r="S43" s="39">
-        <v>0</v>
-      </c>
-      <c r="T43" s="39">
-        <v>0</v>
-      </c>
-      <c r="U43" s="39">
+      <c r="Q43" s="22">
+        <v>0</v>
+      </c>
+      <c r="R43" s="22">
+        <v>0</v>
+      </c>
+      <c r="S43" s="22">
+        <v>0</v>
+      </c>
+      <c r="T43" s="22">
+        <v>0</v>
+      </c>
+      <c r="U43" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="39" t="s">
+      <c r="G44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I44" s="39" t="s">
+      <c r="I44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="J44" s="39" t="s">
+      <c r="J44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="K44" s="39" t="s">
+      <c r="K44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="L44" s="39" t="s">
+      <c r="L44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="M44" s="39" t="s">
+      <c r="M44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="N44" s="39" t="s">
+      <c r="N44" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O44" s="39">
-        <v>0</v>
-      </c>
-      <c r="P44" s="39" t="s">
+      <c r="O44" s="22">
+        <v>0</v>
+      </c>
+      <c r="P44" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Q44" s="39">
-        <v>0</v>
-      </c>
-      <c r="R44" s="39">
-        <v>0</v>
-      </c>
-      <c r="S44" s="39" t="s">
+      <c r="Q44" s="22">
+        <v>0</v>
+      </c>
+      <c r="R44" s="22">
+        <v>0</v>
+      </c>
+      <c r="S44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="T44" s="39" t="s">
+      <c r="T44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="U44" s="39" t="s">
+      <c r="U44" s="22" t="s">
         <v>98</v>
       </c>
     </row>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -493,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -538,20 +538,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,30 +577,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,28 +922,28 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
@@ -958,7 +959,7 @@
       <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
@@ -971,42 +972,42 @@
       <c r="N5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="28"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="27">
         <v>0.05</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27">
         <v>0.75</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="23">
+      <c r="I6" s="27"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="27">
         <v>0.05</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23">
+      <c r="L6" s="27"/>
+      <c r="M6" s="27">
         <v>0.75</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="E7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1025,7 @@
         <f>H7-273.15</f>
         <v>84.37</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="3">
         <v>581.79999999999995</v>
       </c>
@@ -1039,13 +1040,13 @@
         <f>M7-273.15</f>
         <v>274.27999999999997</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1063,7 +1064,7 @@
         <f t="shared" ref="I8:I15" si="1">H8-273.15</f>
         <v>59.54000000000002</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="3">
         <v>555.4</v>
       </c>
@@ -1078,13 +1079,13 @@
         <f t="shared" ref="N8:N15" si="3">M8-273.15</f>
         <v>253.71000000000004</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1103,7 @@
         <f t="shared" si="1"/>
         <v>58.100000000000023</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="3">
         <v>551.5</v>
       </c>
@@ -1117,13 +1118,13 @@
         <f t="shared" si="3"/>
         <v>251.76</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1141,7 +1142,7 @@
         <f t="shared" si="1"/>
         <v>114.84000000000003</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="3">
         <v>607.27</v>
       </c>
@@ -1156,13 +1157,13 @@
         <f t="shared" si="3"/>
         <v>301.55000000000007</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="36"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1181,7 @@
         <f t="shared" si="1"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="3">
         <v>490.39</v>
       </c>
@@ -1195,8 +1196,8 @@
         <f t="shared" si="3"/>
         <v>219.11</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="36"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
@@ -1216,7 +1217,7 @@
         <f t="shared" si="1"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="3">
         <v>341.44</v>
       </c>
@@ -1231,8 +1232,8 @@
         <f t="shared" si="3"/>
         <v>68.660000000000025</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="36"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
@@ -1252,7 +1253,7 @@
         <f t="shared" si="1"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="3">
         <v>490.39</v>
       </c>
@@ -1267,8 +1268,8 @@
         <f t="shared" si="3"/>
         <v>219.11</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
@@ -1288,7 +1289,7 @@
         <f t="shared" si="1"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="3">
         <v>341.44</v>
       </c>
@@ -1303,8 +1304,8 @@
         <f t="shared" si="3"/>
         <v>68.660000000000025</v>
       </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="36"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="s">
@@ -1324,7 +1325,7 @@
         <f t="shared" si="1"/>
         <v>63.53000000000003</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="3">
         <v>538.29999999999995</v>
       </c>
@@ -1339,8 +1340,8 @@
         <f t="shared" si="3"/>
         <v>246.76</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E18" s="9" t="s">
@@ -1367,28 +1368,28 @@
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +1405,7 @@
       <c r="I21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1417,42 +1418,42 @@
       <c r="N21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="28"/>
+      <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="27">
         <v>1E-3</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23">
+      <c r="G22" s="27"/>
+      <c r="H22" s="27">
         <v>400</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="23">
+      <c r="I22" s="27"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="27">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23">
+      <c r="L22" s="27"/>
+      <c r="M22" s="27">
         <v>400</v>
       </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="30"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1471,7 @@
         <f>H23-273.15</f>
         <v>81.600000000000023</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="3">
         <v>1769.3</v>
       </c>
@@ -1485,13 +1486,13 @@
         <f>M23-273.15</f>
         <v>165.8</v>
       </c>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="E24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1509,7 +1510,7 @@
         <f t="shared" ref="I24:I31" si="5">H24-273.15</f>
         <v>57.200000000000045</v>
       </c>
-      <c r="J24" s="24"/>
+      <c r="J24" s="32"/>
       <c r="K24" s="3">
         <v>1768.5</v>
       </c>
@@ -1524,13 +1525,13 @@
         <f t="shared" ref="N24:N31" si="7">M24-273.15</f>
         <v>139.56</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="36"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1549,7 @@
         <f t="shared" si="5"/>
         <v>55.680000000000007</v>
       </c>
-      <c r="J25" s="24"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="3">
         <v>1768.49</v>
       </c>
@@ -1563,13 +1564,13 @@
         <f t="shared" si="7"/>
         <v>135.60000000000002</v>
       </c>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="36"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,7 +1588,7 @@
         <f t="shared" si="5"/>
         <v>111.89000000000004</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="3">
         <v>1775.99</v>
       </c>
@@ -1602,13 +1603,13 @@
         <f t="shared" si="7"/>
         <v>194.07000000000005</v>
       </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="36"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1626,7 +1627,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="3">
         <v>1767.67</v>
       </c>
@@ -1641,8 +1642,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="36"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
@@ -1662,7 +1663,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="32"/>
       <c r="K28" s="3">
         <v>339.87</v>
       </c>
@@ -1677,8 +1678,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="36"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="s">
@@ -1698,7 +1699,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J29" s="24"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="3">
         <v>1767.67</v>
       </c>
@@ -1713,8 +1714,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="36"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="s">
@@ -1734,7 +1735,7 @@
         <f t="shared" si="5"/>
         <v>36.390000000000043</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="3">
         <v>339.87</v>
       </c>
@@ -1749,8 +1750,8 @@
         <f t="shared" si="7"/>
         <v>68.960000000000036</v>
       </c>
-      <c r="O30" s="29"/>
-      <c r="P30" s="30"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="36"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="s">
@@ -1770,7 +1771,7 @@
         <f t="shared" si="5"/>
         <v>56.94</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="3">
         <v>1768.44</v>
       </c>
@@ -1785,8 +1786,8 @@
         <f t="shared" si="7"/>
         <v>121.38</v>
       </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="30"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="36"/>
     </row>
     <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E34" s="9" t="s">
@@ -1813,28 +1814,28 @@
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +1851,7 @@
       <c r="I37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="24"/>
+      <c r="J37" s="32"/>
       <c r="K37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1863,42 +1864,42 @@
       <c r="N37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="27" t="s">
+      <c r="O37" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P37" s="28"/>
+      <c r="P37" s="34"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
       <c r="E38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23">
+      <c r="G38" s="27"/>
+      <c r="H38" s="27">
         <v>0.05</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="23">
+      <c r="I38" s="27"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23">
+      <c r="L38" s="27"/>
+      <c r="M38" s="27">
         <v>0.05</v>
       </c>
-      <c r="N38" s="23"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="30"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="36"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="E39" s="3" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1917,7 @@
         <f>H39-273.15</f>
         <v>87.62</v>
       </c>
-      <c r="J39" s="24"/>
+      <c r="J39" s="32"/>
       <c r="K39" s="3">
         <v>547.42999999999995</v>
       </c>
@@ -1931,13 +1932,13 @@
         <f>M39-273.15</f>
         <v>14114.06</v>
       </c>
-      <c r="O39" s="29"/>
-      <c r="P39" s="30"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="36"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
       <c r="E40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1955,7 +1956,7 @@
         <f t="shared" ref="I40:I47" si="9">H40-273.15</f>
         <v>62.270000000000039</v>
       </c>
-      <c r="J40" s="24"/>
+      <c r="J40" s="32"/>
       <c r="K40" s="3">
         <v>526.86</v>
       </c>
@@ -1970,13 +1971,13 @@
         <f t="shared" ref="N40:N47" si="11">M40-273.15</f>
         <v>14114.06</v>
       </c>
-      <c r="O40" s="29"/>
-      <c r="P40" s="30"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="36"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
       <c r="E41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1994,7 +1995,7 @@
         <f t="shared" si="9"/>
         <v>60.900000000000034</v>
       </c>
-      <c r="J41" s="24"/>
+      <c r="J41" s="32"/>
       <c r="K41" s="3">
         <v>524.91</v>
       </c>
@@ -2009,13 +2010,13 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O41" s="29"/>
-      <c r="P41" s="30"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="36"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2033,7 +2034,7 @@
         <f t="shared" si="9"/>
         <v>118.28000000000003</v>
       </c>
-      <c r="J42" s="24"/>
+      <c r="J42" s="32"/>
       <c r="K42" s="3">
         <v>574.70000000000005</v>
       </c>
@@ -2048,13 +2049,13 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O42" s="29"/>
-      <c r="P42" s="30"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="36"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2072,7 +2073,7 @@
         <f t="shared" si="9"/>
         <v>67.730000000000018</v>
       </c>
-      <c r="J43" s="24"/>
+      <c r="J43" s="32"/>
       <c r="K43" s="3">
         <v>492.26</v>
       </c>
@@ -2087,8 +2088,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O43" s="29"/>
-      <c r="P43" s="30"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="36"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E44" s="3" t="s">
@@ -2108,7 +2109,7 @@
         <f t="shared" si="9"/>
         <v>20.580000000000041</v>
       </c>
-      <c r="J44" s="24"/>
+      <c r="J44" s="32"/>
       <c r="K44" s="3">
         <v>341.81</v>
       </c>
@@ -2123,8 +2124,8 @@
         <f t="shared" si="11"/>
         <v>66.13</v>
       </c>
-      <c r="O44" s="29"/>
-      <c r="P44" s="30"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="36"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E45" s="3" t="s">
@@ -2144,7 +2145,7 @@
         <f t="shared" si="9"/>
         <v>67.730000000000018</v>
       </c>
-      <c r="J45" s="24"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="3">
         <v>492.26</v>
       </c>
@@ -2159,8 +2160,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O45" s="29"/>
-      <c r="P45" s="30"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="36"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E46" s="3" t="s">
@@ -2180,7 +2181,7 @@
         <f t="shared" si="9"/>
         <v>20.580000000000041</v>
       </c>
-      <c r="J46" s="24"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="3">
         <v>341.81</v>
       </c>
@@ -2195,8 +2196,8 @@
         <f t="shared" si="11"/>
         <v>66.13</v>
       </c>
-      <c r="O46" s="29"/>
-      <c r="P46" s="30"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="36"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E47" s="3" t="s">
@@ -2216,7 +2217,7 @@
         <f t="shared" si="9"/>
         <v>70.87</v>
       </c>
-      <c r="J47" s="24"/>
+      <c r="J47" s="32"/>
       <c r="K47" s="3">
         <v>519.91</v>
       </c>
@@ -2231,8 +2232,8 @@
         <f t="shared" si="11"/>
         <v>14114.06</v>
       </c>
-      <c r="O47" s="29"/>
-      <c r="P47" s="30"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="36"/>
     </row>
     <row r="50" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E50" s="6" t="s">
@@ -2264,28 +2265,28 @@
       <c r="E53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="25" t="s">
+      <c r="K53" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
       <c r="E54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2301,7 +2302,7 @@
       <c r="I54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="24"/>
+      <c r="J54" s="32"/>
       <c r="K54" s="5" t="s">
         <v>10</v>
       </c>
@@ -2314,42 +2315,42 @@
       <c r="N54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O54" s="27" t="s">
+      <c r="O54" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P54" s="28"/>
+      <c r="P54" s="34"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
       <c r="E55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23" t="s">
+      <c r="G55" s="27"/>
+      <c r="H55" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="23" t="s">
+      <c r="I55" s="27"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23" t="s">
+      <c r="L55" s="27"/>
+      <c r="M55" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="23"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="30"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="36"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="E56" s="3" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2368,7 @@
         <f>H56-273.15</f>
         <v>80.110000000000014</v>
       </c>
-      <c r="J56" s="24"/>
+      <c r="J56" s="32"/>
       <c r="K56" s="3">
         <v>438.71</v>
       </c>
@@ -2382,13 +2383,13 @@
         <f>M56-273.15</f>
         <v>150.03000000000003</v>
       </c>
-      <c r="O56" s="29"/>
-      <c r="P56" s="30"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="36"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
       <c r="E57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2406,7 +2407,7 @@
         <f t="shared" ref="I57:I64" si="13">H57-273.15</f>
         <v>55.580000000000041</v>
       </c>
-      <c r="J57" s="24"/>
+      <c r="J57" s="32"/>
       <c r="K57" s="3">
         <v>412.5</v>
       </c>
@@ -2421,13 +2422,13 @@
         <f t="shared" ref="N57:N64" si="15">M57-273.15</f>
         <v>123.33000000000004</v>
       </c>
-      <c r="O57" s="29"/>
-      <c r="P57" s="30"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="36"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
       <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2445,7 +2446,7 @@
         <f t="shared" si="13"/>
         <v>54.04000000000002</v>
       </c>
-      <c r="J58" s="24"/>
+      <c r="J58" s="32"/>
       <c r="K58" s="3">
         <v>408.56</v>
       </c>
@@ -2460,13 +2461,13 @@
         <f t="shared" si="15"/>
         <v>119.03000000000003</v>
       </c>
-      <c r="O58" s="29"/>
-      <c r="P58" s="30"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="36"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,7 +2485,7 @@
         <f t="shared" si="13"/>
         <v>110.30000000000001</v>
       </c>
-      <c r="J59" s="24"/>
+      <c r="J59" s="32"/>
       <c r="K59" s="3">
         <v>467</v>
       </c>
@@ -2499,13 +2500,13 @@
         <f t="shared" si="15"/>
         <v>178.41000000000003</v>
       </c>
-      <c r="O59" s="29"/>
-      <c r="P59" s="30"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="36"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
       <c r="E60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2523,7 +2524,7 @@
         <f t="shared" si="13"/>
         <v>27.830000000000041</v>
       </c>
-      <c r="J60" s="24"/>
+      <c r="J60" s="32"/>
       <c r="K60" s="3">
         <v>342.15</v>
       </c>
@@ -2538,8 +2539,8 @@
         <f t="shared" si="15"/>
         <v>45.57000000000005</v>
       </c>
-      <c r="O60" s="29"/>
-      <c r="P60" s="30"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="36"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E61" s="3" t="s">
@@ -2559,7 +2560,7 @@
         <f t="shared" si="13"/>
         <v>27.810000000000002</v>
       </c>
-      <c r="J61" s="24"/>
+      <c r="J61" s="32"/>
       <c r="K61" s="3">
         <v>342.11</v>
       </c>
@@ -2574,8 +2575,8 @@
         <f t="shared" si="15"/>
         <v>45.520000000000039</v>
       </c>
-      <c r="O61" s="29"/>
-      <c r="P61" s="30"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="36"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E62" s="3" t="s">
@@ -2595,7 +2596,7 @@
         <f t="shared" si="13"/>
         <v>27.830000000000041</v>
       </c>
-      <c r="J62" s="24"/>
+      <c r="J62" s="32"/>
       <c r="K62" s="3">
         <v>342.15</v>
       </c>
@@ -2610,8 +2611,8 @@
         <f t="shared" si="15"/>
         <v>45.57000000000005</v>
       </c>
-      <c r="O62" s="29"/>
-      <c r="P62" s="30"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="36"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E63" s="3" t="s">
@@ -2631,7 +2632,7 @@
         <f t="shared" si="13"/>
         <v>27.810000000000002</v>
       </c>
-      <c r="J63" s="24"/>
+      <c r="J63" s="32"/>
       <c r="K63" s="3">
         <v>342.11</v>
       </c>
@@ -2646,8 +2647,8 @@
         <f t="shared" si="15"/>
         <v>45.520000000000039</v>
       </c>
-      <c r="O63" s="29"/>
-      <c r="P63" s="30"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="36"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E64" s="3" t="s">
@@ -2667,7 +2668,7 @@
         <f t="shared" si="13"/>
         <v>52.990000000000009</v>
       </c>
-      <c r="J64" s="24"/>
+      <c r="J64" s="32"/>
       <c r="K64" s="3">
         <v>394.41</v>
       </c>
@@ -2682,8 +2683,8 @@
         <f t="shared" si="15"/>
         <v>102.79000000000002</v>
       </c>
-      <c r="O64" s="29"/>
-      <c r="P64" s="30"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="36"/>
     </row>
     <row r="67" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E67" s="6" t="s">
@@ -2715,28 +2716,28 @@
       <c r="E70" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
       <c r="J70" s="10"/>
-      <c r="K70" s="25" t="s">
+      <c r="K70" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
       <c r="E71" s="4" t="s">
         <v>9</v>
       </c>
@@ -2752,7 +2753,7 @@
       <c r="I71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J71" s="24"/>
+      <c r="J71" s="32"/>
       <c r="K71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2765,42 +2766,42 @@
       <c r="N71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O71" s="27" t="s">
+      <c r="O71" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P71" s="28"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
       <c r="E72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23" t="s">
+      <c r="G72" s="27"/>
+      <c r="H72" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="23" t="s">
+      <c r="I72" s="27"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23" t="s">
+      <c r="L72" s="27"/>
+      <c r="M72" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="N72" s="23"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="30"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="36"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
       <c r="E73" s="3" t="s">
         <v>0</v>
       </c>
@@ -2818,7 +2819,7 @@
         <f>H73-273.15</f>
         <v>57.110000000000014</v>
       </c>
-      <c r="J73" s="24"/>
+      <c r="J73" s="32"/>
       <c r="K73" s="3">
         <v>385.35</v>
       </c>
@@ -2833,13 +2834,13 @@
         <f>M73-273.15</f>
         <v>87.06</v>
       </c>
-      <c r="O73" s="29"/>
-      <c r="P73" s="30"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="36"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
       <c r="E74" s="3" t="s">
         <v>1</v>
       </c>
@@ -2857,7 +2858,7 @@
         <f t="shared" ref="I74:I81" si="17">H74-273.15</f>
         <v>35.32000000000005</v>
       </c>
-      <c r="J74" s="24"/>
+      <c r="J74" s="32"/>
       <c r="K74" s="3">
         <v>357.98</v>
       </c>
@@ -2872,13 +2873,13 @@
         <f t="shared" ref="N74:N81" si="19">M74-273.15</f>
         <v>59.660000000000025</v>
       </c>
-      <c r="O74" s="29"/>
-      <c r="P74" s="30"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="36"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
       <c r="E75" s="3" t="s">
         <v>2</v>
       </c>
@@ -2896,7 +2897,7 @@
         <f t="shared" si="17"/>
         <v>32.700000000000045</v>
       </c>
-      <c r="J75" s="24"/>
+      <c r="J75" s="32"/>
       <c r="K75" s="3">
         <v>352.79</v>
       </c>
@@ -2911,13 +2912,13 @@
         <f t="shared" si="19"/>
         <v>53.890000000000043</v>
       </c>
-      <c r="O75" s="29"/>
-      <c r="P75" s="30"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="36"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
       <c r="E76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,7 +2936,7 @@
         <f t="shared" si="17"/>
         <v>86.62</v>
       </c>
-      <c r="J76" s="24"/>
+      <c r="J76" s="32"/>
       <c r="K76" s="3">
         <v>413.9</v>
       </c>
@@ -2950,13 +2951,13 @@
         <f t="shared" si="19"/>
         <v>115.70000000000005</v>
       </c>
-      <c r="O76" s="29"/>
-      <c r="P76" s="30"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="36"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
       <c r="E77" s="3" t="s">
         <v>4</v>
       </c>
@@ -2974,7 +2975,7 @@
         <f t="shared" si="17"/>
         <v>-51.529999999999973</v>
       </c>
-      <c r="J77" s="24"/>
+      <c r="J77" s="32"/>
       <c r="K77" s="3">
         <v>260.79000000000002</v>
       </c>
@@ -2989,8 +2990,8 @@
         <f t="shared" si="19"/>
         <v>-50.169999999999987</v>
       </c>
-      <c r="O77" s="29"/>
-      <c r="P77" s="30"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="36"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E78" s="3" t="s">
@@ -3010,7 +3011,7 @@
         <f t="shared" si="17"/>
         <v>-51.559999999999974</v>
       </c>
-      <c r="J78" s="24"/>
+      <c r="J78" s="32"/>
       <c r="K78" s="3">
         <v>260.75</v>
       </c>
@@ -3025,8 +3026,8 @@
         <f t="shared" si="19"/>
         <v>-50.21999999999997</v>
       </c>
-      <c r="O78" s="29"/>
-      <c r="P78" s="30"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="36"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E79" s="3" t="s">
@@ -3046,7 +3047,7 @@
         <f t="shared" si="17"/>
         <v>-51.529999999999973</v>
       </c>
-      <c r="J79" s="24"/>
+      <c r="J79" s="32"/>
       <c r="K79" s="3">
         <v>260.79000000000002</v>
       </c>
@@ -3061,8 +3062,8 @@
         <f t="shared" si="19"/>
         <v>-50.169999999999987</v>
       </c>
-      <c r="O79" s="29"/>
-      <c r="P79" s="30"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="36"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
@@ -3082,7 +3083,7 @@
         <f t="shared" si="17"/>
         <v>-51.559999999999974</v>
       </c>
-      <c r="J80" s="24"/>
+      <c r="J80" s="32"/>
       <c r="K80" s="3">
         <v>260.75</v>
       </c>
@@ -3097,8 +3098,8 @@
         <f t="shared" si="19"/>
         <v>-50.21999999999997</v>
       </c>
-      <c r="O80" s="29"/>
-      <c r="P80" s="30"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="36"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E81" s="3" t="s">
@@ -3118,7 +3119,7 @@
         <f t="shared" si="17"/>
         <v>11.400000000000034</v>
       </c>
-      <c r="J81" s="24"/>
+      <c r="J81" s="32"/>
       <c r="K81" s="3">
         <v>330.96</v>
       </c>
@@ -3133,8 +3134,8 @@
         <f t="shared" si="19"/>
         <v>28.390000000000043</v>
       </c>
-      <c r="O81" s="29"/>
-      <c r="P81" s="30"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="36"/>
     </row>
     <row r="84" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E84" s="6" t="s">
@@ -3182,28 +3183,28 @@
       <c r="E88" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F88" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
       <c r="J88" s="10"/>
-      <c r="K88" s="25" t="s">
+      <c r="K88" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="25"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
       <c r="E89" s="4" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +3220,7 @@
       <c r="I89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J89" s="24"/>
+      <c r="J89" s="32"/>
       <c r="K89" s="5" t="s">
         <v>10</v>
       </c>
@@ -3232,42 +3233,42 @@
       <c r="N89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O89" s="27" t="s">
+      <c r="O89" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P89" s="28"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
+      <c r="A90" s="31"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
       <c r="E90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="23" t="s">
+      <c r="F90" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23" t="s">
+      <c r="G90" s="27"/>
+      <c r="H90" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I90" s="23"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="23" t="s">
+      <c r="I90" s="27"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L90" s="23"/>
-      <c r="M90" s="23" t="s">
+      <c r="L90" s="27"/>
+      <c r="M90" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="N90" s="23"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="30"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="36"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
       <c r="E91" s="3" t="s">
         <v>0</v>
       </c>
@@ -3285,7 +3286,7 @@
         <f>H91-273.15</f>
         <v>54.03000000000003</v>
       </c>
-      <c r="J91" s="24"/>
+      <c r="J91" s="32"/>
       <c r="K91" s="3">
         <v>376.58</v>
       </c>
@@ -3300,13 +3301,13 @@
         <f>M91-273.15</f>
         <v>77.82000000000005</v>
       </c>
-      <c r="O91" s="29"/>
-      <c r="P91" s="30"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="36"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
       <c r="E92" s="3" t="s">
         <v>1</v>
       </c>
@@ -3324,7 +3325,7 @@
         <f t="shared" ref="I92:I99" si="21">H92-273.15</f>
         <v>32.81</v>
       </c>
-      <c r="J92" s="24"/>
+      <c r="J92" s="32"/>
       <c r="K92" s="3">
         <v>349.55</v>
       </c>
@@ -3339,13 +3340,13 @@
         <f t="shared" ref="N92:N99" si="23">M92-273.15</f>
         <v>50.760000000000048</v>
       </c>
-      <c r="O92" s="29"/>
-      <c r="P92" s="30"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="36"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
       <c r="E93" s="3" t="s">
         <v>2</v>
       </c>
@@ -3363,7 +3364,7 @@
         <f t="shared" si="21"/>
         <v>29.939999999999998</v>
       </c>
-      <c r="J93" s="24"/>
+      <c r="J93" s="32"/>
       <c r="K93" s="3">
         <v>344.04</v>
       </c>
@@ -3378,13 +3379,13 @@
         <f t="shared" si="23"/>
         <v>44.710000000000036</v>
       </c>
-      <c r="O93" s="29"/>
-      <c r="P93" s="30"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="36"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3402,7 +3403,7 @@
         <f t="shared" si="21"/>
         <v>83.410000000000025</v>
       </c>
-      <c r="J94" s="24"/>
+      <c r="J94" s="32"/>
       <c r="K94" s="3">
         <v>405.12</v>
       </c>
@@ -3417,13 +3418,13 @@
         <f t="shared" si="23"/>
         <v>106.46000000000004</v>
       </c>
-      <c r="O94" s="29"/>
-      <c r="P94" s="30"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="36"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
       <c r="E95" s="3" t="s">
         <v>4</v>
       </c>
@@ -3441,7 +3442,7 @@
         <f t="shared" si="21"/>
         <v>-48.879999999999967</v>
       </c>
-      <c r="J95" s="24"/>
+      <c r="J95" s="32"/>
       <c r="K95" s="3">
         <v>260.83</v>
       </c>
@@ -3456,8 +3457,8 @@
         <f t="shared" si="23"/>
         <v>-47.149999999999977</v>
       </c>
-      <c r="O95" s="29"/>
-      <c r="P95" s="30"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="36"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E96" s="3" t="s">
@@ -3477,7 +3478,7 @@
         <f t="shared" si="21"/>
         <v>-48.909999999999968</v>
       </c>
-      <c r="J96" s="24"/>
+      <c r="J96" s="32"/>
       <c r="K96" s="3">
         <v>260.77999999999997</v>
       </c>
@@ -3492,8 +3493,8 @@
         <f t="shared" si="23"/>
         <v>-47.199999999999989</v>
       </c>
-      <c r="O96" s="29"/>
-      <c r="P96" s="30"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="36"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E97" s="3" t="s">
@@ -3513,7 +3514,7 @@
         <f t="shared" si="21"/>
         <v>-48.879999999999967</v>
       </c>
-      <c r="J97" s="24"/>
+      <c r="J97" s="32"/>
       <c r="K97" s="3">
         <v>260.83</v>
       </c>
@@ -3528,8 +3529,8 @@
         <f t="shared" si="23"/>
         <v>-47.149999999999977</v>
       </c>
-      <c r="O97" s="29"/>
-      <c r="P97" s="30"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="36"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E98" s="3" t="s">
@@ -3549,7 +3550,7 @@
         <f t="shared" si="21"/>
         <v>-48.909999999999968</v>
       </c>
-      <c r="J98" s="24"/>
+      <c r="J98" s="32"/>
       <c r="K98" s="3">
         <v>260.77999999999997</v>
       </c>
@@ -3564,8 +3565,8 @@
         <f t="shared" si="23"/>
         <v>-47.199999999999989</v>
       </c>
-      <c r="O98" s="29"/>
-      <c r="P98" s="30"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="36"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E99" s="3" t="s">
@@ -3585,7 +3586,7 @@
         <f t="shared" si="21"/>
         <v>4.5100000000000477</v>
       </c>
-      <c r="J99" s="24"/>
+      <c r="J99" s="32"/>
       <c r="K99" s="3">
         <v>318.83999999999997</v>
       </c>
@@ -3600,8 +3601,8 @@
         <f t="shared" si="23"/>
         <v>16.490000000000009</v>
       </c>
-      <c r="O99" s="29"/>
-      <c r="P99" s="30"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="36"/>
     </row>
     <row r="102" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E102" s="6" t="s">
@@ -3617,26 +3618,26 @@
       <c r="E104" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F104" s="25" t="s">
+      <c r="F104" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="25"/>
-      <c r="N104" s="25"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="38"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
       <c r="E105" s="4" t="s">
         <v>9</v>
       </c>
@@ -3652,7 +3653,7 @@
       <c r="I105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J105" s="24"/>
+      <c r="J105" s="32"/>
       <c r="K105" s="5" t="s">
         <v>10</v>
       </c>
@@ -3665,42 +3666,42 @@
       <c r="N105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O105" s="27" t="s">
+      <c r="O105" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P105" s="28"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
       <c r="E106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F106" s="23" t="s">
+      <c r="F106" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23" t="s">
+      <c r="G106" s="27"/>
+      <c r="H106" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I106" s="23"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="23" t="s">
+      <c r="I106" s="27"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="23"/>
-      <c r="M106" s="23" t="s">
+      <c r="L106" s="27"/>
+      <c r="M106" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N106" s="23"/>
-      <c r="O106" s="29"/>
-      <c r="P106" s="30"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="36"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
+      <c r="A107" s="31"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
       <c r="E107" s="3" t="s">
         <v>0</v>
       </c>
@@ -3718,7 +3719,7 @@
         <f>H107-273.15</f>
         <v>297.07000000000005</v>
       </c>
-      <c r="J107" s="24"/>
+      <c r="J107" s="32"/>
       <c r="K107" s="3">
         <v>571.03</v>
       </c>
@@ -3733,13 +3734,13 @@
         <f>M107-273.15</f>
         <v>160.83000000000004</v>
       </c>
-      <c r="O107" s="29"/>
-      <c r="P107" s="30"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="36"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
+      <c r="A108" s="31"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
       <c r="E108" s="3" t="s">
         <v>1</v>
       </c>
@@ -3757,7 +3758,7 @@
         <f t="shared" ref="I108:I115" si="25">H108-273.15</f>
         <v>262.36</v>
       </c>
-      <c r="J108" s="24"/>
+      <c r="J108" s="32"/>
       <c r="K108" s="3">
         <v>536.29999999999995</v>
       </c>
@@ -3772,13 +3773,13 @@
         <f t="shared" ref="N108:N115" si="27">M108-273.15</f>
         <v>135.17000000000002</v>
       </c>
-      <c r="O108" s="29"/>
-      <c r="P108" s="30"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="36"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
+      <c r="A109" s="31"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
       <c r="E109" s="3" t="s">
         <v>2</v>
       </c>
@@ -3796,7 +3797,7 @@
         <f t="shared" si="25"/>
         <v>250.84000000000003</v>
       </c>
-      <c r="J109" s="24"/>
+      <c r="J109" s="32"/>
       <c r="K109" s="3">
         <v>524.73</v>
       </c>
@@ -3811,13 +3812,13 @@
         <f t="shared" si="27"/>
         <v>131.47000000000003</v>
       </c>
-      <c r="O109" s="29"/>
-      <c r="P109" s="30"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="36"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
+      <c r="A110" s="31"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
       <c r="E110" s="3" t="s">
         <v>3</v>
       </c>
@@ -3835,7 +3836,7 @@
         <f t="shared" si="25"/>
         <v>325.94000000000005</v>
       </c>
-      <c r="J110" s="24"/>
+      <c r="J110" s="32"/>
       <c r="K110" s="3">
         <v>599.89</v>
       </c>
@@ -3850,13 +3851,13 @@
         <f t="shared" si="27"/>
         <v>185.82000000000005</v>
       </c>
-      <c r="O110" s="29"/>
-      <c r="P110" s="30"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="36"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
       <c r="E111" s="3" t="s">
         <v>4</v>
       </c>
@@ -3874,7 +3875,7 @@
         <f t="shared" si="25"/>
         <v>69.460000000000036</v>
       </c>
-      <c r="J111" s="24"/>
+      <c r="J111" s="32"/>
       <c r="K111" s="3">
         <v>342.61</v>
       </c>
@@ -3889,8 +3890,8 @@
         <f t="shared" si="27"/>
         <v>68.950000000000045</v>
       </c>
-      <c r="O111" s="29"/>
-      <c r="P111" s="30"/>
+      <c r="O111" s="35"/>
+      <c r="P111" s="36"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E112" s="3" t="s">
@@ -3910,7 +3911,7 @@
         <f t="shared" si="25"/>
         <v>69.410000000000025</v>
       </c>
-      <c r="J112" s="24"/>
+      <c r="J112" s="32"/>
       <c r="K112" s="3">
         <v>342.56</v>
       </c>
@@ -3925,8 +3926,8 @@
         <f t="shared" si="27"/>
         <v>68.900000000000034</v>
       </c>
-      <c r="O112" s="29"/>
-      <c r="P112" s="30"/>
+      <c r="O112" s="35"/>
+      <c r="P112" s="36"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E113" s="3" t="s">
@@ -3946,7 +3947,7 @@
         <f t="shared" si="25"/>
         <v>69.460000000000036</v>
       </c>
-      <c r="J113" s="24"/>
+      <c r="J113" s="32"/>
       <c r="K113" s="3">
         <v>342.61</v>
       </c>
@@ -3961,8 +3962,8 @@
         <f t="shared" si="27"/>
         <v>68.950000000000045</v>
       </c>
-      <c r="O113" s="29"/>
-      <c r="P113" s="30"/>
+      <c r="O113" s="35"/>
+      <c r="P113" s="36"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E114" s="3" t="s">
@@ -3982,7 +3983,7 @@
         <f t="shared" si="25"/>
         <v>69.410000000000025</v>
       </c>
-      <c r="J114" s="24"/>
+      <c r="J114" s="32"/>
       <c r="K114" s="3">
         <v>342.56</v>
       </c>
@@ -3997,8 +3998,8 @@
         <f t="shared" si="27"/>
         <v>68.900000000000034</v>
       </c>
-      <c r="O114" s="29"/>
-      <c r="P114" s="30"/>
+      <c r="O114" s="35"/>
+      <c r="P114" s="36"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E115" s="3" t="s">
@@ -4018,7 +4019,7 @@
         <f t="shared" si="25"/>
         <v>199.20000000000005</v>
       </c>
-      <c r="J115" s="24"/>
+      <c r="J115" s="32"/>
       <c r="K115" s="3">
         <v>472.84</v>
       </c>
@@ -4033,8 +4034,8 @@
         <f t="shared" si="27"/>
         <v>118.41000000000003</v>
       </c>
-      <c r="O115" s="29"/>
-      <c r="P115" s="30"/>
+      <c r="O115" s="35"/>
+      <c r="P115" s="36"/>
     </row>
     <row r="119" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E119" s="7" t="s">
@@ -4071,12 +4072,12 @@
       <c r="E123" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F123" s="25" t="s">
+      <c r="F123" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
+      <c r="G123" s="38"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="38"/>
       <c r="J123" s="10"/>
       <c r="K123" s="13" t="s">
         <v>61</v>
@@ -4088,11 +4089,11 @@
       <c r="P123" s="1"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
       <c r="E124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4108,7 +4109,7 @@
       <c r="I124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J124" s="24"/>
+      <c r="J124" s="32"/>
       <c r="K124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4121,44 +4122,44 @@
       <c r="N124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O124" s="27" t="s">
+      <c r="O124" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P124" s="28"/>
+      <c r="P124" s="34"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
+      <c r="A125" s="31"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
       <c r="E125" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F125" s="23">
+      <c r="F125" s="27">
         <v>0.05</v>
       </c>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23">
+      <c r="G125" s="27"/>
+      <c r="H125" s="27">
         <v>0.75</v>
       </c>
-      <c r="I125" s="23"/>
-      <c r="J125" s="24"/>
-      <c r="K125" s="23">
+      <c r="I125" s="27"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="27">
         <v>0.05</v>
       </c>
-      <c r="L125" s="23"/>
-      <c r="M125" s="23">
+      <c r="L125" s="27"/>
+      <c r="M125" s="27">
         <v>0.75</v>
       </c>
-      <c r="N125" s="23"/>
-      <c r="O125" s="29" t="s">
+      <c r="N125" s="27"/>
+      <c r="O125" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="P125" s="30"/>
+      <c r="P125" s="36"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
+      <c r="A126" s="31"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
       <c r="E126" s="3" t="s">
         <v>0</v>
       </c>
@@ -4176,7 +4177,7 @@
         <f>H126-273.15</f>
         <v>84.37</v>
       </c>
-      <c r="J126" s="24"/>
+      <c r="J126" s="32"/>
       <c r="K126" s="15">
         <v>357.13</v>
       </c>
@@ -4191,13 +4192,13 @@
         <f>M126-273.15</f>
         <v>82.460000000000036</v>
       </c>
-      <c r="O126" s="29"/>
-      <c r="P126" s="30"/>
+      <c r="O126" s="35"/>
+      <c r="P126" s="36"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
+      <c r="A127" s="31"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
       <c r="E127" s="3" t="s">
         <v>1</v>
       </c>
@@ -4215,7 +4216,7 @@
         <f t="shared" ref="I127:I135" si="29">H127-273.15</f>
         <v>59.54000000000002</v>
       </c>
-      <c r="J127" s="24"/>
+      <c r="J127" s="32"/>
       <c r="K127" s="15">
         <v>332.57</v>
       </c>
@@ -4230,13 +4231,13 @@
         <f t="shared" ref="N127:N135" si="31">M127-273.15</f>
         <v>58.950000000000045</v>
       </c>
-      <c r="O127" s="29"/>
-      <c r="P127" s="30"/>
+      <c r="O127" s="35"/>
+      <c r="P127" s="36"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
+      <c r="A128" s="31"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
       <c r="E128" s="3" t="s">
         <v>2</v>
       </c>
@@ -4254,7 +4255,7 @@
         <f t="shared" si="29"/>
         <v>58.100000000000023</v>
       </c>
-      <c r="J128" s="24"/>
+      <c r="J128" s="32"/>
       <c r="K128" s="15">
         <v>331.06</v>
       </c>
@@ -4269,13 +4270,13 @@
         <f t="shared" si="31"/>
         <v>57.590000000000032</v>
       </c>
-      <c r="O128" s="29"/>
-      <c r="P128" s="30"/>
+      <c r="O128" s="35"/>
+      <c r="P128" s="36"/>
     </row>
     <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
+      <c r="A129" s="31"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
       <c r="E129" s="3" t="s">
         <v>64</v>
       </c>
@@ -4291,7 +4292,7 @@
       <c r="I129" s="16">
         <v>0</v>
       </c>
-      <c r="J129" s="24"/>
+      <c r="J129" s="32"/>
       <c r="K129" s="15">
         <v>384.69</v>
       </c>
@@ -4306,13 +4307,13 @@
         <f t="shared" si="31"/>
         <v>109.92000000000002</v>
       </c>
-      <c r="O129" s="29"/>
-      <c r="P129" s="30"/>
+      <c r="O129" s="35"/>
+      <c r="P129" s="36"/>
     </row>
     <row r="130" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
       <c r="E130" s="3" t="s">
         <v>3</v>
       </c>
@@ -4330,7 +4331,7 @@
         <f t="shared" si="29"/>
         <v>114.84000000000003</v>
       </c>
-      <c r="J130" s="24"/>
+      <c r="J130" s="32"/>
       <c r="K130" s="15">
         <v>387.73</v>
       </c>
@@ -4345,13 +4346,13 @@
         <f t="shared" si="31"/>
         <v>112.97000000000003</v>
       </c>
-      <c r="O130" s="29"/>
-      <c r="P130" s="30"/>
+      <c r="O130" s="35"/>
+      <c r="P130" s="36"/>
     </row>
     <row r="131" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
+      <c r="A131" s="31"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
       <c r="E131" s="3" t="s">
         <v>4</v>
       </c>
@@ -4369,7 +4370,7 @@
         <f t="shared" si="29"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J131" s="24"/>
+      <c r="J131" s="32"/>
       <c r="K131" s="15">
         <v>316.86</v>
       </c>
@@ -4384,8 +4385,8 @@
         <f t="shared" si="31"/>
         <v>48.04000000000002</v>
       </c>
-      <c r="O131" s="29"/>
-      <c r="P131" s="30"/>
+      <c r="O131" s="35"/>
+      <c r="P131" s="36"/>
     </row>
     <row r="132" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E132" s="3" t="s">
@@ -4405,7 +4406,7 @@
         <f t="shared" si="29"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J132" s="24"/>
+      <c r="J132" s="32"/>
       <c r="K132" s="15">
         <v>301.44</v>
       </c>
@@ -4420,8 +4421,8 @@
         <f t="shared" si="31"/>
         <v>29.53000000000003</v>
       </c>
-      <c r="O132" s="29"/>
-      <c r="P132" s="30"/>
+      <c r="O132" s="35"/>
+      <c r="P132" s="36"/>
     </row>
     <row r="133" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E133" s="3" t="s">
@@ -4441,7 +4442,7 @@
         <f t="shared" si="29"/>
         <v>50.930000000000007</v>
       </c>
-      <c r="J133" s="24"/>
+      <c r="J133" s="32"/>
       <c r="K133" s="15">
         <v>316.86</v>
       </c>
@@ -4456,8 +4457,8 @@
         <f t="shared" si="31"/>
         <v>48.04000000000002</v>
       </c>
-      <c r="O133" s="29"/>
-      <c r="P133" s="30"/>
+      <c r="O133" s="35"/>
+      <c r="P133" s="36"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E134" s="3" t="s">
@@ -4477,7 +4478,7 @@
         <f t="shared" si="29"/>
         <v>30.340000000000032</v>
       </c>
-      <c r="J134" s="24"/>
+      <c r="J134" s="32"/>
       <c r="K134" s="15">
         <v>301.44</v>
       </c>
@@ -4492,8 +4493,8 @@
         <f t="shared" si="31"/>
         <v>29.53000000000003</v>
       </c>
-      <c r="O134" s="29"/>
-      <c r="P134" s="30"/>
+      <c r="O134" s="35"/>
+      <c r="P134" s="36"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E135" s="3" t="s">
@@ -4513,7 +4514,7 @@
         <f t="shared" si="29"/>
         <v>63.53000000000003</v>
       </c>
-      <c r="J135" s="24"/>
+      <c r="J135" s="32"/>
       <c r="K135" s="15">
         <v>334.73</v>
       </c>
@@ -4528,8 +4529,8 @@
         <f t="shared" si="31"/>
         <v>62.470000000000027</v>
       </c>
-      <c r="O135" s="29"/>
-      <c r="P135" s="30"/>
+      <c r="O135" s="35"/>
+      <c r="P135" s="36"/>
     </row>
     <row r="138" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E138" s="7"/>
@@ -4538,54 +4539,54 @@
       <c r="E139" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F139" s="31" t="s">
+      <c r="F139" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-      <c r="I139" s="31"/>
-      <c r="K139" s="31" t="s">
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
+      <c r="K139" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L139" s="31"/>
-      <c r="M139" s="31"/>
-      <c r="N139" s="31"/>
+      <c r="L139" s="30"/>
+      <c r="M139" s="30"/>
+      <c r="N139" s="30"/>
     </row>
     <row r="140" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E140" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
-      <c r="H140" s="31"/>
-      <c r="I140" s="31"/>
-      <c r="K140" s="31"/>
-      <c r="L140" s="31"/>
-      <c r="M140" s="31"/>
-      <c r="N140" s="31"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="30"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="30"/>
+      <c r="M140" s="30"/>
+      <c r="N140" s="30"/>
     </row>
     <row r="141" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E141" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F141" s="31"/>
-      <c r="G141" s="31"/>
-      <c r="H141" s="31"/>
-      <c r="I141" s="31"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="30"/>
       <c r="J141" s="1"/>
-      <c r="K141" s="31"/>
-      <c r="L141" s="31"/>
-      <c r="M141" s="31"/>
-      <c r="N141" s="31"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="30"/>
+      <c r="M141" s="30"/>
+      <c r="N141" s="30"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="26" t="s">
+      <c r="A142" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
       <c r="E142" s="4" t="s">
         <v>9</v>
       </c>
@@ -4601,7 +4602,7 @@
       <c r="I142" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J142" s="24"/>
+      <c r="J142" s="32"/>
       <c r="K142" s="5" t="s">
         <v>10</v>
       </c>
@@ -4614,42 +4615,42 @@
       <c r="N142" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O142" s="27" t="s">
+      <c r="O142" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P142" s="28"/>
+      <c r="P142" s="34"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="26"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
+      <c r="A143" s="31"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
       <c r="E143" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F143" s="23" t="s">
+      <c r="F143" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G143" s="23"/>
-      <c r="H143" s="23" t="s">
+      <c r="G143" s="27"/>
+      <c r="H143" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I143" s="23"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="23" t="s">
+      <c r="I143" s="27"/>
+      <c r="J143" s="32"/>
+      <c r="K143" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="L143" s="23"/>
-      <c r="M143" s="23" t="s">
+      <c r="L143" s="27"/>
+      <c r="M143" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="N143" s="23"/>
-      <c r="O143" s="29"/>
-      <c r="P143" s="30"/>
+      <c r="N143" s="27"/>
+      <c r="O143" s="35"/>
+      <c r="P143" s="36"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="26"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
+      <c r="A144" s="31"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="31"/>
       <c r="E144" s="3" t="s">
         <v>0</v>
       </c>
@@ -4667,7 +4668,7 @@
         <f>H144-273.15</f>
         <v>86.300000000000011</v>
       </c>
-      <c r="J144" s="24"/>
+      <c r="J144" s="32"/>
       <c r="K144" s="3">
         <v>378.01</v>
       </c>
@@ -4682,13 +4683,13 @@
         <f>M144-273.15</f>
         <v>117.72000000000003</v>
       </c>
-      <c r="O144" s="29"/>
-      <c r="P144" s="30"/>
+      <c r="O144" s="35"/>
+      <c r="P144" s="36"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
+      <c r="A145" s="31"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
       <c r="E145" s="3" t="s">
         <v>1</v>
       </c>
@@ -4706,7 +4707,7 @@
         <f t="shared" ref="I145:I146" si="33">H145-273.15</f>
         <v>60.75</v>
       </c>
-      <c r="J145" s="24"/>
+      <c r="J145" s="32"/>
       <c r="K145" s="3">
         <v>357.15</v>
       </c>
@@ -4721,13 +4722,13 @@
         <f t="shared" ref="N145:N153" si="35">M145-273.15</f>
         <v>96.970000000000027</v>
       </c>
-      <c r="O145" s="29"/>
-      <c r="P145" s="30"/>
+      <c r="O145" s="35"/>
+      <c r="P145" s="36"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="26"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
+      <c r="A146" s="31"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
       <c r="E146" s="3" t="s">
         <v>2</v>
       </c>
@@ -4745,7 +4746,7 @@
         <f t="shared" si="33"/>
         <v>59.28000000000003</v>
       </c>
-      <c r="J146" s="24"/>
+      <c r="J146" s="32"/>
       <c r="K146" s="3">
         <v>354.26</v>
       </c>
@@ -4760,13 +4761,13 @@
         <f t="shared" si="35"/>
         <v>94.170000000000016</v>
       </c>
-      <c r="O146" s="29"/>
-      <c r="P146" s="30"/>
+      <c r="O146" s="35"/>
+      <c r="P146" s="36"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="26"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="26"/>
+      <c r="A147" s="31"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
       <c r="E147" s="3" t="s">
         <v>64</v>
       </c>
@@ -4782,7 +4783,7 @@
       <c r="I147" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J147" s="24"/>
+      <c r="J147" s="32"/>
       <c r="K147" s="3">
         <v>422.08</v>
       </c>
@@ -4797,13 +4798,13 @@
         <f t="shared" si="35"/>
         <v>159.18</v>
       </c>
-      <c r="O147" s="29"/>
-      <c r="P147" s="30"/>
+      <c r="O147" s="35"/>
+      <c r="P147" s="36"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="26"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="26"/>
+      <c r="A148" s="31"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
       <c r="E148" s="3" t="s">
         <v>3</v>
       </c>
@@ -4821,7 +4822,7 @@
         <f t="shared" ref="I148:I153" si="36">H148-273.15</f>
         <v>117.07000000000005</v>
       </c>
-      <c r="J148" s="24"/>
+      <c r="J148" s="32"/>
       <c r="K148" s="3">
         <v>595.69000000000005</v>
       </c>
@@ -4836,13 +4837,13 @@
         <f t="shared" si="35"/>
         <v>329.33000000000004</v>
       </c>
-      <c r="O148" s="29"/>
-      <c r="P148" s="30"/>
+      <c r="O148" s="35"/>
+      <c r="P148" s="36"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
+      <c r="A149" s="31"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
       <c r="E149" s="3" t="s">
         <v>4</v>
       </c>
@@ -4860,7 +4861,7 @@
         <f t="shared" si="36"/>
         <v>54.180000000000007</v>
       </c>
-      <c r="J149" s="24"/>
+      <c r="J149" s="32"/>
       <c r="K149" s="3">
         <v>334.52</v>
       </c>
@@ -4875,8 +4876,8 @@
         <f t="shared" si="35"/>
         <v>76.230000000000018</v>
       </c>
-      <c r="O149" s="29"/>
-      <c r="P149" s="30"/>
+      <c r="O149" s="35"/>
+      <c r="P149" s="36"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E150" s="3" t="s">
@@ -4896,7 +4897,7 @@
         <f t="shared" si="36"/>
         <v>43.580000000000041</v>
       </c>
-      <c r="J150" s="24"/>
+      <c r="J150" s="32"/>
       <c r="K150" s="3">
         <v>309.76</v>
       </c>
@@ -4911,8 +4912,8 @@
         <f t="shared" si="35"/>
         <v>51.830000000000041</v>
       </c>
-      <c r="O150" s="29"/>
-      <c r="P150" s="30"/>
+      <c r="O150" s="35"/>
+      <c r="P150" s="36"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E151" s="3" t="s">
@@ -4932,7 +4933,7 @@
         <f t="shared" si="36"/>
         <v>54.180000000000007</v>
       </c>
-      <c r="J151" s="24"/>
+      <c r="J151" s="32"/>
       <c r="K151" s="3">
         <v>334.52</v>
       </c>
@@ -4947,8 +4948,8 @@
         <f t="shared" si="35"/>
         <v>76.230000000000018</v>
       </c>
-      <c r="O151" s="29"/>
-      <c r="P151" s="30"/>
+      <c r="O151" s="35"/>
+      <c r="P151" s="36"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E152" s="3" t="s">
@@ -4968,7 +4969,7 @@
         <f t="shared" si="36"/>
         <v>43.580000000000041</v>
       </c>
-      <c r="J152" s="24"/>
+      <c r="J152" s="32"/>
       <c r="K152" s="3">
         <v>309.76</v>
       </c>
@@ -4983,8 +4984,8 @@
         <f t="shared" si="35"/>
         <v>51.830000000000041</v>
       </c>
-      <c r="O152" s="29"/>
-      <c r="P152" s="30"/>
+      <c r="O152" s="35"/>
+      <c r="P152" s="36"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E153" s="3" t="s">
@@ -5004,7 +5005,7 @@
         <f t="shared" si="36"/>
         <v>65.610000000000014</v>
       </c>
-      <c r="J153" s="24"/>
+      <c r="J153" s="32"/>
       <c r="K153" s="3">
         <v>359.71</v>
       </c>
@@ -5019,385 +5020,385 @@
         <f t="shared" si="35"/>
         <v>100.08000000000004</v>
       </c>
-      <c r="O153" s="29"/>
-      <c r="P153" s="30"/>
+      <c r="O153" s="35"/>
+      <c r="P153" s="36"/>
     </row>
     <row r="156" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E156" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F156" s="31" t="s">
+      <c r="F156" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G156" s="31"/>
-      <c r="H156" s="31"/>
-      <c r="I156" s="31"/>
-      <c r="K156" s="31" t="s">
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="30"/>
+      <c r="K156" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L156" s="31"/>
-      <c r="M156" s="31"/>
-      <c r="N156" s="31"/>
+      <c r="L156" s="30"/>
+      <c r="M156" s="30"/>
+      <c r="N156" s="30"/>
     </row>
     <row r="157" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E157" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F157" s="31"/>
-      <c r="G157" s="31"/>
-      <c r="H157" s="31"/>
-      <c r="I157" s="31"/>
-      <c r="K157" s="31"/>
-      <c r="L157" s="31"/>
-      <c r="M157" s="31"/>
-      <c r="N157" s="31"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
+      <c r="I157" s="30"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="30"/>
+      <c r="M157" s="30"/>
+      <c r="N157" s="30"/>
     </row>
     <row r="158" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E158" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F158" s="31"/>
-      <c r="G158" s="31"/>
-      <c r="H158" s="31"/>
-      <c r="I158" s="31"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
       <c r="J158" s="1"/>
-      <c r="K158" s="31"/>
-      <c r="L158" s="31"/>
-      <c r="M158" s="31"/>
-      <c r="N158" s="31"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="30"/>
+      <c r="M158" s="30"/>
+      <c r="N158" s="30"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="26" t="s">
+      <c r="A159" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
       <c r="E159" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F159" s="33" t="s">
+      <c r="F159" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33" t="s">
+      <c r="G159" s="37"/>
+      <c r="H159" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I159" s="33"/>
-      <c r="J159" s="24"/>
-      <c r="K159" s="33" t="s">
+      <c r="I159" s="37"/>
+      <c r="J159" s="32"/>
+      <c r="K159" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L159" s="33"/>
-      <c r="M159" s="33" t="s">
+      <c r="L159" s="37"/>
+      <c r="M159" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N159" s="33"/>
-      <c r="O159" s="27" t="s">
+      <c r="N159" s="37"/>
+      <c r="O159" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P159" s="28"/>
+      <c r="P159" s="34"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="26"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
+      <c r="A160" s="31"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
       <c r="E160" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F160" s="23" t="s">
+      <c r="F160" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G160" s="23"/>
-      <c r="H160" s="23"/>
-      <c r="I160" s="23"/>
-      <c r="J160" s="24"/>
-      <c r="K160" s="23" t="s">
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="32"/>
+      <c r="K160" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L160" s="23"/>
-      <c r="M160" s="23"/>
-      <c r="N160" s="23"/>
-      <c r="O160" s="29"/>
-      <c r="P160" s="30"/>
+      <c r="L160" s="27"/>
+      <c r="M160" s="27"/>
+      <c r="N160" s="27"/>
+      <c r="O160" s="35"/>
+      <c r="P160" s="36"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
+      <c r="A161" s="31"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
       <c r="E161" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F161" s="32">
+      <c r="F161" s="28">
         <v>342.04</v>
       </c>
-      <c r="G161" s="32"/>
-      <c r="H161" s="34">
+      <c r="G161" s="28"/>
+      <c r="H161" s="29">
         <f>F161-273.15</f>
         <v>68.890000000000043</v>
       </c>
-      <c r="I161" s="34"/>
-      <c r="J161" s="24"/>
-      <c r="K161" s="32">
+      <c r="I161" s="29"/>
+      <c r="J161" s="32"/>
+      <c r="K161" s="28">
         <v>322.26</v>
       </c>
-      <c r="L161" s="32"/>
-      <c r="M161" s="34">
+      <c r="L161" s="28"/>
+      <c r="M161" s="29">
         <f>K161-273.15</f>
         <v>49.110000000000014</v>
       </c>
-      <c r="N161" s="34"/>
-      <c r="O161" s="29"/>
-      <c r="P161" s="30"/>
+      <c r="N161" s="29"/>
+      <c r="O161" s="35"/>
+      <c r="P161" s="36"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="26"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
+      <c r="A162" s="31"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="31"/>
       <c r="E162" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F162" s="32">
+      <c r="F162" s="28">
         <v>319.17</v>
       </c>
-      <c r="G162" s="32"/>
-      <c r="H162" s="34">
+      <c r="G162" s="28"/>
+      <c r="H162" s="29">
         <f>F162-273.15</f>
         <v>46.020000000000039</v>
       </c>
-      <c r="I162" s="34"/>
-      <c r="J162" s="24"/>
-      <c r="K162" s="32">
+      <c r="I162" s="29"/>
+      <c r="J162" s="32"/>
+      <c r="K162" s="28">
         <v>301.64999999999998</v>
       </c>
-      <c r="L162" s="32"/>
-      <c r="M162" s="34">
+      <c r="L162" s="28"/>
+      <c r="M162" s="29">
         <f>K162-273.15</f>
         <v>28.5</v>
       </c>
-      <c r="N162" s="34"/>
-      <c r="O162" s="29"/>
-      <c r="P162" s="30"/>
+      <c r="N162" s="29"/>
+      <c r="O162" s="35"/>
+      <c r="P162" s="36"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="26"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
+      <c r="A163" s="31"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
       <c r="E163" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F163" s="32">
+      <c r="F163" s="28">
         <v>317.06</v>
       </c>
-      <c r="G163" s="32"/>
-      <c r="H163" s="34">
+      <c r="G163" s="28"/>
+      <c r="H163" s="29">
         <f t="shared" ref="H163:H170" si="37">F163-273.15</f>
         <v>43.910000000000025</v>
       </c>
-      <c r="I163" s="34"/>
-      <c r="J163" s="24"/>
-      <c r="K163" s="32">
+      <c r="I163" s="29"/>
+      <c r="J163" s="32"/>
+      <c r="K163" s="28">
         <v>298.48</v>
       </c>
-      <c r="L163" s="32"/>
-      <c r="M163" s="34">
+      <c r="L163" s="28"/>
+      <c r="M163" s="29">
         <f t="shared" ref="M163" si="38">K163-273.15</f>
         <v>25.330000000000041</v>
       </c>
-      <c r="N163" s="34"/>
-      <c r="O163" s="29"/>
-      <c r="P163" s="30"/>
+      <c r="N163" s="29"/>
+      <c r="O163" s="35"/>
+      <c r="P163" s="36"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="26"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
+      <c r="A164" s="31"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="31"/>
       <c r="E164" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F164" s="32" t="s">
+      <c r="F164" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G164" s="32"/>
-      <c r="H164" s="34" t="s">
+      <c r="G164" s="28"/>
+      <c r="H164" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I164" s="34"/>
-      <c r="J164" s="24"/>
-      <c r="K164" s="32">
+      <c r="I164" s="29"/>
+      <c r="J164" s="32"/>
+      <c r="K164" s="28">
         <v>378.41</v>
       </c>
-      <c r="L164" s="32"/>
-      <c r="M164" s="34">
+      <c r="L164" s="28"/>
+      <c r="M164" s="29">
         <f>K164-273.15</f>
         <v>105.26000000000005</v>
       </c>
-      <c r="N164" s="34"/>
-      <c r="O164" s="29"/>
-      <c r="P164" s="30"/>
+      <c r="N164" s="29"/>
+      <c r="O164" s="35"/>
+      <c r="P164" s="36"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
+      <c r="A165" s="31"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="31"/>
       <c r="E165" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F165" s="32">
+      <c r="F165" s="28">
         <v>372.15</v>
       </c>
-      <c r="G165" s="32"/>
-      <c r="H165" s="34">
+      <c r="G165" s="28"/>
+      <c r="H165" s="29">
         <f t="shared" si="37"/>
         <v>99</v>
       </c>
-      <c r="I165" s="34"/>
-      <c r="J165" s="24"/>
-      <c r="K165" s="32">
+      <c r="I165" s="29"/>
+      <c r="J165" s="32"/>
+      <c r="K165" s="28">
         <v>566.69000000000005</v>
       </c>
-      <c r="L165" s="32"/>
-      <c r="M165" s="34">
+      <c r="L165" s="28"/>
+      <c r="M165" s="29">
         <f>K165-273.15</f>
         <v>293.54000000000008</v>
       </c>
-      <c r="N165" s="34"/>
-      <c r="O165" s="29"/>
-      <c r="P165" s="30"/>
+      <c r="N165" s="29"/>
+      <c r="O165" s="35"/>
+      <c r="P165" s="36"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
+      <c r="A166" s="31"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
       <c r="E166" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="32">
+      <c r="F166" s="28">
         <v>261.92</v>
       </c>
-      <c r="G166" s="32"/>
-      <c r="H166" s="34">
+      <c r="G166" s="28"/>
+      <c r="H166" s="29">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I166" s="34"/>
-      <c r="J166" s="24"/>
-      <c r="K166" s="32">
+      <c r="I166" s="29"/>
+      <c r="J166" s="32"/>
+      <c r="K166" s="28">
         <v>270.13</v>
       </c>
-      <c r="L166" s="32"/>
-      <c r="M166" s="34">
+      <c r="L166" s="28"/>
+      <c r="M166" s="29">
         <f t="shared" ref="M166:M170" si="39">K166-273.15</f>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N166" s="34"/>
-      <c r="O166" s="29"/>
-      <c r="P166" s="30"/>
+      <c r="N166" s="29"/>
+      <c r="O166" s="35"/>
+      <c r="P166" s="36"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F167" s="32">
+      <c r="F167" s="28">
         <v>214.52</v>
       </c>
-      <c r="G167" s="32"/>
-      <c r="H167" s="34">
+      <c r="G167" s="28"/>
+      <c r="H167" s="29">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I167" s="34"/>
-      <c r="J167" s="24"/>
-      <c r="K167" s="32">
+      <c r="I167" s="29"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="28">
         <v>243.61</v>
       </c>
-      <c r="L167" s="32"/>
-      <c r="M167" s="34">
+      <c r="L167" s="28"/>
+      <c r="M167" s="29">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N167" s="34"/>
-      <c r="O167" s="29"/>
-      <c r="P167" s="30"/>
+      <c r="N167" s="29"/>
+      <c r="O167" s="35"/>
+      <c r="P167" s="36"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E168" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F168" s="32">
+      <c r="F168" s="28">
         <v>261.92</v>
       </c>
-      <c r="G168" s="32"/>
-      <c r="H168" s="34">
+      <c r="G168" s="28"/>
+      <c r="H168" s="29">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I168" s="34"/>
-      <c r="J168" s="24"/>
-      <c r="K168" s="32">
+      <c r="I168" s="29"/>
+      <c r="J168" s="32"/>
+      <c r="K168" s="28">
         <v>270.13</v>
       </c>
-      <c r="L168" s="32"/>
-      <c r="M168" s="34">
+      <c r="L168" s="28"/>
+      <c r="M168" s="29">
         <f t="shared" si="39"/>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N168" s="34"/>
-      <c r="O168" s="29"/>
-      <c r="P168" s="30"/>
+      <c r="N168" s="29"/>
+      <c r="O168" s="35"/>
+      <c r="P168" s="36"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E169" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F169" s="32">
+      <c r="F169" s="28">
         <v>214.52</v>
       </c>
-      <c r="G169" s="32"/>
-      <c r="H169" s="34">
+      <c r="G169" s="28"/>
+      <c r="H169" s="29">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I169" s="34"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="32">
+      <c r="I169" s="29"/>
+      <c r="J169" s="32"/>
+      <c r="K169" s="28">
         <v>243.61</v>
       </c>
-      <c r="L169" s="32"/>
-      <c r="M169" s="34">
+      <c r="L169" s="28"/>
+      <c r="M169" s="29">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N169" s="34"/>
-      <c r="O169" s="29"/>
-      <c r="P169" s="30"/>
+      <c r="N169" s="29"/>
+      <c r="O169" s="35"/>
+      <c r="P169" s="36"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E170" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F170" s="32">
+      <c r="F170" s="28">
         <v>305.83999999999997</v>
       </c>
-      <c r="G170" s="32"/>
-      <c r="H170" s="34">
+      <c r="G170" s="28"/>
+      <c r="H170" s="29">
         <f t="shared" si="37"/>
         <v>32.69</v>
       </c>
-      <c r="I170" s="34"/>
-      <c r="J170" s="24"/>
-      <c r="K170" s="32">
+      <c r="I170" s="29"/>
+      <c r="J170" s="32"/>
+      <c r="K170" s="28">
         <v>301.44</v>
       </c>
-      <c r="L170" s="32"/>
-      <c r="M170" s="34">
+      <c r="L170" s="28"/>
+      <c r="M170" s="29">
         <f t="shared" si="39"/>
         <v>28.29000000000002</v>
       </c>
-      <c r="N170" s="34"/>
-      <c r="O170" s="29"/>
-      <c r="P170" s="30"/>
+      <c r="N170" s="29"/>
+      <c r="O170" s="35"/>
+      <c r="P170" s="36"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F172" s="5" t="s">
@@ -5408,10 +5409,10 @@
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F173" s="23" t="s">
+      <c r="F173" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G173" s="23"/>
+      <c r="G173" s="27"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F174" s="15">
@@ -5496,35 +5497,94 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="F156:I158"/>
-    <mergeCell ref="K156:N158"/>
-    <mergeCell ref="A159:C166"/>
-    <mergeCell ref="J159:J170"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A37:C43"/>
+    <mergeCell ref="J37:J47"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P47"/>
+    <mergeCell ref="O6:P15"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A5:C11"/>
+    <mergeCell ref="A21:C27"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="O22:P31"/>
+    <mergeCell ref="J21:J31"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J5:J15"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="A54:C60"/>
+    <mergeCell ref="J54:J64"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P64"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="A71:C77"/>
+    <mergeCell ref="J71:J81"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P81"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:C95"/>
+    <mergeCell ref="J89:J99"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="O90:P99"/>
+    <mergeCell ref="A105:C111"/>
+    <mergeCell ref="J105:J115"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="O106:P115"/>
+    <mergeCell ref="F104:N104"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="A124:C131"/>
+    <mergeCell ref="J124:J135"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="O125:P135"/>
+    <mergeCell ref="A142:C149"/>
+    <mergeCell ref="J142:J153"/>
+    <mergeCell ref="O142:P142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="O143:P153"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="K139:N141"/>
     <mergeCell ref="O159:P159"/>
     <mergeCell ref="O160:P170"/>
     <mergeCell ref="F161:G161"/>
@@ -5549,94 +5609,35 @@
     <mergeCell ref="K165:L165"/>
     <mergeCell ref="M165:N165"/>
     <mergeCell ref="K166:L166"/>
-    <mergeCell ref="A142:C149"/>
-    <mergeCell ref="J142:J153"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="O143:P153"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="K139:N141"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="A124:C131"/>
-    <mergeCell ref="J124:J135"/>
-    <mergeCell ref="O124:P124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="O125:P135"/>
-    <mergeCell ref="A105:C111"/>
-    <mergeCell ref="J105:J115"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="O106:P115"/>
-    <mergeCell ref="F104:N104"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="A89:C95"/>
-    <mergeCell ref="J89:J99"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="O90:P99"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="A71:C77"/>
-    <mergeCell ref="J71:J81"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P81"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="A54:C60"/>
-    <mergeCell ref="J54:J64"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P64"/>
-    <mergeCell ref="O6:P15"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A5:C11"/>
-    <mergeCell ref="A21:C27"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="O22:P31"/>
-    <mergeCell ref="J21:J31"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A37:C43"/>
-    <mergeCell ref="J37:J47"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P47"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="J5:J15"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="F156:I158"/>
+    <mergeCell ref="K156:N158"/>
+    <mergeCell ref="A159:C166"/>
+    <mergeCell ref="J159:J170"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5662,10 +5663,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -5770,11 +5771,11 @@
       <c r="N9" s="14"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" t="s">
         <v>50</v>
       </c>
@@ -5798,39 +5799,39 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5851,7 +5852,7 @@
   <dimension ref="A2:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40:U40"/>
+      <selection activeCell="B31" sqref="B31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5874,61 +5875,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="21">
@@ -5983,8 +5984,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -6039,8 +6040,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -6095,8 +6096,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -6151,8 +6152,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="21">
@@ -6207,8 +6208,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="21">
@@ -6263,8 +6264,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -6319,8 +6320,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -6375,8 +6376,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B11" s="21">
@@ -6431,8 +6432,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="21">
@@ -6487,8 +6488,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -6543,8 +6544,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="21">
@@ -6599,8 +6600,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -6655,8 +6656,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="21">
@@ -6711,8 +6712,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -6767,8 +6768,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="21">
@@ -6823,8 +6824,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -6881,69 +6882,69 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="M24" s="38" t="s">
+      <c r="M24" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="O24" s="38" t="s">
+      <c r="O24" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="38" t="s">
+      <c r="P24" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="Q24" s="38" t="s">
+      <c r="Q24" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="R24" s="38" t="s">
+      <c r="R24" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="S24" s="38" t="s">
+      <c r="S24" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="T24" s="38" t="s">
+      <c r="T24" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="U24" s="38" t="s">
+      <c r="U24" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="24" t="s">
         <v>77</v>
       </c>
       <c r="B25" s="21">
@@ -6997,18 +6998,18 @@
       <c r="R25" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S25" s="36" t="s">
+      <c r="S25" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="T25" s="36" t="s">
+      <c r="T25" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="U25" s="36">
+      <c r="U25" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="21">
@@ -7062,18 +7063,18 @@
       <c r="R26" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S26" s="36">
-        <v>0</v>
-      </c>
-      <c r="T26" s="36" t="s">
+      <c r="S26" s="22">
+        <v>0</v>
+      </c>
+      <c r="T26" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="U26" s="36" t="s">
+      <c r="U26" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -7127,18 +7128,18 @@
       <c r="R27" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S27" s="36" t="s">
+      <c r="S27" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="T27" s="36" t="s">
+      <c r="T27" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="U27" s="36">
+      <c r="U27" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="21">
@@ -7192,18 +7193,18 @@
       <c r="R28" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S28" s="36">
-        <v>0</v>
-      </c>
-      <c r="T28" s="36" t="s">
+      <c r="S28" s="22">
+        <v>0</v>
+      </c>
+      <c r="T28" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="U28" s="36" t="s">
+      <c r="U28" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="21">
@@ -7257,18 +7258,18 @@
       <c r="R29" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S29" s="36" t="s">
+      <c r="S29" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="T29" s="36" t="s">
+      <c r="T29" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="U29" s="36">
+      <c r="U29" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="21">
@@ -7322,18 +7323,18 @@
       <c r="R30" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S30" s="36">
-        <v>0</v>
-      </c>
-      <c r="T30" s="36" t="s">
+      <c r="S30" s="22">
+        <v>0</v>
+      </c>
+      <c r="T30" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="U30" s="36" t="s">
+      <c r="U30" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -7366,8 +7367,8 @@
       <c r="K31" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
       <c r="N31" s="21" t="s">
         <v>94</v>
       </c>
@@ -7383,18 +7384,18 @@
       <c r="R31" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S31" s="36">
-        <v>0</v>
-      </c>
-      <c r="T31" s="36">
-        <v>0</v>
-      </c>
-      <c r="U31" s="36">
+      <c r="S31" s="22">
+        <v>0</v>
+      </c>
+      <c r="T31" s="22">
+        <v>0</v>
+      </c>
+      <c r="U31" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="24" t="s">
         <v>100</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -7427,8 +7428,8 @@
       <c r="K32" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
       <c r="N32" s="21">
         <v>0</v>
       </c>
@@ -7444,18 +7445,18 @@
       <c r="R32" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S32" s="36">
-        <v>0</v>
-      </c>
-      <c r="T32" s="36">
-        <v>0</v>
-      </c>
-      <c r="U32" s="36">
+      <c r="S32" s="22">
+        <v>0</v>
+      </c>
+      <c r="T32" s="22">
+        <v>0</v>
+      </c>
+      <c r="U32" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B33" s="21">
@@ -7488,8 +7489,8 @@
       <c r="K33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
       <c r="N33" s="21">
         <v>0</v>
       </c>
@@ -7505,18 +7506,18 @@
       <c r="R33" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S33" s="36">
-        <v>0</v>
-      </c>
-      <c r="T33" s="36">
-        <v>0</v>
-      </c>
-      <c r="U33" s="36">
+      <c r="S33" s="22">
+        <v>0</v>
+      </c>
+      <c r="T33" s="22">
+        <v>0</v>
+      </c>
+      <c r="U33" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="24" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -7570,30 +7571,30 @@
       <c r="R34" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S34" s="36" t="s">
+      <c r="S34" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="T34" s="36" t="s">
+      <c r="T34" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="U34" s="36" t="s">
+      <c r="U34" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="26" t="s">
         <v>96</v>
       </c>
       <c r="F35" s="21">
@@ -7635,18 +7636,18 @@
       <c r="R35" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S35" s="36" t="s">
+      <c r="S35" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="T35" s="36" t="s">
+      <c r="T35" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="U35" s="36" t="s">
+      <c r="U35" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="21">
@@ -7700,18 +7701,18 @@
       <c r="R36" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S36" s="36" t="s">
+      <c r="S36" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="T36" s="36" t="s">
+      <c r="T36" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="U36" s="36" t="s">
+      <c r="U36" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B37" s="21">
@@ -7765,18 +7766,18 @@
       <c r="R37" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S37" s="36" t="s">
+      <c r="S37" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="T37" s="36" t="s">
+      <c r="T37" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="U37" s="36" t="s">
+      <c r="U37" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -7818,7 +7819,7 @@
       <c r="N38" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O38" s="40">
+      <c r="O38" s="26">
         <v>0</v>
       </c>
       <c r="P38" s="21">
@@ -7830,12 +7831,12 @@
       <c r="R38" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B39" s="21">
@@ -7889,12 +7890,12 @@
       <c r="R39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-    </row>
-    <row r="40" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+    </row>
+    <row r="40" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -7948,273 +7949,273 @@
       <c r="R40" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="S40" s="36" t="s">
+      <c r="S40" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="T40" s="36">
-        <v>0</v>
-      </c>
-      <c r="U40" s="36">
+      <c r="T40" s="22">
+        <v>0</v>
+      </c>
+      <c r="U40" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="22">
-        <v>0</v>
-      </c>
-      <c r="C41" s="22">
-        <v>0</v>
-      </c>
-      <c r="D41" s="22">
-        <v>0</v>
-      </c>
-      <c r="E41" s="22">
-        <v>0</v>
-      </c>
-      <c r="F41" s="22">
-        <v>0</v>
-      </c>
-      <c r="G41" s="22">
-        <v>0</v>
-      </c>
-      <c r="H41" s="22">
-        <v>0</v>
-      </c>
-      <c r="I41" s="22">
-        <v>0</v>
-      </c>
-      <c r="J41" s="22">
-        <v>0</v>
-      </c>
-      <c r="K41" s="22">
-        <v>0</v>
-      </c>
-      <c r="L41" s="22">
-        <v>0</v>
-      </c>
-      <c r="M41" s="22">
-        <v>0</v>
-      </c>
-      <c r="N41" s="22" t="s">
+      <c r="B41" s="21">
+        <v>0</v>
+      </c>
+      <c r="C41" s="21">
+        <v>0</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0</v>
+      </c>
+      <c r="E41" s="21">
+        <v>0</v>
+      </c>
+      <c r="F41" s="21">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21">
+        <v>0</v>
+      </c>
+      <c r="H41" s="21">
+        <v>0</v>
+      </c>
+      <c r="I41" s="21">
+        <v>0</v>
+      </c>
+      <c r="J41" s="21">
+        <v>0</v>
+      </c>
+      <c r="K41" s="21">
+        <v>0</v>
+      </c>
+      <c r="L41" s="21">
+        <v>0</v>
+      </c>
+      <c r="M41" s="21">
+        <v>0</v>
+      </c>
+      <c r="N41" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="O41" s="22">
-        <v>0</v>
-      </c>
-      <c r="P41" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="22">
-        <v>0</v>
-      </c>
-      <c r="R41" s="22">
-        <v>0</v>
-      </c>
-      <c r="S41" s="22">
-        <v>0</v>
-      </c>
-      <c r="T41" s="22">
-        <v>0</v>
-      </c>
-      <c r="U41" s="22">
+      <c r="O41" s="21">
+        <v>0</v>
+      </c>
+      <c r="P41" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="21">
+        <v>0</v>
+      </c>
+      <c r="R41" s="21">
+        <v>0</v>
+      </c>
+      <c r="S41" s="21">
+        <v>0</v>
+      </c>
+      <c r="T41" s="21">
+        <v>0</v>
+      </c>
+      <c r="U41" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="22">
-        <v>0</v>
-      </c>
-      <c r="C42" s="22" t="s">
+      <c r="B42" s="21">
+        <v>0</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="22">
-        <v>0</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="D42" s="21">
+        <v>0</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="22">
-        <v>0</v>
-      </c>
-      <c r="G42" s="22" t="s">
+      <c r="F42" s="21">
+        <v>0</v>
+      </c>
+      <c r="G42" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K42" s="22" t="s">
+      <c r="K42" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="22" t="s">
+      <c r="L42" s="21">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M42" s="22" t="s">
+      <c r="N42" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="N42" s="22" t="s">
+      <c r="O42" s="21">
+        <v>0</v>
+      </c>
+      <c r="P42" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="R42" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="S42" s="22">
+        <v>0</v>
+      </c>
+      <c r="T42" s="22">
+        <v>0</v>
+      </c>
+      <c r="U42" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="O42" s="22">
-        <v>0</v>
-      </c>
-      <c r="P42" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="R42" s="22" t="s">
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="21">
+        <v>0</v>
+      </c>
+      <c r="C43" s="21">
+        <v>0</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0</v>
+      </c>
+      <c r="E43" s="21">
+        <v>0</v>
+      </c>
+      <c r="F43" s="21">
+        <v>0</v>
+      </c>
+      <c r="G43" s="21">
+        <v>0</v>
+      </c>
+      <c r="H43" s="21">
+        <v>0</v>
+      </c>
+      <c r="I43" s="21">
+        <v>0</v>
+      </c>
+      <c r="J43" s="21">
+        <v>0</v>
+      </c>
+      <c r="K43" s="21">
+        <v>0</v>
+      </c>
+      <c r="L43" s="21">
+        <v>0</v>
+      </c>
+      <c r="M43" s="21">
+        <v>0</v>
+      </c>
+      <c r="N43" s="21">
+        <v>0</v>
+      </c>
+      <c r="O43" s="21">
+        <v>0</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q43" s="21">
+        <v>0</v>
+      </c>
+      <c r="R43" s="21">
+        <v>0</v>
+      </c>
+      <c r="S43" s="21">
+        <v>0</v>
+      </c>
+      <c r="T43" s="21">
+        <v>0</v>
+      </c>
+      <c r="U43" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="S42" s="20">
-        <v>0</v>
-      </c>
-      <c r="T42" s="20">
-        <v>0</v>
-      </c>
-      <c r="U42" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="22">
-        <v>0</v>
-      </c>
-      <c r="C43" s="22">
-        <v>0</v>
-      </c>
-      <c r="D43" s="22">
-        <v>0</v>
-      </c>
-      <c r="E43" s="22">
-        <v>0</v>
-      </c>
-      <c r="F43" s="22">
-        <v>0</v>
-      </c>
-      <c r="G43" s="22">
-        <v>0</v>
-      </c>
-      <c r="H43" s="22">
-        <v>0</v>
-      </c>
-      <c r="I43" s="22">
-        <v>0</v>
-      </c>
-      <c r="J43" s="22">
-        <v>0</v>
-      </c>
-      <c r="K43" s="22">
-        <v>0</v>
-      </c>
-      <c r="L43" s="22">
-        <v>0</v>
-      </c>
-      <c r="M43" s="22">
-        <v>0</v>
-      </c>
-      <c r="N43" s="22">
-        <v>0</v>
-      </c>
-      <c r="O43" s="22">
-        <v>0</v>
-      </c>
-      <c r="P43" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q43" s="22">
-        <v>0</v>
-      </c>
-      <c r="R43" s="22">
-        <v>0</v>
-      </c>
-      <c r="S43" s="22">
-        <v>0</v>
-      </c>
-      <c r="T43" s="22">
-        <v>0</v>
-      </c>
-      <c r="U43" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="22" t="s">
+      <c r="O44" s="21">
+        <v>0</v>
+      </c>
+      <c r="P44" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q44" s="21">
+        <v>0</v>
+      </c>
+      <c r="R44" s="21">
+        <v>0</v>
+      </c>
+      <c r="S44" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="T44" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="M44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="N44" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="O44" s="22">
-        <v>0</v>
-      </c>
-      <c r="P44" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q44" s="22">
-        <v>0</v>
-      </c>
-      <c r="R44" s="22">
-        <v>0</v>
-      </c>
-      <c r="S44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="T44" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="U44" s="22" t="s">
+      <c r="U44" s="21" t="s">
         <v>98</v>
       </c>
     </row>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="tests" sheetId="1" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
-    <sheet name="ht paths" sheetId="3" r:id="rId3"/>
+    <sheet name="tests_8nodes" sheetId="1" r:id="rId1"/>
+    <sheet name="test_20nodes" sheetId="4" r:id="rId2"/>
+    <sheet name="data" sheetId="2" r:id="rId3"/>
+    <sheet name="ht paths" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="130">
   <si>
     <t>Battery Front</t>
   </si>
@@ -335,6 +336,87 @@
   </si>
   <si>
     <t>Platem</t>
+  </si>
+  <si>
+    <t>ESC_Mount</t>
+  </si>
+  <si>
+    <t>Plate Top</t>
+  </si>
+  <si>
+    <t>Plate Middle</t>
+  </si>
+  <si>
+    <t>Plate Bottom</t>
+  </si>
+  <si>
+    <t>Top Shell External</t>
+  </si>
+  <si>
+    <t>Bottom Shell Internal</t>
+  </si>
+  <si>
+    <t>Bottom Shell External</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emissivity </t>
+  </si>
+  <si>
+    <t>Thermal conductivity of shell (k) : 1 W/mk (CFRP),</t>
+  </si>
+  <si>
+    <t>Emissivity (Shell Int)</t>
+  </si>
+  <si>
+    <t>Thermal conductivity of shell (k) : 1 W/mk, (CFRP)</t>
+  </si>
+  <si>
+    <t>Running Time (T) : 14 days</t>
+  </si>
+  <si>
+    <t>Initial Temperature: 305 K (32C),</t>
+  </si>
+  <si>
+    <t>Ambient temperature: 287.34K (14C) (Temp at alt 0.125 km)</t>
+  </si>
+  <si>
+    <t>As we can see when we reduce the emissivity of the internal shell the temperature inside the nacelle rises, the ambient temperature was set on the basis of altitude we were simulating at through an automated excel file and we took initial temperature higher than the ambient temp to avoid a theral shock to the the solver which is a issue we've been facing a lot since the start of scale up of the number of nodes</t>
+  </si>
+  <si>
+    <t>Thermal conductivity of shell (k)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As we can see there is a drastic decrease when we increased the thermal conductivity but the results are more or less similar to our normal conduction which indicated that where a very good insulator is bad for our nacelle a very good conductor is not something we need too, there were observations of thermal shock in esc in day 1 most probably due to such low mC but later it retained steady state </t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Thickness of Shell</t>
+  </si>
+  <si>
+    <t>As we can observe when we increase the thickness the temp inside the nacelle increases a striking difference between internal and external shell temp is observed making it quite clear that as we increase our thickness nacelle insides becomes hotter</t>
+  </si>
+  <si>
+    <t>Result 1 – Effect of forced convection</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>As we can observe there is a decrease of around 10 degrees in every component when we introduced a velocity of 8m/s</t>
+  </si>
+  <si>
+    <t>Result 2 – Aerogel Induced working Temperatures</t>
+  </si>
+  <si>
+    <t>Thermal conductivity of shell (k) : 0.0015 W/mk, (CFRP)</t>
+  </si>
+  <si>
+    <t>Emissivity of shell : 0.2</t>
+  </si>
+  <si>
+    <t>Even though the temp is abnormally high it completely makes sense we increased the thickness hence reducing the conduction btw internal and external shell, we reduced the emissivity decreasing the ability of other components to pass on heat to the internal shell for dissipation to the atmosphere and we reduced the thermal conductivity which makes it even more difficult for the heat retained by internal shell to be passed on to external shell hence leading to extreme temp inside the nacelle whereas the outside is cool due to external convection and radiation</t>
   </si>
 </sst>
 </file>
@@ -424,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -489,11 +571,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -547,17 +642,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -577,19 +670,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,13 +995,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="I175" sqref="I175"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
@@ -897,14 +1020,14 @@
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="8" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -922,19 +1045,19 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
@@ -982,25 +1105,25 @@
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="27">
+        <v>110</v>
+      </c>
+      <c r="F6" s="30">
         <v>0.05</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30">
         <v>0.75</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="32"/>
-      <c r="K6" s="27">
+      <c r="K6" s="30">
         <v>0.05</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27">
+      <c r="L6" s="30"/>
+      <c r="M6" s="30">
         <v>0.75</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="35"/>
       <c r="P6" s="36"/>
     </row>
@@ -1368,19 +1491,19 @@
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
@@ -1430,23 +1553,23 @@
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="30">
         <v>1E-3</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27">
+      <c r="G22" s="30"/>
+      <c r="H22" s="30">
         <v>400</v>
       </c>
-      <c r="I22" s="27"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="32"/>
-      <c r="K22" s="27">
+      <c r="K22" s="30">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27">
+      <c r="L22" s="30"/>
+      <c r="M22" s="30">
         <v>400</v>
       </c>
-      <c r="N22" s="27"/>
+      <c r="N22" s="30"/>
       <c r="O22" s="35"/>
       <c r="P22" s="36"/>
     </row>
@@ -1814,19 +1937,19 @@
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="38" t="s">
+      <c r="K36" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
@@ -1874,25 +1997,25 @@
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
       <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="27">
+        <v>120</v>
+      </c>
+      <c r="F38" s="30">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27">
+      <c r="G38" s="30"/>
+      <c r="H38" s="30">
         <v>0.05</v>
       </c>
-      <c r="I38" s="27"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="27">
+      <c r="K38" s="30">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27">
+      <c r="L38" s="30"/>
+      <c r="M38" s="30">
         <v>0.05</v>
       </c>
-      <c r="N38" s="27"/>
+      <c r="N38" s="30"/>
       <c r="O38" s="35"/>
       <c r="P38" s="36"/>
     </row>
@@ -2265,19 +2388,19 @@
       <c r="E53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="38" t="s">
+      <c r="K53" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
@@ -2327,23 +2450,23 @@
       <c r="E55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27" t="s">
+      <c r="G55" s="30"/>
+      <c r="H55" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I55" s="27"/>
+      <c r="I55" s="30"/>
       <c r="J55" s="32"/>
-      <c r="K55" s="27" t="s">
+      <c r="K55" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27" t="s">
+      <c r="L55" s="30"/>
+      <c r="M55" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="27"/>
+      <c r="N55" s="30"/>
       <c r="O55" s="35"/>
       <c r="P55" s="36"/>
     </row>
@@ -2716,19 +2839,19 @@
       <c r="E70" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="38" t="s">
+      <c r="F70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
       <c r="J70" s="10"/>
-      <c r="K70" s="38" t="s">
+      <c r="K70" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
@@ -2778,23 +2901,23 @@
       <c r="E72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27" t="s">
+      <c r="G72" s="30"/>
+      <c r="H72" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I72" s="27"/>
+      <c r="I72" s="30"/>
       <c r="J72" s="32"/>
-      <c r="K72" s="27" t="s">
+      <c r="K72" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27" t="s">
+      <c r="L72" s="30"/>
+      <c r="M72" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="N72" s="27"/>
+      <c r="N72" s="30"/>
       <c r="O72" s="35"/>
       <c r="P72" s="36"/>
     </row>
@@ -3183,19 +3306,19 @@
       <c r="E88" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F88" s="38" t="s">
+      <c r="F88" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
       <c r="J88" s="10"/>
-      <c r="K88" s="38" t="s">
+      <c r="K88" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
     </row>
@@ -3245,23 +3368,23 @@
       <c r="E90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="27" t="s">
+      <c r="F90" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27" t="s">
+      <c r="G90" s="30"/>
+      <c r="H90" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I90" s="27"/>
+      <c r="I90" s="30"/>
       <c r="J90" s="32"/>
-      <c r="K90" s="27" t="s">
+      <c r="K90" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27" t="s">
+      <c r="L90" s="30"/>
+      <c r="M90" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="N90" s="27"/>
+      <c r="N90" s="30"/>
       <c r="O90" s="35"/>
       <c r="P90" s="36"/>
     </row>
@@ -3618,17 +3741,17 @@
       <c r="E104" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F104" s="38" t="s">
+      <c r="F104" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="38"/>
-      <c r="K104" s="38"/>
-      <c r="L104" s="38"/>
-      <c r="M104" s="38"/>
-      <c r="N104" s="38"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
     </row>
@@ -3678,23 +3801,23 @@
       <c r="E106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F106" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27" t="s">
+      <c r="G106" s="30"/>
+      <c r="H106" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I106" s="27"/>
+      <c r="I106" s="30"/>
       <c r="J106" s="32"/>
-      <c r="K106" s="27" t="s">
+      <c r="K106" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27" t="s">
+      <c r="L106" s="30"/>
+      <c r="M106" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="N106" s="27"/>
+      <c r="N106" s="30"/>
       <c r="O106" s="35"/>
       <c r="P106" s="36"/>
     </row>
@@ -4072,12 +4195,12 @@
       <c r="E123" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F123" s="38" t="s">
+      <c r="F123" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
       <c r="J123" s="10"/>
       <c r="K123" s="13" t="s">
         <v>61</v>
@@ -4134,23 +4257,23 @@
       <c r="E125" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F125" s="27">
+      <c r="F125" s="30">
         <v>0.05</v>
       </c>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27">
+      <c r="G125" s="30"/>
+      <c r="H125" s="30">
         <v>0.75</v>
       </c>
-      <c r="I125" s="27"/>
+      <c r="I125" s="30"/>
       <c r="J125" s="32"/>
-      <c r="K125" s="27">
+      <c r="K125" s="30">
         <v>0.05</v>
       </c>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27">
+      <c r="L125" s="30"/>
+      <c r="M125" s="30">
         <v>0.75</v>
       </c>
-      <c r="N125" s="27"/>
+      <c r="N125" s="30"/>
       <c r="O125" s="35" t="s">
         <v>72</v>
       </c>
@@ -4539,45 +4662,45 @@
       <c r="E139" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F139" s="30" t="s">
+      <c r="F139" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="30"/>
-      <c r="K139" s="30" t="s">
+      <c r="G139" s="37"/>
+      <c r="H139" s="37"/>
+      <c r="I139" s="37"/>
+      <c r="K139" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="L139" s="30"/>
-      <c r="M139" s="30"/>
-      <c r="N139" s="30"/>
+      <c r="L139" s="37"/>
+      <c r="M139" s="37"/>
+      <c r="N139" s="37"/>
     </row>
     <row r="140" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E140" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="30"/>
-      <c r="I140" s="30"/>
-      <c r="K140" s="30"/>
-      <c r="L140" s="30"/>
-      <c r="M140" s="30"/>
-      <c r="N140" s="30"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="37"/>
+      <c r="I140" s="37"/>
+      <c r="K140" s="37"/>
+      <c r="L140" s="37"/>
+      <c r="M140" s="37"/>
+      <c r="N140" s="37"/>
     </row>
     <row r="141" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E141" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F141" s="30"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="30"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="37"/>
+      <c r="I141" s="37"/>
       <c r="J141" s="1"/>
-      <c r="K141" s="30"/>
-      <c r="L141" s="30"/>
-      <c r="M141" s="30"/>
-      <c r="N141" s="30"/>
+      <c r="K141" s="37"/>
+      <c r="L141" s="37"/>
+      <c r="M141" s="37"/>
+      <c r="N141" s="37"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
     </row>
@@ -4627,23 +4750,23 @@
       <c r="E143" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F143" s="27" t="s">
+      <c r="F143" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27" t="s">
+      <c r="G143" s="30"/>
+      <c r="H143" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I143" s="27"/>
+      <c r="I143" s="30"/>
       <c r="J143" s="32"/>
-      <c r="K143" s="27" t="s">
+      <c r="K143" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L143" s="27"/>
-      <c r="M143" s="27" t="s">
+      <c r="L143" s="30"/>
+      <c r="M143" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="N143" s="27"/>
+      <c r="N143" s="30"/>
       <c r="O143" s="35"/>
       <c r="P143" s="36"/>
     </row>
@@ -5027,45 +5150,45 @@
       <c r="E156" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F156" s="30" t="s">
+      <c r="F156" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="30"/>
-      <c r="K156" s="30" t="s">
+      <c r="G156" s="37"/>
+      <c r="H156" s="37"/>
+      <c r="I156" s="37"/>
+      <c r="K156" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="L156" s="30"/>
-      <c r="M156" s="30"/>
-      <c r="N156" s="30"/>
+      <c r="L156" s="37"/>
+      <c r="M156" s="37"/>
+      <c r="N156" s="37"/>
     </row>
     <row r="157" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E157" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="30"/>
-      <c r="K157" s="30"/>
-      <c r="L157" s="30"/>
-      <c r="M157" s="30"/>
-      <c r="N157" s="30"/>
+      <c r="F157" s="37"/>
+      <c r="G157" s="37"/>
+      <c r="H157" s="37"/>
+      <c r="I157" s="37"/>
+      <c r="K157" s="37"/>
+      <c r="L157" s="37"/>
+      <c r="M157" s="37"/>
+      <c r="N157" s="37"/>
     </row>
     <row r="158" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E158" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="30"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="37"/>
+      <c r="H158" s="37"/>
+      <c r="I158" s="37"/>
       <c r="J158" s="1"/>
-      <c r="K158" s="30"/>
-      <c r="L158" s="30"/>
-      <c r="M158" s="30"/>
-      <c r="N158" s="30"/>
+      <c r="K158" s="37"/>
+      <c r="L158" s="37"/>
+      <c r="M158" s="37"/>
+      <c r="N158" s="37"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
     </row>
@@ -5078,23 +5201,23 @@
       <c r="E159" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F159" s="37" t="s">
+      <c r="F159" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G159" s="37"/>
-      <c r="H159" s="37" t="s">
+      <c r="G159" s="39"/>
+      <c r="H159" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I159" s="37"/>
+      <c r="I159" s="39"/>
       <c r="J159" s="32"/>
-      <c r="K159" s="37" t="s">
+      <c r="K159" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L159" s="37"/>
-      <c r="M159" s="37" t="s">
+      <c r="L159" s="39"/>
+      <c r="M159" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N159" s="37"/>
+      <c r="N159" s="39"/>
       <c r="O159" s="33" t="s">
         <v>12</v>
       </c>
@@ -5107,19 +5230,19 @@
       <c r="E160" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F160" s="27" t="s">
+      <c r="F160" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="30"/>
       <c r="J160" s="32"/>
-      <c r="K160" s="27" t="s">
+      <c r="K160" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="L160" s="27"/>
-      <c r="M160" s="27"/>
-      <c r="N160" s="27"/>
+      <c r="L160" s="30"/>
+      <c r="M160" s="30"/>
+      <c r="N160" s="30"/>
       <c r="O160" s="35"/>
       <c r="P160" s="36"/>
     </row>
@@ -5130,25 +5253,25 @@
       <c r="E161" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F161" s="28">
+      <c r="F161" s="38">
         <v>342.04</v>
       </c>
-      <c r="G161" s="28"/>
-      <c r="H161" s="29">
+      <c r="G161" s="38"/>
+      <c r="H161" s="40">
         <f>F161-273.15</f>
         <v>68.890000000000043</v>
       </c>
-      <c r="I161" s="29"/>
+      <c r="I161" s="40"/>
       <c r="J161" s="32"/>
-      <c r="K161" s="28">
+      <c r="K161" s="38">
         <v>322.26</v>
       </c>
-      <c r="L161" s="28"/>
-      <c r="M161" s="29">
+      <c r="L161" s="38"/>
+      <c r="M161" s="40">
         <f>K161-273.15</f>
         <v>49.110000000000014</v>
       </c>
-      <c r="N161" s="29"/>
+      <c r="N161" s="40"/>
       <c r="O161" s="35"/>
       <c r="P161" s="36"/>
     </row>
@@ -5159,25 +5282,25 @@
       <c r="E162" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F162" s="28">
+      <c r="F162" s="38">
         <v>319.17</v>
       </c>
-      <c r="G162" s="28"/>
-      <c r="H162" s="29">
+      <c r="G162" s="38"/>
+      <c r="H162" s="40">
         <f>F162-273.15</f>
         <v>46.020000000000039</v>
       </c>
-      <c r="I162" s="29"/>
+      <c r="I162" s="40"/>
       <c r="J162" s="32"/>
-      <c r="K162" s="28">
+      <c r="K162" s="38">
         <v>301.64999999999998</v>
       </c>
-      <c r="L162" s="28"/>
-      <c r="M162" s="29">
+      <c r="L162" s="38"/>
+      <c r="M162" s="40">
         <f>K162-273.15</f>
         <v>28.5</v>
       </c>
-      <c r="N162" s="29"/>
+      <c r="N162" s="40"/>
       <c r="O162" s="35"/>
       <c r="P162" s="36"/>
     </row>
@@ -5188,25 +5311,25 @@
       <c r="E163" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F163" s="28">
+      <c r="F163" s="38">
         <v>317.06</v>
       </c>
-      <c r="G163" s="28"/>
-      <c r="H163" s="29">
+      <c r="G163" s="38"/>
+      <c r="H163" s="40">
         <f t="shared" ref="H163:H170" si="37">F163-273.15</f>
         <v>43.910000000000025</v>
       </c>
-      <c r="I163" s="29"/>
+      <c r="I163" s="40"/>
       <c r="J163" s="32"/>
-      <c r="K163" s="28">
+      <c r="K163" s="38">
         <v>298.48</v>
       </c>
-      <c r="L163" s="28"/>
-      <c r="M163" s="29">
+      <c r="L163" s="38"/>
+      <c r="M163" s="40">
         <f t="shared" ref="M163" si="38">K163-273.15</f>
         <v>25.330000000000041</v>
       </c>
-      <c r="N163" s="29"/>
+      <c r="N163" s="40"/>
       <c r="O163" s="35"/>
       <c r="P163" s="36"/>
     </row>
@@ -5217,24 +5340,24 @@
       <c r="E164" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F164" s="28" t="s">
+      <c r="F164" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="G164" s="28"/>
-      <c r="H164" s="29" t="s">
+      <c r="G164" s="38"/>
+      <c r="H164" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I164" s="29"/>
+      <c r="I164" s="40"/>
       <c r="J164" s="32"/>
-      <c r="K164" s="28">
+      <c r="K164" s="38">
         <v>378.41</v>
       </c>
-      <c r="L164" s="28"/>
-      <c r="M164" s="29">
+      <c r="L164" s="38"/>
+      <c r="M164" s="40">
         <f>K164-273.15</f>
         <v>105.26000000000005</v>
       </c>
-      <c r="N164" s="29"/>
+      <c r="N164" s="40"/>
       <c r="O164" s="35"/>
       <c r="P164" s="36"/>
     </row>
@@ -5245,25 +5368,25 @@
       <c r="E165" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F165" s="28">
+      <c r="F165" s="38">
         <v>372.15</v>
       </c>
-      <c r="G165" s="28"/>
-      <c r="H165" s="29">
+      <c r="G165" s="38"/>
+      <c r="H165" s="40">
         <f t="shared" si="37"/>
         <v>99</v>
       </c>
-      <c r="I165" s="29"/>
+      <c r="I165" s="40"/>
       <c r="J165" s="32"/>
-      <c r="K165" s="28">
+      <c r="K165" s="38">
         <v>566.69000000000005</v>
       </c>
-      <c r="L165" s="28"/>
-      <c r="M165" s="29">
+      <c r="L165" s="38"/>
+      <c r="M165" s="40">
         <f>K165-273.15</f>
         <v>293.54000000000008</v>
       </c>
-      <c r="N165" s="29"/>
+      <c r="N165" s="40"/>
       <c r="O165" s="35"/>
       <c r="P165" s="36"/>
     </row>
@@ -5274,25 +5397,25 @@
       <c r="E166" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="28">
+      <c r="F166" s="38">
         <v>261.92</v>
       </c>
-      <c r="G166" s="28"/>
-      <c r="H166" s="29">
+      <c r="G166" s="38"/>
+      <c r="H166" s="40">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I166" s="29"/>
+      <c r="I166" s="40"/>
       <c r="J166" s="32"/>
-      <c r="K166" s="28">
+      <c r="K166" s="38">
         <v>270.13</v>
       </c>
-      <c r="L166" s="28"/>
-      <c r="M166" s="29">
+      <c r="L166" s="38"/>
+      <c r="M166" s="40">
         <f t="shared" ref="M166:M170" si="39">K166-273.15</f>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N166" s="29"/>
+      <c r="N166" s="40"/>
       <c r="O166" s="35"/>
       <c r="P166" s="36"/>
     </row>
@@ -5300,25 +5423,25 @@
       <c r="E167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F167" s="28">
+      <c r="F167" s="38">
         <v>214.52</v>
       </c>
-      <c r="G167" s="28"/>
-      <c r="H167" s="29">
+      <c r="G167" s="38"/>
+      <c r="H167" s="40">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I167" s="29"/>
+      <c r="I167" s="40"/>
       <c r="J167" s="32"/>
-      <c r="K167" s="28">
+      <c r="K167" s="38">
         <v>243.61</v>
       </c>
-      <c r="L167" s="28"/>
-      <c r="M167" s="29">
+      <c r="L167" s="38"/>
+      <c r="M167" s="40">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N167" s="29"/>
+      <c r="N167" s="40"/>
       <c r="O167" s="35"/>
       <c r="P167" s="36"/>
     </row>
@@ -5326,25 +5449,25 @@
       <c r="E168" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F168" s="28">
+      <c r="F168" s="38">
         <v>261.92</v>
       </c>
-      <c r="G168" s="28"/>
-      <c r="H168" s="29">
+      <c r="G168" s="38"/>
+      <c r="H168" s="40">
         <f t="shared" si="37"/>
         <v>-11.229999999999961</v>
       </c>
-      <c r="I168" s="29"/>
+      <c r="I168" s="40"/>
       <c r="J168" s="32"/>
-      <c r="K168" s="28">
+      <c r="K168" s="38">
         <v>270.13</v>
       </c>
-      <c r="L168" s="28"/>
-      <c r="M168" s="29">
+      <c r="L168" s="38"/>
+      <c r="M168" s="40">
         <f t="shared" si="39"/>
         <v>-3.0199999999999818</v>
       </c>
-      <c r="N168" s="29"/>
+      <c r="N168" s="40"/>
       <c r="O168" s="35"/>
       <c r="P168" s="36"/>
     </row>
@@ -5352,25 +5475,25 @@
       <c r="E169" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F169" s="28">
+      <c r="F169" s="38">
         <v>214.52</v>
       </c>
-      <c r="G169" s="28"/>
-      <c r="H169" s="29">
+      <c r="G169" s="38"/>
+      <c r="H169" s="40">
         <f t="shared" si="37"/>
         <v>-58.629999999999967</v>
       </c>
-      <c r="I169" s="29"/>
+      <c r="I169" s="40"/>
       <c r="J169" s="32"/>
-      <c r="K169" s="28">
+      <c r="K169" s="38">
         <v>243.61</v>
       </c>
-      <c r="L169" s="28"/>
-      <c r="M169" s="29">
+      <c r="L169" s="38"/>
+      <c r="M169" s="40">
         <f t="shared" si="39"/>
         <v>-29.539999999999964</v>
       </c>
-      <c r="N169" s="29"/>
+      <c r="N169" s="40"/>
       <c r="O169" s="35"/>
       <c r="P169" s="36"/>
     </row>
@@ -5378,25 +5501,25 @@
       <c r="E170" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F170" s="28">
+      <c r="F170" s="38">
         <v>305.83999999999997</v>
       </c>
-      <c r="G170" s="28"/>
-      <c r="H170" s="29">
+      <c r="G170" s="38"/>
+      <c r="H170" s="40">
         <f t="shared" si="37"/>
         <v>32.69</v>
       </c>
-      <c r="I170" s="29"/>
+      <c r="I170" s="40"/>
       <c r="J170" s="32"/>
-      <c r="K170" s="28">
+      <c r="K170" s="38">
         <v>301.44</v>
       </c>
-      <c r="L170" s="28"/>
-      <c r="M170" s="29">
+      <c r="L170" s="38"/>
+      <c r="M170" s="40">
         <f t="shared" si="39"/>
         <v>28.29000000000002</v>
       </c>
-      <c r="N170" s="29"/>
+      <c r="N170" s="40"/>
       <c r="O170" s="35"/>
       <c r="P170" s="36"/>
     </row>
@@ -5409,10 +5532,10 @@
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F173" s="27" t="s">
+      <c r="F173" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G173" s="27"/>
+      <c r="G173" s="30"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F174" s="15">
@@ -5497,6 +5620,123 @@
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="F156:I158"/>
+    <mergeCell ref="K156:N158"/>
+    <mergeCell ref="A159:C166"/>
+    <mergeCell ref="J159:J170"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="O159:P159"/>
+    <mergeCell ref="O160:P170"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F160:I160"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="K160:N160"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="A142:C149"/>
+    <mergeCell ref="J142:J153"/>
+    <mergeCell ref="O142:P142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="O143:P153"/>
+    <mergeCell ref="F139:I141"/>
+    <mergeCell ref="K139:N141"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="A124:C131"/>
+    <mergeCell ref="J124:J135"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="O125:P135"/>
+    <mergeCell ref="A105:C111"/>
+    <mergeCell ref="J105:J115"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="O106:P115"/>
+    <mergeCell ref="F104:N104"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:C95"/>
+    <mergeCell ref="J89:J99"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="O90:P99"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P64"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="A71:C77"/>
+    <mergeCell ref="J71:J81"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P81"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J5:J15"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="A54:C60"/>
+    <mergeCell ref="J54:J64"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="F6:G6"/>
@@ -5521,123 +5761,6 @@
     <mergeCell ref="O22:P31"/>
     <mergeCell ref="J21:J31"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="J5:J15"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="A54:C60"/>
-    <mergeCell ref="J54:J64"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P64"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="A71:C77"/>
-    <mergeCell ref="J71:J81"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P81"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="A89:C95"/>
-    <mergeCell ref="J89:J99"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="O90:P99"/>
-    <mergeCell ref="A105:C111"/>
-    <mergeCell ref="J105:J115"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="O106:P115"/>
-    <mergeCell ref="F104:N104"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="A124:C131"/>
-    <mergeCell ref="J124:J135"/>
-    <mergeCell ref="O124:P124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="O125:P135"/>
-    <mergeCell ref="A142:C149"/>
-    <mergeCell ref="J142:J153"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="O143:P153"/>
-    <mergeCell ref="F139:I141"/>
-    <mergeCell ref="K139:N141"/>
-    <mergeCell ref="O159:P159"/>
-    <mergeCell ref="O160:P170"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F160:I160"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="K160:N160"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="F156:I158"/>
-    <mergeCell ref="K156:N158"/>
-    <mergeCell ref="A159:C166"/>
-    <mergeCell ref="J159:J170"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5645,6 +5768,2772 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:L143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="N125" sqref="N125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="96.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="E9" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="51"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="E10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="47">
+        <v>324.61</v>
+      </c>
+      <c r="H10" s="48">
+        <f>G10-273.15</f>
+        <v>51.460000000000036</v>
+      </c>
+      <c r="I10" s="47">
+        <v>315.92</v>
+      </c>
+      <c r="J10" s="48">
+        <f>I10-273.15</f>
+        <v>42.770000000000039</v>
+      </c>
+      <c r="K10" s="50"/>
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="47">
+        <v>324.62</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" ref="H11:H29" si="0">G11-273.15</f>
+        <v>51.470000000000027</v>
+      </c>
+      <c r="I11" s="47">
+        <v>315.94</v>
+      </c>
+      <c r="J11" s="48">
+        <f t="shared" ref="J11:J29" si="1">I11-273.15</f>
+        <v>42.79000000000002</v>
+      </c>
+      <c r="K11" s="50"/>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="E12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="47">
+        <v>324.44</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="0"/>
+        <v>51.29000000000002</v>
+      </c>
+      <c r="I12" s="47">
+        <v>315.77</v>
+      </c>
+      <c r="J12" s="48">
+        <f t="shared" si="1"/>
+        <v>42.620000000000005</v>
+      </c>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="E13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="47">
+        <v>324.44</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="0"/>
+        <v>51.29000000000002</v>
+      </c>
+      <c r="I13" s="47">
+        <v>315.79000000000002</v>
+      </c>
+      <c r="J13" s="48">
+        <f t="shared" si="1"/>
+        <v>42.640000000000043</v>
+      </c>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="47">
+        <v>324.43</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="0"/>
+        <v>51.28000000000003</v>
+      </c>
+      <c r="I14" s="47">
+        <v>315.77</v>
+      </c>
+      <c r="J14" s="48">
+        <f t="shared" si="1"/>
+        <v>42.620000000000005</v>
+      </c>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="47">
+        <v>324.43</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="0"/>
+        <v>51.28000000000003</v>
+      </c>
+      <c r="I15" s="47">
+        <v>315.79000000000002</v>
+      </c>
+      <c r="J15" s="48">
+        <f t="shared" si="1"/>
+        <v>42.640000000000043</v>
+      </c>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="47">
+        <v>413.74</v>
+      </c>
+      <c r="H16" s="48">
+        <f t="shared" si="0"/>
+        <v>140.59000000000003</v>
+      </c>
+      <c r="I16" s="47">
+        <v>396.7</v>
+      </c>
+      <c r="J16" s="48">
+        <f t="shared" si="1"/>
+        <v>123.55000000000001</v>
+      </c>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="45"/>
+      <c r="G17" s="47">
+        <v>404.01</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="0"/>
+        <v>130.86000000000001</v>
+      </c>
+      <c r="I17" s="47">
+        <v>386.1</v>
+      </c>
+      <c r="J17" s="48">
+        <f t="shared" si="1"/>
+        <v>112.95000000000005</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="45"/>
+      <c r="G18" s="47">
+        <v>310.52999999999997</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" si="0"/>
+        <v>37.379999999999995</v>
+      </c>
+      <c r="I18" s="47">
+        <v>310.02999999999997</v>
+      </c>
+      <c r="J18" s="48">
+        <f t="shared" si="1"/>
+        <v>36.879999999999995</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="49">
+        <v>309.11</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="0"/>
+        <v>35.960000000000036</v>
+      </c>
+      <c r="I19" s="49">
+        <v>308.86</v>
+      </c>
+      <c r="J19" s="48">
+        <f t="shared" si="1"/>
+        <v>35.710000000000036</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="49">
+        <v>309.08999999999997</v>
+      </c>
+      <c r="H20" s="48">
+        <f t="shared" si="0"/>
+        <v>35.94</v>
+      </c>
+      <c r="I20" s="49">
+        <v>308.83999999999997</v>
+      </c>
+      <c r="J20" s="48">
+        <f t="shared" si="1"/>
+        <v>35.69</v>
+      </c>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="47">
+        <v>308.99</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="0"/>
+        <v>35.840000000000032</v>
+      </c>
+      <c r="I21" s="47">
+        <v>308.8</v>
+      </c>
+      <c r="J21" s="48">
+        <f t="shared" si="1"/>
+        <v>35.650000000000034</v>
+      </c>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="47">
+        <v>324.43</v>
+      </c>
+      <c r="H22" s="48">
+        <f t="shared" si="0"/>
+        <v>51.28000000000003</v>
+      </c>
+      <c r="I22" s="47">
+        <v>315.66000000000003</v>
+      </c>
+      <c r="J22" s="48">
+        <f t="shared" si="1"/>
+        <v>42.510000000000048</v>
+      </c>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="45"/>
+      <c r="G23" s="47">
+        <v>324.49</v>
+      </c>
+      <c r="H23" s="48">
+        <f t="shared" si="0"/>
+        <v>51.340000000000032</v>
+      </c>
+      <c r="I23" s="47">
+        <v>315.83</v>
+      </c>
+      <c r="J23" s="48">
+        <f t="shared" si="1"/>
+        <v>42.680000000000007</v>
+      </c>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="47">
+        <v>324.44</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="0"/>
+        <v>51.29000000000002</v>
+      </c>
+      <c r="I24" s="47">
+        <v>315.7</v>
+      </c>
+      <c r="J24" s="48">
+        <f t="shared" si="1"/>
+        <v>42.550000000000011</v>
+      </c>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="47">
+        <v>308.43</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="0"/>
+        <v>35.28000000000003</v>
+      </c>
+      <c r="I25" s="47">
+        <v>308.24</v>
+      </c>
+      <c r="J25" s="48">
+        <f t="shared" si="1"/>
+        <v>35.090000000000032</v>
+      </c>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="45"/>
+      <c r="G26" s="47">
+        <v>308.38</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="0"/>
+        <v>35.230000000000018</v>
+      </c>
+      <c r="I26" s="47">
+        <v>308.19</v>
+      </c>
+      <c r="J26" s="48">
+        <f t="shared" si="1"/>
+        <v>35.04000000000002</v>
+      </c>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="45"/>
+      <c r="G27" s="47">
+        <v>308.77</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="0"/>
+        <v>35.620000000000005</v>
+      </c>
+      <c r="I27" s="47">
+        <v>308.95999999999998</v>
+      </c>
+      <c r="J27" s="48">
+        <f t="shared" si="1"/>
+        <v>35.81</v>
+      </c>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="47">
+        <v>308.72000000000003</v>
+      </c>
+      <c r="H28" s="48">
+        <f t="shared" si="0"/>
+        <v>35.57000000000005</v>
+      </c>
+      <c r="I28" s="47">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="J28" s="48">
+        <f t="shared" si="1"/>
+        <v>35.75</v>
+      </c>
+      <c r="K28" s="50"/>
+      <c r="L28" s="51"/>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47">
+        <v>323.55</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="0"/>
+        <v>50.400000000000034</v>
+      </c>
+      <c r="I29" s="47">
+        <v>317.95999999999998</v>
+      </c>
+      <c r="J29" s="48">
+        <f t="shared" si="1"/>
+        <v>44.81</v>
+      </c>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
+    </row>
+    <row r="32" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E32" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E33" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="E36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="44"/>
+      <c r="G36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="34"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="E37" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="45"/>
+      <c r="G37" s="30">
+        <v>1E-3</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30">
+        <v>400</v>
+      </c>
+      <c r="J37" s="30"/>
+      <c r="K37" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" s="51"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="E38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="45"/>
+      <c r="G38" s="47">
+        <v>367.57</v>
+      </c>
+      <c r="H38" s="48">
+        <f>G38-273.15</f>
+        <v>94.420000000000016</v>
+      </c>
+      <c r="I38" s="47">
+        <v>315.79000000000002</v>
+      </c>
+      <c r="J38" s="48">
+        <f>I38-273.15</f>
+        <v>42.640000000000043</v>
+      </c>
+      <c r="K38" s="50"/>
+      <c r="L38" s="51"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="E39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="45"/>
+      <c r="G39" s="47">
+        <v>367.71</v>
+      </c>
+      <c r="H39" s="48">
+        <f t="shared" ref="H39:H57" si="2">G39-273.15</f>
+        <v>94.56</v>
+      </c>
+      <c r="I39" s="47">
+        <v>315.79000000000002</v>
+      </c>
+      <c r="J39" s="48">
+        <f t="shared" ref="J39:J57" si="3">I39-273.15</f>
+        <v>42.640000000000043</v>
+      </c>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="E40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="45"/>
+      <c r="G40" s="47">
+        <v>367.36</v>
+      </c>
+      <c r="H40" s="48">
+        <f t="shared" si="2"/>
+        <v>94.210000000000036</v>
+      </c>
+      <c r="I40" s="47">
+        <v>315.64</v>
+      </c>
+      <c r="J40" s="48">
+        <f t="shared" si="3"/>
+        <v>42.490000000000009</v>
+      </c>
+      <c r="K40" s="50"/>
+      <c r="L40" s="51"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="E41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="45"/>
+      <c r="G41" s="47">
+        <v>367.51</v>
+      </c>
+      <c r="H41" s="48">
+        <f t="shared" si="2"/>
+        <v>94.360000000000014</v>
+      </c>
+      <c r="I41" s="47">
+        <v>315.64</v>
+      </c>
+      <c r="J41" s="48">
+        <f t="shared" si="3"/>
+        <v>42.490000000000009</v>
+      </c>
+      <c r="K41" s="50"/>
+      <c r="L41" s="51"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="E42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="45"/>
+      <c r="G42" s="47">
+        <v>367.35</v>
+      </c>
+      <c r="H42" s="48">
+        <f t="shared" si="2"/>
+        <v>94.200000000000045</v>
+      </c>
+      <c r="I42" s="47">
+        <v>315.64</v>
+      </c>
+      <c r="J42" s="48">
+        <f t="shared" si="3"/>
+        <v>42.490000000000009</v>
+      </c>
+      <c r="K42" s="50"/>
+      <c r="L42" s="51"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="47">
+        <v>367.5</v>
+      </c>
+      <c r="H43" s="48">
+        <f t="shared" si="2"/>
+        <v>94.350000000000023</v>
+      </c>
+      <c r="I43" s="47">
+        <v>315.64</v>
+      </c>
+      <c r="J43" s="48">
+        <f t="shared" si="3"/>
+        <v>42.490000000000009</v>
+      </c>
+      <c r="K43" s="50"/>
+      <c r="L43" s="51"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="45"/>
+      <c r="G44" s="47">
+        <v>437.69</v>
+      </c>
+      <c r="H44" s="48">
+        <f t="shared" si="2"/>
+        <v>164.54000000000002</v>
+      </c>
+      <c r="I44" s="47">
+        <v>396.42</v>
+      </c>
+      <c r="J44" s="48">
+        <f t="shared" si="3"/>
+        <v>123.27000000000004</v>
+      </c>
+      <c r="K44" s="50"/>
+      <c r="L44" s="51"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="45"/>
+      <c r="G45" s="47">
+        <v>427.62</v>
+      </c>
+      <c r="H45" s="48">
+        <f t="shared" si="2"/>
+        <v>154.47000000000003</v>
+      </c>
+      <c r="I45" s="47">
+        <v>385.81</v>
+      </c>
+      <c r="J45" s="48">
+        <f t="shared" si="3"/>
+        <v>112.66000000000003</v>
+      </c>
+      <c r="K45" s="50"/>
+      <c r="L45" s="51"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="45"/>
+      <c r="G46" s="47">
+        <v>387.3</v>
+      </c>
+      <c r="H46" s="48">
+        <f t="shared" si="2"/>
+        <v>114.15000000000003</v>
+      </c>
+      <c r="I46" s="47">
+        <v>308.55</v>
+      </c>
+      <c r="J46" s="48">
+        <f t="shared" si="3"/>
+        <v>35.400000000000034</v>
+      </c>
+      <c r="K46" s="50"/>
+      <c r="L46" s="51"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="45"/>
+      <c r="G47" s="49">
+        <v>374.78</v>
+      </c>
+      <c r="H47" s="48">
+        <f t="shared" si="2"/>
+        <v>101.63</v>
+      </c>
+      <c r="I47" s="47">
+        <v>308.55</v>
+      </c>
+      <c r="J47" s="48">
+        <f t="shared" si="3"/>
+        <v>35.400000000000034</v>
+      </c>
+      <c r="K47" s="50"/>
+      <c r="L47" s="51"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="45"/>
+      <c r="G48" s="49">
+        <v>370.62</v>
+      </c>
+      <c r="H48" s="48">
+        <f t="shared" si="2"/>
+        <v>97.470000000000027</v>
+      </c>
+      <c r="I48" s="47">
+        <v>308.55</v>
+      </c>
+      <c r="J48" s="48">
+        <f t="shared" si="3"/>
+        <v>35.400000000000034</v>
+      </c>
+      <c r="K48" s="50"/>
+      <c r="L48" s="51"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="45"/>
+      <c r="G49" s="47">
+        <v>369.61</v>
+      </c>
+      <c r="H49" s="48">
+        <f t="shared" si="2"/>
+        <v>96.460000000000036</v>
+      </c>
+      <c r="I49" s="47">
+        <v>308.55</v>
+      </c>
+      <c r="J49" s="48">
+        <f t="shared" si="3"/>
+        <v>35.400000000000034</v>
+      </c>
+      <c r="K49" s="50"/>
+      <c r="L49" s="51"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="45"/>
+      <c r="G50" s="47">
+        <v>367.14</v>
+      </c>
+      <c r="H50" s="48">
+        <f t="shared" si="2"/>
+        <v>93.990000000000009</v>
+      </c>
+      <c r="I50" s="47">
+        <v>315.54000000000002</v>
+      </c>
+      <c r="J50" s="48">
+        <f t="shared" si="3"/>
+        <v>42.390000000000043</v>
+      </c>
+      <c r="K50" s="50"/>
+      <c r="L50" s="51"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="45"/>
+      <c r="G51" s="47">
+        <v>367.51</v>
+      </c>
+      <c r="H51" s="48">
+        <f t="shared" si="2"/>
+        <v>94.360000000000014</v>
+      </c>
+      <c r="I51" s="47">
+        <v>315.69</v>
+      </c>
+      <c r="J51" s="48">
+        <f t="shared" si="3"/>
+        <v>42.54000000000002</v>
+      </c>
+      <c r="K51" s="50"/>
+      <c r="L51" s="51"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="45"/>
+      <c r="G52" s="47">
+        <v>367.4</v>
+      </c>
+      <c r="H52" s="48">
+        <f t="shared" si="2"/>
+        <v>94.25</v>
+      </c>
+      <c r="I52" s="47">
+        <v>315.54000000000002</v>
+      </c>
+      <c r="J52" s="48">
+        <f t="shared" si="3"/>
+        <v>42.390000000000043</v>
+      </c>
+      <c r="K52" s="50"/>
+      <c r="L52" s="51"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="45"/>
+      <c r="G53" s="47">
+        <v>358.88</v>
+      </c>
+      <c r="H53" s="48">
+        <f t="shared" si="2"/>
+        <v>85.730000000000018</v>
+      </c>
+      <c r="I53" s="47">
+        <v>308.55</v>
+      </c>
+      <c r="J53" s="48">
+        <f t="shared" si="3"/>
+        <v>35.400000000000034</v>
+      </c>
+      <c r="K53" s="50"/>
+      <c r="L53" s="51"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="45"/>
+      <c r="G54" s="47">
+        <v>308.17</v>
+      </c>
+      <c r="H54" s="48">
+        <f t="shared" si="2"/>
+        <v>35.020000000000039</v>
+      </c>
+      <c r="I54" s="47">
+        <v>308.55</v>
+      </c>
+      <c r="J54" s="48">
+        <f t="shared" si="3"/>
+        <v>35.400000000000034</v>
+      </c>
+      <c r="K54" s="50"/>
+      <c r="L54" s="51"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="45"/>
+      <c r="G55" s="47">
+        <v>362.09</v>
+      </c>
+      <c r="H55" s="48">
+        <f t="shared" si="2"/>
+        <v>88.94</v>
+      </c>
+      <c r="I55" s="47">
+        <v>308.55</v>
+      </c>
+      <c r="J55" s="48">
+        <f t="shared" si="3"/>
+        <v>35.400000000000034</v>
+      </c>
+      <c r="K55" s="50"/>
+      <c r="L55" s="51"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="45"/>
+      <c r="G56" s="47">
+        <v>308.93</v>
+      </c>
+      <c r="H56" s="48">
+        <f t="shared" si="2"/>
+        <v>35.78000000000003</v>
+      </c>
+      <c r="I56" s="47">
+        <v>308.55</v>
+      </c>
+      <c r="J56" s="48">
+        <f t="shared" si="3"/>
+        <v>35.400000000000034</v>
+      </c>
+      <c r="K56" s="50"/>
+      <c r="L56" s="51"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="46"/>
+      <c r="G57" s="47">
+        <v>370.51</v>
+      </c>
+      <c r="H57" s="48">
+        <f t="shared" si="2"/>
+        <v>97.360000000000014</v>
+      </c>
+      <c r="I57" s="47">
+        <v>317.77</v>
+      </c>
+      <c r="J57" s="48">
+        <f t="shared" si="3"/>
+        <v>44.620000000000005</v>
+      </c>
+      <c r="K57" s="50"/>
+      <c r="L57" s="51"/>
+    </row>
+    <row r="60" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E60" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E63" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="E64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="44"/>
+      <c r="G64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="34"/>
+    </row>
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="E65" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" s="45"/>
+      <c r="G65" s="30">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="J65" s="30"/>
+      <c r="K65" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="L65" s="51"/>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="E66" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" s="45"/>
+      <c r="G66" s="47">
+        <v>315.92</v>
+      </c>
+      <c r="H66" s="48">
+        <f>G66-273.15</f>
+        <v>42.770000000000039</v>
+      </c>
+      <c r="I66" s="47">
+        <v>322.91000000000003</v>
+      </c>
+      <c r="J66" s="48">
+        <f>I66-273.15</f>
+        <v>49.760000000000048</v>
+      </c>
+      <c r="K66" s="50"/>
+      <c r="L66" s="51"/>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="E67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" s="45"/>
+      <c r="G67" s="47">
+        <v>315.94</v>
+      </c>
+      <c r="H67" s="48">
+        <f t="shared" ref="H67:H85" si="4">G67-273.15</f>
+        <v>42.79000000000002</v>
+      </c>
+      <c r="I67" s="47">
+        <v>323</v>
+      </c>
+      <c r="J67" s="48">
+        <f t="shared" ref="J67:J85" si="5">I67-273.15</f>
+        <v>49.850000000000023</v>
+      </c>
+      <c r="K67" s="50"/>
+      <c r="L67" s="51"/>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="E68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="45"/>
+      <c r="G68" s="47">
+        <v>315.77</v>
+      </c>
+      <c r="H68" s="48">
+        <f t="shared" si="4"/>
+        <v>42.620000000000005</v>
+      </c>
+      <c r="I68" s="47">
+        <v>322.74</v>
+      </c>
+      <c r="J68" s="48">
+        <f t="shared" si="5"/>
+        <v>49.590000000000032</v>
+      </c>
+      <c r="K68" s="50"/>
+      <c r="L68" s="51"/>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="E69" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" s="45"/>
+      <c r="G69" s="47">
+        <v>315.79000000000002</v>
+      </c>
+      <c r="H69" s="48">
+        <f t="shared" si="4"/>
+        <v>42.640000000000043</v>
+      </c>
+      <c r="I69" s="47">
+        <v>322.83</v>
+      </c>
+      <c r="J69" s="48">
+        <f t="shared" si="5"/>
+        <v>49.680000000000007</v>
+      </c>
+      <c r="K69" s="50"/>
+      <c r="L69" s="51"/>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="E70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="45"/>
+      <c r="G70" s="47">
+        <v>315.77</v>
+      </c>
+      <c r="H70" s="48">
+        <f t="shared" si="4"/>
+        <v>42.620000000000005</v>
+      </c>
+      <c r="I70" s="47">
+        <v>322.73</v>
+      </c>
+      <c r="J70" s="48">
+        <f t="shared" si="5"/>
+        <v>49.580000000000041</v>
+      </c>
+      <c r="K70" s="50"/>
+      <c r="L70" s="51"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" s="45"/>
+      <c r="G71" s="47">
+        <v>315.79000000000002</v>
+      </c>
+      <c r="H71" s="48">
+        <f t="shared" si="4"/>
+        <v>42.640000000000043</v>
+      </c>
+      <c r="I71" s="47">
+        <v>322.82</v>
+      </c>
+      <c r="J71" s="48">
+        <f t="shared" si="5"/>
+        <v>49.670000000000016</v>
+      </c>
+      <c r="K71" s="50"/>
+      <c r="L71" s="51"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="45"/>
+      <c r="G72" s="47">
+        <v>396.7</v>
+      </c>
+      <c r="H72" s="48">
+        <f t="shared" si="4"/>
+        <v>123.55000000000001</v>
+      </c>
+      <c r="I72" s="47">
+        <v>404.38</v>
+      </c>
+      <c r="J72" s="48">
+        <f t="shared" si="5"/>
+        <v>131.23000000000002</v>
+      </c>
+      <c r="K72" s="50"/>
+      <c r="L72" s="51"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F73" s="45"/>
+      <c r="G73" s="47">
+        <v>386.1</v>
+      </c>
+      <c r="H73" s="48">
+        <f t="shared" si="4"/>
+        <v>112.95000000000005</v>
+      </c>
+      <c r="I73" s="47">
+        <v>393.86</v>
+      </c>
+      <c r="J73" s="48">
+        <f t="shared" si="5"/>
+        <v>120.71000000000004</v>
+      </c>
+      <c r="K73" s="50"/>
+      <c r="L73" s="51"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" s="45"/>
+      <c r="G74" s="47">
+        <v>310.02999999999997</v>
+      </c>
+      <c r="H74" s="48">
+        <f t="shared" si="4"/>
+        <v>36.879999999999995</v>
+      </c>
+      <c r="I74" s="47">
+        <v>341.22</v>
+      </c>
+      <c r="J74" s="48">
+        <f t="shared" si="5"/>
+        <v>68.07000000000005</v>
+      </c>
+      <c r="K74" s="50"/>
+      <c r="L74" s="51"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="45"/>
+      <c r="G75" s="49">
+        <v>308.86</v>
+      </c>
+      <c r="H75" s="48">
+        <f t="shared" si="4"/>
+        <v>35.710000000000036</v>
+      </c>
+      <c r="I75" s="47">
+        <v>326.58</v>
+      </c>
+      <c r="J75" s="48">
+        <f t="shared" si="5"/>
+        <v>53.430000000000007</v>
+      </c>
+      <c r="K75" s="50"/>
+      <c r="L75" s="51"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E76" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" s="45"/>
+      <c r="G76" s="49">
+        <v>308.83999999999997</v>
+      </c>
+      <c r="H76" s="48">
+        <f t="shared" si="4"/>
+        <v>35.69</v>
+      </c>
+      <c r="I76" s="47">
+        <v>322.62</v>
+      </c>
+      <c r="J76" s="48">
+        <f t="shared" si="5"/>
+        <v>49.470000000000027</v>
+      </c>
+      <c r="K76" s="50"/>
+      <c r="L76" s="51"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" s="45"/>
+      <c r="G77" s="47">
+        <v>308.8</v>
+      </c>
+      <c r="H77" s="48">
+        <f t="shared" si="4"/>
+        <v>35.650000000000034</v>
+      </c>
+      <c r="I77" s="47">
+        <v>321.63</v>
+      </c>
+      <c r="J77" s="48">
+        <f t="shared" si="5"/>
+        <v>48.480000000000018</v>
+      </c>
+      <c r="K77" s="50"/>
+      <c r="L77" s="51"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78" s="45"/>
+      <c r="G78" s="47">
+        <v>315.66000000000003</v>
+      </c>
+      <c r="H78" s="48">
+        <f t="shared" si="4"/>
+        <v>42.510000000000048</v>
+      </c>
+      <c r="I78" s="47">
+        <v>322.56</v>
+      </c>
+      <c r="J78" s="48">
+        <f t="shared" si="5"/>
+        <v>49.410000000000025</v>
+      </c>
+      <c r="K78" s="50"/>
+      <c r="L78" s="51"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E79" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" s="45"/>
+      <c r="G79" s="47">
+        <v>315.83</v>
+      </c>
+      <c r="H79" s="48">
+        <f t="shared" si="4"/>
+        <v>42.680000000000007</v>
+      </c>
+      <c r="I79" s="47">
+        <v>322.85000000000002</v>
+      </c>
+      <c r="J79" s="48">
+        <f t="shared" si="5"/>
+        <v>49.700000000000045</v>
+      </c>
+      <c r="K79" s="50"/>
+      <c r="L79" s="51"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E80" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" s="45"/>
+      <c r="G80" s="47">
+        <v>315.7</v>
+      </c>
+      <c r="H80" s="48">
+        <f t="shared" si="4"/>
+        <v>42.550000000000011</v>
+      </c>
+      <c r="I80" s="47">
+        <v>322.72000000000003</v>
+      </c>
+      <c r="J80" s="48">
+        <f t="shared" si="5"/>
+        <v>49.57000000000005</v>
+      </c>
+      <c r="K80" s="50"/>
+      <c r="L80" s="51"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="45"/>
+      <c r="G81" s="47">
+        <v>308.24</v>
+      </c>
+      <c r="H81" s="48">
+        <f t="shared" si="4"/>
+        <v>35.090000000000032</v>
+      </c>
+      <c r="I81" s="47">
+        <v>312.27</v>
+      </c>
+      <c r="J81" s="48">
+        <f t="shared" si="5"/>
+        <v>39.120000000000005</v>
+      </c>
+      <c r="K81" s="50"/>
+      <c r="L81" s="51"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E82" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="45"/>
+      <c r="G82" s="47">
+        <v>308.19</v>
+      </c>
+      <c r="H82" s="48">
+        <f t="shared" si="4"/>
+        <v>35.04000000000002</v>
+      </c>
+      <c r="I82" s="47">
+        <v>307.44</v>
+      </c>
+      <c r="J82" s="48">
+        <f t="shared" si="5"/>
+        <v>34.29000000000002</v>
+      </c>
+      <c r="K82" s="50"/>
+      <c r="L82" s="51"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="45"/>
+      <c r="G83" s="47">
+        <v>308.95999999999998</v>
+      </c>
+      <c r="H83" s="48">
+        <f t="shared" si="4"/>
+        <v>35.81</v>
+      </c>
+      <c r="I83" s="47">
+        <v>315.2</v>
+      </c>
+      <c r="J83" s="48">
+        <f t="shared" si="5"/>
+        <v>42.050000000000011</v>
+      </c>
+      <c r="K83" s="50"/>
+      <c r="L83" s="51"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E84" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="45"/>
+      <c r="G84" s="47">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="H84" s="48">
+        <f t="shared" si="4"/>
+        <v>35.75</v>
+      </c>
+      <c r="I84" s="47">
+        <v>309.64</v>
+      </c>
+      <c r="J84" s="48">
+        <f t="shared" si="5"/>
+        <v>36.490000000000009</v>
+      </c>
+      <c r="K84" s="50"/>
+      <c r="L84" s="51"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="46"/>
+      <c r="G85" s="47">
+        <v>317.95999999999998</v>
+      </c>
+      <c r="H85" s="48">
+        <f t="shared" si="4"/>
+        <v>44.81</v>
+      </c>
+      <c r="I85" s="47">
+        <v>325.74</v>
+      </c>
+      <c r="J85" s="48">
+        <f t="shared" si="5"/>
+        <v>52.590000000000032</v>
+      </c>
+      <c r="K85" s="50"/>
+      <c r="L85" s="51"/>
+    </row>
+    <row r="88" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E88" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E89" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E90" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E91" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E92" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="E93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="44"/>
+      <c r="G93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93" s="34"/>
+    </row>
+    <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="E94" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J94" s="30"/>
+      <c r="K94" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="L94" s="51"/>
+    </row>
+    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="E95" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F95" s="45"/>
+      <c r="G95" s="47">
+        <v>315.92</v>
+      </c>
+      <c r="H95" s="48">
+        <f>G95-273.15</f>
+        <v>42.770000000000039</v>
+      </c>
+      <c r="I95" s="47">
+        <v>303.85000000000002</v>
+      </c>
+      <c r="J95" s="48">
+        <f>I95-273.15</f>
+        <v>30.700000000000045</v>
+      </c>
+      <c r="K95" s="50"/>
+      <c r="L95" s="51"/>
+    </row>
+    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="E96" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F96" s="45"/>
+      <c r="G96" s="47">
+        <v>315.94</v>
+      </c>
+      <c r="H96" s="48">
+        <f t="shared" ref="H96:H114" si="6">G96-273.15</f>
+        <v>42.79000000000002</v>
+      </c>
+      <c r="I96" s="47">
+        <v>303.86</v>
+      </c>
+      <c r="J96" s="48">
+        <f t="shared" ref="J96:J114" si="7">I96-273.15</f>
+        <v>30.710000000000036</v>
+      </c>
+      <c r="K96" s="50"/>
+      <c r="L96" s="51"/>
+    </row>
+    <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="E97" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97" s="45"/>
+      <c r="G97" s="47">
+        <v>315.77</v>
+      </c>
+      <c r="H97" s="48">
+        <f t="shared" si="6"/>
+        <v>42.620000000000005</v>
+      </c>
+      <c r="I97" s="47">
+        <v>303.70999999999998</v>
+      </c>
+      <c r="J97" s="48">
+        <f t="shared" si="7"/>
+        <v>30.560000000000002</v>
+      </c>
+      <c r="K97" s="50"/>
+      <c r="L97" s="51"/>
+    </row>
+    <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="31"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="E98" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F98" s="45"/>
+      <c r="G98" s="47">
+        <v>315.79000000000002</v>
+      </c>
+      <c r="H98" s="48">
+        <f t="shared" si="6"/>
+        <v>42.640000000000043</v>
+      </c>
+      <c r="I98" s="47">
+        <v>303.73</v>
+      </c>
+      <c r="J98" s="48">
+        <f t="shared" si="7"/>
+        <v>30.580000000000041</v>
+      </c>
+      <c r="K98" s="50"/>
+      <c r="L98" s="51"/>
+    </row>
+    <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="31"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="E99" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F99" s="45"/>
+      <c r="G99" s="47">
+        <v>315.77</v>
+      </c>
+      <c r="H99" s="48">
+        <f t="shared" si="6"/>
+        <v>42.620000000000005</v>
+      </c>
+      <c r="I99" s="47">
+        <v>303.70999999999998</v>
+      </c>
+      <c r="J99" s="48">
+        <f t="shared" si="7"/>
+        <v>30.560000000000002</v>
+      </c>
+      <c r="K99" s="50"/>
+      <c r="L99" s="51"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F100" s="45"/>
+      <c r="G100" s="47">
+        <v>315.79000000000002</v>
+      </c>
+      <c r="H100" s="48">
+        <f t="shared" si="6"/>
+        <v>42.640000000000043</v>
+      </c>
+      <c r="I100" s="47">
+        <v>303.73</v>
+      </c>
+      <c r="J100" s="48">
+        <f t="shared" si="7"/>
+        <v>30.580000000000041</v>
+      </c>
+      <c r="K100" s="50"/>
+      <c r="L100" s="51"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="45"/>
+      <c r="G101" s="47">
+        <v>396.7</v>
+      </c>
+      <c r="H101" s="48">
+        <f t="shared" si="6"/>
+        <v>123.55000000000001</v>
+      </c>
+      <c r="I101" s="47">
+        <v>386.15</v>
+      </c>
+      <c r="J101" s="48">
+        <f t="shared" si="7"/>
+        <v>113</v>
+      </c>
+      <c r="K101" s="50"/>
+      <c r="L101" s="51"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E102" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" s="45"/>
+      <c r="G102" s="47">
+        <v>386.1</v>
+      </c>
+      <c r="H102" s="48">
+        <f t="shared" si="6"/>
+        <v>112.95000000000005</v>
+      </c>
+      <c r="I102" s="47">
+        <v>375.66</v>
+      </c>
+      <c r="J102" s="48">
+        <f t="shared" si="7"/>
+        <v>102.51000000000005</v>
+      </c>
+      <c r="K102" s="50"/>
+      <c r="L102" s="51"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E103" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F103" s="45"/>
+      <c r="G103" s="47">
+        <v>310.02999999999997</v>
+      </c>
+      <c r="H103" s="48">
+        <f t="shared" si="6"/>
+        <v>36.879999999999995</v>
+      </c>
+      <c r="I103" s="47">
+        <v>297.2</v>
+      </c>
+      <c r="J103" s="48">
+        <f t="shared" si="7"/>
+        <v>24.050000000000011</v>
+      </c>
+      <c r="K103" s="50"/>
+      <c r="L103" s="51"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F104" s="45"/>
+      <c r="G104" s="49">
+        <v>308.86</v>
+      </c>
+      <c r="H104" s="48">
+        <f t="shared" si="6"/>
+        <v>35.710000000000036</v>
+      </c>
+      <c r="I104" s="47">
+        <v>296.02999999999997</v>
+      </c>
+      <c r="J104" s="48">
+        <f t="shared" si="7"/>
+        <v>22.879999999999995</v>
+      </c>
+      <c r="K104" s="50"/>
+      <c r="L104" s="51"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E105" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F105" s="45"/>
+      <c r="G105" s="49">
+        <v>308.83999999999997</v>
+      </c>
+      <c r="H105" s="48">
+        <f t="shared" si="6"/>
+        <v>35.69</v>
+      </c>
+      <c r="I105" s="47">
+        <v>296.02</v>
+      </c>
+      <c r="J105" s="48">
+        <f t="shared" si="7"/>
+        <v>22.870000000000005</v>
+      </c>
+      <c r="K105" s="50"/>
+      <c r="L105" s="51"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E106" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F106" s="45"/>
+      <c r="G106" s="47">
+        <v>308.8</v>
+      </c>
+      <c r="H106" s="48">
+        <f t="shared" si="6"/>
+        <v>35.650000000000034</v>
+      </c>
+      <c r="I106" s="47">
+        <v>295.98</v>
+      </c>
+      <c r="J106" s="48">
+        <f t="shared" si="7"/>
+        <v>22.830000000000041</v>
+      </c>
+      <c r="K106" s="50"/>
+      <c r="L106" s="51"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E107" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F107" s="45"/>
+      <c r="G107" s="47">
+        <v>315.66000000000003</v>
+      </c>
+      <c r="H107" s="48">
+        <f t="shared" si="6"/>
+        <v>42.510000000000048</v>
+      </c>
+      <c r="I107" s="47">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="J107" s="48">
+        <f t="shared" si="7"/>
+        <v>30.450000000000045</v>
+      </c>
+      <c r="K107" s="50"/>
+      <c r="L107" s="51"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E108" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F108" s="45"/>
+      <c r="G108" s="47">
+        <v>315.83</v>
+      </c>
+      <c r="H108" s="48">
+        <f t="shared" si="6"/>
+        <v>42.680000000000007</v>
+      </c>
+      <c r="I108" s="47">
+        <v>303.77</v>
+      </c>
+      <c r="J108" s="48">
+        <f t="shared" si="7"/>
+        <v>30.620000000000005</v>
+      </c>
+      <c r="K108" s="50"/>
+      <c r="L108" s="51"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E109" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="45"/>
+      <c r="G109" s="47">
+        <v>315.7</v>
+      </c>
+      <c r="H109" s="48">
+        <f t="shared" si="6"/>
+        <v>42.550000000000011</v>
+      </c>
+      <c r="I109" s="47">
+        <v>303.63</v>
+      </c>
+      <c r="J109" s="48">
+        <f t="shared" si="7"/>
+        <v>30.480000000000018</v>
+      </c>
+      <c r="K109" s="50"/>
+      <c r="L109" s="51"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="45"/>
+      <c r="G110" s="47">
+        <v>308.24</v>
+      </c>
+      <c r="H110" s="48">
+        <f t="shared" si="6"/>
+        <v>35.090000000000032</v>
+      </c>
+      <c r="I110" s="47">
+        <v>295.44</v>
+      </c>
+      <c r="J110" s="48">
+        <f t="shared" si="7"/>
+        <v>22.29000000000002</v>
+      </c>
+      <c r="K110" s="50"/>
+      <c r="L110" s="51"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E111" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111" s="45"/>
+      <c r="G111" s="47">
+        <v>308.19</v>
+      </c>
+      <c r="H111" s="48">
+        <f t="shared" si="6"/>
+        <v>35.04000000000002</v>
+      </c>
+      <c r="I111" s="47">
+        <v>295.39</v>
+      </c>
+      <c r="J111" s="48">
+        <f t="shared" si="7"/>
+        <v>22.240000000000009</v>
+      </c>
+      <c r="K111" s="50"/>
+      <c r="L111" s="51"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E112" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F112" s="45"/>
+      <c r="G112" s="47">
+        <v>308.95999999999998</v>
+      </c>
+      <c r="H112" s="48">
+        <f t="shared" si="6"/>
+        <v>35.81</v>
+      </c>
+      <c r="I112" s="47">
+        <v>296.06</v>
+      </c>
+      <c r="J112" s="48">
+        <f t="shared" si="7"/>
+        <v>22.910000000000025</v>
+      </c>
+      <c r="K112" s="50"/>
+      <c r="L112" s="51"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E113" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F113" s="45"/>
+      <c r="G113" s="47">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="H113" s="48">
+        <f t="shared" si="6"/>
+        <v>35.75</v>
+      </c>
+      <c r="I113" s="47">
+        <v>296.01</v>
+      </c>
+      <c r="J113" s="48">
+        <f t="shared" si="7"/>
+        <v>22.860000000000014</v>
+      </c>
+      <c r="K113" s="50"/>
+      <c r="L113" s="51"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E114" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F114" s="46"/>
+      <c r="G114" s="47">
+        <v>317.95999999999998</v>
+      </c>
+      <c r="H114" s="48">
+        <f t="shared" si="6"/>
+        <v>44.81</v>
+      </c>
+      <c r="I114" s="47">
+        <v>305.94</v>
+      </c>
+      <c r="J114" s="48">
+        <f t="shared" si="7"/>
+        <v>32.79000000000002</v>
+      </c>
+      <c r="K114" s="50"/>
+      <c r="L114" s="51"/>
+    </row>
+    <row r="117" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E117" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E118" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E119" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E120" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E121" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="E122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="44"/>
+      <c r="G122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L122" s="34"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="31"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="E123" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F123" s="45"/>
+      <c r="G123" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J123" s="30"/>
+      <c r="K123" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="L123" s="51"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="31"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="E124" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F124" s="45"/>
+      <c r="G124" s="47">
+        <v>657.35</v>
+      </c>
+      <c r="H124" s="48">
+        <f>G124-273.15</f>
+        <v>384.20000000000005</v>
+      </c>
+      <c r="I124" s="47">
+        <v>644.67999999999995</v>
+      </c>
+      <c r="J124" s="48">
+        <f>I124-273.15</f>
+        <v>371.53</v>
+      </c>
+      <c r="K124" s="50"/>
+      <c r="L124" s="51"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="31"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="E125" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F125" s="45"/>
+      <c r="G125" s="47">
+        <v>657.58</v>
+      </c>
+      <c r="H125" s="48">
+        <f t="shared" ref="H125:H143" si="8">G125-273.15</f>
+        <v>384.43000000000006</v>
+      </c>
+      <c r="I125" s="47">
+        <v>644.91</v>
+      </c>
+      <c r="J125" s="48">
+        <f t="shared" ref="J125:J143" si="9">I125-273.15</f>
+        <v>371.76</v>
+      </c>
+      <c r="K125" s="50"/>
+      <c r="L125" s="51"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="31"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="E126" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F126" s="45"/>
+      <c r="G126" s="47">
+        <v>657.04</v>
+      </c>
+      <c r="H126" s="48">
+        <f t="shared" si="8"/>
+        <v>383.89</v>
+      </c>
+      <c r="I126" s="47">
+        <v>644.37</v>
+      </c>
+      <c r="J126" s="48">
+        <f t="shared" si="9"/>
+        <v>371.22</v>
+      </c>
+      <c r="K126" s="50"/>
+      <c r="L126" s="51"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="31"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="E127" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F127" s="45"/>
+      <c r="G127" s="47">
+        <v>657.27</v>
+      </c>
+      <c r="H127" s="48">
+        <f t="shared" si="8"/>
+        <v>384.12</v>
+      </c>
+      <c r="I127" s="47">
+        <v>644.6</v>
+      </c>
+      <c r="J127" s="48">
+        <f t="shared" si="9"/>
+        <v>371.45000000000005</v>
+      </c>
+      <c r="K127" s="50"/>
+      <c r="L127" s="51"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="31"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="E128" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" s="45"/>
+      <c r="G128" s="47">
+        <v>657.02</v>
+      </c>
+      <c r="H128" s="48">
+        <f t="shared" si="8"/>
+        <v>383.87</v>
+      </c>
+      <c r="I128" s="47">
+        <v>644.34</v>
+      </c>
+      <c r="J128" s="48">
+        <f t="shared" si="9"/>
+        <v>371.19000000000005</v>
+      </c>
+      <c r="K128" s="50"/>
+      <c r="L128" s="51"/>
+    </row>
+    <row r="129" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E129" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F129" s="45"/>
+      <c r="G129" s="47">
+        <v>657.25</v>
+      </c>
+      <c r="H129" s="48">
+        <f t="shared" si="8"/>
+        <v>384.1</v>
+      </c>
+      <c r="I129" s="47">
+        <v>644.57000000000005</v>
+      </c>
+      <c r="J129" s="48">
+        <f t="shared" si="9"/>
+        <v>371.42000000000007</v>
+      </c>
+      <c r="K129" s="50"/>
+      <c r="L129" s="51"/>
+    </row>
+    <row r="130" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="45"/>
+      <c r="G130" s="47">
+        <v>682.88</v>
+      </c>
+      <c r="H130" s="48">
+        <f t="shared" si="8"/>
+        <v>409.73</v>
+      </c>
+      <c r="I130" s="47">
+        <v>671.34</v>
+      </c>
+      <c r="J130" s="48">
+        <f t="shared" si="9"/>
+        <v>398.19000000000005</v>
+      </c>
+      <c r="K130" s="50"/>
+      <c r="L130" s="51"/>
+    </row>
+    <row r="131" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E131" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F131" s="45"/>
+      <c r="G131" s="47">
+        <v>675.37</v>
+      </c>
+      <c r="H131" s="48">
+        <f t="shared" si="8"/>
+        <v>402.22</v>
+      </c>
+      <c r="I131" s="47">
+        <v>663.76</v>
+      </c>
+      <c r="J131" s="48">
+        <f t="shared" si="9"/>
+        <v>390.61</v>
+      </c>
+      <c r="K131" s="50"/>
+      <c r="L131" s="51"/>
+    </row>
+    <row r="132" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E132" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F132" s="45"/>
+      <c r="G132" s="47">
+        <v>663.56</v>
+      </c>
+      <c r="H132" s="48">
+        <f t="shared" si="8"/>
+        <v>390.40999999999997</v>
+      </c>
+      <c r="I132" s="47">
+        <v>651.20000000000005</v>
+      </c>
+      <c r="J132" s="48">
+        <f t="shared" si="9"/>
+        <v>378.05000000000007</v>
+      </c>
+      <c r="K132" s="50"/>
+      <c r="L132" s="51"/>
+    </row>
+    <row r="133" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E133" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F133" s="45"/>
+      <c r="G133" s="49">
+        <v>659.84</v>
+      </c>
+      <c r="H133" s="48">
+        <f t="shared" si="8"/>
+        <v>386.69000000000005</v>
+      </c>
+      <c r="I133" s="47">
+        <v>647.29</v>
+      </c>
+      <c r="J133" s="48">
+        <f t="shared" si="9"/>
+        <v>374.14</v>
+      </c>
+      <c r="K133" s="50"/>
+      <c r="L133" s="51"/>
+    </row>
+    <row r="134" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E134" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F134" s="45"/>
+      <c r="G134" s="49">
+        <v>658.38</v>
+      </c>
+      <c r="H134" s="48">
+        <f t="shared" si="8"/>
+        <v>385.23</v>
+      </c>
+      <c r="I134" s="47">
+        <v>645.77</v>
+      </c>
+      <c r="J134" s="48">
+        <f t="shared" si="9"/>
+        <v>372.62</v>
+      </c>
+      <c r="K134" s="50"/>
+      <c r="L134" s="51"/>
+    </row>
+    <row r="135" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E135" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F135" s="45"/>
+      <c r="G135" s="47">
+        <v>658.01</v>
+      </c>
+      <c r="H135" s="48">
+        <f t="shared" si="8"/>
+        <v>384.86</v>
+      </c>
+      <c r="I135" s="47">
+        <v>645.37</v>
+      </c>
+      <c r="J135" s="48">
+        <f t="shared" si="9"/>
+        <v>372.22</v>
+      </c>
+      <c r="K135" s="50"/>
+      <c r="L135" s="51"/>
+    </row>
+    <row r="136" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E136" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F136" s="45"/>
+      <c r="G136" s="47">
+        <v>656.86</v>
+      </c>
+      <c r="H136" s="48">
+        <f t="shared" si="8"/>
+        <v>383.71000000000004</v>
+      </c>
+      <c r="I136" s="47">
+        <v>644.19000000000005</v>
+      </c>
+      <c r="J136" s="48">
+        <f t="shared" si="9"/>
+        <v>371.04000000000008</v>
+      </c>
+      <c r="K136" s="50"/>
+      <c r="L136" s="51"/>
+    </row>
+    <row r="137" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E137" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F137" s="45"/>
+      <c r="G137" s="47">
+        <v>657.25</v>
+      </c>
+      <c r="H137" s="48">
+        <f t="shared" si="8"/>
+        <v>384.1</v>
+      </c>
+      <c r="I137" s="47">
+        <v>644.58000000000004</v>
+      </c>
+      <c r="J137" s="48">
+        <f t="shared" si="9"/>
+        <v>371.43000000000006</v>
+      </c>
+      <c r="K137" s="50"/>
+      <c r="L137" s="51"/>
+    </row>
+    <row r="138" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E138" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F138" s="45"/>
+      <c r="G138" s="47">
+        <v>657.22</v>
+      </c>
+      <c r="H138" s="48">
+        <f t="shared" si="8"/>
+        <v>384.07000000000005</v>
+      </c>
+      <c r="I138" s="47">
+        <v>644.54999999999995</v>
+      </c>
+      <c r="J138" s="48">
+        <f t="shared" si="9"/>
+        <v>371.4</v>
+      </c>
+      <c r="K138" s="50"/>
+      <c r="L138" s="51"/>
+    </row>
+    <row r="139" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="45"/>
+      <c r="G139" s="47">
+        <v>653.79</v>
+      </c>
+      <c r="H139" s="48">
+        <f t="shared" si="8"/>
+        <v>380.64</v>
+      </c>
+      <c r="I139" s="47">
+        <v>640.92999999999995</v>
+      </c>
+      <c r="J139" s="48">
+        <f t="shared" si="9"/>
+        <v>367.78</v>
+      </c>
+      <c r="K139" s="50"/>
+      <c r="L139" s="51"/>
+    </row>
+    <row r="140" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E140" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F140" s="45"/>
+      <c r="G140" s="47">
+        <v>308.5</v>
+      </c>
+      <c r="H140" s="48">
+        <f t="shared" si="8"/>
+        <v>35.350000000000023</v>
+      </c>
+      <c r="I140" s="47">
+        <v>295.68</v>
+      </c>
+      <c r="J140" s="48">
+        <f t="shared" si="9"/>
+        <v>22.53000000000003</v>
+      </c>
+      <c r="K140" s="50"/>
+      <c r="L140" s="51"/>
+    </row>
+    <row r="141" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E141" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F141" s="45"/>
+      <c r="G141" s="47">
+        <v>655.57</v>
+      </c>
+      <c r="H141" s="48">
+        <f t="shared" si="8"/>
+        <v>382.42000000000007</v>
+      </c>
+      <c r="I141" s="47">
+        <v>642.80999999999995</v>
+      </c>
+      <c r="J141" s="48">
+        <f t="shared" si="9"/>
+        <v>369.65999999999997</v>
+      </c>
+      <c r="K141" s="50"/>
+      <c r="L141" s="51"/>
+    </row>
+    <row r="142" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E142" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F142" s="45"/>
+      <c r="G142" s="47">
+        <v>308.58</v>
+      </c>
+      <c r="H142" s="48">
+        <f t="shared" si="8"/>
+        <v>35.430000000000007</v>
+      </c>
+      <c r="I142" s="47">
+        <v>295.72000000000003</v>
+      </c>
+      <c r="J142" s="48">
+        <f t="shared" si="9"/>
+        <v>22.57000000000005</v>
+      </c>
+      <c r="K142" s="50"/>
+      <c r="L142" s="51"/>
+    </row>
+    <row r="143" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E143" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F143" s="46"/>
+      <c r="G143" s="47">
+        <v>658.21</v>
+      </c>
+      <c r="H143" s="48">
+        <f t="shared" si="8"/>
+        <v>385.06000000000006</v>
+      </c>
+      <c r="I143" s="47">
+        <v>645.6</v>
+      </c>
+      <c r="J143" s="48">
+        <f t="shared" si="9"/>
+        <v>372.45000000000005</v>
+      </c>
+      <c r="K143" s="50"/>
+      <c r="L143" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="G121:J121"/>
+    <mergeCell ref="A122:C128"/>
+    <mergeCell ref="F122:F143"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:L143"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="A93:C99"/>
+    <mergeCell ref="F93:F114"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L114"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="A64:C70"/>
+    <mergeCell ref="F64:F85"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L85"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="A36:C42"/>
+    <mergeCell ref="F36:F57"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L57"/>
+    <mergeCell ref="F8:F29"/>
+    <mergeCell ref="K9:L29"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A8:C14"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N21"/>
   <sheetViews>
@@ -5663,10 +8552,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -5771,11 +8660,11 @@
       <c r="N9" s="14"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" t="s">
         <v>50</v>
       </c>
@@ -5799,39 +8688,39 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5847,12 +8736,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:F31"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7367,8 +10256,8 @@
       <c r="K31" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
       <c r="N31" s="21" t="s">
         <v>94</v>
       </c>
@@ -7428,8 +10317,8 @@
       <c r="K32" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
       <c r="N32" s="21">
         <v>0</v>
       </c>
@@ -7489,8 +10378,8 @@
       <c r="K33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
       <c r="N33" s="21">
         <v>0</v>
       </c>
@@ -7831,9 +10720,9 @@
       <c r="R38" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -7890,9 +10779,9 @@
       <c r="R39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
     </row>
     <row r="40" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
